--- a/Core/M5 Core Main Comparison .xlsx
+++ b/Core/M5 Core Main Comparison .xlsx
@@ -1,20 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\github_code\M5-Schematic\Core\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{497A6BEE-1EB9-4D96-8E61-C71B5F74F998}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="English" r:id="rId3" sheetId="1"/>
-    <sheet name="中文" r:id="rId4" sheetId="2"/>
-    <sheet name="日本語" r:id="rId5" sheetId="3"/>
+    <sheet name="English" sheetId="1" r:id="rId1"/>
+    <sheet name="中文" sheetId="2" r:id="rId2"/>
+    <sheet name="日本語" sheetId="3" r:id="rId3"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="84">
   <si>
     <t>Core</t>
   </si>
@@ -110,12 +118,6 @@
   </si>
   <si>
     <t>150mAh @ 3.7V</t>
-  </si>
-  <si>
-    <t>550mAh @ 3.7V</t>
-  </si>
-  <si>
-    <t>600mAh @ 3.7V</t>
   </si>
   <si>
     <t>80mAh</t>
@@ -361,84 +363,151 @@
 · Brick
 · Type-C USB ケーブル</t>
   </si>
+  <si>
+    <t>16MB
+(old: 4MB)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>0mAh @ 3.7V</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>0mAh @ 3.7V</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>16MB
+(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>旧：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>4MB)</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color indexed="8"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-      <u val="none"/>
-      <strike val="false"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
       <name val="Calibri"/>
-      <sz val="12.0"/>
-      <b val="true"/>
-      <u val="none"/>
-      <strike val="false"/>
     </font>
     <font>
+      <sz val="9"/>
       <name val="Calibri"/>
-      <sz val="9.0"/>
-      <u val="none"/>
-      <strike val="false"/>
     </font>
     <font>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <u val="none"/>
-      <strike val="false"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-      <u val="none"/>
-      <strike val="false"/>
-      <color rgb="FF0000"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="9CC2E5"/>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9CC2E5"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="9CC2E5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="D8D8D8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="D8D8D8"/>
+        <fgColor rgb="FFD8D8D8"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -447,212 +516,118 @@
       <diagonal/>
     </border>
     <border>
-      <bottom>
-        <color rgb="2B2B2B"/>
-      </bottom>
-    </border>
-    <border>
-      <bottom style="thin">
-        <color rgb="2B2B2B"/>
-      </bottom>
-    </border>
-    <border>
-      <top>
-        <color rgb="2B2B2B"/>
+      <left style="thin">
+        <color rgb="FF2B2B2B"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF2B2B2B"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF2B2B2B"/>
       </top>
       <bottom style="thin">
-        <color rgb="2B2B2B"/>
+        <color rgb="FF2B2B2B"/>
       </bottom>
-    </border>
-    <border>
-      <top style="thin">
-        <color rgb="2B2B2B"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="2B2B2B"/>
-      </bottom>
-    </border>
-    <border>
-      <left>
-        <color rgb="2B2B2B"/>
-      </left>
-      <top style="thin">
-        <color rgb="2B2B2B"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="2B2B2B"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="2B2B2B"/>
-      </left>
-      <top style="thin">
-        <color rgb="2B2B2B"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="2B2B2B"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="2B2B2B"/>
-      </left>
-      <right>
-        <color rgb="2B2B2B"/>
-      </right>
-      <top style="thin">
-        <color rgb="2B2B2B"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="2B2B2B"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="2B2B2B"/>
-      </left>
-      <right style="thin">
-        <color rgb="2B2B2B"/>
-      </right>
-      <top style="thin">
-        <color rgb="2B2B2B"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="2B2B2B"/>
-      </bottom>
-    </border>
-    <border>
-      <bottom style="medium">
-        <color rgb="2B2B2B"/>
-      </bottom>
-    </border>
-    <border>
-      <top>
-        <color rgb="2B2B2B"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="2B2B2B"/>
-      </bottom>
-    </border>
-    <border>
-      <top style="medium">
-        <color rgb="2B2B2B"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="2B2B2B"/>
-      </bottom>
-    </border>
-    <border>
-      <left>
-        <color rgb="2B2B2B"/>
-      </left>
-      <top style="medium">
-        <color rgb="2B2B2B"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="2B2B2B"/>
-      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color rgb="2B2B2B"/>
+        <color rgb="FF2B2B2B"/>
       </left>
+      <right style="medium">
+        <color rgb="FF2B2B2B"/>
+      </right>
       <top style="medium">
-        <color rgb="2B2B2B"/>
+        <color rgb="FF2B2B2B"/>
       </top>
       <bottom style="medium">
-        <color rgb="2B2B2B"/>
+        <color rgb="FF2B2B2B"/>
       </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="2B2B2B"/>
-      </left>
-      <right>
-        <color rgb="2B2B2B"/>
-      </right>
-      <top style="medium">
-        <color rgb="2B2B2B"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="2B2B2B"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="2B2B2B"/>
-      </left>
-      <right style="medium">
-        <color rgb="2B2B2B"/>
-      </right>
-      <top style="medium">
-        <color rgb="2B2B2B"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="2B2B2B"/>
-      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+  <cellXfs count="19">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -668,13 +643,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPr id="2" name="Picture 1" descr="Picture">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="true"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -706,13 +687,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPr id="3" name="Picture 1" descr="Picture">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="true"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -744,13 +731,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPr id="4" name="Picture 1" descr="Picture">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="true"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -782,13 +775,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPr id="5" name="Picture 1" descr="Picture">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="true"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -820,13 +819,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPr id="6" name="Picture 1" descr="Picture">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="true"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -858,13 +863,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPr id="7" name="Picture 1" descr="Picture">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="true"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId6"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -896,13 +907,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPr id="8" name="Picture 1" descr="Picture">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="true"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId7"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -934,13 +951,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPr id="9" name="Picture 1" descr="Picture">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="true"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId8"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -961,7 +984,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -977,13 +1000,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPr id="2" name="Picture 1" descr="Picture">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="true"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1015,13 +1044,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPr id="3" name="Picture 1" descr="Picture">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="true"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1053,13 +1088,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPr id="4" name="Picture 1" descr="Picture">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="true"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1091,13 +1132,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPr id="5" name="Picture 1" descr="Picture">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="true"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1129,13 +1176,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPr id="6" name="Picture 1" descr="Picture">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="true"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1167,13 +1220,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPr id="7" name="Picture 1" descr="Picture">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="true"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId6"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1205,13 +1264,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPr id="8" name="Picture 1" descr="Picture">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="true"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId7"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1243,13 +1308,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPr id="9" name="Picture 1" descr="Picture">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="true"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId8"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1270,7 +1341,7 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -1286,13 +1357,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPr id="2" name="Picture 1" descr="Picture">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="true"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1324,13 +1401,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPr id="3" name="Picture 1" descr="Picture">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="true"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1362,13 +1445,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPr id="4" name="Picture 1" descr="Picture">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="true"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1400,13 +1489,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPr id="5" name="Picture 1" descr="Picture">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="true"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1438,13 +1533,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPr id="6" name="Picture 1" descr="Picture">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="true"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1476,13 +1577,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPr id="7" name="Picture 1" descr="Picture">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="true"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId6"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1514,13 +1621,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPr id="8" name="Picture 1" descr="Picture">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="true"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId7"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1552,13 +1665,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPr id="9" name="Picture 1" descr="Picture">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="true"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId8"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1578,68 +1697,358 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T200"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:S200"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.0" baseColWidth="10" customHeight="false"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="27.733333333333334"/>
-    <col min="2" max="2" width="12.783333333333333"/>
-    <col min="3" max="3" width="8.775"/>
-    <col min="4" max="4" width="14.733333333333334"/>
+    <col min="1" max="1" width="27.75"/>
+    <col min="2" max="2" width="12.75"/>
+    <col min="3" max="3" width="8.75"/>
+    <col min="4" max="4" width="14.75"/>
     <col min="5" max="5" width="9.75"/>
-    <col min="6" max="6" width="12.783333333333333"/>
-    <col min="7" max="7" width="14.733333333333334"/>
+    <col min="6" max="6" width="12.75"/>
+    <col min="7" max="7" width="14.75"/>
     <col min="8" max="8" width="9.75"/>
-    <col min="9" max="9" width="14.733333333333334"/>
-    <col min="10" max="10" width="8.775"/>
-    <col min="11" max="11" width="37.80833333333334"/>
-    <col min="12" max="12" width="8.775"/>
-    <col min="13" max="13" width="8.775"/>
-    <col min="14" max="14" width="8.775"/>
-    <col min="15" max="15" width="8.775"/>
-    <col min="16" max="16" width="8.775"/>
-    <col min="17" max="17" width="8.775"/>
-    <col min="18" max="18" width="8.775"/>
-    <col min="19" max="19" width="8.775"/>
+    <col min="9" max="9" width="14.75"/>
+    <col min="10" max="10" width="8.75"/>
+    <col min="11" max="11" width="37.75"/>
+    <col min="12" max="19" width="8.75"/>
   </cols>
   <sheetData>
-    <row r="1" ht="39.0" customHeight="true">
-      <c r="A1" t="s" s="1">
+    <row r="1" spans="1:19" ht="39" customHeight="1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="1">
+      <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" t="s" s="1">
+      <c r="C1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" t="s" s="7">
+      <c r="D1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E1" t="s" s="1">
+      <c r="E1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F1" t="s" s="1">
+      <c r="F1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G1" t="s" s="1">
+      <c r="G1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H1" t="s" s="1">
+      <c r="H1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I1" t="s" s="1">
+      <c r="I1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J1" t="s" s="1">
-        <v>33</v>
-      </c>
-      <c r="K1" t="s" s="7">
-        <v>38</v>
+      <c r="J1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>36</v>
       </c>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
@@ -1650,37 +2059,37 @@
       <c r="R1" s="4"/>
       <c r="S1" s="4"/>
     </row>
-    <row r="2" ht="136.0" customHeight="true">
-      <c r="A2" t="s" s="2">
+    <row r="2" spans="1:19" ht="135.94999999999999" customHeight="1">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="4"/>
-      <c r="C2" t="s" s="5">
+      <c r="C2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D2" t="s" s="8">
+      <c r="D2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E2" t="s" s="10">
+      <c r="E2" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F2" t="s" s="5">
+      <c r="F2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G2" t="s" s="8">
+      <c r="G2" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H2" t="s" s="5">
+      <c r="H2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="I2" t="s" s="8">
+      <c r="I2" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="J2" t="s" s="8">
-        <v>34</v>
-      </c>
-      <c r="K2" t="s" s="15">
-        <v>39</v>
+      <c r="J2" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>37</v>
       </c>
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
@@ -1691,37 +2100,37 @@
       <c r="R2" s="4"/>
       <c r="S2" s="4"/>
     </row>
-    <row r="3" ht="136.0" customHeight="true">
-      <c r="A3" t="s" s="3">
+    <row r="3" spans="1:19" ht="135.94999999999999" customHeight="1">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="4"/>
-      <c r="C3" t="s" s="6">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s" s="8">
+      <c r="C3" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E3" t="s" s="11">
+      <c r="E3" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F3" t="s" s="6">
+      <c r="F3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G3" t="s" s="9">
+      <c r="G3" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="H3" t="s" s="14">
+      <c r="H3" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="I3" t="s" s="9">
-        <v>30</v>
-      </c>
-      <c r="J3" t="s" s="8">
-        <v>34</v>
-      </c>
-      <c r="K3" t="s" s="15">
-        <v>40</v>
+      <c r="I3" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" s="15" t="s">
+        <v>38</v>
       </c>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
@@ -1732,37 +2141,37 @@
       <c r="R3" s="4"/>
       <c r="S3" s="4"/>
     </row>
-    <row r="4" ht="136.0" customHeight="true">
-      <c r="A4" t="s" s="3">
+    <row r="4" spans="1:19" ht="135.94999999999999" customHeight="1">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="4"/>
-      <c r="C4" t="s" s="5">
+      <c r="C4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D4" t="s" s="8">
+      <c r="D4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E4" t="s" s="11">
+      <c r="E4" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F4" t="s" s="12">
+      <c r="F4" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="G4" t="s" s="13">
+      <c r="G4" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="H4" t="s" s="14">
+      <c r="H4" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="I4" t="s" s="9">
-        <v>30</v>
-      </c>
-      <c r="J4" t="s" s="8">
-        <v>35</v>
-      </c>
-      <c r="K4" t="s" s="15">
-        <v>41</v>
+      <c r="I4" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4" s="15" t="s">
+        <v>39</v>
       </c>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
@@ -1773,37 +2182,37 @@
       <c r="R4" s="4"/>
       <c r="S4" s="4"/>
     </row>
-    <row r="5" ht="136.0" customHeight="true">
-      <c r="A5" t="s" s="3">
+    <row r="5" spans="1:19" ht="135.94999999999999" customHeight="1">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="4"/>
-      <c r="C5" t="s" s="6">
-        <v>12</v>
-      </c>
-      <c r="D5" t="s" s="8">
+      <c r="C5" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E5" t="s" s="11">
+      <c r="E5" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F5" t="s" s="6">
+      <c r="F5" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G5" t="s" s="9">
+      <c r="G5" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="14">
+      <c r="H5" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="I5" t="s" s="9">
-        <v>31</v>
-      </c>
-      <c r="J5" t="s" s="8">
-        <v>36</v>
-      </c>
-      <c r="K5" t="s" s="15">
-        <v>42</v>
+      <c r="I5" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" s="15" t="s">
+        <v>40</v>
       </c>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
@@ -1814,37 +2223,37 @@
       <c r="R5" s="4"/>
       <c r="S5" s="4"/>
     </row>
-    <row r="6" ht="136.0" customHeight="true">
-      <c r="A6" t="s" s="3">
+    <row r="6" spans="1:19" ht="135.94999999999999" customHeight="1">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="4"/>
-      <c r="C6" t="s" s="6">
+      <c r="C6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D6" t="s" s="8">
+      <c r="D6" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E6" t="s" s="11">
+      <c r="E6" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F6" t="s" s="12">
+      <c r="F6" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="G6" t="s" s="13">
+      <c r="G6" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="H6" t="s" s="14">
+      <c r="H6" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="I6" t="s" s="9">
-        <v>30</v>
-      </c>
-      <c r="J6" t="s" s="8">
-        <v>35</v>
-      </c>
-      <c r="K6" t="s" s="15">
-        <v>43</v>
+      <c r="I6" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" s="15" t="s">
+        <v>41</v>
       </c>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
@@ -1855,37 +2264,37 @@
       <c r="R6" s="4"/>
       <c r="S6" s="4"/>
     </row>
-    <row r="7" ht="156.0" customHeight="true">
-      <c r="A7" t="s" s="3">
+    <row r="7" spans="1:19" ht="156" customHeight="1">
+      <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="4"/>
-      <c r="C7" t="s" s="6">
+      <c r="C7" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D7" t="s" s="8">
+      <c r="D7" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E7" t="s" s="11">
+      <c r="E7" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F7" t="s" s="12">
+      <c r="F7" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="G7" t="s" s="13">
+      <c r="G7" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="H7" t="s" s="14">
+      <c r="H7" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="I7" t="s" s="9">
-        <v>30</v>
-      </c>
-      <c r="J7" t="s" s="8">
-        <v>35</v>
-      </c>
-      <c r="K7" t="s" s="15">
-        <v>44</v>
+      <c r="I7" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K7" s="15" t="s">
+        <v>42</v>
       </c>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
@@ -1896,7 +2305,7 @@
       <c r="R7" s="4"/>
       <c r="S7" s="4"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:19">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -1917,39 +2326,39 @@
       <c r="R8" s="4"/>
       <c r="S8" s="4"/>
     </row>
-    <row r="9" ht="39.0" customHeight="true">
-      <c r="A9" t="s" s="1">
+    <row r="9" spans="1:19" ht="39" customHeight="1">
+      <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B9" t="s" s="1">
+      <c r="B9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C9" t="s" s="1">
+      <c r="C9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D9" t="s" s="7">
+      <c r="D9" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E9" t="s" s="1">
+      <c r="E9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F9" t="s" s="1">
+      <c r="F9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G9" t="s" s="1">
+      <c r="G9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H9" t="s" s="1">
+      <c r="H9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I9" t="s" s="1">
+      <c r="I9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J9" t="s" s="1">
-        <v>33</v>
-      </c>
-      <c r="K9" t="s" s="7">
-        <v>38</v>
+      <c r="J9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>36</v>
       </c>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
@@ -1960,37 +2369,37 @@
       <c r="R9" s="4"/>
       <c r="S9" s="4"/>
     </row>
-    <row r="10" ht="78.0" customHeight="true">
-      <c r="A10" t="s" s="3">
+    <row r="10" spans="1:19" ht="78" customHeight="1">
+      <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="4"/>
-      <c r="C10" t="s" s="6">
+      <c r="C10" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D10" t="s" s="9">
+      <c r="D10" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E10" t="s" s="5">
+      <c r="E10" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F10" t="s" s="6">
+      <c r="F10" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G10" t="s" s="9">
+      <c r="G10" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H10" t="s" s="6">
+      <c r="H10" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I10" t="s" s="9">
-        <v>32</v>
-      </c>
-      <c r="J10" t="s" s="8">
-        <v>37</v>
-      </c>
-      <c r="K10" t="s" s="15">
-        <v>45</v>
+      <c r="I10" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="K10" s="15" t="s">
+        <v>43</v>
       </c>
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
@@ -2001,37 +2410,37 @@
       <c r="R10" s="4"/>
       <c r="S10" s="4"/>
     </row>
-    <row r="11" ht="117.0" customHeight="true">
-      <c r="A11" t="s" s="3">
+    <row r="11" spans="1:19" ht="117" customHeight="1">
+      <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="4"/>
-      <c r="C11" t="s" s="6">
+      <c r="C11" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D11" t="s" s="9">
+      <c r="D11" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E11" t="s" s="5">
+      <c r="E11" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F11" t="s" s="6">
+      <c r="F11" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G11" t="s" s="9">
+      <c r="G11" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H11" t="s" s="14">
+      <c r="H11" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="I11" t="s" s="9">
-        <v>32</v>
-      </c>
-      <c r="J11" t="s" s="8">
-        <v>37</v>
-      </c>
-      <c r="K11" t="s" s="15">
-        <v>46</v>
+      <c r="I11" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="K11" s="15" t="s">
+        <v>44</v>
       </c>
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
@@ -2042,7 +2451,7 @@
       <c r="R11" s="4"/>
       <c r="S11" s="4"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:19">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -2063,7 +2472,7 @@
       <c r="R12" s="4"/>
       <c r="S12" s="4"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:19">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -2084,7 +2493,7 @@
       <c r="R13" s="4"/>
       <c r="S13" s="4"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:19">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -2105,7 +2514,7 @@
       <c r="R14" s="4"/>
       <c r="S14" s="4"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:19">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -2126,7 +2535,7 @@
       <c r="R15" s="4"/>
       <c r="S15" s="4"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:19">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -2147,7 +2556,7 @@
       <c r="R16" s="4"/>
       <c r="S16" s="4"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:19">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -2168,7 +2577,7 @@
       <c r="R17" s="4"/>
       <c r="S17" s="4"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:19">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -2189,7 +2598,7 @@
       <c r="R18" s="4"/>
       <c r="S18" s="4"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:19">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -2210,7 +2619,7 @@
       <c r="R19" s="4"/>
       <c r="S19" s="4"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:19">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -2231,7 +2640,7 @@
       <c r="R20" s="4"/>
       <c r="S20" s="4"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:19">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -2252,7 +2661,7 @@
       <c r="R21" s="4"/>
       <c r="S21" s="4"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:19">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -2273,7 +2682,7 @@
       <c r="R22" s="4"/>
       <c r="S22" s="4"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:19">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -2294,7 +2703,7 @@
       <c r="R23" s="4"/>
       <c r="S23" s="4"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:19">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -2315,7 +2724,7 @@
       <c r="R24" s="4"/>
       <c r="S24" s="4"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:19">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -2336,7 +2745,7 @@
       <c r="R25" s="4"/>
       <c r="S25" s="4"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:19">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -2357,7 +2766,7 @@
       <c r="R26" s="4"/>
       <c r="S26" s="4"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:19">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -2378,7 +2787,7 @@
       <c r="R27" s="4"/>
       <c r="S27" s="4"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:19">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -2399,7 +2808,7 @@
       <c r="R28" s="4"/>
       <c r="S28" s="4"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:19">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -2420,7 +2829,7 @@
       <c r="R29" s="4"/>
       <c r="S29" s="4"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:19">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -2441,7 +2850,7 @@
       <c r="R30" s="4"/>
       <c r="S30" s="4"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:19">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -2462,7 +2871,7 @@
       <c r="R31" s="4"/>
       <c r="S31" s="4"/>
     </row>
-    <row r="32">
+    <row r="32" spans="1:19">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -2483,7 +2892,7 @@
       <c r="R32" s="4"/>
       <c r="S32" s="4"/>
     </row>
-    <row r="33">
+    <row r="33" spans="1:19">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -2504,7 +2913,7 @@
       <c r="R33" s="4"/>
       <c r="S33" s="4"/>
     </row>
-    <row r="34">
+    <row r="34" spans="1:19">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -2525,7 +2934,7 @@
       <c r="R34" s="4"/>
       <c r="S34" s="4"/>
     </row>
-    <row r="35">
+    <row r="35" spans="1:19">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -2546,7 +2955,7 @@
       <c r="R35" s="4"/>
       <c r="S35" s="4"/>
     </row>
-    <row r="36">
+    <row r="36" spans="1:19">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -2567,7 +2976,7 @@
       <c r="R36" s="4"/>
       <c r="S36" s="4"/>
     </row>
-    <row r="37">
+    <row r="37" spans="1:19">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -2588,7 +2997,7 @@
       <c r="R37" s="4"/>
       <c r="S37" s="4"/>
     </row>
-    <row r="38">
+    <row r="38" spans="1:19">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -2609,7 +3018,7 @@
       <c r="R38" s="4"/>
       <c r="S38" s="4"/>
     </row>
-    <row r="39">
+    <row r="39" spans="1:19">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -2630,7 +3039,7 @@
       <c r="R39" s="4"/>
       <c r="S39" s="4"/>
     </row>
-    <row r="40">
+    <row r="40" spans="1:19">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -2651,7 +3060,7 @@
       <c r="R40" s="4"/>
       <c r="S40" s="4"/>
     </row>
-    <row r="41">
+    <row r="41" spans="1:19">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -2672,7 +3081,7 @@
       <c r="R41" s="4"/>
       <c r="S41" s="4"/>
     </row>
-    <row r="42">
+    <row r="42" spans="1:19">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -2693,7 +3102,7 @@
       <c r="R42" s="4"/>
       <c r="S42" s="4"/>
     </row>
-    <row r="43">
+    <row r="43" spans="1:19">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -2714,7 +3123,7 @@
       <c r="R43" s="4"/>
       <c r="S43" s="4"/>
     </row>
-    <row r="44">
+    <row r="44" spans="1:19">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -2735,7 +3144,7 @@
       <c r="R44" s="4"/>
       <c r="S44" s="4"/>
     </row>
-    <row r="45">
+    <row r="45" spans="1:19">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -2756,7 +3165,7 @@
       <c r="R45" s="4"/>
       <c r="S45" s="4"/>
     </row>
-    <row r="46">
+    <row r="46" spans="1:19">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -2777,7 +3186,7 @@
       <c r="R46" s="4"/>
       <c r="S46" s="4"/>
     </row>
-    <row r="47">
+    <row r="47" spans="1:19">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -2798,7 +3207,7 @@
       <c r="R47" s="4"/>
       <c r="S47" s="4"/>
     </row>
-    <row r="48">
+    <row r="48" spans="1:19">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
@@ -2819,7 +3228,7 @@
       <c r="R48" s="4"/>
       <c r="S48" s="4"/>
     </row>
-    <row r="49">
+    <row r="49" spans="1:19">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
@@ -2840,7 +3249,7 @@
       <c r="R49" s="4"/>
       <c r="S49" s="4"/>
     </row>
-    <row r="50">
+    <row r="50" spans="1:19">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
@@ -2861,7 +3270,7 @@
       <c r="R50" s="4"/>
       <c r="S50" s="4"/>
     </row>
-    <row r="51">
+    <row r="51" spans="1:19">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
@@ -2882,7 +3291,7 @@
       <c r="R51" s="4"/>
       <c r="S51" s="4"/>
     </row>
-    <row r="52">
+    <row r="52" spans="1:19">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
@@ -2903,7 +3312,7 @@
       <c r="R52" s="4"/>
       <c r="S52" s="4"/>
     </row>
-    <row r="53">
+    <row r="53" spans="1:19">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
@@ -2924,7 +3333,7 @@
       <c r="R53" s="4"/>
       <c r="S53" s="4"/>
     </row>
-    <row r="54">
+    <row r="54" spans="1:19">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
@@ -2945,7 +3354,7 @@
       <c r="R54" s="4"/>
       <c r="S54" s="4"/>
     </row>
-    <row r="55">
+    <row r="55" spans="1:19">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
@@ -2966,7 +3375,7 @@
       <c r="R55" s="4"/>
       <c r="S55" s="4"/>
     </row>
-    <row r="56">
+    <row r="56" spans="1:19">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
@@ -2987,7 +3396,7 @@
       <c r="R56" s="4"/>
       <c r="S56" s="4"/>
     </row>
-    <row r="57">
+    <row r="57" spans="1:19">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -3008,7 +3417,7 @@
       <c r="R57" s="4"/>
       <c r="S57" s="4"/>
     </row>
-    <row r="58">
+    <row r="58" spans="1:19">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
@@ -3029,7 +3438,7 @@
       <c r="R58" s="4"/>
       <c r="S58" s="4"/>
     </row>
-    <row r="59">
+    <row r="59" spans="1:19">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
@@ -3050,7 +3459,7 @@
       <c r="R59" s="4"/>
       <c r="S59" s="4"/>
     </row>
-    <row r="60">
+    <row r="60" spans="1:19">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
@@ -3071,7 +3480,7 @@
       <c r="R60" s="4"/>
       <c r="S60" s="4"/>
     </row>
-    <row r="61">
+    <row r="61" spans="1:19">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
@@ -3092,7 +3501,7 @@
       <c r="R61" s="4"/>
       <c r="S61" s="4"/>
     </row>
-    <row r="62">
+    <row r="62" spans="1:19">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
@@ -3113,7 +3522,7 @@
       <c r="R62" s="4"/>
       <c r="S62" s="4"/>
     </row>
-    <row r="63">
+    <row r="63" spans="1:19">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
@@ -3134,7 +3543,7 @@
       <c r="R63" s="4"/>
       <c r="S63" s="4"/>
     </row>
-    <row r="64">
+    <row r="64" spans="1:19">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
@@ -3155,7 +3564,7 @@
       <c r="R64" s="4"/>
       <c r="S64" s="4"/>
     </row>
-    <row r="65">
+    <row r="65" spans="1:19">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
@@ -3176,7 +3585,7 @@
       <c r="R65" s="4"/>
       <c r="S65" s="4"/>
     </row>
-    <row r="66">
+    <row r="66" spans="1:19">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
@@ -3197,7 +3606,7 @@
       <c r="R66" s="4"/>
       <c r="S66" s="4"/>
     </row>
-    <row r="67">
+    <row r="67" spans="1:19">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
@@ -3218,7 +3627,7 @@
       <c r="R67" s="4"/>
       <c r="S67" s="4"/>
     </row>
-    <row r="68">
+    <row r="68" spans="1:19">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
@@ -3239,7 +3648,7 @@
       <c r="R68" s="4"/>
       <c r="S68" s="4"/>
     </row>
-    <row r="69">
+    <row r="69" spans="1:19">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
@@ -3260,7 +3669,7 @@
       <c r="R69" s="4"/>
       <c r="S69" s="4"/>
     </row>
-    <row r="70">
+    <row r="70" spans="1:19">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
@@ -3281,7 +3690,7 @@
       <c r="R70" s="4"/>
       <c r="S70" s="4"/>
     </row>
-    <row r="71">
+    <row r="71" spans="1:19">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
@@ -3302,7 +3711,7 @@
       <c r="R71" s="4"/>
       <c r="S71" s="4"/>
     </row>
-    <row r="72">
+    <row r="72" spans="1:19">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
@@ -3323,7 +3732,7 @@
       <c r="R72" s="4"/>
       <c r="S72" s="4"/>
     </row>
-    <row r="73">
+    <row r="73" spans="1:19">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
@@ -3344,7 +3753,7 @@
       <c r="R73" s="4"/>
       <c r="S73" s="4"/>
     </row>
-    <row r="74">
+    <row r="74" spans="1:19">
       <c r="A74" s="4"/>
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
@@ -3365,7 +3774,7 @@
       <c r="R74" s="4"/>
       <c r="S74" s="4"/>
     </row>
-    <row r="75">
+    <row r="75" spans="1:19">
       <c r="A75" s="4"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
@@ -3386,7 +3795,7 @@
       <c r="R75" s="4"/>
       <c r="S75" s="4"/>
     </row>
-    <row r="76">
+    <row r="76" spans="1:19">
       <c r="A76" s="4"/>
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
@@ -3407,7 +3816,7 @@
       <c r="R76" s="4"/>
       <c r="S76" s="4"/>
     </row>
-    <row r="77">
+    <row r="77" spans="1:19">
       <c r="A77" s="4"/>
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
@@ -3428,7 +3837,7 @@
       <c r="R77" s="4"/>
       <c r="S77" s="4"/>
     </row>
-    <row r="78">
+    <row r="78" spans="1:19">
       <c r="A78" s="4"/>
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
@@ -3449,7 +3858,7 @@
       <c r="R78" s="4"/>
       <c r="S78" s="4"/>
     </row>
-    <row r="79">
+    <row r="79" spans="1:19">
       <c r="A79" s="4"/>
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
@@ -3470,7 +3879,7 @@
       <c r="R79" s="4"/>
       <c r="S79" s="4"/>
     </row>
-    <row r="80">
+    <row r="80" spans="1:19">
       <c r="A80" s="4"/>
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
@@ -3491,7 +3900,7 @@
       <c r="R80" s="4"/>
       <c r="S80" s="4"/>
     </row>
-    <row r="81">
+    <row r="81" spans="1:19">
       <c r="A81" s="4"/>
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
@@ -3512,7 +3921,7 @@
       <c r="R81" s="4"/>
       <c r="S81" s="4"/>
     </row>
-    <row r="82">
+    <row r="82" spans="1:19">
       <c r="A82" s="4"/>
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
@@ -3533,7 +3942,7 @@
       <c r="R82" s="4"/>
       <c r="S82" s="4"/>
     </row>
-    <row r="83">
+    <row r="83" spans="1:19">
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
@@ -3554,7 +3963,7 @@
       <c r="R83" s="4"/>
       <c r="S83" s="4"/>
     </row>
-    <row r="84">
+    <row r="84" spans="1:19">
       <c r="A84" s="4"/>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
@@ -3575,7 +3984,7 @@
       <c r="R84" s="4"/>
       <c r="S84" s="4"/>
     </row>
-    <row r="85">
+    <row r="85" spans="1:19">
       <c r="A85" s="4"/>
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
@@ -3596,7 +4005,7 @@
       <c r="R85" s="4"/>
       <c r="S85" s="4"/>
     </row>
-    <row r="86">
+    <row r="86" spans="1:19">
       <c r="A86" s="4"/>
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
@@ -3617,7 +4026,7 @@
       <c r="R86" s="4"/>
       <c r="S86" s="4"/>
     </row>
-    <row r="87">
+    <row r="87" spans="1:19">
       <c r="A87" s="4"/>
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
@@ -3638,7 +4047,7 @@
       <c r="R87" s="4"/>
       <c r="S87" s="4"/>
     </row>
-    <row r="88">
+    <row r="88" spans="1:19">
       <c r="A88" s="4"/>
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
@@ -3659,7 +4068,7 @@
       <c r="R88" s="4"/>
       <c r="S88" s="4"/>
     </row>
-    <row r="89">
+    <row r="89" spans="1:19">
       <c r="A89" s="4"/>
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
@@ -3680,7 +4089,7 @@
       <c r="R89" s="4"/>
       <c r="S89" s="4"/>
     </row>
-    <row r="90">
+    <row r="90" spans="1:19">
       <c r="A90" s="4"/>
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
@@ -3701,7 +4110,7 @@
       <c r="R90" s="4"/>
       <c r="S90" s="4"/>
     </row>
-    <row r="91">
+    <row r="91" spans="1:19">
       <c r="A91" s="4"/>
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
@@ -3722,7 +4131,7 @@
       <c r="R91" s="4"/>
       <c r="S91" s="4"/>
     </row>
-    <row r="92">
+    <row r="92" spans="1:19">
       <c r="A92" s="4"/>
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
@@ -3743,7 +4152,7 @@
       <c r="R92" s="4"/>
       <c r="S92" s="4"/>
     </row>
-    <row r="93">
+    <row r="93" spans="1:19">
       <c r="A93" s="4"/>
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
@@ -3764,7 +4173,7 @@
       <c r="R93" s="4"/>
       <c r="S93" s="4"/>
     </row>
-    <row r="94">
+    <row r="94" spans="1:19">
       <c r="A94" s="4"/>
       <c r="B94" s="4"/>
       <c r="C94" s="4"/>
@@ -3785,7 +4194,7 @@
       <c r="R94" s="4"/>
       <c r="S94" s="4"/>
     </row>
-    <row r="95">
+    <row r="95" spans="1:19">
       <c r="A95" s="4"/>
       <c r="B95" s="4"/>
       <c r="C95" s="4"/>
@@ -3806,7 +4215,7 @@
       <c r="R95" s="4"/>
       <c r="S95" s="4"/>
     </row>
-    <row r="96">
+    <row r="96" spans="1:19">
       <c r="A96" s="4"/>
       <c r="B96" s="4"/>
       <c r="C96" s="4"/>
@@ -3827,7 +4236,7 @@
       <c r="R96" s="4"/>
       <c r="S96" s="4"/>
     </row>
-    <row r="97">
+    <row r="97" spans="1:19">
       <c r="A97" s="4"/>
       <c r="B97" s="4"/>
       <c r="C97" s="4"/>
@@ -3848,7 +4257,7 @@
       <c r="R97" s="4"/>
       <c r="S97" s="4"/>
     </row>
-    <row r="98">
+    <row r="98" spans="1:19">
       <c r="A98" s="4"/>
       <c r="B98" s="4"/>
       <c r="C98" s="4"/>
@@ -3869,7 +4278,7 @@
       <c r="R98" s="4"/>
       <c r="S98" s="4"/>
     </row>
-    <row r="99">
+    <row r="99" spans="1:19">
       <c r="A99" s="4"/>
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
@@ -3890,7 +4299,7 @@
       <c r="R99" s="4"/>
       <c r="S99" s="4"/>
     </row>
-    <row r="100">
+    <row r="100" spans="1:19">
       <c r="A100" s="4"/>
       <c r="B100" s="4"/>
       <c r="C100" s="4"/>
@@ -3911,7 +4320,7 @@
       <c r="R100" s="4"/>
       <c r="S100" s="4"/>
     </row>
-    <row r="101">
+    <row r="101" spans="1:19">
       <c r="A101" s="4"/>
       <c r="B101" s="4"/>
       <c r="C101" s="4"/>
@@ -3932,7 +4341,7 @@
       <c r="R101" s="4"/>
       <c r="S101" s="4"/>
     </row>
-    <row r="102">
+    <row r="102" spans="1:19">
       <c r="A102" s="4"/>
       <c r="B102" s="4"/>
       <c r="C102" s="4"/>
@@ -3953,7 +4362,7 @@
       <c r="R102" s="4"/>
       <c r="S102" s="4"/>
     </row>
-    <row r="103">
+    <row r="103" spans="1:19">
       <c r="A103" s="4"/>
       <c r="B103" s="4"/>
       <c r="C103" s="4"/>
@@ -3974,7 +4383,7 @@
       <c r="R103" s="4"/>
       <c r="S103" s="4"/>
     </row>
-    <row r="104">
+    <row r="104" spans="1:19">
       <c r="A104" s="4"/>
       <c r="B104" s="4"/>
       <c r="C104" s="4"/>
@@ -3995,7 +4404,7 @@
       <c r="R104" s="4"/>
       <c r="S104" s="4"/>
     </row>
-    <row r="105">
+    <row r="105" spans="1:19">
       <c r="A105" s="4"/>
       <c r="B105" s="4"/>
       <c r="C105" s="4"/>
@@ -4016,7 +4425,7 @@
       <c r="R105" s="4"/>
       <c r="S105" s="4"/>
     </row>
-    <row r="106">
+    <row r="106" spans="1:19">
       <c r="A106" s="4"/>
       <c r="B106" s="4"/>
       <c r="C106" s="4"/>
@@ -4037,7 +4446,7 @@
       <c r="R106" s="4"/>
       <c r="S106" s="4"/>
     </row>
-    <row r="107">
+    <row r="107" spans="1:19">
       <c r="A107" s="4"/>
       <c r="B107" s="4"/>
       <c r="C107" s="4"/>
@@ -4058,7 +4467,7 @@
       <c r="R107" s="4"/>
       <c r="S107" s="4"/>
     </row>
-    <row r="108">
+    <row r="108" spans="1:19">
       <c r="A108" s="4"/>
       <c r="B108" s="4"/>
       <c r="C108" s="4"/>
@@ -4079,7 +4488,7 @@
       <c r="R108" s="4"/>
       <c r="S108" s="4"/>
     </row>
-    <row r="109">
+    <row r="109" spans="1:19">
       <c r="A109" s="4"/>
       <c r="B109" s="4"/>
       <c r="C109" s="4"/>
@@ -4100,7 +4509,7 @@
       <c r="R109" s="4"/>
       <c r="S109" s="4"/>
     </row>
-    <row r="110">
+    <row r="110" spans="1:19">
       <c r="A110" s="4"/>
       <c r="B110" s="4"/>
       <c r="C110" s="4"/>
@@ -4121,7 +4530,7 @@
       <c r="R110" s="4"/>
       <c r="S110" s="4"/>
     </row>
-    <row r="111">
+    <row r="111" spans="1:19">
       <c r="A111" s="4"/>
       <c r="B111" s="4"/>
       <c r="C111" s="4"/>
@@ -4142,7 +4551,7 @@
       <c r="R111" s="4"/>
       <c r="S111" s="4"/>
     </row>
-    <row r="112">
+    <row r="112" spans="1:19">
       <c r="A112" s="4"/>
       <c r="B112" s="4"/>
       <c r="C112" s="4"/>
@@ -4163,7 +4572,7 @@
       <c r="R112" s="4"/>
       <c r="S112" s="4"/>
     </row>
-    <row r="113">
+    <row r="113" spans="1:19">
       <c r="A113" s="4"/>
       <c r="B113" s="4"/>
       <c r="C113" s="4"/>
@@ -4184,7 +4593,7 @@
       <c r="R113" s="4"/>
       <c r="S113" s="4"/>
     </row>
-    <row r="114">
+    <row r="114" spans="1:19">
       <c r="A114" s="4"/>
       <c r="B114" s="4"/>
       <c r="C114" s="4"/>
@@ -4205,7 +4614,7 @@
       <c r="R114" s="4"/>
       <c r="S114" s="4"/>
     </row>
-    <row r="115">
+    <row r="115" spans="1:19">
       <c r="A115" s="4"/>
       <c r="B115" s="4"/>
       <c r="C115" s="4"/>
@@ -4226,7 +4635,7 @@
       <c r="R115" s="4"/>
       <c r="S115" s="4"/>
     </row>
-    <row r="116">
+    <row r="116" spans="1:19">
       <c r="A116" s="4"/>
       <c r="B116" s="4"/>
       <c r="C116" s="4"/>
@@ -4247,7 +4656,7 @@
       <c r="R116" s="4"/>
       <c r="S116" s="4"/>
     </row>
-    <row r="117">
+    <row r="117" spans="1:19">
       <c r="A117" s="4"/>
       <c r="B117" s="4"/>
       <c r="C117" s="4"/>
@@ -4268,7 +4677,7 @@
       <c r="R117" s="4"/>
       <c r="S117" s="4"/>
     </row>
-    <row r="118">
+    <row r="118" spans="1:19">
       <c r="A118" s="4"/>
       <c r="B118" s="4"/>
       <c r="C118" s="4"/>
@@ -4289,7 +4698,7 @@
       <c r="R118" s="4"/>
       <c r="S118" s="4"/>
     </row>
-    <row r="119">
+    <row r="119" spans="1:19">
       <c r="A119" s="4"/>
       <c r="B119" s="4"/>
       <c r="C119" s="4"/>
@@ -4310,7 +4719,7 @@
       <c r="R119" s="4"/>
       <c r="S119" s="4"/>
     </row>
-    <row r="120">
+    <row r="120" spans="1:19">
       <c r="A120" s="4"/>
       <c r="B120" s="4"/>
       <c r="C120" s="4"/>
@@ -4331,7 +4740,7 @@
       <c r="R120" s="4"/>
       <c r="S120" s="4"/>
     </row>
-    <row r="121">
+    <row r="121" spans="1:19">
       <c r="A121" s="4"/>
       <c r="B121" s="4"/>
       <c r="C121" s="4"/>
@@ -4352,7 +4761,7 @@
       <c r="R121" s="4"/>
       <c r="S121" s="4"/>
     </row>
-    <row r="122">
+    <row r="122" spans="1:19">
       <c r="A122" s="4"/>
       <c r="B122" s="4"/>
       <c r="C122" s="4"/>
@@ -4373,7 +4782,7 @@
       <c r="R122" s="4"/>
       <c r="S122" s="4"/>
     </row>
-    <row r="123">
+    <row r="123" spans="1:19">
       <c r="A123" s="4"/>
       <c r="B123" s="4"/>
       <c r="C123" s="4"/>
@@ -4394,7 +4803,7 @@
       <c r="R123" s="4"/>
       <c r="S123" s="4"/>
     </row>
-    <row r="124">
+    <row r="124" spans="1:19">
       <c r="A124" s="4"/>
       <c r="B124" s="4"/>
       <c r="C124" s="4"/>
@@ -4415,7 +4824,7 @@
       <c r="R124" s="4"/>
       <c r="S124" s="4"/>
     </row>
-    <row r="125">
+    <row r="125" spans="1:19">
       <c r="A125" s="4"/>
       <c r="B125" s="4"/>
       <c r="C125" s="4"/>
@@ -4436,7 +4845,7 @@
       <c r="R125" s="4"/>
       <c r="S125" s="4"/>
     </row>
-    <row r="126">
+    <row r="126" spans="1:19">
       <c r="A126" s="4"/>
       <c r="B126" s="4"/>
       <c r="C126" s="4"/>
@@ -4457,7 +4866,7 @@
       <c r="R126" s="4"/>
       <c r="S126" s="4"/>
     </row>
-    <row r="127">
+    <row r="127" spans="1:19">
       <c r="A127" s="4"/>
       <c r="B127" s="4"/>
       <c r="C127" s="4"/>
@@ -4478,7 +4887,7 @@
       <c r="R127" s="4"/>
       <c r="S127" s="4"/>
     </row>
-    <row r="128">
+    <row r="128" spans="1:19">
       <c r="A128" s="4"/>
       <c r="B128" s="4"/>
       <c r="C128" s="4"/>
@@ -4499,7 +4908,7 @@
       <c r="R128" s="4"/>
       <c r="S128" s="4"/>
     </row>
-    <row r="129">
+    <row r="129" spans="1:19">
       <c r="A129" s="4"/>
       <c r="B129" s="4"/>
       <c r="C129" s="4"/>
@@ -4520,7 +4929,7 @@
       <c r="R129" s="4"/>
       <c r="S129" s="4"/>
     </row>
-    <row r="130">
+    <row r="130" spans="1:19">
       <c r="A130" s="4"/>
       <c r="B130" s="4"/>
       <c r="C130" s="4"/>
@@ -4541,7 +4950,7 @@
       <c r="R130" s="4"/>
       <c r="S130" s="4"/>
     </row>
-    <row r="131">
+    <row r="131" spans="1:19">
       <c r="A131" s="4"/>
       <c r="B131" s="4"/>
       <c r="C131" s="4"/>
@@ -4562,7 +4971,7 @@
       <c r="R131" s="4"/>
       <c r="S131" s="4"/>
     </row>
-    <row r="132">
+    <row r="132" spans="1:19">
       <c r="A132" s="4"/>
       <c r="B132" s="4"/>
       <c r="C132" s="4"/>
@@ -4583,7 +4992,7 @@
       <c r="R132" s="4"/>
       <c r="S132" s="4"/>
     </row>
-    <row r="133">
+    <row r="133" spans="1:19">
       <c r="A133" s="4"/>
       <c r="B133" s="4"/>
       <c r="C133" s="4"/>
@@ -4604,7 +5013,7 @@
       <c r="R133" s="4"/>
       <c r="S133" s="4"/>
     </row>
-    <row r="134">
+    <row r="134" spans="1:19">
       <c r="A134" s="4"/>
       <c r="B134" s="4"/>
       <c r="C134" s="4"/>
@@ -4625,7 +5034,7 @@
       <c r="R134" s="4"/>
       <c r="S134" s="4"/>
     </row>
-    <row r="135">
+    <row r="135" spans="1:19">
       <c r="A135" s="4"/>
       <c r="B135" s="4"/>
       <c r="C135" s="4"/>
@@ -4646,7 +5055,7 @@
       <c r="R135" s="4"/>
       <c r="S135" s="4"/>
     </row>
-    <row r="136">
+    <row r="136" spans="1:19">
       <c r="A136" s="4"/>
       <c r="B136" s="4"/>
       <c r="C136" s="4"/>
@@ -4667,7 +5076,7 @@
       <c r="R136" s="4"/>
       <c r="S136" s="4"/>
     </row>
-    <row r="137">
+    <row r="137" spans="1:19">
       <c r="A137" s="4"/>
       <c r="B137" s="4"/>
       <c r="C137" s="4"/>
@@ -4688,7 +5097,7 @@
       <c r="R137" s="4"/>
       <c r="S137" s="4"/>
     </row>
-    <row r="138">
+    <row r="138" spans="1:19">
       <c r="A138" s="4"/>
       <c r="B138" s="4"/>
       <c r="C138" s="4"/>
@@ -4709,7 +5118,7 @@
       <c r="R138" s="4"/>
       <c r="S138" s="4"/>
     </row>
-    <row r="139">
+    <row r="139" spans="1:19">
       <c r="A139" s="4"/>
       <c r="B139" s="4"/>
       <c r="C139" s="4"/>
@@ -4730,7 +5139,7 @@
       <c r="R139" s="4"/>
       <c r="S139" s="4"/>
     </row>
-    <row r="140">
+    <row r="140" spans="1:19">
       <c r="A140" s="4"/>
       <c r="B140" s="4"/>
       <c r="C140" s="4"/>
@@ -4751,7 +5160,7 @@
       <c r="R140" s="4"/>
       <c r="S140" s="4"/>
     </row>
-    <row r="141">
+    <row r="141" spans="1:19">
       <c r="A141" s="4"/>
       <c r="B141" s="4"/>
       <c r="C141" s="4"/>
@@ -4772,7 +5181,7 @@
       <c r="R141" s="4"/>
       <c r="S141" s="4"/>
     </row>
-    <row r="142">
+    <row r="142" spans="1:19">
       <c r="A142" s="4"/>
       <c r="B142" s="4"/>
       <c r="C142" s="4"/>
@@ -4793,7 +5202,7 @@
       <c r="R142" s="4"/>
       <c r="S142" s="4"/>
     </row>
-    <row r="143">
+    <row r="143" spans="1:19">
       <c r="A143" s="4"/>
       <c r="B143" s="4"/>
       <c r="C143" s="4"/>
@@ -4814,7 +5223,7 @@
       <c r="R143" s="4"/>
       <c r="S143" s="4"/>
     </row>
-    <row r="144">
+    <row r="144" spans="1:19">
       <c r="A144" s="4"/>
       <c r="B144" s="4"/>
       <c r="C144" s="4"/>
@@ -4835,7 +5244,7 @@
       <c r="R144" s="4"/>
       <c r="S144" s="4"/>
     </row>
-    <row r="145">
+    <row r="145" spans="1:19">
       <c r="A145" s="4"/>
       <c r="B145" s="4"/>
       <c r="C145" s="4"/>
@@ -4856,7 +5265,7 @@
       <c r="R145" s="4"/>
       <c r="S145" s="4"/>
     </row>
-    <row r="146">
+    <row r="146" spans="1:19">
       <c r="A146" s="4"/>
       <c r="B146" s="4"/>
       <c r="C146" s="4"/>
@@ -4877,7 +5286,7 @@
       <c r="R146" s="4"/>
       <c r="S146" s="4"/>
     </row>
-    <row r="147">
+    <row r="147" spans="1:19">
       <c r="A147" s="4"/>
       <c r="B147" s="4"/>
       <c r="C147" s="4"/>
@@ -4898,7 +5307,7 @@
       <c r="R147" s="4"/>
       <c r="S147" s="4"/>
     </row>
-    <row r="148">
+    <row r="148" spans="1:19">
       <c r="A148" s="4"/>
       <c r="B148" s="4"/>
       <c r="C148" s="4"/>
@@ -4919,7 +5328,7 @@
       <c r="R148" s="4"/>
       <c r="S148" s="4"/>
     </row>
-    <row r="149">
+    <row r="149" spans="1:19">
       <c r="A149" s="4"/>
       <c r="B149" s="4"/>
       <c r="C149" s="4"/>
@@ -4940,7 +5349,7 @@
       <c r="R149" s="4"/>
       <c r="S149" s="4"/>
     </row>
-    <row r="150">
+    <row r="150" spans="1:19">
       <c r="A150" s="4"/>
       <c r="B150" s="4"/>
       <c r="C150" s="4"/>
@@ -4961,7 +5370,7 @@
       <c r="R150" s="4"/>
       <c r="S150" s="4"/>
     </row>
-    <row r="151">
+    <row r="151" spans="1:19">
       <c r="A151" s="4"/>
       <c r="B151" s="4"/>
       <c r="C151" s="4"/>
@@ -4982,7 +5391,7 @@
       <c r="R151" s="4"/>
       <c r="S151" s="4"/>
     </row>
-    <row r="152">
+    <row r="152" spans="1:19">
       <c r="A152" s="4"/>
       <c r="B152" s="4"/>
       <c r="C152" s="4"/>
@@ -5003,7 +5412,7 @@
       <c r="R152" s="4"/>
       <c r="S152" s="4"/>
     </row>
-    <row r="153">
+    <row r="153" spans="1:19">
       <c r="A153" s="4"/>
       <c r="B153" s="4"/>
       <c r="C153" s="4"/>
@@ -5024,7 +5433,7 @@
       <c r="R153" s="4"/>
       <c r="S153" s="4"/>
     </row>
-    <row r="154">
+    <row r="154" spans="1:19">
       <c r="A154" s="4"/>
       <c r="B154" s="4"/>
       <c r="C154" s="4"/>
@@ -5045,7 +5454,7 @@
       <c r="R154" s="4"/>
       <c r="S154" s="4"/>
     </row>
-    <row r="155">
+    <row r="155" spans="1:19">
       <c r="A155" s="4"/>
       <c r="B155" s="4"/>
       <c r="C155" s="4"/>
@@ -5066,7 +5475,7 @@
       <c r="R155" s="4"/>
       <c r="S155" s="4"/>
     </row>
-    <row r="156">
+    <row r="156" spans="1:19">
       <c r="A156" s="4"/>
       <c r="B156" s="4"/>
       <c r="C156" s="4"/>
@@ -5087,7 +5496,7 @@
       <c r="R156" s="4"/>
       <c r="S156" s="4"/>
     </row>
-    <row r="157">
+    <row r="157" spans="1:19">
       <c r="A157" s="4"/>
       <c r="B157" s="4"/>
       <c r="C157" s="4"/>
@@ -5108,7 +5517,7 @@
       <c r="R157" s="4"/>
       <c r="S157" s="4"/>
     </row>
-    <row r="158">
+    <row r="158" spans="1:19">
       <c r="A158" s="4"/>
       <c r="B158" s="4"/>
       <c r="C158" s="4"/>
@@ -5129,7 +5538,7 @@
       <c r="R158" s="4"/>
       <c r="S158" s="4"/>
     </row>
-    <row r="159">
+    <row r="159" spans="1:19">
       <c r="A159" s="4"/>
       <c r="B159" s="4"/>
       <c r="C159" s="4"/>
@@ -5150,7 +5559,7 @@
       <c r="R159" s="4"/>
       <c r="S159" s="4"/>
     </row>
-    <row r="160">
+    <row r="160" spans="1:19">
       <c r="A160" s="4"/>
       <c r="B160" s="4"/>
       <c r="C160" s="4"/>
@@ -5171,7 +5580,7 @@
       <c r="R160" s="4"/>
       <c r="S160" s="4"/>
     </row>
-    <row r="161">
+    <row r="161" spans="1:19">
       <c r="A161" s="4"/>
       <c r="B161" s="4"/>
       <c r="C161" s="4"/>
@@ -5192,7 +5601,7 @@
       <c r="R161" s="4"/>
       <c r="S161" s="4"/>
     </row>
-    <row r="162">
+    <row r="162" spans="1:19">
       <c r="A162" s="4"/>
       <c r="B162" s="4"/>
       <c r="C162" s="4"/>
@@ -5213,7 +5622,7 @@
       <c r="R162" s="4"/>
       <c r="S162" s="4"/>
     </row>
-    <row r="163">
+    <row r="163" spans="1:19">
       <c r="A163" s="4"/>
       <c r="B163" s="4"/>
       <c r="C163" s="4"/>
@@ -5234,7 +5643,7 @@
       <c r="R163" s="4"/>
       <c r="S163" s="4"/>
     </row>
-    <row r="164">
+    <row r="164" spans="1:19">
       <c r="A164" s="4"/>
       <c r="B164" s="4"/>
       <c r="C164" s="4"/>
@@ -5255,7 +5664,7 @@
       <c r="R164" s="4"/>
       <c r="S164" s="4"/>
     </row>
-    <row r="165">
+    <row r="165" spans="1:19">
       <c r="A165" s="4"/>
       <c r="B165" s="4"/>
       <c r="C165" s="4"/>
@@ -5276,7 +5685,7 @@
       <c r="R165" s="4"/>
       <c r="S165" s="4"/>
     </row>
-    <row r="166">
+    <row r="166" spans="1:19">
       <c r="A166" s="4"/>
       <c r="B166" s="4"/>
       <c r="C166" s="4"/>
@@ -5297,7 +5706,7 @@
       <c r="R166" s="4"/>
       <c r="S166" s="4"/>
     </row>
-    <row r="167">
+    <row r="167" spans="1:19">
       <c r="A167" s="4"/>
       <c r="B167" s="4"/>
       <c r="C167" s="4"/>
@@ -5318,7 +5727,7 @@
       <c r="R167" s="4"/>
       <c r="S167" s="4"/>
     </row>
-    <row r="168">
+    <row r="168" spans="1:19">
       <c r="A168" s="4"/>
       <c r="B168" s="4"/>
       <c r="C168" s="4"/>
@@ -5339,7 +5748,7 @@
       <c r="R168" s="4"/>
       <c r="S168" s="4"/>
     </row>
-    <row r="169">
+    <row r="169" spans="1:19">
       <c r="A169" s="4"/>
       <c r="B169" s="4"/>
       <c r="C169" s="4"/>
@@ -5360,7 +5769,7 @@
       <c r="R169" s="4"/>
       <c r="S169" s="4"/>
     </row>
-    <row r="170">
+    <row r="170" spans="1:19">
       <c r="A170" s="4"/>
       <c r="B170" s="4"/>
       <c r="C170" s="4"/>
@@ -5381,7 +5790,7 @@
       <c r="R170" s="4"/>
       <c r="S170" s="4"/>
     </row>
-    <row r="171">
+    <row r="171" spans="1:19">
       <c r="A171" s="4"/>
       <c r="B171" s="4"/>
       <c r="C171" s="4"/>
@@ -5402,7 +5811,7 @@
       <c r="R171" s="4"/>
       <c r="S171" s="4"/>
     </row>
-    <row r="172">
+    <row r="172" spans="1:19">
       <c r="A172" s="4"/>
       <c r="B172" s="4"/>
       <c r="C172" s="4"/>
@@ -5423,7 +5832,7 @@
       <c r="R172" s="4"/>
       <c r="S172" s="4"/>
     </row>
-    <row r="173">
+    <row r="173" spans="1:19">
       <c r="A173" s="4"/>
       <c r="B173" s="4"/>
       <c r="C173" s="4"/>
@@ -5444,7 +5853,7 @@
       <c r="R173" s="4"/>
       <c r="S173" s="4"/>
     </row>
-    <row r="174">
+    <row r="174" spans="1:19">
       <c r="A174" s="4"/>
       <c r="B174" s="4"/>
       <c r="C174" s="4"/>
@@ -5465,7 +5874,7 @@
       <c r="R174" s="4"/>
       <c r="S174" s="4"/>
     </row>
-    <row r="175">
+    <row r="175" spans="1:19">
       <c r="A175" s="4"/>
       <c r="B175" s="4"/>
       <c r="C175" s="4"/>
@@ -5486,7 +5895,7 @@
       <c r="R175" s="4"/>
       <c r="S175" s="4"/>
     </row>
-    <row r="176">
+    <row r="176" spans="1:19">
       <c r="A176" s="4"/>
       <c r="B176" s="4"/>
       <c r="C176" s="4"/>
@@ -5507,7 +5916,7 @@
       <c r="R176" s="4"/>
       <c r="S176" s="4"/>
     </row>
-    <row r="177">
+    <row r="177" spans="1:19">
       <c r="A177" s="4"/>
       <c r="B177" s="4"/>
       <c r="C177" s="4"/>
@@ -5528,7 +5937,7 @@
       <c r="R177" s="4"/>
       <c r="S177" s="4"/>
     </row>
-    <row r="178">
+    <row r="178" spans="1:19">
       <c r="A178" s="4"/>
       <c r="B178" s="4"/>
       <c r="C178" s="4"/>
@@ -5549,7 +5958,7 @@
       <c r="R178" s="4"/>
       <c r="S178" s="4"/>
     </row>
-    <row r="179">
+    <row r="179" spans="1:19">
       <c r="A179" s="4"/>
       <c r="B179" s="4"/>
       <c r="C179" s="4"/>
@@ -5570,7 +5979,7 @@
       <c r="R179" s="4"/>
       <c r="S179" s="4"/>
     </row>
-    <row r="180">
+    <row r="180" spans="1:19">
       <c r="A180" s="4"/>
       <c r="B180" s="4"/>
       <c r="C180" s="4"/>
@@ -5591,7 +6000,7 @@
       <c r="R180" s="4"/>
       <c r="S180" s="4"/>
     </row>
-    <row r="181">
+    <row r="181" spans="1:19">
       <c r="A181" s="4"/>
       <c r="B181" s="4"/>
       <c r="C181" s="4"/>
@@ -5612,7 +6021,7 @@
       <c r="R181" s="4"/>
       <c r="S181" s="4"/>
     </row>
-    <row r="182">
+    <row r="182" spans="1:19">
       <c r="A182" s="4"/>
       <c r="B182" s="4"/>
       <c r="C182" s="4"/>
@@ -5633,7 +6042,7 @@
       <c r="R182" s="4"/>
       <c r="S182" s="4"/>
     </row>
-    <row r="183">
+    <row r="183" spans="1:19">
       <c r="A183" s="4"/>
       <c r="B183" s="4"/>
       <c r="C183" s="4"/>
@@ -5654,7 +6063,7 @@
       <c r="R183" s="4"/>
       <c r="S183" s="4"/>
     </row>
-    <row r="184">
+    <row r="184" spans="1:19">
       <c r="A184" s="4"/>
       <c r="B184" s="4"/>
       <c r="C184" s="4"/>
@@ -5675,7 +6084,7 @@
       <c r="R184" s="4"/>
       <c r="S184" s="4"/>
     </row>
-    <row r="185">
+    <row r="185" spans="1:19">
       <c r="A185" s="4"/>
       <c r="B185" s="4"/>
       <c r="C185" s="4"/>
@@ -5696,7 +6105,7 @@
       <c r="R185" s="4"/>
       <c r="S185" s="4"/>
     </row>
-    <row r="186">
+    <row r="186" spans="1:19">
       <c r="A186" s="4"/>
       <c r="B186" s="4"/>
       <c r="C186" s="4"/>
@@ -5717,7 +6126,7 @@
       <c r="R186" s="4"/>
       <c r="S186" s="4"/>
     </row>
-    <row r="187">
+    <row r="187" spans="1:19">
       <c r="A187" s="4"/>
       <c r="B187" s="4"/>
       <c r="C187" s="4"/>
@@ -5738,7 +6147,7 @@
       <c r="R187" s="4"/>
       <c r="S187" s="4"/>
     </row>
-    <row r="188">
+    <row r="188" spans="1:19">
       <c r="A188" s="4"/>
       <c r="B188" s="4"/>
       <c r="C188" s="4"/>
@@ -5759,7 +6168,7 @@
       <c r="R188" s="4"/>
       <c r="S188" s="4"/>
     </row>
-    <row r="189">
+    <row r="189" spans="1:19">
       <c r="A189" s="4"/>
       <c r="B189" s="4"/>
       <c r="C189" s="4"/>
@@ -5780,7 +6189,7 @@
       <c r="R189" s="4"/>
       <c r="S189" s="4"/>
     </row>
-    <row r="190">
+    <row r="190" spans="1:19">
       <c r="A190" s="4"/>
       <c r="B190" s="4"/>
       <c r="C190" s="4"/>
@@ -5801,7 +6210,7 @@
       <c r="R190" s="4"/>
       <c r="S190" s="4"/>
     </row>
-    <row r="191">
+    <row r="191" spans="1:19">
       <c r="A191" s="4"/>
       <c r="B191" s="4"/>
       <c r="C191" s="4"/>
@@ -5822,7 +6231,7 @@
       <c r="R191" s="4"/>
       <c r="S191" s="4"/>
     </row>
-    <row r="192">
+    <row r="192" spans="1:19">
       <c r="A192" s="4"/>
       <c r="B192" s="4"/>
       <c r="C192" s="4"/>
@@ -5843,7 +6252,7 @@
       <c r="R192" s="4"/>
       <c r="S192" s="4"/>
     </row>
-    <row r="193">
+    <row r="193" spans="1:19">
       <c r="A193" s="4"/>
       <c r="B193" s="4"/>
       <c r="C193" s="4"/>
@@ -5864,7 +6273,7 @@
       <c r="R193" s="4"/>
       <c r="S193" s="4"/>
     </row>
-    <row r="194">
+    <row r="194" spans="1:19">
       <c r="A194" s="4"/>
       <c r="B194" s="4"/>
       <c r="C194" s="4"/>
@@ -5885,7 +6294,7 @@
       <c r="R194" s="4"/>
       <c r="S194" s="4"/>
     </row>
-    <row r="195">
+    <row r="195" spans="1:19">
       <c r="A195" s="4"/>
       <c r="B195" s="4"/>
       <c r="C195" s="4"/>
@@ -5906,7 +6315,7 @@
       <c r="R195" s="4"/>
       <c r="S195" s="4"/>
     </row>
-    <row r="196">
+    <row r="196" spans="1:19">
       <c r="A196" s="4"/>
       <c r="B196" s="4"/>
       <c r="C196" s="4"/>
@@ -5927,7 +6336,7 @@
       <c r="R196" s="4"/>
       <c r="S196" s="4"/>
     </row>
-    <row r="197">
+    <row r="197" spans="1:19">
       <c r="A197" s="4"/>
       <c r="B197" s="4"/>
       <c r="C197" s="4"/>
@@ -5948,7 +6357,7 @@
       <c r="R197" s="4"/>
       <c r="S197" s="4"/>
     </row>
-    <row r="198">
+    <row r="198" spans="1:19">
       <c r="A198" s="4"/>
       <c r="B198" s="4"/>
       <c r="C198" s="4"/>
@@ -5969,7 +6378,7 @@
       <c r="R198" s="4"/>
       <c r="S198" s="4"/>
     </row>
-    <row r="199">
+    <row r="199" spans="1:19">
       <c r="A199" s="4"/>
       <c r="B199" s="4"/>
       <c r="C199" s="4"/>
@@ -5990,7 +6399,7 @@
       <c r="R199" s="4"/>
       <c r="S199" s="4"/>
     </row>
-    <row r="200">
+    <row r="200" spans="1:19">
       <c r="A200" s="4"/>
       <c r="B200" s="4"/>
       <c r="C200" s="4"/>
@@ -6012,73 +6421,70 @@
       <c r="S200" s="4"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T200"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:S200"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I4" sqref="I4:I7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.0" baseColWidth="10" customHeight="false"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="27.733333333333334"/>
-    <col min="2" max="2" width="12.783333333333333"/>
-    <col min="3" max="3" width="8.775"/>
-    <col min="4" max="4" width="14.733333333333334"/>
+    <col min="1" max="1" width="27.75"/>
+    <col min="2" max="2" width="12.75"/>
+    <col min="3" max="3" width="8.75"/>
+    <col min="4" max="4" width="14.75"/>
     <col min="5" max="5" width="9.75"/>
-    <col min="6" max="6" width="12.783333333333333"/>
-    <col min="7" max="7" width="14.733333333333334"/>
+    <col min="6" max="6" width="12.75"/>
+    <col min="7" max="7" width="14.75"/>
     <col min="8" max="8" width="9.75"/>
-    <col min="9" max="9" width="14.733333333333334"/>
-    <col min="10" max="10" width="8.775"/>
-    <col min="11" max="11" width="36.833333333333336"/>
-    <col min="12" max="12" width="8.775"/>
-    <col min="13" max="13" width="8.775"/>
-    <col min="14" max="14" width="8.775"/>
-    <col min="15" max="15" width="8.775"/>
-    <col min="16" max="16" width="8.775"/>
-    <col min="17" max="17" width="8.775"/>
-    <col min="18" max="18" width="8.775"/>
-    <col min="19" max="19" width="8.775"/>
+    <col min="9" max="9" width="14.75"/>
+    <col min="10" max="10" width="8.75"/>
+    <col min="11" max="11" width="36.875"/>
+    <col min="12" max="19" width="8.75"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.0" customHeight="true">
-      <c r="A1" t="s" s="1">
+    <row r="1" spans="1:19" ht="14.1" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B1" t="s" s="1">
+      <c r="C1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C1" t="s" s="1">
+      <c r="E1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D1" t="s" s="1">
+      <c r="F1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E1" t="s" s="1">
+      <c r="G1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F1" t="s" s="1">
+      <c r="J1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G1" t="s" s="1">
-        <v>24</v>
-      </c>
-      <c r="H1" t="s" s="1">
-        <v>26</v>
-      </c>
-      <c r="I1" t="s" s="1">
+      <c r="K1" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="J1" t="s" s="1">
-        <v>55</v>
-      </c>
-      <c r="K1" t="s" s="1">
-        <v>56</v>
       </c>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
@@ -6089,37 +6495,37 @@
       <c r="R1" s="4"/>
       <c r="S1" s="4"/>
     </row>
-    <row r="2" ht="136.0" customHeight="true">
-      <c r="A2" t="s" s="2">
+    <row r="2" spans="1:19" ht="135.94999999999999" customHeight="1">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="4"/>
-      <c r="C2" t="s" s="5">
+      <c r="C2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D2" t="s" s="8">
+      <c r="D2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E2" t="s" s="10">
+      <c r="E2" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F2" t="s" s="5">
+      <c r="F2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G2" t="s" s="8">
+      <c r="G2" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H2" t="s" s="5">
+      <c r="H2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="I2" t="s" s="8">
+      <c r="I2" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="J2" t="s" s="8">
-        <v>34</v>
-      </c>
-      <c r="K2" t="s" s="15">
-        <v>57</v>
+      <c r="J2" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>55</v>
       </c>
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
@@ -6130,37 +6536,37 @@
       <c r="R2" s="4"/>
       <c r="S2" s="4"/>
     </row>
-    <row r="3" ht="136.0" customHeight="true">
-      <c r="A3" t="s" s="3">
+    <row r="3" spans="1:19" ht="135.94999999999999" customHeight="1">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="4"/>
-      <c r="C3" t="s" s="6">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s" s="8">
+      <c r="C3" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E3" t="s" s="11">
+      <c r="E3" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F3" t="s" s="6">
+      <c r="F3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G3" t="s" s="9">
+      <c r="G3" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="H3" t="s" s="14">
+      <c r="H3" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="I3" t="s" s="9">
-        <v>30</v>
-      </c>
-      <c r="J3" t="s" s="8">
-        <v>34</v>
-      </c>
-      <c r="K3" t="s" s="15">
-        <v>58</v>
+      <c r="I3" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" s="15" t="s">
+        <v>56</v>
       </c>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
@@ -6171,37 +6577,37 @@
       <c r="R3" s="4"/>
       <c r="S3" s="4"/>
     </row>
-    <row r="4" ht="136.0" customHeight="true">
-      <c r="A4" t="s" s="3">
+    <row r="4" spans="1:19" ht="135.94999999999999" customHeight="1">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="4"/>
-      <c r="C4" t="s" s="5">
+      <c r="C4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D4" t="s" s="8">
+      <c r="D4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E4" t="s" s="11">
+      <c r="E4" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F4" t="s" s="12">
+      <c r="F4" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="G4" t="s" s="13">
+      <c r="G4" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="H4" t="s" s="14">
+      <c r="H4" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="I4" t="s" s="9">
-        <v>30</v>
-      </c>
-      <c r="J4" t="s" s="8">
-        <v>35</v>
-      </c>
-      <c r="K4" t="s" s="15">
-        <v>59</v>
+      <c r="I4" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4" s="15" t="s">
+        <v>57</v>
       </c>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
@@ -6212,37 +6618,37 @@
       <c r="R4" s="4"/>
       <c r="S4" s="4"/>
     </row>
-    <row r="5" ht="136.0" customHeight="true">
-      <c r="A5" t="s" s="3">
+    <row r="5" spans="1:19" ht="135.94999999999999" customHeight="1">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="4"/>
-      <c r="C5" t="s" s="6">
-        <v>12</v>
-      </c>
-      <c r="D5" t="s" s="8">
+      <c r="C5" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E5" t="s" s="11">
+      <c r="E5" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F5" t="s" s="6">
+      <c r="F5" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G5" t="s" s="9">
+      <c r="G5" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="14">
+      <c r="H5" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="I5" t="s" s="9">
-        <v>31</v>
-      </c>
-      <c r="J5" t="s" s="8">
-        <v>36</v>
-      </c>
-      <c r="K5" t="s" s="15">
-        <v>60</v>
+      <c r="I5" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" s="15" t="s">
+        <v>58</v>
       </c>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
@@ -6253,37 +6659,37 @@
       <c r="R5" s="4"/>
       <c r="S5" s="4"/>
     </row>
-    <row r="6" ht="136.0" customHeight="true">
-      <c r="A6" t="s" s="3">
+    <row r="6" spans="1:19" ht="135.94999999999999" customHeight="1">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="4"/>
-      <c r="C6" t="s" s="6">
+      <c r="C6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D6" t="s" s="8">
+      <c r="D6" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E6" t="s" s="11">
+      <c r="E6" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F6" t="s" s="12">
+      <c r="F6" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="G6" t="s" s="13">
+      <c r="G6" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="H6" t="s" s="14">
+      <c r="H6" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="I6" t="s" s="9">
-        <v>30</v>
-      </c>
-      <c r="J6" t="s" s="8">
-        <v>35</v>
-      </c>
-      <c r="K6" t="s" s="15">
-        <v>61</v>
+      <c r="I6" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" s="15" t="s">
+        <v>59</v>
       </c>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
@@ -6294,37 +6700,37 @@
       <c r="R6" s="4"/>
       <c r="S6" s="4"/>
     </row>
-    <row r="7" ht="156.0" customHeight="true">
-      <c r="A7" t="s" s="3">
+    <row r="7" spans="1:19" ht="156" customHeight="1">
+      <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="4"/>
-      <c r="C7" t="s" s="6">
+      <c r="C7" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D7" t="s" s="8">
+      <c r="D7" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E7" t="s" s="11">
+      <c r="E7" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F7" t="s" s="12">
+      <c r="F7" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="G7" t="s" s="13">
+      <c r="G7" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="H7" t="s" s="14">
+      <c r="H7" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="I7" t="s" s="9">
-        <v>30</v>
-      </c>
-      <c r="J7" t="s" s="8">
-        <v>35</v>
-      </c>
-      <c r="K7" t="s" s="15">
-        <v>62</v>
+      <c r="I7" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K7" s="15" t="s">
+        <v>60</v>
       </c>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
@@ -6335,7 +6741,7 @@
       <c r="R7" s="4"/>
       <c r="S7" s="4"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:19">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -6356,39 +6762,39 @@
       <c r="R8" s="4"/>
       <c r="S8" s="4"/>
     </row>
-    <row r="9" ht="14.0" customHeight="true">
-      <c r="A9" t="s" s="1">
+    <row r="9" spans="1:19" ht="14.1" customHeight="1">
+      <c r="A9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B9" t="s" s="1">
+      <c r="D9" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C9" t="s" s="1">
+      <c r="E9" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D9" t="s" s="1">
+      <c r="F9" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E9" t="s" s="1">
+      <c r="G9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F9" t="s" s="1">
+      <c r="J9" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G9" t="s" s="1">
-        <v>24</v>
-      </c>
-      <c r="H9" t="s" s="1">
-        <v>26</v>
-      </c>
-      <c r="I9" t="s" s="1">
+      <c r="K9" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="J9" t="s" s="1">
-        <v>55</v>
-      </c>
-      <c r="K9" t="s" s="1">
-        <v>56</v>
       </c>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
@@ -6399,37 +6805,37 @@
       <c r="R9" s="4"/>
       <c r="S9" s="4"/>
     </row>
-    <row r="10" ht="78.0" customHeight="true">
-      <c r="A10" t="s" s="3">
+    <row r="10" spans="1:19" ht="78" customHeight="1">
+      <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="4"/>
-      <c r="C10" t="s" s="6">
+      <c r="C10" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D10" t="s" s="9">
+      <c r="D10" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E10" t="s" s="5">
+      <c r="E10" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F10" t="s" s="6">
+      <c r="F10" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G10" t="s" s="9">
+      <c r="G10" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H10" t="s" s="6">
+      <c r="H10" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I10" t="s" s="9">
-        <v>32</v>
-      </c>
-      <c r="J10" t="s" s="8">
-        <v>37</v>
-      </c>
-      <c r="K10" t="s" s="15">
-        <v>63</v>
+      <c r="I10" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="K10" s="15" t="s">
+        <v>61</v>
       </c>
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
@@ -6440,37 +6846,37 @@
       <c r="R10" s="4"/>
       <c r="S10" s="4"/>
     </row>
-    <row r="11" ht="97.0" customHeight="true">
-      <c r="A11" t="s" s="3">
+    <row r="11" spans="1:19" ht="96.95" customHeight="1">
+      <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="4"/>
-      <c r="C11" t="s" s="6">
+      <c r="C11" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D11" t="s" s="9">
+      <c r="D11" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E11" t="s" s="5">
+      <c r="E11" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F11" t="s" s="6">
+      <c r="F11" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G11" t="s" s="9">
+      <c r="G11" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H11" t="s" s="14">
+      <c r="H11" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="I11" t="s" s="9">
-        <v>32</v>
-      </c>
-      <c r="J11" t="s" s="8">
-        <v>37</v>
-      </c>
-      <c r="K11" t="s" s="15">
-        <v>64</v>
+      <c r="I11" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="K11" s="15" t="s">
+        <v>62</v>
       </c>
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
@@ -6481,7 +6887,7 @@
       <c r="R11" s="4"/>
       <c r="S11" s="4"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:19">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -6502,7 +6908,7 @@
       <c r="R12" s="4"/>
       <c r="S12" s="4"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:19">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -6523,7 +6929,7 @@
       <c r="R13" s="4"/>
       <c r="S13" s="4"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:19">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -6544,7 +6950,7 @@
       <c r="R14" s="4"/>
       <c r="S14" s="4"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:19">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -6565,7 +6971,7 @@
       <c r="R15" s="4"/>
       <c r="S15" s="4"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:19">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -6586,7 +6992,7 @@
       <c r="R16" s="4"/>
       <c r="S16" s="4"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:19">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -6607,7 +7013,7 @@
       <c r="R17" s="4"/>
       <c r="S17" s="4"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:19">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -6628,7 +7034,7 @@
       <c r="R18" s="4"/>
       <c r="S18" s="4"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:19">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -6649,7 +7055,7 @@
       <c r="R19" s="4"/>
       <c r="S19" s="4"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:19">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -6670,7 +7076,7 @@
       <c r="R20" s="4"/>
       <c r="S20" s="4"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:19">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -6691,7 +7097,7 @@
       <c r="R21" s="4"/>
       <c r="S21" s="4"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:19">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -6712,7 +7118,7 @@
       <c r="R22" s="4"/>
       <c r="S22" s="4"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:19">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -6733,7 +7139,7 @@
       <c r="R23" s="4"/>
       <c r="S23" s="4"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:19">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -6754,7 +7160,7 @@
       <c r="R24" s="4"/>
       <c r="S24" s="4"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:19">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -6775,7 +7181,7 @@
       <c r="R25" s="4"/>
       <c r="S25" s="4"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:19">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -6796,7 +7202,7 @@
       <c r="R26" s="4"/>
       <c r="S26" s="4"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:19">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -6817,7 +7223,7 @@
       <c r="R27" s="4"/>
       <c r="S27" s="4"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:19">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -6838,7 +7244,7 @@
       <c r="R28" s="4"/>
       <c r="S28" s="4"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:19">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -6859,7 +7265,7 @@
       <c r="R29" s="4"/>
       <c r="S29" s="4"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:19">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -6880,7 +7286,7 @@
       <c r="R30" s="4"/>
       <c r="S30" s="4"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:19">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -6901,7 +7307,7 @@
       <c r="R31" s="4"/>
       <c r="S31" s="4"/>
     </row>
-    <row r="32">
+    <row r="32" spans="1:19">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -6922,7 +7328,7 @@
       <c r="R32" s="4"/>
       <c r="S32" s="4"/>
     </row>
-    <row r="33">
+    <row r="33" spans="1:19">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -6943,7 +7349,7 @@
       <c r="R33" s="4"/>
       <c r="S33" s="4"/>
     </row>
-    <row r="34">
+    <row r="34" spans="1:19">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -6964,7 +7370,7 @@
       <c r="R34" s="4"/>
       <c r="S34" s="4"/>
     </row>
-    <row r="35">
+    <row r="35" spans="1:19">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -6985,7 +7391,7 @@
       <c r="R35" s="4"/>
       <c r="S35" s="4"/>
     </row>
-    <row r="36">
+    <row r="36" spans="1:19">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -7006,7 +7412,7 @@
       <c r="R36" s="4"/>
       <c r="S36" s="4"/>
     </row>
-    <row r="37">
+    <row r="37" spans="1:19">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -7027,7 +7433,7 @@
       <c r="R37" s="4"/>
       <c r="S37" s="4"/>
     </row>
-    <row r="38">
+    <row r="38" spans="1:19">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -7048,7 +7454,7 @@
       <c r="R38" s="4"/>
       <c r="S38" s="4"/>
     </row>
-    <row r="39">
+    <row r="39" spans="1:19">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -7069,7 +7475,7 @@
       <c r="R39" s="4"/>
       <c r="S39" s="4"/>
     </row>
-    <row r="40">
+    <row r="40" spans="1:19">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -7090,7 +7496,7 @@
       <c r="R40" s="4"/>
       <c r="S40" s="4"/>
     </row>
-    <row r="41">
+    <row r="41" spans="1:19">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -7111,7 +7517,7 @@
       <c r="R41" s="4"/>
       <c r="S41" s="4"/>
     </row>
-    <row r="42">
+    <row r="42" spans="1:19">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -7132,7 +7538,7 @@
       <c r="R42" s="4"/>
       <c r="S42" s="4"/>
     </row>
-    <row r="43">
+    <row r="43" spans="1:19">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -7153,7 +7559,7 @@
       <c r="R43" s="4"/>
       <c r="S43" s="4"/>
     </row>
-    <row r="44">
+    <row r="44" spans="1:19">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -7174,7 +7580,7 @@
       <c r="R44" s="4"/>
       <c r="S44" s="4"/>
     </row>
-    <row r="45">
+    <row r="45" spans="1:19">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -7195,7 +7601,7 @@
       <c r="R45" s="4"/>
       <c r="S45" s="4"/>
     </row>
-    <row r="46">
+    <row r="46" spans="1:19">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -7216,7 +7622,7 @@
       <c r="R46" s="4"/>
       <c r="S46" s="4"/>
     </row>
-    <row r="47">
+    <row r="47" spans="1:19">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -7237,7 +7643,7 @@
       <c r="R47" s="4"/>
       <c r="S47" s="4"/>
     </row>
-    <row r="48">
+    <row r="48" spans="1:19">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
@@ -7258,7 +7664,7 @@
       <c r="R48" s="4"/>
       <c r="S48" s="4"/>
     </row>
-    <row r="49">
+    <row r="49" spans="1:19">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
@@ -7279,7 +7685,7 @@
       <c r="R49" s="4"/>
       <c r="S49" s="4"/>
     </row>
-    <row r="50">
+    <row r="50" spans="1:19">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
@@ -7300,7 +7706,7 @@
       <c r="R50" s="4"/>
       <c r="S50" s="4"/>
     </row>
-    <row r="51">
+    <row r="51" spans="1:19">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
@@ -7321,7 +7727,7 @@
       <c r="R51" s="4"/>
       <c r="S51" s="4"/>
     </row>
-    <row r="52">
+    <row r="52" spans="1:19">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
@@ -7342,7 +7748,7 @@
       <c r="R52" s="4"/>
       <c r="S52" s="4"/>
     </row>
-    <row r="53">
+    <row r="53" spans="1:19">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
@@ -7363,7 +7769,7 @@
       <c r="R53" s="4"/>
       <c r="S53" s="4"/>
     </row>
-    <row r="54">
+    <row r="54" spans="1:19">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
@@ -7384,7 +7790,7 @@
       <c r="R54" s="4"/>
       <c r="S54" s="4"/>
     </row>
-    <row r="55">
+    <row r="55" spans="1:19">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
@@ -7405,7 +7811,7 @@
       <c r="R55" s="4"/>
       <c r="S55" s="4"/>
     </row>
-    <row r="56">
+    <row r="56" spans="1:19">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
@@ -7426,7 +7832,7 @@
       <c r="R56" s="4"/>
       <c r="S56" s="4"/>
     </row>
-    <row r="57">
+    <row r="57" spans="1:19">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -7447,7 +7853,7 @@
       <c r="R57" s="4"/>
       <c r="S57" s="4"/>
     </row>
-    <row r="58">
+    <row r="58" spans="1:19">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
@@ -7468,7 +7874,7 @@
       <c r="R58" s="4"/>
       <c r="S58" s="4"/>
     </row>
-    <row r="59">
+    <row r="59" spans="1:19">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
@@ -7489,7 +7895,7 @@
       <c r="R59" s="4"/>
       <c r="S59" s="4"/>
     </row>
-    <row r="60">
+    <row r="60" spans="1:19">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
@@ -7510,7 +7916,7 @@
       <c r="R60" s="4"/>
       <c r="S60" s="4"/>
     </row>
-    <row r="61">
+    <row r="61" spans="1:19">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
@@ -7531,7 +7937,7 @@
       <c r="R61" s="4"/>
       <c r="S61" s="4"/>
     </row>
-    <row r="62">
+    <row r="62" spans="1:19">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
@@ -7552,7 +7958,7 @@
       <c r="R62" s="4"/>
       <c r="S62" s="4"/>
     </row>
-    <row r="63">
+    <row r="63" spans="1:19">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
@@ -7573,7 +7979,7 @@
       <c r="R63" s="4"/>
       <c r="S63" s="4"/>
     </row>
-    <row r="64">
+    <row r="64" spans="1:19">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
@@ -7594,7 +8000,7 @@
       <c r="R64" s="4"/>
       <c r="S64" s="4"/>
     </row>
-    <row r="65">
+    <row r="65" spans="1:19">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
@@ -7615,7 +8021,7 @@
       <c r="R65" s="4"/>
       <c r="S65" s="4"/>
     </row>
-    <row r="66">
+    <row r="66" spans="1:19">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
@@ -7636,7 +8042,7 @@
       <c r="R66" s="4"/>
       <c r="S66" s="4"/>
     </row>
-    <row r="67">
+    <row r="67" spans="1:19">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
@@ -7657,7 +8063,7 @@
       <c r="R67" s="4"/>
       <c r="S67" s="4"/>
     </row>
-    <row r="68">
+    <row r="68" spans="1:19">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
@@ -7678,7 +8084,7 @@
       <c r="R68" s="4"/>
       <c r="S68" s="4"/>
     </row>
-    <row r="69">
+    <row r="69" spans="1:19">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
@@ -7699,7 +8105,7 @@
       <c r="R69" s="4"/>
       <c r="S69" s="4"/>
     </row>
-    <row r="70">
+    <row r="70" spans="1:19">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
@@ -7720,7 +8126,7 @@
       <c r="R70" s="4"/>
       <c r="S70" s="4"/>
     </row>
-    <row r="71">
+    <row r="71" spans="1:19">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
@@ -7741,7 +8147,7 @@
       <c r="R71" s="4"/>
       <c r="S71" s="4"/>
     </row>
-    <row r="72">
+    <row r="72" spans="1:19">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
@@ -7762,7 +8168,7 @@
       <c r="R72" s="4"/>
       <c r="S72" s="4"/>
     </row>
-    <row r="73">
+    <row r="73" spans="1:19">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
@@ -7783,7 +8189,7 @@
       <c r="R73" s="4"/>
       <c r="S73" s="4"/>
     </row>
-    <row r="74">
+    <row r="74" spans="1:19">
       <c r="A74" s="4"/>
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
@@ -7804,7 +8210,7 @@
       <c r="R74" s="4"/>
       <c r="S74" s="4"/>
     </row>
-    <row r="75">
+    <row r="75" spans="1:19">
       <c r="A75" s="4"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
@@ -7825,7 +8231,7 @@
       <c r="R75" s="4"/>
       <c r="S75" s="4"/>
     </row>
-    <row r="76">
+    <row r="76" spans="1:19">
       <c r="A76" s="4"/>
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
@@ -7846,7 +8252,7 @@
       <c r="R76" s="4"/>
       <c r="S76" s="4"/>
     </row>
-    <row r="77">
+    <row r="77" spans="1:19">
       <c r="A77" s="4"/>
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
@@ -7867,7 +8273,7 @@
       <c r="R77" s="4"/>
       <c r="S77" s="4"/>
     </row>
-    <row r="78">
+    <row r="78" spans="1:19">
       <c r="A78" s="4"/>
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
@@ -7888,7 +8294,7 @@
       <c r="R78" s="4"/>
       <c r="S78" s="4"/>
     </row>
-    <row r="79">
+    <row r="79" spans="1:19">
       <c r="A79" s="4"/>
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
@@ -7909,7 +8315,7 @@
       <c r="R79" s="4"/>
       <c r="S79" s="4"/>
     </row>
-    <row r="80">
+    <row r="80" spans="1:19">
       <c r="A80" s="4"/>
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
@@ -7930,7 +8336,7 @@
       <c r="R80" s="4"/>
       <c r="S80" s="4"/>
     </row>
-    <row r="81">
+    <row r="81" spans="1:19">
       <c r="A81" s="4"/>
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
@@ -7951,7 +8357,7 @@
       <c r="R81" s="4"/>
       <c r="S81" s="4"/>
     </row>
-    <row r="82">
+    <row r="82" spans="1:19">
       <c r="A82" s="4"/>
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
@@ -7972,7 +8378,7 @@
       <c r="R82" s="4"/>
       <c r="S82" s="4"/>
     </row>
-    <row r="83">
+    <row r="83" spans="1:19">
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
@@ -7993,7 +8399,7 @@
       <c r="R83" s="4"/>
       <c r="S83" s="4"/>
     </row>
-    <row r="84">
+    <row r="84" spans="1:19">
       <c r="A84" s="4"/>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
@@ -8014,7 +8420,7 @@
       <c r="R84" s="4"/>
       <c r="S84" s="4"/>
     </row>
-    <row r="85">
+    <row r="85" spans="1:19">
       <c r="A85" s="4"/>
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
@@ -8035,7 +8441,7 @@
       <c r="R85" s="4"/>
       <c r="S85" s="4"/>
     </row>
-    <row r="86">
+    <row r="86" spans="1:19">
       <c r="A86" s="4"/>
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
@@ -8056,7 +8462,7 @@
       <c r="R86" s="4"/>
       <c r="S86" s="4"/>
     </row>
-    <row r="87">
+    <row r="87" spans="1:19">
       <c r="A87" s="4"/>
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
@@ -8077,7 +8483,7 @@
       <c r="R87" s="4"/>
       <c r="S87" s="4"/>
     </row>
-    <row r="88">
+    <row r="88" spans="1:19">
       <c r="A88" s="4"/>
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
@@ -8098,7 +8504,7 @@
       <c r="R88" s="4"/>
       <c r="S88" s="4"/>
     </row>
-    <row r="89">
+    <row r="89" spans="1:19">
       <c r="A89" s="4"/>
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
@@ -8119,7 +8525,7 @@
       <c r="R89" s="4"/>
       <c r="S89" s="4"/>
     </row>
-    <row r="90">
+    <row r="90" spans="1:19">
       <c r="A90" s="4"/>
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
@@ -8140,7 +8546,7 @@
       <c r="R90" s="4"/>
       <c r="S90" s="4"/>
     </row>
-    <row r="91">
+    <row r="91" spans="1:19">
       <c r="A91" s="4"/>
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
@@ -8161,7 +8567,7 @@
       <c r="R91" s="4"/>
       <c r="S91" s="4"/>
     </row>
-    <row r="92">
+    <row r="92" spans="1:19">
       <c r="A92" s="4"/>
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
@@ -8182,7 +8588,7 @@
       <c r="R92" s="4"/>
       <c r="S92" s="4"/>
     </row>
-    <row r="93">
+    <row r="93" spans="1:19">
       <c r="A93" s="4"/>
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
@@ -8203,7 +8609,7 @@
       <c r="R93" s="4"/>
       <c r="S93" s="4"/>
     </row>
-    <row r="94">
+    <row r="94" spans="1:19">
       <c r="A94" s="4"/>
       <c r="B94" s="4"/>
       <c r="C94" s="4"/>
@@ -8224,7 +8630,7 @@
       <c r="R94" s="4"/>
       <c r="S94" s="4"/>
     </row>
-    <row r="95">
+    <row r="95" spans="1:19">
       <c r="A95" s="4"/>
       <c r="B95" s="4"/>
       <c r="C95" s="4"/>
@@ -8245,7 +8651,7 @@
       <c r="R95" s="4"/>
       <c r="S95" s="4"/>
     </row>
-    <row r="96">
+    <row r="96" spans="1:19">
       <c r="A96" s="4"/>
       <c r="B96" s="4"/>
       <c r="C96" s="4"/>
@@ -8266,7 +8672,7 @@
       <c r="R96" s="4"/>
       <c r="S96" s="4"/>
     </row>
-    <row r="97">
+    <row r="97" spans="1:19">
       <c r="A97" s="4"/>
       <c r="B97" s="4"/>
       <c r="C97" s="4"/>
@@ -8287,7 +8693,7 @@
       <c r="R97" s="4"/>
       <c r="S97" s="4"/>
     </row>
-    <row r="98">
+    <row r="98" spans="1:19">
       <c r="A98" s="4"/>
       <c r="B98" s="4"/>
       <c r="C98" s="4"/>
@@ -8308,7 +8714,7 @@
       <c r="R98" s="4"/>
       <c r="S98" s="4"/>
     </row>
-    <row r="99">
+    <row r="99" spans="1:19">
       <c r="A99" s="4"/>
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
@@ -8329,7 +8735,7 @@
       <c r="R99" s="4"/>
       <c r="S99" s="4"/>
     </row>
-    <row r="100">
+    <row r="100" spans="1:19">
       <c r="A100" s="4"/>
       <c r="B100" s="4"/>
       <c r="C100" s="4"/>
@@ -8350,7 +8756,7 @@
       <c r="R100" s="4"/>
       <c r="S100" s="4"/>
     </row>
-    <row r="101">
+    <row r="101" spans="1:19">
       <c r="A101" s="4"/>
       <c r="B101" s="4"/>
       <c r="C101" s="4"/>
@@ -8371,7 +8777,7 @@
       <c r="R101" s="4"/>
       <c r="S101" s="4"/>
     </row>
-    <row r="102">
+    <row r="102" spans="1:19">
       <c r="A102" s="4"/>
       <c r="B102" s="4"/>
       <c r="C102" s="4"/>
@@ -8392,7 +8798,7 @@
       <c r="R102" s="4"/>
       <c r="S102" s="4"/>
     </row>
-    <row r="103">
+    <row r="103" spans="1:19">
       <c r="A103" s="4"/>
       <c r="B103" s="4"/>
       <c r="C103" s="4"/>
@@ -8413,7 +8819,7 @@
       <c r="R103" s="4"/>
       <c r="S103" s="4"/>
     </row>
-    <row r="104">
+    <row r="104" spans="1:19">
       <c r="A104" s="4"/>
       <c r="B104" s="4"/>
       <c r="C104" s="4"/>
@@ -8434,7 +8840,7 @@
       <c r="R104" s="4"/>
       <c r="S104" s="4"/>
     </row>
-    <row r="105">
+    <row r="105" spans="1:19">
       <c r="A105" s="4"/>
       <c r="B105" s="4"/>
       <c r="C105" s="4"/>
@@ -8455,7 +8861,7 @@
       <c r="R105" s="4"/>
       <c r="S105" s="4"/>
     </row>
-    <row r="106">
+    <row r="106" spans="1:19">
       <c r="A106" s="4"/>
       <c r="B106" s="4"/>
       <c r="C106" s="4"/>
@@ -8476,7 +8882,7 @@
       <c r="R106" s="4"/>
       <c r="S106" s="4"/>
     </row>
-    <row r="107">
+    <row r="107" spans="1:19">
       <c r="A107" s="4"/>
       <c r="B107" s="4"/>
       <c r="C107" s="4"/>
@@ -8497,7 +8903,7 @@
       <c r="R107" s="4"/>
       <c r="S107" s="4"/>
     </row>
-    <row r="108">
+    <row r="108" spans="1:19">
       <c r="A108" s="4"/>
       <c r="B108" s="4"/>
       <c r="C108" s="4"/>
@@ -8518,7 +8924,7 @@
       <c r="R108" s="4"/>
       <c r="S108" s="4"/>
     </row>
-    <row r="109">
+    <row r="109" spans="1:19">
       <c r="A109" s="4"/>
       <c r="B109" s="4"/>
       <c r="C109" s="4"/>
@@ -8539,7 +8945,7 @@
       <c r="R109" s="4"/>
       <c r="S109" s="4"/>
     </row>
-    <row r="110">
+    <row r="110" spans="1:19">
       <c r="A110" s="4"/>
       <c r="B110" s="4"/>
       <c r="C110" s="4"/>
@@ -8560,7 +8966,7 @@
       <c r="R110" s="4"/>
       <c r="S110" s="4"/>
     </row>
-    <row r="111">
+    <row r="111" spans="1:19">
       <c r="A111" s="4"/>
       <c r="B111" s="4"/>
       <c r="C111" s="4"/>
@@ -8581,7 +8987,7 @@
       <c r="R111" s="4"/>
       <c r="S111" s="4"/>
     </row>
-    <row r="112">
+    <row r="112" spans="1:19">
       <c r="A112" s="4"/>
       <c r="B112" s="4"/>
       <c r="C112" s="4"/>
@@ -8602,7 +9008,7 @@
       <c r="R112" s="4"/>
       <c r="S112" s="4"/>
     </row>
-    <row r="113">
+    <row r="113" spans="1:19">
       <c r="A113" s="4"/>
       <c r="B113" s="4"/>
       <c r="C113" s="4"/>
@@ -8623,7 +9029,7 @@
       <c r="R113" s="4"/>
       <c r="S113" s="4"/>
     </row>
-    <row r="114">
+    <row r="114" spans="1:19">
       <c r="A114" s="4"/>
       <c r="B114" s="4"/>
       <c r="C114" s="4"/>
@@ -8644,7 +9050,7 @@
       <c r="R114" s="4"/>
       <c r="S114" s="4"/>
     </row>
-    <row r="115">
+    <row r="115" spans="1:19">
       <c r="A115" s="4"/>
       <c r="B115" s="4"/>
       <c r="C115" s="4"/>
@@ -8665,7 +9071,7 @@
       <c r="R115" s="4"/>
       <c r="S115" s="4"/>
     </row>
-    <row r="116">
+    <row r="116" spans="1:19">
       <c r="A116" s="4"/>
       <c r="B116" s="4"/>
       <c r="C116" s="4"/>
@@ -8686,7 +9092,7 @@
       <c r="R116" s="4"/>
       <c r="S116" s="4"/>
     </row>
-    <row r="117">
+    <row r="117" spans="1:19">
       <c r="A117" s="4"/>
       <c r="B117" s="4"/>
       <c r="C117" s="4"/>
@@ -8707,7 +9113,7 @@
       <c r="R117" s="4"/>
       <c r="S117" s="4"/>
     </row>
-    <row r="118">
+    <row r="118" spans="1:19">
       <c r="A118" s="4"/>
       <c r="B118" s="4"/>
       <c r="C118" s="4"/>
@@ -8728,7 +9134,7 @@
       <c r="R118" s="4"/>
       <c r="S118" s="4"/>
     </row>
-    <row r="119">
+    <row r="119" spans="1:19">
       <c r="A119" s="4"/>
       <c r="B119" s="4"/>
       <c r="C119" s="4"/>
@@ -8749,7 +9155,7 @@
       <c r="R119" s="4"/>
       <c r="S119" s="4"/>
     </row>
-    <row r="120">
+    <row r="120" spans="1:19">
       <c r="A120" s="4"/>
       <c r="B120" s="4"/>
       <c r="C120" s="4"/>
@@ -8770,7 +9176,7 @@
       <c r="R120" s="4"/>
       <c r="S120" s="4"/>
     </row>
-    <row r="121">
+    <row r="121" spans="1:19">
       <c r="A121" s="4"/>
       <c r="B121" s="4"/>
       <c r="C121" s="4"/>
@@ -8791,7 +9197,7 @@
       <c r="R121" s="4"/>
       <c r="S121" s="4"/>
     </row>
-    <row r="122">
+    <row r="122" spans="1:19">
       <c r="A122" s="4"/>
       <c r="B122" s="4"/>
       <c r="C122" s="4"/>
@@ -8812,7 +9218,7 @@
       <c r="R122" s="4"/>
       <c r="S122" s="4"/>
     </row>
-    <row r="123">
+    <row r="123" spans="1:19">
       <c r="A123" s="4"/>
       <c r="B123" s="4"/>
       <c r="C123" s="4"/>
@@ -8833,7 +9239,7 @@
       <c r="R123" s="4"/>
       <c r="S123" s="4"/>
     </row>
-    <row r="124">
+    <row r="124" spans="1:19">
       <c r="A124" s="4"/>
       <c r="B124" s="4"/>
       <c r="C124" s="4"/>
@@ -8854,7 +9260,7 @@
       <c r="R124" s="4"/>
       <c r="S124" s="4"/>
     </row>
-    <row r="125">
+    <row r="125" spans="1:19">
       <c r="A125" s="4"/>
       <c r="B125" s="4"/>
       <c r="C125" s="4"/>
@@ -8875,7 +9281,7 @@
       <c r="R125" s="4"/>
       <c r="S125" s="4"/>
     </row>
-    <row r="126">
+    <row r="126" spans="1:19">
       <c r="A126" s="4"/>
       <c r="B126" s="4"/>
       <c r="C126" s="4"/>
@@ -8896,7 +9302,7 @@
       <c r="R126" s="4"/>
       <c r="S126" s="4"/>
     </row>
-    <row r="127">
+    <row r="127" spans="1:19">
       <c r="A127" s="4"/>
       <c r="B127" s="4"/>
       <c r="C127" s="4"/>
@@ -8917,7 +9323,7 @@
       <c r="R127" s="4"/>
       <c r="S127" s="4"/>
     </row>
-    <row r="128">
+    <row r="128" spans="1:19">
       <c r="A128" s="4"/>
       <c r="B128" s="4"/>
       <c r="C128" s="4"/>
@@ -8938,7 +9344,7 @@
       <c r="R128" s="4"/>
       <c r="S128" s="4"/>
     </row>
-    <row r="129">
+    <row r="129" spans="1:19">
       <c r="A129" s="4"/>
       <c r="B129" s="4"/>
       <c r="C129" s="4"/>
@@ -8959,7 +9365,7 @@
       <c r="R129" s="4"/>
       <c r="S129" s="4"/>
     </row>
-    <row r="130">
+    <row r="130" spans="1:19">
       <c r="A130" s="4"/>
       <c r="B130" s="4"/>
       <c r="C130" s="4"/>
@@ -8980,7 +9386,7 @@
       <c r="R130" s="4"/>
       <c r="S130" s="4"/>
     </row>
-    <row r="131">
+    <row r="131" spans="1:19">
       <c r="A131" s="4"/>
       <c r="B131" s="4"/>
       <c r="C131" s="4"/>
@@ -9001,7 +9407,7 @@
       <c r="R131" s="4"/>
       <c r="S131" s="4"/>
     </row>
-    <row r="132">
+    <row r="132" spans="1:19">
       <c r="A132" s="4"/>
       <c r="B132" s="4"/>
       <c r="C132" s="4"/>
@@ -9022,7 +9428,7 @@
       <c r="R132" s="4"/>
       <c r="S132" s="4"/>
     </row>
-    <row r="133">
+    <row r="133" spans="1:19">
       <c r="A133" s="4"/>
       <c r="B133" s="4"/>
       <c r="C133" s="4"/>
@@ -9043,7 +9449,7 @@
       <c r="R133" s="4"/>
       <c r="S133" s="4"/>
     </row>
-    <row r="134">
+    <row r="134" spans="1:19">
       <c r="A134" s="4"/>
       <c r="B134" s="4"/>
       <c r="C134" s="4"/>
@@ -9064,7 +9470,7 @@
       <c r="R134" s="4"/>
       <c r="S134" s="4"/>
     </row>
-    <row r="135">
+    <row r="135" spans="1:19">
       <c r="A135" s="4"/>
       <c r="B135" s="4"/>
       <c r="C135" s="4"/>
@@ -9085,7 +9491,7 @@
       <c r="R135" s="4"/>
       <c r="S135" s="4"/>
     </row>
-    <row r="136">
+    <row r="136" spans="1:19">
       <c r="A136" s="4"/>
       <c r="B136" s="4"/>
       <c r="C136" s="4"/>
@@ -9106,7 +9512,7 @@
       <c r="R136" s="4"/>
       <c r="S136" s="4"/>
     </row>
-    <row r="137">
+    <row r="137" spans="1:19">
       <c r="A137" s="4"/>
       <c r="B137" s="4"/>
       <c r="C137" s="4"/>
@@ -9127,7 +9533,7 @@
       <c r="R137" s="4"/>
       <c r="S137" s="4"/>
     </row>
-    <row r="138">
+    <row r="138" spans="1:19">
       <c r="A138" s="4"/>
       <c r="B138" s="4"/>
       <c r="C138" s="4"/>
@@ -9148,7 +9554,7 @@
       <c r="R138" s="4"/>
       <c r="S138" s="4"/>
     </row>
-    <row r="139">
+    <row r="139" spans="1:19">
       <c r="A139" s="4"/>
       <c r="B139" s="4"/>
       <c r="C139" s="4"/>
@@ -9169,7 +9575,7 @@
       <c r="R139" s="4"/>
       <c r="S139" s="4"/>
     </row>
-    <row r="140">
+    <row r="140" spans="1:19">
       <c r="A140" s="4"/>
       <c r="B140" s="4"/>
       <c r="C140" s="4"/>
@@ -9190,7 +9596,7 @@
       <c r="R140" s="4"/>
       <c r="S140" s="4"/>
     </row>
-    <row r="141">
+    <row r="141" spans="1:19">
       <c r="A141" s="4"/>
       <c r="B141" s="4"/>
       <c r="C141" s="4"/>
@@ -9211,7 +9617,7 @@
       <c r="R141" s="4"/>
       <c r="S141" s="4"/>
     </row>
-    <row r="142">
+    <row r="142" spans="1:19">
       <c r="A142" s="4"/>
       <c r="B142" s="4"/>
       <c r="C142" s="4"/>
@@ -9232,7 +9638,7 @@
       <c r="R142" s="4"/>
       <c r="S142" s="4"/>
     </row>
-    <row r="143">
+    <row r="143" spans="1:19">
       <c r="A143" s="4"/>
       <c r="B143" s="4"/>
       <c r="C143" s="4"/>
@@ -9253,7 +9659,7 @@
       <c r="R143" s="4"/>
       <c r="S143" s="4"/>
     </row>
-    <row r="144">
+    <row r="144" spans="1:19">
       <c r="A144" s="4"/>
       <c r="B144" s="4"/>
       <c r="C144" s="4"/>
@@ -9274,7 +9680,7 @@
       <c r="R144" s="4"/>
       <c r="S144" s="4"/>
     </row>
-    <row r="145">
+    <row r="145" spans="1:19">
       <c r="A145" s="4"/>
       <c r="B145" s="4"/>
       <c r="C145" s="4"/>
@@ -9295,7 +9701,7 @@
       <c r="R145" s="4"/>
       <c r="S145" s="4"/>
     </row>
-    <row r="146">
+    <row r="146" spans="1:19">
       <c r="A146" s="4"/>
       <c r="B146" s="4"/>
       <c r="C146" s="4"/>
@@ -9316,7 +9722,7 @@
       <c r="R146" s="4"/>
       <c r="S146" s="4"/>
     </row>
-    <row r="147">
+    <row r="147" spans="1:19">
       <c r="A147" s="4"/>
       <c r="B147" s="4"/>
       <c r="C147" s="4"/>
@@ -9337,7 +9743,7 @@
       <c r="R147" s="4"/>
       <c r="S147" s="4"/>
     </row>
-    <row r="148">
+    <row r="148" spans="1:19">
       <c r="A148" s="4"/>
       <c r="B148" s="4"/>
       <c r="C148" s="4"/>
@@ -9358,7 +9764,7 @@
       <c r="R148" s="4"/>
       <c r="S148" s="4"/>
     </row>
-    <row r="149">
+    <row r="149" spans="1:19">
       <c r="A149" s="4"/>
       <c r="B149" s="4"/>
       <c r="C149" s="4"/>
@@ -9379,7 +9785,7 @@
       <c r="R149" s="4"/>
       <c r="S149" s="4"/>
     </row>
-    <row r="150">
+    <row r="150" spans="1:19">
       <c r="A150" s="4"/>
       <c r="B150" s="4"/>
       <c r="C150" s="4"/>
@@ -9400,7 +9806,7 @@
       <c r="R150" s="4"/>
       <c r="S150" s="4"/>
     </row>
-    <row r="151">
+    <row r="151" spans="1:19">
       <c r="A151" s="4"/>
       <c r="B151" s="4"/>
       <c r="C151" s="4"/>
@@ -9421,7 +9827,7 @@
       <c r="R151" s="4"/>
       <c r="S151" s="4"/>
     </row>
-    <row r="152">
+    <row r="152" spans="1:19">
       <c r="A152" s="4"/>
       <c r="B152" s="4"/>
       <c r="C152" s="4"/>
@@ -9442,7 +9848,7 @@
       <c r="R152" s="4"/>
       <c r="S152" s="4"/>
     </row>
-    <row r="153">
+    <row r="153" spans="1:19">
       <c r="A153" s="4"/>
       <c r="B153" s="4"/>
       <c r="C153" s="4"/>
@@ -9463,7 +9869,7 @@
       <c r="R153" s="4"/>
       <c r="S153" s="4"/>
     </row>
-    <row r="154">
+    <row r="154" spans="1:19">
       <c r="A154" s="4"/>
       <c r="B154" s="4"/>
       <c r="C154" s="4"/>
@@ -9484,7 +9890,7 @@
       <c r="R154" s="4"/>
       <c r="S154" s="4"/>
     </row>
-    <row r="155">
+    <row r="155" spans="1:19">
       <c r="A155" s="4"/>
       <c r="B155" s="4"/>
       <c r="C155" s="4"/>
@@ -9505,7 +9911,7 @@
       <c r="R155" s="4"/>
       <c r="S155" s="4"/>
     </row>
-    <row r="156">
+    <row r="156" spans="1:19">
       <c r="A156" s="4"/>
       <c r="B156" s="4"/>
       <c r="C156" s="4"/>
@@ -9526,7 +9932,7 @@
       <c r="R156" s="4"/>
       <c r="S156" s="4"/>
     </row>
-    <row r="157">
+    <row r="157" spans="1:19">
       <c r="A157" s="4"/>
       <c r="B157" s="4"/>
       <c r="C157" s="4"/>
@@ -9547,7 +9953,7 @@
       <c r="R157" s="4"/>
       <c r="S157" s="4"/>
     </row>
-    <row r="158">
+    <row r="158" spans="1:19">
       <c r="A158" s="4"/>
       <c r="B158" s="4"/>
       <c r="C158" s="4"/>
@@ -9568,7 +9974,7 @@
       <c r="R158" s="4"/>
       <c r="S158" s="4"/>
     </row>
-    <row r="159">
+    <row r="159" spans="1:19">
       <c r="A159" s="4"/>
       <c r="B159" s="4"/>
       <c r="C159" s="4"/>
@@ -9589,7 +9995,7 @@
       <c r="R159" s="4"/>
       <c r="S159" s="4"/>
     </row>
-    <row r="160">
+    <row r="160" spans="1:19">
       <c r="A160" s="4"/>
       <c r="B160" s="4"/>
       <c r="C160" s="4"/>
@@ -9610,7 +10016,7 @@
       <c r="R160" s="4"/>
       <c r="S160" s="4"/>
     </row>
-    <row r="161">
+    <row r="161" spans="1:19">
       <c r="A161" s="4"/>
       <c r="B161" s="4"/>
       <c r="C161" s="4"/>
@@ -9631,7 +10037,7 @@
       <c r="R161" s="4"/>
       <c r="S161" s="4"/>
     </row>
-    <row r="162">
+    <row r="162" spans="1:19">
       <c r="A162" s="4"/>
       <c r="B162" s="4"/>
       <c r="C162" s="4"/>
@@ -9652,7 +10058,7 @@
       <c r="R162" s="4"/>
       <c r="S162" s="4"/>
     </row>
-    <row r="163">
+    <row r="163" spans="1:19">
       <c r="A163" s="4"/>
       <c r="B163" s="4"/>
       <c r="C163" s="4"/>
@@ -9673,7 +10079,7 @@
       <c r="R163" s="4"/>
       <c r="S163" s="4"/>
     </row>
-    <row r="164">
+    <row r="164" spans="1:19">
       <c r="A164" s="4"/>
       <c r="B164" s="4"/>
       <c r="C164" s="4"/>
@@ -9694,7 +10100,7 @@
       <c r="R164" s="4"/>
       <c r="S164" s="4"/>
     </row>
-    <row r="165">
+    <row r="165" spans="1:19">
       <c r="A165" s="4"/>
       <c r="B165" s="4"/>
       <c r="C165" s="4"/>
@@ -9715,7 +10121,7 @@
       <c r="R165" s="4"/>
       <c r="S165" s="4"/>
     </row>
-    <row r="166">
+    <row r="166" spans="1:19">
       <c r="A166" s="4"/>
       <c r="B166" s="4"/>
       <c r="C166" s="4"/>
@@ -9736,7 +10142,7 @@
       <c r="R166" s="4"/>
       <c r="S166" s="4"/>
     </row>
-    <row r="167">
+    <row r="167" spans="1:19">
       <c r="A167" s="4"/>
       <c r="B167" s="4"/>
       <c r="C167" s="4"/>
@@ -9757,7 +10163,7 @@
       <c r="R167" s="4"/>
       <c r="S167" s="4"/>
     </row>
-    <row r="168">
+    <row r="168" spans="1:19">
       <c r="A168" s="4"/>
       <c r="B168" s="4"/>
       <c r="C168" s="4"/>
@@ -9778,7 +10184,7 @@
       <c r="R168" s="4"/>
       <c r="S168" s="4"/>
     </row>
-    <row r="169">
+    <row r="169" spans="1:19">
       <c r="A169" s="4"/>
       <c r="B169" s="4"/>
       <c r="C169" s="4"/>
@@ -9799,7 +10205,7 @@
       <c r="R169" s="4"/>
       <c r="S169" s="4"/>
     </row>
-    <row r="170">
+    <row r="170" spans="1:19">
       <c r="A170" s="4"/>
       <c r="B170" s="4"/>
       <c r="C170" s="4"/>
@@ -9820,7 +10226,7 @@
       <c r="R170" s="4"/>
       <c r="S170" s="4"/>
     </row>
-    <row r="171">
+    <row r="171" spans="1:19">
       <c r="A171" s="4"/>
       <c r="B171" s="4"/>
       <c r="C171" s="4"/>
@@ -9841,7 +10247,7 @@
       <c r="R171" s="4"/>
       <c r="S171" s="4"/>
     </row>
-    <row r="172">
+    <row r="172" spans="1:19">
       <c r="A172" s="4"/>
       <c r="B172" s="4"/>
       <c r="C172" s="4"/>
@@ -9862,7 +10268,7 @@
       <c r="R172" s="4"/>
       <c r="S172" s="4"/>
     </row>
-    <row r="173">
+    <row r="173" spans="1:19">
       <c r="A173" s="4"/>
       <c r="B173" s="4"/>
       <c r="C173" s="4"/>
@@ -9883,7 +10289,7 @@
       <c r="R173" s="4"/>
       <c r="S173" s="4"/>
     </row>
-    <row r="174">
+    <row r="174" spans="1:19">
       <c r="A174" s="4"/>
       <c r="B174" s="4"/>
       <c r="C174" s="4"/>
@@ -9904,7 +10310,7 @@
       <c r="R174" s="4"/>
       <c r="S174" s="4"/>
     </row>
-    <row r="175">
+    <row r="175" spans="1:19">
       <c r="A175" s="4"/>
       <c r="B175" s="4"/>
       <c r="C175" s="4"/>
@@ -9925,7 +10331,7 @@
       <c r="R175" s="4"/>
       <c r="S175" s="4"/>
     </row>
-    <row r="176">
+    <row r="176" spans="1:19">
       <c r="A176" s="4"/>
       <c r="B176" s="4"/>
       <c r="C176" s="4"/>
@@ -9946,7 +10352,7 @@
       <c r="R176" s="4"/>
       <c r="S176" s="4"/>
     </row>
-    <row r="177">
+    <row r="177" spans="1:19">
       <c r="A177" s="4"/>
       <c r="B177" s="4"/>
       <c r="C177" s="4"/>
@@ -9967,7 +10373,7 @@
       <c r="R177" s="4"/>
       <c r="S177" s="4"/>
     </row>
-    <row r="178">
+    <row r="178" spans="1:19">
       <c r="A178" s="4"/>
       <c r="B178" s="4"/>
       <c r="C178" s="4"/>
@@ -9988,7 +10394,7 @@
       <c r="R178" s="4"/>
       <c r="S178" s="4"/>
     </row>
-    <row r="179">
+    <row r="179" spans="1:19">
       <c r="A179" s="4"/>
       <c r="B179" s="4"/>
       <c r="C179" s="4"/>
@@ -10009,7 +10415,7 @@
       <c r="R179" s="4"/>
       <c r="S179" s="4"/>
     </row>
-    <row r="180">
+    <row r="180" spans="1:19">
       <c r="A180" s="4"/>
       <c r="B180" s="4"/>
       <c r="C180" s="4"/>
@@ -10030,7 +10436,7 @@
       <c r="R180" s="4"/>
       <c r="S180" s="4"/>
     </row>
-    <row r="181">
+    <row r="181" spans="1:19">
       <c r="A181" s="4"/>
       <c r="B181" s="4"/>
       <c r="C181" s="4"/>
@@ -10051,7 +10457,7 @@
       <c r="R181" s="4"/>
       <c r="S181" s="4"/>
     </row>
-    <row r="182">
+    <row r="182" spans="1:19">
       <c r="A182" s="4"/>
       <c r="B182" s="4"/>
       <c r="C182" s="4"/>
@@ -10072,7 +10478,7 @@
       <c r="R182" s="4"/>
       <c r="S182" s="4"/>
     </row>
-    <row r="183">
+    <row r="183" spans="1:19">
       <c r="A183" s="4"/>
       <c r="B183" s="4"/>
       <c r="C183" s="4"/>
@@ -10093,7 +10499,7 @@
       <c r="R183" s="4"/>
       <c r="S183" s="4"/>
     </row>
-    <row r="184">
+    <row r="184" spans="1:19">
       <c r="A184" s="4"/>
       <c r="B184" s="4"/>
       <c r="C184" s="4"/>
@@ -10114,7 +10520,7 @@
       <c r="R184" s="4"/>
       <c r="S184" s="4"/>
     </row>
-    <row r="185">
+    <row r="185" spans="1:19">
       <c r="A185" s="4"/>
       <c r="B185" s="4"/>
       <c r="C185" s="4"/>
@@ -10135,7 +10541,7 @@
       <c r="R185" s="4"/>
       <c r="S185" s="4"/>
     </row>
-    <row r="186">
+    <row r="186" spans="1:19">
       <c r="A186" s="4"/>
       <c r="B186" s="4"/>
       <c r="C186" s="4"/>
@@ -10156,7 +10562,7 @@
       <c r="R186" s="4"/>
       <c r="S186" s="4"/>
     </row>
-    <row r="187">
+    <row r="187" spans="1:19">
       <c r="A187" s="4"/>
       <c r="B187" s="4"/>
       <c r="C187" s="4"/>
@@ -10177,7 +10583,7 @@
       <c r="R187" s="4"/>
       <c r="S187" s="4"/>
     </row>
-    <row r="188">
+    <row r="188" spans="1:19">
       <c r="A188" s="4"/>
       <c r="B188" s="4"/>
       <c r="C188" s="4"/>
@@ -10198,7 +10604,7 @@
       <c r="R188" s="4"/>
       <c r="S188" s="4"/>
     </row>
-    <row r="189">
+    <row r="189" spans="1:19">
       <c r="A189" s="4"/>
       <c r="B189" s="4"/>
       <c r="C189" s="4"/>
@@ -10219,7 +10625,7 @@
       <c r="R189" s="4"/>
       <c r="S189" s="4"/>
     </row>
-    <row r="190">
+    <row r="190" spans="1:19">
       <c r="A190" s="4"/>
       <c r="B190" s="4"/>
       <c r="C190" s="4"/>
@@ -10240,7 +10646,7 @@
       <c r="R190" s="4"/>
       <c r="S190" s="4"/>
     </row>
-    <row r="191">
+    <row r="191" spans="1:19">
       <c r="A191" s="4"/>
       <c r="B191" s="4"/>
       <c r="C191" s="4"/>
@@ -10261,7 +10667,7 @@
       <c r="R191" s="4"/>
       <c r="S191" s="4"/>
     </row>
-    <row r="192">
+    <row r="192" spans="1:19">
       <c r="A192" s="4"/>
       <c r="B192" s="4"/>
       <c r="C192" s="4"/>
@@ -10282,7 +10688,7 @@
       <c r="R192" s="4"/>
       <c r="S192" s="4"/>
     </row>
-    <row r="193">
+    <row r="193" spans="1:19">
       <c r="A193" s="4"/>
       <c r="B193" s="4"/>
       <c r="C193" s="4"/>
@@ -10303,7 +10709,7 @@
       <c r="R193" s="4"/>
       <c r="S193" s="4"/>
     </row>
-    <row r="194">
+    <row r="194" spans="1:19">
       <c r="A194" s="4"/>
       <c r="B194" s="4"/>
       <c r="C194" s="4"/>
@@ -10324,7 +10730,7 @@
       <c r="R194" s="4"/>
       <c r="S194" s="4"/>
     </row>
-    <row r="195">
+    <row r="195" spans="1:19">
       <c r="A195" s="4"/>
       <c r="B195" s="4"/>
       <c r="C195" s="4"/>
@@ -10345,7 +10751,7 @@
       <c r="R195" s="4"/>
       <c r="S195" s="4"/>
     </row>
-    <row r="196">
+    <row r="196" spans="1:19">
       <c r="A196" s="4"/>
       <c r="B196" s="4"/>
       <c r="C196" s="4"/>
@@ -10366,7 +10772,7 @@
       <c r="R196" s="4"/>
       <c r="S196" s="4"/>
     </row>
-    <row r="197">
+    <row r="197" spans="1:19">
       <c r="A197" s="4"/>
       <c r="B197" s="4"/>
       <c r="C197" s="4"/>
@@ -10387,7 +10793,7 @@
       <c r="R197" s="4"/>
       <c r="S197" s="4"/>
     </row>
-    <row r="198">
+    <row r="198" spans="1:19">
       <c r="A198" s="4"/>
       <c r="B198" s="4"/>
       <c r="C198" s="4"/>
@@ -10408,7 +10814,7 @@
       <c r="R198" s="4"/>
       <c r="S198" s="4"/>
     </row>
-    <row r="199">
+    <row r="199" spans="1:19">
       <c r="A199" s="4"/>
       <c r="B199" s="4"/>
       <c r="C199" s="4"/>
@@ -10429,7 +10835,7 @@
       <c r="R199" s="4"/>
       <c r="S199" s="4"/>
     </row>
-    <row r="200">
+    <row r="200" spans="1:19">
       <c r="A200" s="4"/>
       <c r="B200" s="4"/>
       <c r="C200" s="4"/>
@@ -10451,73 +10857,69 @@
       <c r="S200" s="4"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T200"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:S200"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.0" baseColWidth="10" customHeight="false"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="27.733333333333334"/>
-    <col min="2" max="2" width="12.783333333333333"/>
-    <col min="3" max="3" width="8.775"/>
-    <col min="4" max="4" width="14.733333333333334"/>
-    <col min="5" max="5" width="11.808333333333332"/>
-    <col min="6" max="6" width="15.816666666666668"/>
-    <col min="7" max="7" width="14.733333333333334"/>
+    <col min="1" max="1" width="27.75"/>
+    <col min="2" max="2" width="12.75"/>
+    <col min="3" max="3" width="8.75"/>
+    <col min="4" max="4" width="14.75"/>
+    <col min="5" max="5" width="11.75"/>
+    <col min="6" max="6" width="15.875"/>
+    <col min="7" max="7" width="14.75"/>
     <col min="8" max="8" width="9.75"/>
-    <col min="9" max="9" width="14.733333333333334"/>
-    <col min="10" max="10" width="8.775"/>
-    <col min="11" max="11" width="41.81666666666667"/>
-    <col min="12" max="12" width="8.775"/>
-    <col min="13" max="13" width="8.775"/>
-    <col min="14" max="14" width="8.775"/>
-    <col min="15" max="15" width="8.775"/>
-    <col min="16" max="16" width="8.775"/>
-    <col min="17" max="17" width="8.775"/>
-    <col min="18" max="18" width="8.775"/>
-    <col min="19" max="19" width="8.775"/>
+    <col min="9" max="9" width="14.75"/>
+    <col min="10" max="10" width="8.75"/>
+    <col min="11" max="11" width="41.875"/>
+    <col min="12" max="19" width="8.75"/>
   </cols>
   <sheetData>
-    <row r="1" ht="19.0" customHeight="true">
-      <c r="A1" t="s" s="1">
+    <row r="1" spans="1:19" ht="18.95" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B1" t="s" s="1">
+      <c r="D1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C1" t="s" s="1">
+      <c r="E1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D1" t="s" s="1">
+      <c r="F1" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="E1" t="s" s="1">
+      <c r="G1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F1" t="s" s="16">
+      <c r="J1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="G1" t="s" s="1">
-        <v>24</v>
-      </c>
-      <c r="H1" t="s" s="1">
-        <v>26</v>
-      </c>
-      <c r="I1" t="s" s="1">
+      <c r="K1" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="J1" t="s" s="1">
-        <v>72</v>
-      </c>
-      <c r="K1" t="s" s="1">
-        <v>73</v>
       </c>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
@@ -10528,37 +10930,37 @@
       <c r="R1" s="4"/>
       <c r="S1" s="4"/>
     </row>
-    <row r="2" ht="97.0" customHeight="true">
-      <c r="A2" t="s" s="2">
+    <row r="2" spans="1:19" ht="96.95" customHeight="1">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="4"/>
-      <c r="C2" t="s" s="5">
+      <c r="C2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D2" t="s" s="8">
+      <c r="D2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E2" t="s" s="10">
+      <c r="E2" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F2" t="s" s="5">
+      <c r="F2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G2" t="s" s="8">
+      <c r="G2" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H2" t="s" s="5">
+      <c r="H2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="I2" t="s" s="8">
+      <c r="I2" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="J2" t="s" s="8">
-        <v>34</v>
-      </c>
-      <c r="K2" t="s" s="15">
-        <v>74</v>
+      <c r="J2" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>72</v>
       </c>
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
@@ -10569,37 +10971,37 @@
       <c r="R2" s="4"/>
       <c r="S2" s="4"/>
     </row>
-    <row r="3" ht="97.0" customHeight="true">
-      <c r="A3" t="s" s="3">
+    <row r="3" spans="1:19" ht="96.95" customHeight="1">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="4"/>
-      <c r="C3" t="s" s="6">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s" s="8">
+      <c r="C3" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E3" t="s" s="11">
+      <c r="E3" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F3" t="s" s="6">
+      <c r="F3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G3" t="s" s="9">
+      <c r="G3" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="H3" t="s" s="14">
+      <c r="H3" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="I3" t="s" s="9">
-        <v>30</v>
-      </c>
-      <c r="J3" t="s" s="8">
-        <v>34</v>
-      </c>
-      <c r="K3" t="s" s="15">
-        <v>75</v>
+      <c r="I3" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" s="15" t="s">
+        <v>73</v>
       </c>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
@@ -10610,37 +11012,37 @@
       <c r="R3" s="4"/>
       <c r="S3" s="4"/>
     </row>
-    <row r="4" ht="97.0" customHeight="true">
-      <c r="A4" t="s" s="3">
+    <row r="4" spans="1:19" ht="96.95" customHeight="1">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="4"/>
-      <c r="C4" t="s" s="5">
+      <c r="C4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D4" t="s" s="8">
+      <c r="D4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E4" t="s" s="11">
+      <c r="E4" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F4" t="s" s="12">
+      <c r="F4" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="G4" t="s" s="13">
+      <c r="G4" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="H4" t="s" s="14">
+      <c r="H4" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="I4" t="s" s="9">
-        <v>30</v>
-      </c>
-      <c r="J4" t="s" s="8">
-        <v>35</v>
-      </c>
-      <c r="K4" t="s" s="15">
-        <v>76</v>
+      <c r="I4" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4" s="15" t="s">
+        <v>74</v>
       </c>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
@@ -10651,37 +11053,37 @@
       <c r="R4" s="4"/>
       <c r="S4" s="4"/>
     </row>
-    <row r="5" ht="136.0" customHeight="true">
-      <c r="A5" t="s" s="3">
+    <row r="5" spans="1:19" ht="135.94999999999999" customHeight="1">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="4"/>
-      <c r="C5" t="s" s="6">
-        <v>12</v>
-      </c>
-      <c r="D5" t="s" s="8">
+      <c r="C5" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E5" t="s" s="11">
+      <c r="E5" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F5" t="s" s="6">
+      <c r="F5" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G5" t="s" s="9">
+      <c r="G5" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="14">
+      <c r="H5" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="I5" t="s" s="9">
-        <v>31</v>
-      </c>
-      <c r="J5" t="s" s="8">
-        <v>36</v>
-      </c>
-      <c r="K5" t="s" s="15">
-        <v>77</v>
+      <c r="I5" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" s="15" t="s">
+        <v>75</v>
       </c>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
@@ -10692,37 +11094,37 @@
       <c r="R5" s="4"/>
       <c r="S5" s="4"/>
     </row>
-    <row r="6" ht="117.0" customHeight="true">
-      <c r="A6" t="s" s="3">
+    <row r="6" spans="1:19" ht="117" customHeight="1">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="4"/>
-      <c r="C6" t="s" s="6">
+      <c r="C6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D6" t="s" s="8">
+      <c r="D6" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E6" t="s" s="11">
+      <c r="E6" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F6" t="s" s="12">
+      <c r="F6" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="G6" t="s" s="13">
+      <c r="G6" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="H6" t="s" s="14">
+      <c r="H6" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="I6" t="s" s="9">
-        <v>30</v>
-      </c>
-      <c r="J6" t="s" s="8">
-        <v>35</v>
-      </c>
-      <c r="K6" t="s" s="15">
-        <v>78</v>
+      <c r="I6" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" s="15" t="s">
+        <v>76</v>
       </c>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
@@ -10733,37 +11135,37 @@
       <c r="R6" s="4"/>
       <c r="S6" s="4"/>
     </row>
-    <row r="7" ht="156.0" customHeight="true">
-      <c r="A7" t="s" s="3">
+    <row r="7" spans="1:19" ht="156" customHeight="1">
+      <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="4"/>
-      <c r="C7" t="s" s="6">
+      <c r="C7" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D7" t="s" s="8">
+      <c r="D7" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E7" t="s" s="11">
+      <c r="E7" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F7" t="s" s="12">
+      <c r="F7" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="G7" t="s" s="13">
+      <c r="G7" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="H7" t="s" s="14">
+      <c r="H7" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="I7" t="s" s="9">
-        <v>30</v>
-      </c>
-      <c r="J7" t="s" s="8">
-        <v>35</v>
-      </c>
-      <c r="K7" t="s" s="15">
-        <v>79</v>
+      <c r="I7" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K7" s="15" t="s">
+        <v>77</v>
       </c>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
@@ -10774,7 +11176,7 @@
       <c r="R7" s="4"/>
       <c r="S7" s="4"/>
     </row>
-    <row r="8" ht="13.0" customHeight="true">
+    <row r="8" spans="1:19" ht="12.95" customHeight="1">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -10795,39 +11197,39 @@
       <c r="R8" s="4"/>
       <c r="S8" s="4"/>
     </row>
-    <row r="9" ht="19.0" customHeight="true">
-      <c r="A9" t="s" s="1">
+    <row r="9" spans="1:19" ht="18.95" customHeight="1">
+      <c r="A9" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B9" t="s" s="1">
+      <c r="D9" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C9" t="s" s="1">
+      <c r="E9" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D9" t="s" s="1">
+      <c r="F9" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="E9" t="s" s="1">
+      <c r="G9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F9" t="s" s="16">
+      <c r="J9" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="G9" t="s" s="1">
-        <v>24</v>
-      </c>
-      <c r="H9" t="s" s="1">
-        <v>26</v>
-      </c>
-      <c r="I9" t="s" s="1">
+      <c r="K9" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="J9" t="s" s="1">
-        <v>72</v>
-      </c>
-      <c r="K9" t="s" s="1">
-        <v>73</v>
       </c>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
@@ -10838,37 +11240,37 @@
       <c r="R9" s="4"/>
       <c r="S9" s="4"/>
     </row>
-    <row r="10" ht="77.0" customHeight="true">
-      <c r="A10" t="s" s="3">
+    <row r="10" spans="1:19" ht="77.099999999999994" customHeight="1">
+      <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="4"/>
-      <c r="C10" t="s" s="6">
+      <c r="C10" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D10" t="s" s="9">
+      <c r="D10" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E10" t="s" s="5">
+      <c r="E10" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F10" t="s" s="6">
+      <c r="F10" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G10" t="s" s="9">
+      <c r="G10" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H10" t="s" s="6">
+      <c r="H10" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I10" t="s" s="9">
-        <v>32</v>
-      </c>
-      <c r="J10" t="s" s="8">
-        <v>37</v>
-      </c>
-      <c r="K10" t="s" s="15">
-        <v>80</v>
+      <c r="I10" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="K10" s="15" t="s">
+        <v>78</v>
       </c>
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
@@ -10879,37 +11281,37 @@
       <c r="R10" s="4"/>
       <c r="S10" s="4"/>
     </row>
-    <row r="11" ht="97.0" customHeight="true">
-      <c r="A11" t="s" s="3">
+    <row r="11" spans="1:19" ht="96.95" customHeight="1">
+      <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="4"/>
-      <c r="C11" t="s" s="6">
+      <c r="C11" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D11" t="s" s="9">
+      <c r="D11" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E11" t="s" s="5">
+      <c r="E11" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F11" t="s" s="6">
+      <c r="F11" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G11" t="s" s="9">
+      <c r="G11" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H11" t="s" s="14">
+      <c r="H11" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="I11" t="s" s="9">
-        <v>32</v>
-      </c>
-      <c r="J11" t="s" s="8">
-        <v>37</v>
-      </c>
-      <c r="K11" t="s" s="15">
-        <v>81</v>
+      <c r="I11" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="K11" s="15" t="s">
+        <v>79</v>
       </c>
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
@@ -10920,7 +11322,7 @@
       <c r="R11" s="4"/>
       <c r="S11" s="4"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:19">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -10941,7 +11343,7 @@
       <c r="R12" s="4"/>
       <c r="S12" s="4"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:19">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -10962,7 +11364,7 @@
       <c r="R13" s="4"/>
       <c r="S13" s="4"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:19">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -10983,7 +11385,7 @@
       <c r="R14" s="4"/>
       <c r="S14" s="4"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:19">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -11004,7 +11406,7 @@
       <c r="R15" s="4"/>
       <c r="S15" s="4"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:19">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -11025,7 +11427,7 @@
       <c r="R16" s="4"/>
       <c r="S16" s="4"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:19">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -11046,7 +11448,7 @@
       <c r="R17" s="4"/>
       <c r="S17" s="4"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:19">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -11067,7 +11469,7 @@
       <c r="R18" s="4"/>
       <c r="S18" s="4"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:19">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -11088,7 +11490,7 @@
       <c r="R19" s="4"/>
       <c r="S19" s="4"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:19">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -11109,7 +11511,7 @@
       <c r="R20" s="4"/>
       <c r="S20" s="4"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:19">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -11130,7 +11532,7 @@
       <c r="R21" s="4"/>
       <c r="S21" s="4"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:19">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -11151,7 +11553,7 @@
       <c r="R22" s="4"/>
       <c r="S22" s="4"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:19">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -11172,7 +11574,7 @@
       <c r="R23" s="4"/>
       <c r="S23" s="4"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:19">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -11193,7 +11595,7 @@
       <c r="R24" s="4"/>
       <c r="S24" s="4"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:19">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -11214,7 +11616,7 @@
       <c r="R25" s="4"/>
       <c r="S25" s="4"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:19">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -11235,7 +11637,7 @@
       <c r="R26" s="4"/>
       <c r="S26" s="4"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:19">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -11256,7 +11658,7 @@
       <c r="R27" s="4"/>
       <c r="S27" s="4"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:19">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -11277,7 +11679,7 @@
       <c r="R28" s="4"/>
       <c r="S28" s="4"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:19">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -11298,7 +11700,7 @@
       <c r="R29" s="4"/>
       <c r="S29" s="4"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:19">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -11319,7 +11721,7 @@
       <c r="R30" s="4"/>
       <c r="S30" s="4"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:19">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -11340,7 +11742,7 @@
       <c r="R31" s="4"/>
       <c r="S31" s="4"/>
     </row>
-    <row r="32">
+    <row r="32" spans="1:19">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -11361,7 +11763,7 @@
       <c r="R32" s="4"/>
       <c r="S32" s="4"/>
     </row>
-    <row r="33">
+    <row r="33" spans="1:19">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -11382,7 +11784,7 @@
       <c r="R33" s="4"/>
       <c r="S33" s="4"/>
     </row>
-    <row r="34">
+    <row r="34" spans="1:19">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -11403,7 +11805,7 @@
       <c r="R34" s="4"/>
       <c r="S34" s="4"/>
     </row>
-    <row r="35">
+    <row r="35" spans="1:19">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -11424,7 +11826,7 @@
       <c r="R35" s="4"/>
       <c r="S35" s="4"/>
     </row>
-    <row r="36">
+    <row r="36" spans="1:19">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -11445,7 +11847,7 @@
       <c r="R36" s="4"/>
       <c r="S36" s="4"/>
     </row>
-    <row r="37">
+    <row r="37" spans="1:19">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -11466,7 +11868,7 @@
       <c r="R37" s="4"/>
       <c r="S37" s="4"/>
     </row>
-    <row r="38">
+    <row r="38" spans="1:19">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -11487,7 +11889,7 @@
       <c r="R38" s="4"/>
       <c r="S38" s="4"/>
     </row>
-    <row r="39">
+    <row r="39" spans="1:19">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -11508,7 +11910,7 @@
       <c r="R39" s="4"/>
       <c r="S39" s="4"/>
     </row>
-    <row r="40">
+    <row r="40" spans="1:19">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -11529,7 +11931,7 @@
       <c r="R40" s="4"/>
       <c r="S40" s="4"/>
     </row>
-    <row r="41">
+    <row r="41" spans="1:19">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -11550,7 +11952,7 @@
       <c r="R41" s="4"/>
       <c r="S41" s="4"/>
     </row>
-    <row r="42">
+    <row r="42" spans="1:19">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -11571,7 +11973,7 @@
       <c r="R42" s="4"/>
       <c r="S42" s="4"/>
     </row>
-    <row r="43">
+    <row r="43" spans="1:19">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -11592,7 +11994,7 @@
       <c r="R43" s="4"/>
       <c r="S43" s="4"/>
     </row>
-    <row r="44">
+    <row r="44" spans="1:19">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -11613,7 +12015,7 @@
       <c r="R44" s="4"/>
       <c r="S44" s="4"/>
     </row>
-    <row r="45">
+    <row r="45" spans="1:19">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -11634,7 +12036,7 @@
       <c r="R45" s="4"/>
       <c r="S45" s="4"/>
     </row>
-    <row r="46">
+    <row r="46" spans="1:19">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -11655,7 +12057,7 @@
       <c r="R46" s="4"/>
       <c r="S46" s="4"/>
     </row>
-    <row r="47">
+    <row r="47" spans="1:19">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -11676,7 +12078,7 @@
       <c r="R47" s="4"/>
       <c r="S47" s="4"/>
     </row>
-    <row r="48">
+    <row r="48" spans="1:19">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
@@ -11697,7 +12099,7 @@
       <c r="R48" s="4"/>
       <c r="S48" s="4"/>
     </row>
-    <row r="49">
+    <row r="49" spans="1:19">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
@@ -11718,7 +12120,7 @@
       <c r="R49" s="4"/>
       <c r="S49" s="4"/>
     </row>
-    <row r="50">
+    <row r="50" spans="1:19">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
@@ -11739,7 +12141,7 @@
       <c r="R50" s="4"/>
       <c r="S50" s="4"/>
     </row>
-    <row r="51">
+    <row r="51" spans="1:19">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
@@ -11760,7 +12162,7 @@
       <c r="R51" s="4"/>
       <c r="S51" s="4"/>
     </row>
-    <row r="52">
+    <row r="52" spans="1:19">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
@@ -11781,7 +12183,7 @@
       <c r="R52" s="4"/>
       <c r="S52" s="4"/>
     </row>
-    <row r="53">
+    <row r="53" spans="1:19">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
@@ -11802,7 +12204,7 @@
       <c r="R53" s="4"/>
       <c r="S53" s="4"/>
     </row>
-    <row r="54">
+    <row r="54" spans="1:19">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
@@ -11823,7 +12225,7 @@
       <c r="R54" s="4"/>
       <c r="S54" s="4"/>
     </row>
-    <row r="55">
+    <row r="55" spans="1:19">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
@@ -11844,7 +12246,7 @@
       <c r="R55" s="4"/>
       <c r="S55" s="4"/>
     </row>
-    <row r="56">
+    <row r="56" spans="1:19">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
@@ -11865,7 +12267,7 @@
       <c r="R56" s="4"/>
       <c r="S56" s="4"/>
     </row>
-    <row r="57">
+    <row r="57" spans="1:19">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -11886,7 +12288,7 @@
       <c r="R57" s="4"/>
       <c r="S57" s="4"/>
     </row>
-    <row r="58">
+    <row r="58" spans="1:19">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
@@ -11907,7 +12309,7 @@
       <c r="R58" s="4"/>
       <c r="S58" s="4"/>
     </row>
-    <row r="59">
+    <row r="59" spans="1:19">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
@@ -11928,7 +12330,7 @@
       <c r="R59" s="4"/>
       <c r="S59" s="4"/>
     </row>
-    <row r="60">
+    <row r="60" spans="1:19">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
@@ -11949,7 +12351,7 @@
       <c r="R60" s="4"/>
       <c r="S60" s="4"/>
     </row>
-    <row r="61">
+    <row r="61" spans="1:19">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
@@ -11970,7 +12372,7 @@
       <c r="R61" s="4"/>
       <c r="S61" s="4"/>
     </row>
-    <row r="62">
+    <row r="62" spans="1:19">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
@@ -11991,7 +12393,7 @@
       <c r="R62" s="4"/>
       <c r="S62" s="4"/>
     </row>
-    <row r="63">
+    <row r="63" spans="1:19">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
@@ -12012,7 +12414,7 @@
       <c r="R63" s="4"/>
       <c r="S63" s="4"/>
     </row>
-    <row r="64">
+    <row r="64" spans="1:19">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
@@ -12033,7 +12435,7 @@
       <c r="R64" s="4"/>
       <c r="S64" s="4"/>
     </row>
-    <row r="65">
+    <row r="65" spans="1:19">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
@@ -12054,7 +12456,7 @@
       <c r="R65" s="4"/>
       <c r="S65" s="4"/>
     </row>
-    <row r="66">
+    <row r="66" spans="1:19">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
@@ -12075,7 +12477,7 @@
       <c r="R66" s="4"/>
       <c r="S66" s="4"/>
     </row>
-    <row r="67">
+    <row r="67" spans="1:19">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
@@ -12096,7 +12498,7 @@
       <c r="R67" s="4"/>
       <c r="S67" s="4"/>
     </row>
-    <row r="68">
+    <row r="68" spans="1:19">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
@@ -12117,7 +12519,7 @@
       <c r="R68" s="4"/>
       <c r="S68" s="4"/>
     </row>
-    <row r="69">
+    <row r="69" spans="1:19">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
@@ -12138,7 +12540,7 @@
       <c r="R69" s="4"/>
       <c r="S69" s="4"/>
     </row>
-    <row r="70">
+    <row r="70" spans="1:19">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
@@ -12159,7 +12561,7 @@
       <c r="R70" s="4"/>
       <c r="S70" s="4"/>
     </row>
-    <row r="71">
+    <row r="71" spans="1:19">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
@@ -12180,7 +12582,7 @@
       <c r="R71" s="4"/>
       <c r="S71" s="4"/>
     </row>
-    <row r="72">
+    <row r="72" spans="1:19">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
@@ -12201,7 +12603,7 @@
       <c r="R72" s="4"/>
       <c r="S72" s="4"/>
     </row>
-    <row r="73">
+    <row r="73" spans="1:19">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
@@ -12222,7 +12624,7 @@
       <c r="R73" s="4"/>
       <c r="S73" s="4"/>
     </row>
-    <row r="74">
+    <row r="74" spans="1:19">
       <c r="A74" s="4"/>
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
@@ -12243,7 +12645,7 @@
       <c r="R74" s="4"/>
       <c r="S74" s="4"/>
     </row>
-    <row r="75">
+    <row r="75" spans="1:19">
       <c r="A75" s="4"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
@@ -12264,7 +12666,7 @@
       <c r="R75" s="4"/>
       <c r="S75" s="4"/>
     </row>
-    <row r="76">
+    <row r="76" spans="1:19">
       <c r="A76" s="4"/>
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
@@ -12285,7 +12687,7 @@
       <c r="R76" s="4"/>
       <c r="S76" s="4"/>
     </row>
-    <row r="77">
+    <row r="77" spans="1:19">
       <c r="A77" s="4"/>
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
@@ -12306,7 +12708,7 @@
       <c r="R77" s="4"/>
       <c r="S77" s="4"/>
     </row>
-    <row r="78">
+    <row r="78" spans="1:19">
       <c r="A78" s="4"/>
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
@@ -12327,7 +12729,7 @@
       <c r="R78" s="4"/>
       <c r="S78" s="4"/>
     </row>
-    <row r="79">
+    <row r="79" spans="1:19">
       <c r="A79" s="4"/>
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
@@ -12348,7 +12750,7 @@
       <c r="R79" s="4"/>
       <c r="S79" s="4"/>
     </row>
-    <row r="80">
+    <row r="80" spans="1:19">
       <c r="A80" s="4"/>
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
@@ -12369,7 +12771,7 @@
       <c r="R80" s="4"/>
       <c r="S80" s="4"/>
     </row>
-    <row r="81">
+    <row r="81" spans="1:19">
       <c r="A81" s="4"/>
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
@@ -12390,7 +12792,7 @@
       <c r="R81" s="4"/>
       <c r="S81" s="4"/>
     </row>
-    <row r="82">
+    <row r="82" spans="1:19">
       <c r="A82" s="4"/>
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
@@ -12411,7 +12813,7 @@
       <c r="R82" s="4"/>
       <c r="S82" s="4"/>
     </row>
-    <row r="83">
+    <row r="83" spans="1:19">
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
@@ -12432,7 +12834,7 @@
       <c r="R83" s="4"/>
       <c r="S83" s="4"/>
     </row>
-    <row r="84">
+    <row r="84" spans="1:19">
       <c r="A84" s="4"/>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
@@ -12453,7 +12855,7 @@
       <c r="R84" s="4"/>
       <c r="S84" s="4"/>
     </row>
-    <row r="85">
+    <row r="85" spans="1:19">
       <c r="A85" s="4"/>
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
@@ -12474,7 +12876,7 @@
       <c r="R85" s="4"/>
       <c r="S85" s="4"/>
     </row>
-    <row r="86">
+    <row r="86" spans="1:19">
       <c r="A86" s="4"/>
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
@@ -12495,7 +12897,7 @@
       <c r="R86" s="4"/>
       <c r="S86" s="4"/>
     </row>
-    <row r="87">
+    <row r="87" spans="1:19">
       <c r="A87" s="4"/>
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
@@ -12516,7 +12918,7 @@
       <c r="R87" s="4"/>
       <c r="S87" s="4"/>
     </row>
-    <row r="88">
+    <row r="88" spans="1:19">
       <c r="A88" s="4"/>
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
@@ -12537,7 +12939,7 @@
       <c r="R88" s="4"/>
       <c r="S88" s="4"/>
     </row>
-    <row r="89">
+    <row r="89" spans="1:19">
       <c r="A89" s="4"/>
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
@@ -12558,7 +12960,7 @@
       <c r="R89" s="4"/>
       <c r="S89" s="4"/>
     </row>
-    <row r="90">
+    <row r="90" spans="1:19">
       <c r="A90" s="4"/>
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
@@ -12579,7 +12981,7 @@
       <c r="R90" s="4"/>
       <c r="S90" s="4"/>
     </row>
-    <row r="91">
+    <row r="91" spans="1:19">
       <c r="A91" s="4"/>
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
@@ -12600,7 +13002,7 @@
       <c r="R91" s="4"/>
       <c r="S91" s="4"/>
     </row>
-    <row r="92">
+    <row r="92" spans="1:19">
       <c r="A92" s="4"/>
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
@@ -12621,7 +13023,7 @@
       <c r="R92" s="4"/>
       <c r="S92" s="4"/>
     </row>
-    <row r="93">
+    <row r="93" spans="1:19">
       <c r="A93" s="4"/>
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
@@ -12642,7 +13044,7 @@
       <c r="R93" s="4"/>
       <c r="S93" s="4"/>
     </row>
-    <row r="94">
+    <row r="94" spans="1:19">
       <c r="A94" s="4"/>
       <c r="B94" s="4"/>
       <c r="C94" s="4"/>
@@ -12663,7 +13065,7 @@
       <c r="R94" s="4"/>
       <c r="S94" s="4"/>
     </row>
-    <row r="95">
+    <row r="95" spans="1:19">
       <c r="A95" s="4"/>
       <c r="B95" s="4"/>
       <c r="C95" s="4"/>
@@ -12684,7 +13086,7 @@
       <c r="R95" s="4"/>
       <c r="S95" s="4"/>
     </row>
-    <row r="96">
+    <row r="96" spans="1:19">
       <c r="A96" s="4"/>
       <c r="B96" s="4"/>
       <c r="C96" s="4"/>
@@ -12705,7 +13107,7 @@
       <c r="R96" s="4"/>
       <c r="S96" s="4"/>
     </row>
-    <row r="97">
+    <row r="97" spans="1:19">
       <c r="A97" s="4"/>
       <c r="B97" s="4"/>
       <c r="C97" s="4"/>
@@ -12726,7 +13128,7 @@
       <c r="R97" s="4"/>
       <c r="S97" s="4"/>
     </row>
-    <row r="98">
+    <row r="98" spans="1:19">
       <c r="A98" s="4"/>
       <c r="B98" s="4"/>
       <c r="C98" s="4"/>
@@ -12747,7 +13149,7 @@
       <c r="R98" s="4"/>
       <c r="S98" s="4"/>
     </row>
-    <row r="99">
+    <row r="99" spans="1:19">
       <c r="A99" s="4"/>
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
@@ -12768,7 +13170,7 @@
       <c r="R99" s="4"/>
       <c r="S99" s="4"/>
     </row>
-    <row r="100">
+    <row r="100" spans="1:19">
       <c r="A100" s="4"/>
       <c r="B100" s="4"/>
       <c r="C100" s="4"/>
@@ -12789,7 +13191,7 @@
       <c r="R100" s="4"/>
       <c r="S100" s="4"/>
     </row>
-    <row r="101">
+    <row r="101" spans="1:19">
       <c r="A101" s="4"/>
       <c r="B101" s="4"/>
       <c r="C101" s="4"/>
@@ -12810,7 +13212,7 @@
       <c r="R101" s="4"/>
       <c r="S101" s="4"/>
     </row>
-    <row r="102">
+    <row r="102" spans="1:19">
       <c r="A102" s="4"/>
       <c r="B102" s="4"/>
       <c r="C102" s="4"/>
@@ -12831,7 +13233,7 @@
       <c r="R102" s="4"/>
       <c r="S102" s="4"/>
     </row>
-    <row r="103">
+    <row r="103" spans="1:19">
       <c r="A103" s="4"/>
       <c r="B103" s="4"/>
       <c r="C103" s="4"/>
@@ -12852,7 +13254,7 @@
       <c r="R103" s="4"/>
       <c r="S103" s="4"/>
     </row>
-    <row r="104">
+    <row r="104" spans="1:19">
       <c r="A104" s="4"/>
       <c r="B104" s="4"/>
       <c r="C104" s="4"/>
@@ -12873,7 +13275,7 @@
       <c r="R104" s="4"/>
       <c r="S104" s="4"/>
     </row>
-    <row r="105">
+    <row r="105" spans="1:19">
       <c r="A105" s="4"/>
       <c r="B105" s="4"/>
       <c r="C105" s="4"/>
@@ -12894,7 +13296,7 @@
       <c r="R105" s="4"/>
       <c r="S105" s="4"/>
     </row>
-    <row r="106">
+    <row r="106" spans="1:19">
       <c r="A106" s="4"/>
       <c r="B106" s="4"/>
       <c r="C106" s="4"/>
@@ -12915,7 +13317,7 @@
       <c r="R106" s="4"/>
       <c r="S106" s="4"/>
     </row>
-    <row r="107">
+    <row r="107" spans="1:19">
       <c r="A107" s="4"/>
       <c r="B107" s="4"/>
       <c r="C107" s="4"/>
@@ -12936,7 +13338,7 @@
       <c r="R107" s="4"/>
       <c r="S107" s="4"/>
     </row>
-    <row r="108">
+    <row r="108" spans="1:19">
       <c r="A108" s="4"/>
       <c r="B108" s="4"/>
       <c r="C108" s="4"/>
@@ -12957,7 +13359,7 @@
       <c r="R108" s="4"/>
       <c r="S108" s="4"/>
     </row>
-    <row r="109">
+    <row r="109" spans="1:19">
       <c r="A109" s="4"/>
       <c r="B109" s="4"/>
       <c r="C109" s="4"/>
@@ -12978,7 +13380,7 @@
       <c r="R109" s="4"/>
       <c r="S109" s="4"/>
     </row>
-    <row r="110">
+    <row r="110" spans="1:19">
       <c r="A110" s="4"/>
       <c r="B110" s="4"/>
       <c r="C110" s="4"/>
@@ -12999,7 +13401,7 @@
       <c r="R110" s="4"/>
       <c r="S110" s="4"/>
     </row>
-    <row r="111">
+    <row r="111" spans="1:19">
       <c r="A111" s="4"/>
       <c r="B111" s="4"/>
       <c r="C111" s="4"/>
@@ -13020,7 +13422,7 @@
       <c r="R111" s="4"/>
       <c r="S111" s="4"/>
     </row>
-    <row r="112">
+    <row r="112" spans="1:19">
       <c r="A112" s="4"/>
       <c r="B112" s="4"/>
       <c r="C112" s="4"/>
@@ -13041,7 +13443,7 @@
       <c r="R112" s="4"/>
       <c r="S112" s="4"/>
     </row>
-    <row r="113">
+    <row r="113" spans="1:19">
       <c r="A113" s="4"/>
       <c r="B113" s="4"/>
       <c r="C113" s="4"/>
@@ -13062,7 +13464,7 @@
       <c r="R113" s="4"/>
       <c r="S113" s="4"/>
     </row>
-    <row r="114">
+    <row r="114" spans="1:19">
       <c r="A114" s="4"/>
       <c r="B114" s="4"/>
       <c r="C114" s="4"/>
@@ -13083,7 +13485,7 @@
       <c r="R114" s="4"/>
       <c r="S114" s="4"/>
     </row>
-    <row r="115">
+    <row r="115" spans="1:19">
       <c r="A115" s="4"/>
       <c r="B115" s="4"/>
       <c r="C115" s="4"/>
@@ -13104,7 +13506,7 @@
       <c r="R115" s="4"/>
       <c r="S115" s="4"/>
     </row>
-    <row r="116">
+    <row r="116" spans="1:19">
       <c r="A116" s="4"/>
       <c r="B116" s="4"/>
       <c r="C116" s="4"/>
@@ -13125,7 +13527,7 @@
       <c r="R116" s="4"/>
       <c r="S116" s="4"/>
     </row>
-    <row r="117">
+    <row r="117" spans="1:19">
       <c r="A117" s="4"/>
       <c r="B117" s="4"/>
       <c r="C117" s="4"/>
@@ -13146,7 +13548,7 @@
       <c r="R117" s="4"/>
       <c r="S117" s="4"/>
     </row>
-    <row r="118">
+    <row r="118" spans="1:19">
       <c r="A118" s="4"/>
       <c r="B118" s="4"/>
       <c r="C118" s="4"/>
@@ -13167,7 +13569,7 @@
       <c r="R118" s="4"/>
       <c r="S118" s="4"/>
     </row>
-    <row r="119">
+    <row r="119" spans="1:19">
       <c r="A119" s="4"/>
       <c r="B119" s="4"/>
       <c r="C119" s="4"/>
@@ -13188,7 +13590,7 @@
       <c r="R119" s="4"/>
       <c r="S119" s="4"/>
     </row>
-    <row r="120">
+    <row r="120" spans="1:19">
       <c r="A120" s="4"/>
       <c r="B120" s="4"/>
       <c r="C120" s="4"/>
@@ -13209,7 +13611,7 @@
       <c r="R120" s="4"/>
       <c r="S120" s="4"/>
     </row>
-    <row r="121">
+    <row r="121" spans="1:19">
       <c r="A121" s="4"/>
       <c r="B121" s="4"/>
       <c r="C121" s="4"/>
@@ -13230,7 +13632,7 @@
       <c r="R121" s="4"/>
       <c r="S121" s="4"/>
     </row>
-    <row r="122">
+    <row r="122" spans="1:19">
       <c r="A122" s="4"/>
       <c r="B122" s="4"/>
       <c r="C122" s="4"/>
@@ -13251,7 +13653,7 @@
       <c r="R122" s="4"/>
       <c r="S122" s="4"/>
     </row>
-    <row r="123">
+    <row r="123" spans="1:19">
       <c r="A123" s="4"/>
       <c r="B123" s="4"/>
       <c r="C123" s="4"/>
@@ -13272,7 +13674,7 @@
       <c r="R123" s="4"/>
       <c r="S123" s="4"/>
     </row>
-    <row r="124">
+    <row r="124" spans="1:19">
       <c r="A124" s="4"/>
       <c r="B124" s="4"/>
       <c r="C124" s="4"/>
@@ -13293,7 +13695,7 @@
       <c r="R124" s="4"/>
       <c r="S124" s="4"/>
     </row>
-    <row r="125">
+    <row r="125" spans="1:19">
       <c r="A125" s="4"/>
       <c r="B125" s="4"/>
       <c r="C125" s="4"/>
@@ -13314,7 +13716,7 @@
       <c r="R125" s="4"/>
       <c r="S125" s="4"/>
     </row>
-    <row r="126">
+    <row r="126" spans="1:19">
       <c r="A126" s="4"/>
       <c r="B126" s="4"/>
       <c r="C126" s="4"/>
@@ -13335,7 +13737,7 @@
       <c r="R126" s="4"/>
       <c r="S126" s="4"/>
     </row>
-    <row r="127">
+    <row r="127" spans="1:19">
       <c r="A127" s="4"/>
       <c r="B127" s="4"/>
       <c r="C127" s="4"/>
@@ -13356,7 +13758,7 @@
       <c r="R127" s="4"/>
       <c r="S127" s="4"/>
     </row>
-    <row r="128">
+    <row r="128" spans="1:19">
       <c r="A128" s="4"/>
       <c r="B128" s="4"/>
       <c r="C128" s="4"/>
@@ -13377,7 +13779,7 @@
       <c r="R128" s="4"/>
       <c r="S128" s="4"/>
     </row>
-    <row r="129">
+    <row r="129" spans="1:19">
       <c r="A129" s="4"/>
       <c r="B129" s="4"/>
       <c r="C129" s="4"/>
@@ -13398,7 +13800,7 @@
       <c r="R129" s="4"/>
       <c r="S129" s="4"/>
     </row>
-    <row r="130">
+    <row r="130" spans="1:19">
       <c r="A130" s="4"/>
       <c r="B130" s="4"/>
       <c r="C130" s="4"/>
@@ -13419,7 +13821,7 @@
       <c r="R130" s="4"/>
       <c r="S130" s="4"/>
     </row>
-    <row r="131">
+    <row r="131" spans="1:19">
       <c r="A131" s="4"/>
       <c r="B131" s="4"/>
       <c r="C131" s="4"/>
@@ -13440,7 +13842,7 @@
       <c r="R131" s="4"/>
       <c r="S131" s="4"/>
     </row>
-    <row r="132">
+    <row r="132" spans="1:19">
       <c r="A132" s="4"/>
       <c r="B132" s="4"/>
       <c r="C132" s="4"/>
@@ -13461,7 +13863,7 @@
       <c r="R132" s="4"/>
       <c r="S132" s="4"/>
     </row>
-    <row r="133">
+    <row r="133" spans="1:19">
       <c r="A133" s="4"/>
       <c r="B133" s="4"/>
       <c r="C133" s="4"/>
@@ -13482,7 +13884,7 @@
       <c r="R133" s="4"/>
       <c r="S133" s="4"/>
     </row>
-    <row r="134">
+    <row r="134" spans="1:19">
       <c r="A134" s="4"/>
       <c r="B134" s="4"/>
       <c r="C134" s="4"/>
@@ -13503,7 +13905,7 @@
       <c r="R134" s="4"/>
       <c r="S134" s="4"/>
     </row>
-    <row r="135">
+    <row r="135" spans="1:19">
       <c r="A135" s="4"/>
       <c r="B135" s="4"/>
       <c r="C135" s="4"/>
@@ -13524,7 +13926,7 @@
       <c r="R135" s="4"/>
       <c r="S135" s="4"/>
     </row>
-    <row r="136">
+    <row r="136" spans="1:19">
       <c r="A136" s="4"/>
       <c r="B136" s="4"/>
       <c r="C136" s="4"/>
@@ -13545,7 +13947,7 @@
       <c r="R136" s="4"/>
       <c r="S136" s="4"/>
     </row>
-    <row r="137">
+    <row r="137" spans="1:19">
       <c r="A137" s="4"/>
       <c r="B137" s="4"/>
       <c r="C137" s="4"/>
@@ -13566,7 +13968,7 @@
       <c r="R137" s="4"/>
       <c r="S137" s="4"/>
     </row>
-    <row r="138">
+    <row r="138" spans="1:19">
       <c r="A138" s="4"/>
       <c r="B138" s="4"/>
       <c r="C138" s="4"/>
@@ -13587,7 +13989,7 @@
       <c r="R138" s="4"/>
       <c r="S138" s="4"/>
     </row>
-    <row r="139">
+    <row r="139" spans="1:19">
       <c r="A139" s="4"/>
       <c r="B139" s="4"/>
       <c r="C139" s="4"/>
@@ -13608,7 +14010,7 @@
       <c r="R139" s="4"/>
       <c r="S139" s="4"/>
     </row>
-    <row r="140">
+    <row r="140" spans="1:19">
       <c r="A140" s="4"/>
       <c r="B140" s="4"/>
       <c r="C140" s="4"/>
@@ -13629,7 +14031,7 @@
       <c r="R140" s="4"/>
       <c r="S140" s="4"/>
     </row>
-    <row r="141">
+    <row r="141" spans="1:19">
       <c r="A141" s="4"/>
       <c r="B141" s="4"/>
       <c r="C141" s="4"/>
@@ -13650,7 +14052,7 @@
       <c r="R141" s="4"/>
       <c r="S141" s="4"/>
     </row>
-    <row r="142">
+    <row r="142" spans="1:19">
       <c r="A142" s="4"/>
       <c r="B142" s="4"/>
       <c r="C142" s="4"/>
@@ -13671,7 +14073,7 @@
       <c r="R142" s="4"/>
       <c r="S142" s="4"/>
     </row>
-    <row r="143">
+    <row r="143" spans="1:19">
       <c r="A143" s="4"/>
       <c r="B143" s="4"/>
       <c r="C143" s="4"/>
@@ -13692,7 +14094,7 @@
       <c r="R143" s="4"/>
       <c r="S143" s="4"/>
     </row>
-    <row r="144">
+    <row r="144" spans="1:19">
       <c r="A144" s="4"/>
       <c r="B144" s="4"/>
       <c r="C144" s="4"/>
@@ -13713,7 +14115,7 @@
       <c r="R144" s="4"/>
       <c r="S144" s="4"/>
     </row>
-    <row r="145">
+    <row r="145" spans="1:19">
       <c r="A145" s="4"/>
       <c r="B145" s="4"/>
       <c r="C145" s="4"/>
@@ -13734,7 +14136,7 @@
       <c r="R145" s="4"/>
       <c r="S145" s="4"/>
     </row>
-    <row r="146">
+    <row r="146" spans="1:19">
       <c r="A146" s="4"/>
       <c r="B146" s="4"/>
       <c r="C146" s="4"/>
@@ -13755,7 +14157,7 @@
       <c r="R146" s="4"/>
       <c r="S146" s="4"/>
     </row>
-    <row r="147">
+    <row r="147" spans="1:19">
       <c r="A147" s="4"/>
       <c r="B147" s="4"/>
       <c r="C147" s="4"/>
@@ -13776,7 +14178,7 @@
       <c r="R147" s="4"/>
       <c r="S147" s="4"/>
     </row>
-    <row r="148">
+    <row r="148" spans="1:19">
       <c r="A148" s="4"/>
       <c r="B148" s="4"/>
       <c r="C148" s="4"/>
@@ -13797,7 +14199,7 @@
       <c r="R148" s="4"/>
       <c r="S148" s="4"/>
     </row>
-    <row r="149">
+    <row r="149" spans="1:19">
       <c r="A149" s="4"/>
       <c r="B149" s="4"/>
       <c r="C149" s="4"/>
@@ -13818,7 +14220,7 @@
       <c r="R149" s="4"/>
       <c r="S149" s="4"/>
     </row>
-    <row r="150">
+    <row r="150" spans="1:19">
       <c r="A150" s="4"/>
       <c r="B150" s="4"/>
       <c r="C150" s="4"/>
@@ -13839,7 +14241,7 @@
       <c r="R150" s="4"/>
       <c r="S150" s="4"/>
     </row>
-    <row r="151">
+    <row r="151" spans="1:19">
       <c r="A151" s="4"/>
       <c r="B151" s="4"/>
       <c r="C151" s="4"/>
@@ -13860,7 +14262,7 @@
       <c r="R151" s="4"/>
       <c r="S151" s="4"/>
     </row>
-    <row r="152">
+    <row r="152" spans="1:19">
       <c r="A152" s="4"/>
       <c r="B152" s="4"/>
       <c r="C152" s="4"/>
@@ -13881,7 +14283,7 @@
       <c r="R152" s="4"/>
       <c r="S152" s="4"/>
     </row>
-    <row r="153">
+    <row r="153" spans="1:19">
       <c r="A153" s="4"/>
       <c r="B153" s="4"/>
       <c r="C153" s="4"/>
@@ -13902,7 +14304,7 @@
       <c r="R153" s="4"/>
       <c r="S153" s="4"/>
     </row>
-    <row r="154">
+    <row r="154" spans="1:19">
       <c r="A154" s="4"/>
       <c r="B154" s="4"/>
       <c r="C154" s="4"/>
@@ -13923,7 +14325,7 @@
       <c r="R154" s="4"/>
       <c r="S154" s="4"/>
     </row>
-    <row r="155">
+    <row r="155" spans="1:19">
       <c r="A155" s="4"/>
       <c r="B155" s="4"/>
       <c r="C155" s="4"/>
@@ -13944,7 +14346,7 @@
       <c r="R155" s="4"/>
       <c r="S155" s="4"/>
     </row>
-    <row r="156">
+    <row r="156" spans="1:19">
       <c r="A156" s="4"/>
       <c r="B156" s="4"/>
       <c r="C156" s="4"/>
@@ -13965,7 +14367,7 @@
       <c r="R156" s="4"/>
       <c r="S156" s="4"/>
     </row>
-    <row r="157">
+    <row r="157" spans="1:19">
       <c r="A157" s="4"/>
       <c r="B157" s="4"/>
       <c r="C157" s="4"/>
@@ -13986,7 +14388,7 @@
       <c r="R157" s="4"/>
       <c r="S157" s="4"/>
     </row>
-    <row r="158">
+    <row r="158" spans="1:19">
       <c r="A158" s="4"/>
       <c r="B158" s="4"/>
       <c r="C158" s="4"/>
@@ -14007,7 +14409,7 @@
       <c r="R158" s="4"/>
       <c r="S158" s="4"/>
     </row>
-    <row r="159">
+    <row r="159" spans="1:19">
       <c r="A159" s="4"/>
       <c r="B159" s="4"/>
       <c r="C159" s="4"/>
@@ -14028,7 +14430,7 @@
       <c r="R159" s="4"/>
       <c r="S159" s="4"/>
     </row>
-    <row r="160">
+    <row r="160" spans="1:19">
       <c r="A160" s="4"/>
       <c r="B160" s="4"/>
       <c r="C160" s="4"/>
@@ -14049,7 +14451,7 @@
       <c r="R160" s="4"/>
       <c r="S160" s="4"/>
     </row>
-    <row r="161">
+    <row r="161" spans="1:19">
       <c r="A161" s="4"/>
       <c r="B161" s="4"/>
       <c r="C161" s="4"/>
@@ -14070,7 +14472,7 @@
       <c r="R161" s="4"/>
       <c r="S161" s="4"/>
     </row>
-    <row r="162">
+    <row r="162" spans="1:19">
       <c r="A162" s="4"/>
       <c r="B162" s="4"/>
       <c r="C162" s="4"/>
@@ -14091,7 +14493,7 @@
       <c r="R162" s="4"/>
       <c r="S162" s="4"/>
     </row>
-    <row r="163">
+    <row r="163" spans="1:19">
       <c r="A163" s="4"/>
       <c r="B163" s="4"/>
       <c r="C163" s="4"/>
@@ -14112,7 +14514,7 @@
       <c r="R163" s="4"/>
       <c r="S163" s="4"/>
     </row>
-    <row r="164">
+    <row r="164" spans="1:19">
       <c r="A164" s="4"/>
       <c r="B164" s="4"/>
       <c r="C164" s="4"/>
@@ -14133,7 +14535,7 @@
       <c r="R164" s="4"/>
       <c r="S164" s="4"/>
     </row>
-    <row r="165">
+    <row r="165" spans="1:19">
       <c r="A165" s="4"/>
       <c r="B165" s="4"/>
       <c r="C165" s="4"/>
@@ -14154,7 +14556,7 @@
       <c r="R165" s="4"/>
       <c r="S165" s="4"/>
     </row>
-    <row r="166">
+    <row r="166" spans="1:19">
       <c r="A166" s="4"/>
       <c r="B166" s="4"/>
       <c r="C166" s="4"/>
@@ -14175,7 +14577,7 @@
       <c r="R166" s="4"/>
       <c r="S166" s="4"/>
     </row>
-    <row r="167">
+    <row r="167" spans="1:19">
       <c r="A167" s="4"/>
       <c r="B167" s="4"/>
       <c r="C167" s="4"/>
@@ -14196,7 +14598,7 @@
       <c r="R167" s="4"/>
       <c r="S167" s="4"/>
     </row>
-    <row r="168">
+    <row r="168" spans="1:19">
       <c r="A168" s="4"/>
       <c r="B168" s="4"/>
       <c r="C168" s="4"/>
@@ -14217,7 +14619,7 @@
       <c r="R168" s="4"/>
       <c r="S168" s="4"/>
     </row>
-    <row r="169">
+    <row r="169" spans="1:19">
       <c r="A169" s="4"/>
       <c r="B169" s="4"/>
       <c r="C169" s="4"/>
@@ -14238,7 +14640,7 @@
       <c r="R169" s="4"/>
       <c r="S169" s="4"/>
     </row>
-    <row r="170">
+    <row r="170" spans="1:19">
       <c r="A170" s="4"/>
       <c r="B170" s="4"/>
       <c r="C170" s="4"/>
@@ -14259,7 +14661,7 @@
       <c r="R170" s="4"/>
       <c r="S170" s="4"/>
     </row>
-    <row r="171">
+    <row r="171" spans="1:19">
       <c r="A171" s="4"/>
       <c r="B171" s="4"/>
       <c r="C171" s="4"/>
@@ -14280,7 +14682,7 @@
       <c r="R171" s="4"/>
       <c r="S171" s="4"/>
     </row>
-    <row r="172">
+    <row r="172" spans="1:19">
       <c r="A172" s="4"/>
       <c r="B172" s="4"/>
       <c r="C172" s="4"/>
@@ -14301,7 +14703,7 @@
       <c r="R172" s="4"/>
       <c r="S172" s="4"/>
     </row>
-    <row r="173">
+    <row r="173" spans="1:19">
       <c r="A173" s="4"/>
       <c r="B173" s="4"/>
       <c r="C173" s="4"/>
@@ -14322,7 +14724,7 @@
       <c r="R173" s="4"/>
       <c r="S173" s="4"/>
     </row>
-    <row r="174">
+    <row r="174" spans="1:19">
       <c r="A174" s="4"/>
       <c r="B174" s="4"/>
       <c r="C174" s="4"/>
@@ -14343,7 +14745,7 @@
       <c r="R174" s="4"/>
       <c r="S174" s="4"/>
     </row>
-    <row r="175">
+    <row r="175" spans="1:19">
       <c r="A175" s="4"/>
       <c r="B175" s="4"/>
       <c r="C175" s="4"/>
@@ -14364,7 +14766,7 @@
       <c r="R175" s="4"/>
       <c r="S175" s="4"/>
     </row>
-    <row r="176">
+    <row r="176" spans="1:19">
       <c r="A176" s="4"/>
       <c r="B176" s="4"/>
       <c r="C176" s="4"/>
@@ -14385,7 +14787,7 @@
       <c r="R176" s="4"/>
       <c r="S176" s="4"/>
     </row>
-    <row r="177">
+    <row r="177" spans="1:19">
       <c r="A177" s="4"/>
       <c r="B177" s="4"/>
       <c r="C177" s="4"/>
@@ -14406,7 +14808,7 @@
       <c r="R177" s="4"/>
       <c r="S177" s="4"/>
     </row>
-    <row r="178">
+    <row r="178" spans="1:19">
       <c r="A178" s="4"/>
       <c r="B178" s="4"/>
       <c r="C178" s="4"/>
@@ -14427,7 +14829,7 @@
       <c r="R178" s="4"/>
       <c r="S178" s="4"/>
     </row>
-    <row r="179">
+    <row r="179" spans="1:19">
       <c r="A179" s="4"/>
       <c r="B179" s="4"/>
       <c r="C179" s="4"/>
@@ -14448,7 +14850,7 @@
       <c r="R179" s="4"/>
       <c r="S179" s="4"/>
     </row>
-    <row r="180">
+    <row r="180" spans="1:19">
       <c r="A180" s="4"/>
       <c r="B180" s="4"/>
       <c r="C180" s="4"/>
@@ -14469,7 +14871,7 @@
       <c r="R180" s="4"/>
       <c r="S180" s="4"/>
     </row>
-    <row r="181">
+    <row r="181" spans="1:19">
       <c r="A181" s="4"/>
       <c r="B181" s="4"/>
       <c r="C181" s="4"/>
@@ -14490,7 +14892,7 @@
       <c r="R181" s="4"/>
       <c r="S181" s="4"/>
     </row>
-    <row r="182">
+    <row r="182" spans="1:19">
       <c r="A182" s="4"/>
       <c r="B182" s="4"/>
       <c r="C182" s="4"/>
@@ -14511,7 +14913,7 @@
       <c r="R182" s="4"/>
       <c r="S182" s="4"/>
     </row>
-    <row r="183">
+    <row r="183" spans="1:19">
       <c r="A183" s="4"/>
       <c r="B183" s="4"/>
       <c r="C183" s="4"/>
@@ -14532,7 +14934,7 @@
       <c r="R183" s="4"/>
       <c r="S183" s="4"/>
     </row>
-    <row r="184">
+    <row r="184" spans="1:19">
       <c r="A184" s="4"/>
       <c r="B184" s="4"/>
       <c r="C184" s="4"/>
@@ -14553,7 +14955,7 @@
       <c r="R184" s="4"/>
       <c r="S184" s="4"/>
     </row>
-    <row r="185">
+    <row r="185" spans="1:19">
       <c r="A185" s="4"/>
       <c r="B185" s="4"/>
       <c r="C185" s="4"/>
@@ -14574,7 +14976,7 @@
       <c r="R185" s="4"/>
       <c r="S185" s="4"/>
     </row>
-    <row r="186">
+    <row r="186" spans="1:19">
       <c r="A186" s="4"/>
       <c r="B186" s="4"/>
       <c r="C186" s="4"/>
@@ -14595,7 +14997,7 @@
       <c r="R186" s="4"/>
       <c r="S186" s="4"/>
     </row>
-    <row r="187">
+    <row r="187" spans="1:19">
       <c r="A187" s="4"/>
       <c r="B187" s="4"/>
       <c r="C187" s="4"/>
@@ -14616,7 +15018,7 @@
       <c r="R187" s="4"/>
       <c r="S187" s="4"/>
     </row>
-    <row r="188">
+    <row r="188" spans="1:19">
       <c r="A188" s="4"/>
       <c r="B188" s="4"/>
       <c r="C188" s="4"/>
@@ -14637,7 +15039,7 @@
       <c r="R188" s="4"/>
       <c r="S188" s="4"/>
     </row>
-    <row r="189">
+    <row r="189" spans="1:19">
       <c r="A189" s="4"/>
       <c r="B189" s="4"/>
       <c r="C189" s="4"/>
@@ -14658,7 +15060,7 @@
       <c r="R189" s="4"/>
       <c r="S189" s="4"/>
     </row>
-    <row r="190">
+    <row r="190" spans="1:19">
       <c r="A190" s="4"/>
       <c r="B190" s="4"/>
       <c r="C190" s="4"/>
@@ -14679,7 +15081,7 @@
       <c r="R190" s="4"/>
       <c r="S190" s="4"/>
     </row>
-    <row r="191">
+    <row r="191" spans="1:19">
       <c r="A191" s="4"/>
       <c r="B191" s="4"/>
       <c r="C191" s="4"/>
@@ -14700,7 +15102,7 @@
       <c r="R191" s="4"/>
       <c r="S191" s="4"/>
     </row>
-    <row r="192">
+    <row r="192" spans="1:19">
       <c r="A192" s="4"/>
       <c r="B192" s="4"/>
       <c r="C192" s="4"/>
@@ -14721,7 +15123,7 @@
       <c r="R192" s="4"/>
       <c r="S192" s="4"/>
     </row>
-    <row r="193">
+    <row r="193" spans="1:19">
       <c r="A193" s="4"/>
       <c r="B193" s="4"/>
       <c r="C193" s="4"/>
@@ -14742,7 +15144,7 @@
       <c r="R193" s="4"/>
       <c r="S193" s="4"/>
     </row>
-    <row r="194">
+    <row r="194" spans="1:19">
       <c r="A194" s="4"/>
       <c r="B194" s="4"/>
       <c r="C194" s="4"/>
@@ -14763,7 +15165,7 @@
       <c r="R194" s="4"/>
       <c r="S194" s="4"/>
     </row>
-    <row r="195">
+    <row r="195" spans="1:19">
       <c r="A195" s="4"/>
       <c r="B195" s="4"/>
       <c r="C195" s="4"/>
@@ -14784,7 +15186,7 @@
       <c r="R195" s="4"/>
       <c r="S195" s="4"/>
     </row>
-    <row r="196">
+    <row r="196" spans="1:19">
       <c r="A196" s="4"/>
       <c r="B196" s="4"/>
       <c r="C196" s="4"/>
@@ -14805,7 +15207,7 @@
       <c r="R196" s="4"/>
       <c r="S196" s="4"/>
     </row>
-    <row r="197">
+    <row r="197" spans="1:19">
       <c r="A197" s="4"/>
       <c r="B197" s="4"/>
       <c r="C197" s="4"/>
@@ -14826,7 +15228,7 @@
       <c r="R197" s="4"/>
       <c r="S197" s="4"/>
     </row>
-    <row r="198">
+    <row r="198" spans="1:19">
       <c r="A198" s="4"/>
       <c r="B198" s="4"/>
       <c r="C198" s="4"/>
@@ -14847,7 +15249,7 @@
       <c r="R198" s="4"/>
       <c r="S198" s="4"/>
     </row>
-    <row r="199">
+    <row r="199" spans="1:19">
       <c r="A199" s="4"/>
       <c r="B199" s="4"/>
       <c r="C199" s="4"/>
@@ -14868,7 +15270,7 @@
       <c r="R199" s="4"/>
       <c r="S199" s="4"/>
     </row>
-    <row r="200">
+    <row r="200" spans="1:19">
       <c r="A200" s="4"/>
       <c r="B200" s="4"/>
       <c r="C200" s="4"/>
@@ -14890,7 +15292,8 @@
       <c r="S200" s="4"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Core/M5 Core Main Comparison .xlsx
+++ b/Core/M5 Core Main Comparison .xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\github_code\M5-Schematic\Core\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{497A6BEE-1EB9-4D96-8E61-C71B5F74F998}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21760D06-1530-4CD9-B745-6AE711A40A34}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="English" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="88">
   <si>
     <t>Core</t>
   </si>
@@ -61,10 +61,6 @@
   </si>
   <si>
     <t>4MB</t>
-  </si>
-  <si>
-    <t>16MB Flash + 
-4MB PSRAM</t>
   </si>
   <si>
     <t>16MB</t>
@@ -204,9 +200,6 @@
   </si>
   <si>
     <t>图片</t>
-  </si>
-  <si>
-    <t>Flash闪存</t>
   </si>
   <si>
     <t>接口</t>
@@ -433,12 +426,49 @@
     </r>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
+  <si>
+    <t>RAM</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>520KB</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>520KB
++
+4MB PSRAM</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>16MB</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>AM</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flash</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -487,6 +517,12 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -551,7 +587,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -607,6 +643,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -980,6 +1022,84 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>8255</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>184727</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="971550" cy="979054"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 1" descr="Picture">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{478B525E-82F9-41A6-A727-24DBC1813DE1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2122805" y="9300152"/>
+          <a:ext cx="971550" cy="979054"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>8255</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>184727</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="971550" cy="979054"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 1" descr="Picture">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{778E40B2-E8C1-410B-867E-0F15078B7E17}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2122805" y="11957627"/>
+          <a:ext cx="971550" cy="979054"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1994,29 +2114,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S200"/>
+  <dimension ref="A1:T200"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="27.75"/>
     <col min="2" max="2" width="12.75"/>
-    <col min="3" max="3" width="8.75"/>
-    <col min="4" max="4" width="14.75"/>
-    <col min="5" max="5" width="9.75"/>
-    <col min="6" max="6" width="12.75"/>
-    <col min="7" max="7" width="14.75"/>
-    <col min="8" max="8" width="9.75"/>
-    <col min="9" max="9" width="14.75"/>
-    <col min="10" max="10" width="8.75"/>
-    <col min="11" max="11" width="37.75"/>
-    <col min="12" max="19" width="8.75"/>
+    <col min="4" max="4" width="8.75"/>
+    <col min="5" max="5" width="14.75"/>
+    <col min="6" max="6" width="9.75"/>
+    <col min="7" max="7" width="12.75"/>
+    <col min="8" max="8" width="14.75"/>
+    <col min="9" max="9" width="9.75"/>
+    <col min="10" max="10" width="14.75"/>
+    <col min="11" max="11" width="8.75"/>
+    <col min="12" max="12" width="37.75"/>
+    <col min="13" max="20" width="8.75"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="39" customHeight="1">
+    <row r="1" spans="1:20" ht="39" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2024,33 +2144,35 @@
         <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>18</v>
+      <c r="E1" s="7" t="s">
+        <v>14</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="L1" s="4"/>
+        <v>27</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>35</v>
+      </c>
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
@@ -2058,40 +2180,43 @@
       <c r="Q1" s="4"/>
       <c r="R1" s="4"/>
       <c r="S1" s="4"/>
-    </row>
-    <row r="2" spans="1:19" ht="135.94999999999999" customHeight="1">
+      <c r="T1" s="4"/>
+    </row>
+    <row r="2" spans="1:20" ht="135.94999999999999" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="4"/>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>29</v>
+      <c r="E2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="K2" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="L2" s="4"/>
+        <v>28</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" s="15" t="s">
+        <v>36</v>
+      </c>
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
@@ -2099,40 +2224,43 @@
       <c r="Q2" s="4"/>
       <c r="R2" s="4"/>
       <c r="S2" s="4"/>
-    </row>
-    <row r="3" spans="1:19" ht="135.94999999999999" customHeight="1">
+      <c r="T2" s="4"/>
+    </row>
+    <row r="3" spans="1:20" ht="135.94999999999999" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="4"/>
-      <c r="C3" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="I3" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="K3" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="L3" s="4"/>
+      <c r="C3" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" s="15" t="s">
+        <v>37</v>
+      </c>
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
@@ -2140,40 +2268,43 @@
       <c r="Q3" s="4"/>
       <c r="R3" s="4"/>
       <c r="S3" s="4"/>
-    </row>
-    <row r="4" spans="1:19" ht="135.94999999999999" customHeight="1">
+      <c r="T3" s="4"/>
+    </row>
+    <row r="4" spans="1:20" ht="135.94999999999999" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="4"/>
-      <c r="C4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="K4" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="L4" s="4"/>
+      <c r="C4" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4" s="15" t="s">
+        <v>38</v>
+      </c>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
@@ -2181,40 +2312,43 @@
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
       <c r="S4" s="4"/>
-    </row>
-    <row r="5" spans="1:19" ht="135.94999999999999" customHeight="1">
+      <c r="T4" s="4"/>
+    </row>
+    <row r="5" spans="1:20" ht="135.94999999999999" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="4"/>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="I5" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="K5" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="L5" s="4"/>
+      <c r="K5" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="L5" s="15" t="s">
+        <v>39</v>
+      </c>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
@@ -2222,40 +2356,43 @@
       <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
       <c r="S5" s="4"/>
-    </row>
-    <row r="6" spans="1:19" ht="135.94999999999999" customHeight="1">
+      <c r="T5" s="4"/>
+    </row>
+    <row r="6" spans="1:20" ht="135.94999999999999" customHeight="1">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="4"/>
-      <c r="C6" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="I6" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="K6" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="L6" s="4"/>
+      <c r="C6" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="L6" s="15" t="s">
+        <v>40</v>
+      </c>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
@@ -2263,40 +2400,43 @@
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
       <c r="S6" s="4"/>
-    </row>
-    <row r="7" spans="1:19" ht="156" customHeight="1">
+      <c r="T6" s="4"/>
+    </row>
+    <row r="7" spans="1:20" ht="156" customHeight="1">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="4"/>
-      <c r="C7" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="I7" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="K7" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="L7" s="4"/>
+      <c r="C7" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="J7" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="L7" s="15" t="s">
+        <v>41</v>
+      </c>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
@@ -2304,8 +2444,9 @@
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
       <c r="S7" s="4"/>
-    </row>
-    <row r="8" spans="1:19">
+      <c r="T7" s="4"/>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -2325,42 +2466,45 @@
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
       <c r="S8" s="4"/>
-    </row>
-    <row r="9" spans="1:19" ht="39" customHeight="1">
+      <c r="T8" s="4"/>
+    </row>
+    <row r="9" spans="1:20" ht="39" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>18</v>
+      <c r="E9" s="7" t="s">
+        <v>14</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="L9" s="4"/>
+        <v>27</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>35</v>
+      </c>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
@@ -2368,40 +2512,43 @@
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
       <c r="S9" s="4"/>
-    </row>
-    <row r="10" spans="1:19" ht="78" customHeight="1">
+      <c r="T9" s="4"/>
+    </row>
+    <row r="10" spans="1:20" ht="78" customHeight="1">
       <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="4"/>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="I10" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="J10" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="K10" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="L10" s="4"/>
+      <c r="E10" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="L10" s="15" t="s">
+        <v>42</v>
+      </c>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
@@ -2409,40 +2556,43 @@
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
       <c r="S10" s="4"/>
-    </row>
-    <row r="11" spans="1:19" ht="117" customHeight="1">
+      <c r="T10" s="4"/>
+    </row>
+    <row r="11" spans="1:20" ht="117" customHeight="1">
       <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="4"/>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H11" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="I11" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="J11" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="K11" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="L11" s="4"/>
+      <c r="E11" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="L11" s="15" t="s">
+        <v>43</v>
+      </c>
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
@@ -2450,8 +2600,9 @@
       <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
       <c r="S11" s="4"/>
-    </row>
-    <row r="12" spans="1:19">
+      <c r="T11" s="4"/>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -2471,8 +2622,9 @@
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
       <c r="S12" s="4"/>
-    </row>
-    <row r="13" spans="1:19">
+      <c r="T12" s="4"/>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -2492,8 +2644,9 @@
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
       <c r="S13" s="4"/>
-    </row>
-    <row r="14" spans="1:19">
+      <c r="T13" s="4"/>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -2513,8 +2666,9 @@
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
       <c r="S14" s="4"/>
-    </row>
-    <row r="15" spans="1:19">
+      <c r="T14" s="4"/>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -2534,8 +2688,9 @@
       <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
       <c r="S15" s="4"/>
-    </row>
-    <row r="16" spans="1:19">
+      <c r="T15" s="4"/>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -2555,8 +2710,9 @@
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
       <c r="S16" s="4"/>
-    </row>
-    <row r="17" spans="1:19">
+      <c r="T16" s="4"/>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -2576,8 +2732,9 @@
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
       <c r="S17" s="4"/>
-    </row>
-    <row r="18" spans="1:19">
+      <c r="T17" s="4"/>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -2597,8 +2754,9 @@
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
       <c r="S18" s="4"/>
-    </row>
-    <row r="19" spans="1:19">
+      <c r="T18" s="4"/>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -2618,8 +2776,9 @@
       <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
       <c r="S19" s="4"/>
-    </row>
-    <row r="20" spans="1:19">
+      <c r="T19" s="4"/>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -2639,8 +2798,9 @@
       <c r="Q20" s="4"/>
       <c r="R20" s="4"/>
       <c r="S20" s="4"/>
-    </row>
-    <row r="21" spans="1:19">
+      <c r="T20" s="4"/>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -2660,8 +2820,9 @@
       <c r="Q21" s="4"/>
       <c r="R21" s="4"/>
       <c r="S21" s="4"/>
-    </row>
-    <row r="22" spans="1:19">
+      <c r="T21" s="4"/>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -2681,8 +2842,9 @@
       <c r="Q22" s="4"/>
       <c r="R22" s="4"/>
       <c r="S22" s="4"/>
-    </row>
-    <row r="23" spans="1:19">
+      <c r="T22" s="4"/>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -2702,8 +2864,9 @@
       <c r="Q23" s="4"/>
       <c r="R23" s="4"/>
       <c r="S23" s="4"/>
-    </row>
-    <row r="24" spans="1:19">
+      <c r="T23" s="4"/>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -2723,8 +2886,9 @@
       <c r="Q24" s="4"/>
       <c r="R24" s="4"/>
       <c r="S24" s="4"/>
-    </row>
-    <row r="25" spans="1:19">
+      <c r="T24" s="4"/>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -2744,8 +2908,9 @@
       <c r="Q25" s="4"/>
       <c r="R25" s="4"/>
       <c r="S25" s="4"/>
-    </row>
-    <row r="26" spans="1:19">
+      <c r="T25" s="4"/>
+    </row>
+    <row r="26" spans="1:20">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -2765,8 +2930,9 @@
       <c r="Q26" s="4"/>
       <c r="R26" s="4"/>
       <c r="S26" s="4"/>
-    </row>
-    <row r="27" spans="1:19">
+      <c r="T26" s="4"/>
+    </row>
+    <row r="27" spans="1:20">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -2786,8 +2952,9 @@
       <c r="Q27" s="4"/>
       <c r="R27" s="4"/>
       <c r="S27" s="4"/>
-    </row>
-    <row r="28" spans="1:19">
+      <c r="T27" s="4"/>
+    </row>
+    <row r="28" spans="1:20">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -2807,8 +2974,9 @@
       <c r="Q28" s="4"/>
       <c r="R28" s="4"/>
       <c r="S28" s="4"/>
-    </row>
-    <row r="29" spans="1:19">
+      <c r="T28" s="4"/>
+    </row>
+    <row r="29" spans="1:20">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -2828,8 +2996,9 @@
       <c r="Q29" s="4"/>
       <c r="R29" s="4"/>
       <c r="S29" s="4"/>
-    </row>
-    <row r="30" spans="1:19">
+      <c r="T29" s="4"/>
+    </row>
+    <row r="30" spans="1:20">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -2849,8 +3018,9 @@
       <c r="Q30" s="4"/>
       <c r="R30" s="4"/>
       <c r="S30" s="4"/>
-    </row>
-    <row r="31" spans="1:19">
+      <c r="T30" s="4"/>
+    </row>
+    <row r="31" spans="1:20">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -2870,8 +3040,9 @@
       <c r="Q31" s="4"/>
       <c r="R31" s="4"/>
       <c r="S31" s="4"/>
-    </row>
-    <row r="32" spans="1:19">
+      <c r="T31" s="4"/>
+    </row>
+    <row r="32" spans="1:20">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -2891,8 +3062,9 @@
       <c r="Q32" s="4"/>
       <c r="R32" s="4"/>
       <c r="S32" s="4"/>
-    </row>
-    <row r="33" spans="1:19">
+      <c r="T32" s="4"/>
+    </row>
+    <row r="33" spans="1:20">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -2912,8 +3084,9 @@
       <c r="Q33" s="4"/>
       <c r="R33" s="4"/>
       <c r="S33" s="4"/>
-    </row>
-    <row r="34" spans="1:19">
+      <c r="T33" s="4"/>
+    </row>
+    <row r="34" spans="1:20">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -2933,8 +3106,9 @@
       <c r="Q34" s="4"/>
       <c r="R34" s="4"/>
       <c r="S34" s="4"/>
-    </row>
-    <row r="35" spans="1:19">
+      <c r="T34" s="4"/>
+    </row>
+    <row r="35" spans="1:20">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -2954,8 +3128,9 @@
       <c r="Q35" s="4"/>
       <c r="R35" s="4"/>
       <c r="S35" s="4"/>
-    </row>
-    <row r="36" spans="1:19">
+      <c r="T35" s="4"/>
+    </row>
+    <row r="36" spans="1:20">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -2975,8 +3150,9 @@
       <c r="Q36" s="4"/>
       <c r="R36" s="4"/>
       <c r="S36" s="4"/>
-    </row>
-    <row r="37" spans="1:19">
+      <c r="T36" s="4"/>
+    </row>
+    <row r="37" spans="1:20">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -2996,8 +3172,9 @@
       <c r="Q37" s="4"/>
       <c r="R37" s="4"/>
       <c r="S37" s="4"/>
-    </row>
-    <row r="38" spans="1:19">
+      <c r="T37" s="4"/>
+    </row>
+    <row r="38" spans="1:20">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -3017,8 +3194,9 @@
       <c r="Q38" s="4"/>
       <c r="R38" s="4"/>
       <c r="S38" s="4"/>
-    </row>
-    <row r="39" spans="1:19">
+      <c r="T38" s="4"/>
+    </row>
+    <row r="39" spans="1:20">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -3038,8 +3216,9 @@
       <c r="Q39" s="4"/>
       <c r="R39" s="4"/>
       <c r="S39" s="4"/>
-    </row>
-    <row r="40" spans="1:19">
+      <c r="T39" s="4"/>
+    </row>
+    <row r="40" spans="1:20">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -3059,8 +3238,9 @@
       <c r="Q40" s="4"/>
       <c r="R40" s="4"/>
       <c r="S40" s="4"/>
-    </row>
-    <row r="41" spans="1:19">
+      <c r="T40" s="4"/>
+    </row>
+    <row r="41" spans="1:20">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -3080,8 +3260,9 @@
       <c r="Q41" s="4"/>
       <c r="R41" s="4"/>
       <c r="S41" s="4"/>
-    </row>
-    <row r="42" spans="1:19">
+      <c r="T41" s="4"/>
+    </row>
+    <row r="42" spans="1:20">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -3101,8 +3282,9 @@
       <c r="Q42" s="4"/>
       <c r="R42" s="4"/>
       <c r="S42" s="4"/>
-    </row>
-    <row r="43" spans="1:19">
+      <c r="T42" s="4"/>
+    </row>
+    <row r="43" spans="1:20">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -3122,8 +3304,9 @@
       <c r="Q43" s="4"/>
       <c r="R43" s="4"/>
       <c r="S43" s="4"/>
-    </row>
-    <row r="44" spans="1:19">
+      <c r="T43" s="4"/>
+    </row>
+    <row r="44" spans="1:20">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -3143,8 +3326,9 @@
       <c r="Q44" s="4"/>
       <c r="R44" s="4"/>
       <c r="S44" s="4"/>
-    </row>
-    <row r="45" spans="1:19">
+      <c r="T44" s="4"/>
+    </row>
+    <row r="45" spans="1:20">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -3164,8 +3348,9 @@
       <c r="Q45" s="4"/>
       <c r="R45" s="4"/>
       <c r="S45" s="4"/>
-    </row>
-    <row r="46" spans="1:19">
+      <c r="T45" s="4"/>
+    </row>
+    <row r="46" spans="1:20">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -3185,8 +3370,9 @@
       <c r="Q46" s="4"/>
       <c r="R46" s="4"/>
       <c r="S46" s="4"/>
-    </row>
-    <row r="47" spans="1:19">
+      <c r="T46" s="4"/>
+    </row>
+    <row r="47" spans="1:20">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -3206,8 +3392,9 @@
       <c r="Q47" s="4"/>
       <c r="R47" s="4"/>
       <c r="S47" s="4"/>
-    </row>
-    <row r="48" spans="1:19">
+      <c r="T47" s="4"/>
+    </row>
+    <row r="48" spans="1:20">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
@@ -3227,8 +3414,9 @@
       <c r="Q48" s="4"/>
       <c r="R48" s="4"/>
       <c r="S48" s="4"/>
-    </row>
-    <row r="49" spans="1:19">
+      <c r="T48" s="4"/>
+    </row>
+    <row r="49" spans="1:20">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
@@ -3248,8 +3436,9 @@
       <c r="Q49" s="4"/>
       <c r="R49" s="4"/>
       <c r="S49" s="4"/>
-    </row>
-    <row r="50" spans="1:19">
+      <c r="T49" s="4"/>
+    </row>
+    <row r="50" spans="1:20">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
@@ -3269,8 +3458,9 @@
       <c r="Q50" s="4"/>
       <c r="R50" s="4"/>
       <c r="S50" s="4"/>
-    </row>
-    <row r="51" spans="1:19">
+      <c r="T50" s="4"/>
+    </row>
+    <row r="51" spans="1:20">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
@@ -3290,8 +3480,9 @@
       <c r="Q51" s="4"/>
       <c r="R51" s="4"/>
       <c r="S51" s="4"/>
-    </row>
-    <row r="52" spans="1:19">
+      <c r="T51" s="4"/>
+    </row>
+    <row r="52" spans="1:20">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
@@ -3311,8 +3502,9 @@
       <c r="Q52" s="4"/>
       <c r="R52" s="4"/>
       <c r="S52" s="4"/>
-    </row>
-    <row r="53" spans="1:19">
+      <c r="T52" s="4"/>
+    </row>
+    <row r="53" spans="1:20">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
@@ -3332,8 +3524,9 @@
       <c r="Q53" s="4"/>
       <c r="R53" s="4"/>
       <c r="S53" s="4"/>
-    </row>
-    <row r="54" spans="1:19">
+      <c r="T53" s="4"/>
+    </row>
+    <row r="54" spans="1:20">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
@@ -3353,8 +3546,9 @@
       <c r="Q54" s="4"/>
       <c r="R54" s="4"/>
       <c r="S54" s="4"/>
-    </row>
-    <row r="55" spans="1:19">
+      <c r="T54" s="4"/>
+    </row>
+    <row r="55" spans="1:20">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
@@ -3374,8 +3568,9 @@
       <c r="Q55" s="4"/>
       <c r="R55" s="4"/>
       <c r="S55" s="4"/>
-    </row>
-    <row r="56" spans="1:19">
+      <c r="T55" s="4"/>
+    </row>
+    <row r="56" spans="1:20">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
@@ -3395,8 +3590,9 @@
       <c r="Q56" s="4"/>
       <c r="R56" s="4"/>
       <c r="S56" s="4"/>
-    </row>
-    <row r="57" spans="1:19">
+      <c r="T56" s="4"/>
+    </row>
+    <row r="57" spans="1:20">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -3416,8 +3612,9 @@
       <c r="Q57" s="4"/>
       <c r="R57" s="4"/>
       <c r="S57" s="4"/>
-    </row>
-    <row r="58" spans="1:19">
+      <c r="T57" s="4"/>
+    </row>
+    <row r="58" spans="1:20">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
@@ -3437,8 +3634,9 @@
       <c r="Q58" s="4"/>
       <c r="R58" s="4"/>
       <c r="S58" s="4"/>
-    </row>
-    <row r="59" spans="1:19">
+      <c r="T58" s="4"/>
+    </row>
+    <row r="59" spans="1:20">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
@@ -3458,8 +3656,9 @@
       <c r="Q59" s="4"/>
       <c r="R59" s="4"/>
       <c r="S59" s="4"/>
-    </row>
-    <row r="60" spans="1:19">
+      <c r="T59" s="4"/>
+    </row>
+    <row r="60" spans="1:20">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
@@ -3479,8 +3678,9 @@
       <c r="Q60" s="4"/>
       <c r="R60" s="4"/>
       <c r="S60" s="4"/>
-    </row>
-    <row r="61" spans="1:19">
+      <c r="T60" s="4"/>
+    </row>
+    <row r="61" spans="1:20">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
@@ -3500,8 +3700,9 @@
       <c r="Q61" s="4"/>
       <c r="R61" s="4"/>
       <c r="S61" s="4"/>
-    </row>
-    <row r="62" spans="1:19">
+      <c r="T61" s="4"/>
+    </row>
+    <row r="62" spans="1:20">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
@@ -3521,8 +3722,9 @@
       <c r="Q62" s="4"/>
       <c r="R62" s="4"/>
       <c r="S62" s="4"/>
-    </row>
-    <row r="63" spans="1:19">
+      <c r="T62" s="4"/>
+    </row>
+    <row r="63" spans="1:20">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
@@ -3542,8 +3744,9 @@
       <c r="Q63" s="4"/>
       <c r="R63" s="4"/>
       <c r="S63" s="4"/>
-    </row>
-    <row r="64" spans="1:19">
+      <c r="T63" s="4"/>
+    </row>
+    <row r="64" spans="1:20">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
@@ -3563,8 +3766,9 @@
       <c r="Q64" s="4"/>
       <c r="R64" s="4"/>
       <c r="S64" s="4"/>
-    </row>
-    <row r="65" spans="1:19">
+      <c r="T64" s="4"/>
+    </row>
+    <row r="65" spans="1:20">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
@@ -3584,8 +3788,9 @@
       <c r="Q65" s="4"/>
       <c r="R65" s="4"/>
       <c r="S65" s="4"/>
-    </row>
-    <row r="66" spans="1:19">
+      <c r="T65" s="4"/>
+    </row>
+    <row r="66" spans="1:20">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
@@ -3605,8 +3810,9 @@
       <c r="Q66" s="4"/>
       <c r="R66" s="4"/>
       <c r="S66" s="4"/>
-    </row>
-    <row r="67" spans="1:19">
+      <c r="T66" s="4"/>
+    </row>
+    <row r="67" spans="1:20">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
@@ -3626,8 +3832,9 @@
       <c r="Q67" s="4"/>
       <c r="R67" s="4"/>
       <c r="S67" s="4"/>
-    </row>
-    <row r="68" spans="1:19">
+      <c r="T67" s="4"/>
+    </row>
+    <row r="68" spans="1:20">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
@@ -3647,8 +3854,9 @@
       <c r="Q68" s="4"/>
       <c r="R68" s="4"/>
       <c r="S68" s="4"/>
-    </row>
-    <row r="69" spans="1:19">
+      <c r="T68" s="4"/>
+    </row>
+    <row r="69" spans="1:20">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
@@ -3668,8 +3876,9 @@
       <c r="Q69" s="4"/>
       <c r="R69" s="4"/>
       <c r="S69" s="4"/>
-    </row>
-    <row r="70" spans="1:19">
+      <c r="T69" s="4"/>
+    </row>
+    <row r="70" spans="1:20">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
@@ -3689,8 +3898,9 @@
       <c r="Q70" s="4"/>
       <c r="R70" s="4"/>
       <c r="S70" s="4"/>
-    </row>
-    <row r="71" spans="1:19">
+      <c r="T70" s="4"/>
+    </row>
+    <row r="71" spans="1:20">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
@@ -3710,8 +3920,9 @@
       <c r="Q71" s="4"/>
       <c r="R71" s="4"/>
       <c r="S71" s="4"/>
-    </row>
-    <row r="72" spans="1:19">
+      <c r="T71" s="4"/>
+    </row>
+    <row r="72" spans="1:20">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
@@ -3731,8 +3942,9 @@
       <c r="Q72" s="4"/>
       <c r="R72" s="4"/>
       <c r="S72" s="4"/>
-    </row>
-    <row r="73" spans="1:19">
+      <c r="T72" s="4"/>
+    </row>
+    <row r="73" spans="1:20">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
@@ -3752,8 +3964,9 @@
       <c r="Q73" s="4"/>
       <c r="R73" s="4"/>
       <c r="S73" s="4"/>
-    </row>
-    <row r="74" spans="1:19">
+      <c r="T73" s="4"/>
+    </row>
+    <row r="74" spans="1:20">
       <c r="A74" s="4"/>
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
@@ -3773,8 +3986,9 @@
       <c r="Q74" s="4"/>
       <c r="R74" s="4"/>
       <c r="S74" s="4"/>
-    </row>
-    <row r="75" spans="1:19">
+      <c r="T74" s="4"/>
+    </row>
+    <row r="75" spans="1:20">
       <c r="A75" s="4"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
@@ -3794,8 +4008,9 @@
       <c r="Q75" s="4"/>
       <c r="R75" s="4"/>
       <c r="S75" s="4"/>
-    </row>
-    <row r="76" spans="1:19">
+      <c r="T75" s="4"/>
+    </row>
+    <row r="76" spans="1:20">
       <c r="A76" s="4"/>
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
@@ -3815,8 +4030,9 @@
       <c r="Q76" s="4"/>
       <c r="R76" s="4"/>
       <c r="S76" s="4"/>
-    </row>
-    <row r="77" spans="1:19">
+      <c r="T76" s="4"/>
+    </row>
+    <row r="77" spans="1:20">
       <c r="A77" s="4"/>
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
@@ -3836,8 +4052,9 @@
       <c r="Q77" s="4"/>
       <c r="R77" s="4"/>
       <c r="S77" s="4"/>
-    </row>
-    <row r="78" spans="1:19">
+      <c r="T77" s="4"/>
+    </row>
+    <row r="78" spans="1:20">
       <c r="A78" s="4"/>
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
@@ -3857,8 +4074,9 @@
       <c r="Q78" s="4"/>
       <c r="R78" s="4"/>
       <c r="S78" s="4"/>
-    </row>
-    <row r="79" spans="1:19">
+      <c r="T78" s="4"/>
+    </row>
+    <row r="79" spans="1:20">
       <c r="A79" s="4"/>
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
@@ -3878,8 +4096,9 @@
       <c r="Q79" s="4"/>
       <c r="R79" s="4"/>
       <c r="S79" s="4"/>
-    </row>
-    <row r="80" spans="1:19">
+      <c r="T79" s="4"/>
+    </row>
+    <row r="80" spans="1:20">
       <c r="A80" s="4"/>
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
@@ -3899,8 +4118,9 @@
       <c r="Q80" s="4"/>
       <c r="R80" s="4"/>
       <c r="S80" s="4"/>
-    </row>
-    <row r="81" spans="1:19">
+      <c r="T80" s="4"/>
+    </row>
+    <row r="81" spans="1:20">
       <c r="A81" s="4"/>
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
@@ -3920,8 +4140,9 @@
       <c r="Q81" s="4"/>
       <c r="R81" s="4"/>
       <c r="S81" s="4"/>
-    </row>
-    <row r="82" spans="1:19">
+      <c r="T81" s="4"/>
+    </row>
+    <row r="82" spans="1:20">
       <c r="A82" s="4"/>
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
@@ -3941,8 +4162,9 @@
       <c r="Q82" s="4"/>
       <c r="R82" s="4"/>
       <c r="S82" s="4"/>
-    </row>
-    <row r="83" spans="1:19">
+      <c r="T82" s="4"/>
+    </row>
+    <row r="83" spans="1:20">
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
@@ -3962,8 +4184,9 @@
       <c r="Q83" s="4"/>
       <c r="R83" s="4"/>
       <c r="S83" s="4"/>
-    </row>
-    <row r="84" spans="1:19">
+      <c r="T83" s="4"/>
+    </row>
+    <row r="84" spans="1:20">
       <c r="A84" s="4"/>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
@@ -3983,8 +4206,9 @@
       <c r="Q84" s="4"/>
       <c r="R84" s="4"/>
       <c r="S84" s="4"/>
-    </row>
-    <row r="85" spans="1:19">
+      <c r="T84" s="4"/>
+    </row>
+    <row r="85" spans="1:20">
       <c r="A85" s="4"/>
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
@@ -4004,8 +4228,9 @@
       <c r="Q85" s="4"/>
       <c r="R85" s="4"/>
       <c r="S85" s="4"/>
-    </row>
-    <row r="86" spans="1:19">
+      <c r="T85" s="4"/>
+    </row>
+    <row r="86" spans="1:20">
       <c r="A86" s="4"/>
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
@@ -4025,8 +4250,9 @@
       <c r="Q86" s="4"/>
       <c r="R86" s="4"/>
       <c r="S86" s="4"/>
-    </row>
-    <row r="87" spans="1:19">
+      <c r="T86" s="4"/>
+    </row>
+    <row r="87" spans="1:20">
       <c r="A87" s="4"/>
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
@@ -4046,8 +4272,9 @@
       <c r="Q87" s="4"/>
       <c r="R87" s="4"/>
       <c r="S87" s="4"/>
-    </row>
-    <row r="88" spans="1:19">
+      <c r="T87" s="4"/>
+    </row>
+    <row r="88" spans="1:20">
       <c r="A88" s="4"/>
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
@@ -4067,8 +4294,9 @@
       <c r="Q88" s="4"/>
       <c r="R88" s="4"/>
       <c r="S88" s="4"/>
-    </row>
-    <row r="89" spans="1:19">
+      <c r="T88" s="4"/>
+    </row>
+    <row r="89" spans="1:20">
       <c r="A89" s="4"/>
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
@@ -4088,8 +4316,9 @@
       <c r="Q89" s="4"/>
       <c r="R89" s="4"/>
       <c r="S89" s="4"/>
-    </row>
-    <row r="90" spans="1:19">
+      <c r="T89" s="4"/>
+    </row>
+    <row r="90" spans="1:20">
       <c r="A90" s="4"/>
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
@@ -4109,8 +4338,9 @@
       <c r="Q90" s="4"/>
       <c r="R90" s="4"/>
       <c r="S90" s="4"/>
-    </row>
-    <row r="91" spans="1:19">
+      <c r="T90" s="4"/>
+    </row>
+    <row r="91" spans="1:20">
       <c r="A91" s="4"/>
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
@@ -4130,8 +4360,9 @@
       <c r="Q91" s="4"/>
       <c r="R91" s="4"/>
       <c r="S91" s="4"/>
-    </row>
-    <row r="92" spans="1:19">
+      <c r="T91" s="4"/>
+    </row>
+    <row r="92" spans="1:20">
       <c r="A92" s="4"/>
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
@@ -4151,8 +4382,9 @@
       <c r="Q92" s="4"/>
       <c r="R92" s="4"/>
       <c r="S92" s="4"/>
-    </row>
-    <row r="93" spans="1:19">
+      <c r="T92" s="4"/>
+    </row>
+    <row r="93" spans="1:20">
       <c r="A93" s="4"/>
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
@@ -4172,8 +4404,9 @@
       <c r="Q93" s="4"/>
       <c r="R93" s="4"/>
       <c r="S93" s="4"/>
-    </row>
-    <row r="94" spans="1:19">
+      <c r="T93" s="4"/>
+    </row>
+    <row r="94" spans="1:20">
       <c r="A94" s="4"/>
       <c r="B94" s="4"/>
       <c r="C94" s="4"/>
@@ -4193,8 +4426,9 @@
       <c r="Q94" s="4"/>
       <c r="R94" s="4"/>
       <c r="S94" s="4"/>
-    </row>
-    <row r="95" spans="1:19">
+      <c r="T94" s="4"/>
+    </row>
+    <row r="95" spans="1:20">
       <c r="A95" s="4"/>
       <c r="B95" s="4"/>
       <c r="C95" s="4"/>
@@ -4214,8 +4448,9 @@
       <c r="Q95" s="4"/>
       <c r="R95" s="4"/>
       <c r="S95" s="4"/>
-    </row>
-    <row r="96" spans="1:19">
+      <c r="T95" s="4"/>
+    </row>
+    <row r="96" spans="1:20">
       <c r="A96" s="4"/>
       <c r="B96" s="4"/>
       <c r="C96" s="4"/>
@@ -4235,8 +4470,9 @@
       <c r="Q96" s="4"/>
       <c r="R96" s="4"/>
       <c r="S96" s="4"/>
-    </row>
-    <row r="97" spans="1:19">
+      <c r="T96" s="4"/>
+    </row>
+    <row r="97" spans="1:20">
       <c r="A97" s="4"/>
       <c r="B97" s="4"/>
       <c r="C97" s="4"/>
@@ -4256,8 +4492,9 @@
       <c r="Q97" s="4"/>
       <c r="R97" s="4"/>
       <c r="S97" s="4"/>
-    </row>
-    <row r="98" spans="1:19">
+      <c r="T97" s="4"/>
+    </row>
+    <row r="98" spans="1:20">
       <c r="A98" s="4"/>
       <c r="B98" s="4"/>
       <c r="C98" s="4"/>
@@ -4277,8 +4514,9 @@
       <c r="Q98" s="4"/>
       <c r="R98" s="4"/>
       <c r="S98" s="4"/>
-    </row>
-    <row r="99" spans="1:19">
+      <c r="T98" s="4"/>
+    </row>
+    <row r="99" spans="1:20">
       <c r="A99" s="4"/>
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
@@ -4298,8 +4536,9 @@
       <c r="Q99" s="4"/>
       <c r="R99" s="4"/>
       <c r="S99" s="4"/>
-    </row>
-    <row r="100" spans="1:19">
+      <c r="T99" s="4"/>
+    </row>
+    <row r="100" spans="1:20">
       <c r="A100" s="4"/>
       <c r="B100" s="4"/>
       <c r="C100" s="4"/>
@@ -4319,8 +4558,9 @@
       <c r="Q100" s="4"/>
       <c r="R100" s="4"/>
       <c r="S100" s="4"/>
-    </row>
-    <row r="101" spans="1:19">
+      <c r="T100" s="4"/>
+    </row>
+    <row r="101" spans="1:20">
       <c r="A101" s="4"/>
       <c r="B101" s="4"/>
       <c r="C101" s="4"/>
@@ -4340,8 +4580,9 @@
       <c r="Q101" s="4"/>
       <c r="R101" s="4"/>
       <c r="S101" s="4"/>
-    </row>
-    <row r="102" spans="1:19">
+      <c r="T101" s="4"/>
+    </row>
+    <row r="102" spans="1:20">
       <c r="A102" s="4"/>
       <c r="B102" s="4"/>
       <c r="C102" s="4"/>
@@ -4361,8 +4602,9 @@
       <c r="Q102" s="4"/>
       <c r="R102" s="4"/>
       <c r="S102" s="4"/>
-    </row>
-    <row r="103" spans="1:19">
+      <c r="T102" s="4"/>
+    </row>
+    <row r="103" spans="1:20">
       <c r="A103" s="4"/>
       <c r="B103" s="4"/>
       <c r="C103" s="4"/>
@@ -4382,8 +4624,9 @@
       <c r="Q103" s="4"/>
       <c r="R103" s="4"/>
       <c r="S103" s="4"/>
-    </row>
-    <row r="104" spans="1:19">
+      <c r="T103" s="4"/>
+    </row>
+    <row r="104" spans="1:20">
       <c r="A104" s="4"/>
       <c r="B104" s="4"/>
       <c r="C104" s="4"/>
@@ -4403,8 +4646,9 @@
       <c r="Q104" s="4"/>
       <c r="R104" s="4"/>
       <c r="S104" s="4"/>
-    </row>
-    <row r="105" spans="1:19">
+      <c r="T104" s="4"/>
+    </row>
+    <row r="105" spans="1:20">
       <c r="A105" s="4"/>
       <c r="B105" s="4"/>
       <c r="C105" s="4"/>
@@ -4424,8 +4668,9 @@
       <c r="Q105" s="4"/>
       <c r="R105" s="4"/>
       <c r="S105" s="4"/>
-    </row>
-    <row r="106" spans="1:19">
+      <c r="T105" s="4"/>
+    </row>
+    <row r="106" spans="1:20">
       <c r="A106" s="4"/>
       <c r="B106" s="4"/>
       <c r="C106" s="4"/>
@@ -4445,8 +4690,9 @@
       <c r="Q106" s="4"/>
       <c r="R106" s="4"/>
       <c r="S106" s="4"/>
-    </row>
-    <row r="107" spans="1:19">
+      <c r="T106" s="4"/>
+    </row>
+    <row r="107" spans="1:20">
       <c r="A107" s="4"/>
       <c r="B107" s="4"/>
       <c r="C107" s="4"/>
@@ -4466,8 +4712,9 @@
       <c r="Q107" s="4"/>
       <c r="R107" s="4"/>
       <c r="S107" s="4"/>
-    </row>
-    <row r="108" spans="1:19">
+      <c r="T107" s="4"/>
+    </row>
+    <row r="108" spans="1:20">
       <c r="A108" s="4"/>
       <c r="B108" s="4"/>
       <c r="C108" s="4"/>
@@ -4487,8 +4734,9 @@
       <c r="Q108" s="4"/>
       <c r="R108" s="4"/>
       <c r="S108" s="4"/>
-    </row>
-    <row r="109" spans="1:19">
+      <c r="T108" s="4"/>
+    </row>
+    <row r="109" spans="1:20">
       <c r="A109" s="4"/>
       <c r="B109" s="4"/>
       <c r="C109" s="4"/>
@@ -4508,8 +4756,9 @@
       <c r="Q109" s="4"/>
       <c r="R109" s="4"/>
       <c r="S109" s="4"/>
-    </row>
-    <row r="110" spans="1:19">
+      <c r="T109" s="4"/>
+    </row>
+    <row r="110" spans="1:20">
       <c r="A110" s="4"/>
       <c r="B110" s="4"/>
       <c r="C110" s="4"/>
@@ -4529,8 +4778,9 @@
       <c r="Q110" s="4"/>
       <c r="R110" s="4"/>
       <c r="S110" s="4"/>
-    </row>
-    <row r="111" spans="1:19">
+      <c r="T110" s="4"/>
+    </row>
+    <row r="111" spans="1:20">
       <c r="A111" s="4"/>
       <c r="B111" s="4"/>
       <c r="C111" s="4"/>
@@ -4550,8 +4800,9 @@
       <c r="Q111" s="4"/>
       <c r="R111" s="4"/>
       <c r="S111" s="4"/>
-    </row>
-    <row r="112" spans="1:19">
+      <c r="T111" s="4"/>
+    </row>
+    <row r="112" spans="1:20">
       <c r="A112" s="4"/>
       <c r="B112" s="4"/>
       <c r="C112" s="4"/>
@@ -4571,8 +4822,9 @@
       <c r="Q112" s="4"/>
       <c r="R112" s="4"/>
       <c r="S112" s="4"/>
-    </row>
-    <row r="113" spans="1:19">
+      <c r="T112" s="4"/>
+    </row>
+    <row r="113" spans="1:20">
       <c r="A113" s="4"/>
       <c r="B113" s="4"/>
       <c r="C113" s="4"/>
@@ -4592,8 +4844,9 @@
       <c r="Q113" s="4"/>
       <c r="R113" s="4"/>
       <c r="S113" s="4"/>
-    </row>
-    <row r="114" spans="1:19">
+      <c r="T113" s="4"/>
+    </row>
+    <row r="114" spans="1:20">
       <c r="A114" s="4"/>
       <c r="B114" s="4"/>
       <c r="C114" s="4"/>
@@ -4613,8 +4866,9 @@
       <c r="Q114" s="4"/>
       <c r="R114" s="4"/>
       <c r="S114" s="4"/>
-    </row>
-    <row r="115" spans="1:19">
+      <c r="T114" s="4"/>
+    </row>
+    <row r="115" spans="1:20">
       <c r="A115" s="4"/>
       <c r="B115" s="4"/>
       <c r="C115" s="4"/>
@@ -4634,8 +4888,9 @@
       <c r="Q115" s="4"/>
       <c r="R115" s="4"/>
       <c r="S115" s="4"/>
-    </row>
-    <row r="116" spans="1:19">
+      <c r="T115" s="4"/>
+    </row>
+    <row r="116" spans="1:20">
       <c r="A116" s="4"/>
       <c r="B116" s="4"/>
       <c r="C116" s="4"/>
@@ -4655,8 +4910,9 @@
       <c r="Q116" s="4"/>
       <c r="R116" s="4"/>
       <c r="S116" s="4"/>
-    </row>
-    <row r="117" spans="1:19">
+      <c r="T116" s="4"/>
+    </row>
+    <row r="117" spans="1:20">
       <c r="A117" s="4"/>
       <c r="B117" s="4"/>
       <c r="C117" s="4"/>
@@ -4676,8 +4932,9 @@
       <c r="Q117" s="4"/>
       <c r="R117" s="4"/>
       <c r="S117" s="4"/>
-    </row>
-    <row r="118" spans="1:19">
+      <c r="T117" s="4"/>
+    </row>
+    <row r="118" spans="1:20">
       <c r="A118" s="4"/>
       <c r="B118" s="4"/>
       <c r="C118" s="4"/>
@@ -4697,8 +4954,9 @@
       <c r="Q118" s="4"/>
       <c r="R118" s="4"/>
       <c r="S118" s="4"/>
-    </row>
-    <row r="119" spans="1:19">
+      <c r="T118" s="4"/>
+    </row>
+    <row r="119" spans="1:20">
       <c r="A119" s="4"/>
       <c r="B119" s="4"/>
       <c r="C119" s="4"/>
@@ -4718,8 +4976,9 @@
       <c r="Q119" s="4"/>
       <c r="R119" s="4"/>
       <c r="S119" s="4"/>
-    </row>
-    <row r="120" spans="1:19">
+      <c r="T119" s="4"/>
+    </row>
+    <row r="120" spans="1:20">
       <c r="A120" s="4"/>
       <c r="B120" s="4"/>
       <c r="C120" s="4"/>
@@ -4739,8 +4998,9 @@
       <c r="Q120" s="4"/>
       <c r="R120" s="4"/>
       <c r="S120" s="4"/>
-    </row>
-    <row r="121" spans="1:19">
+      <c r="T120" s="4"/>
+    </row>
+    <row r="121" spans="1:20">
       <c r="A121" s="4"/>
       <c r="B121" s="4"/>
       <c r="C121" s="4"/>
@@ -4760,8 +5020,9 @@
       <c r="Q121" s="4"/>
       <c r="R121" s="4"/>
       <c r="S121" s="4"/>
-    </row>
-    <row r="122" spans="1:19">
+      <c r="T121" s="4"/>
+    </row>
+    <row r="122" spans="1:20">
       <c r="A122" s="4"/>
       <c r="B122" s="4"/>
       <c r="C122" s="4"/>
@@ -4781,8 +5042,9 @@
       <c r="Q122" s="4"/>
       <c r="R122" s="4"/>
       <c r="S122" s="4"/>
-    </row>
-    <row r="123" spans="1:19">
+      <c r="T122" s="4"/>
+    </row>
+    <row r="123" spans="1:20">
       <c r="A123" s="4"/>
       <c r="B123" s="4"/>
       <c r="C123" s="4"/>
@@ -4802,8 +5064,9 @@
       <c r="Q123" s="4"/>
       <c r="R123" s="4"/>
       <c r="S123" s="4"/>
-    </row>
-    <row r="124" spans="1:19">
+      <c r="T123" s="4"/>
+    </row>
+    <row r="124" spans="1:20">
       <c r="A124" s="4"/>
       <c r="B124" s="4"/>
       <c r="C124" s="4"/>
@@ -4823,8 +5086,9 @@
       <c r="Q124" s="4"/>
       <c r="R124" s="4"/>
       <c r="S124" s="4"/>
-    </row>
-    <row r="125" spans="1:19">
+      <c r="T124" s="4"/>
+    </row>
+    <row r="125" spans="1:20">
       <c r="A125" s="4"/>
       <c r="B125" s="4"/>
       <c r="C125" s="4"/>
@@ -4844,8 +5108,9 @@
       <c r="Q125" s="4"/>
       <c r="R125" s="4"/>
       <c r="S125" s="4"/>
-    </row>
-    <row r="126" spans="1:19">
+      <c r="T125" s="4"/>
+    </row>
+    <row r="126" spans="1:20">
       <c r="A126" s="4"/>
       <c r="B126" s="4"/>
       <c r="C126" s="4"/>
@@ -4865,8 +5130,9 @@
       <c r="Q126" s="4"/>
       <c r="R126" s="4"/>
       <c r="S126" s="4"/>
-    </row>
-    <row r="127" spans="1:19">
+      <c r="T126" s="4"/>
+    </row>
+    <row r="127" spans="1:20">
       <c r="A127" s="4"/>
       <c r="B127" s="4"/>
       <c r="C127" s="4"/>
@@ -4886,8 +5152,9 @@
       <c r="Q127" s="4"/>
       <c r="R127" s="4"/>
       <c r="S127" s="4"/>
-    </row>
-    <row r="128" spans="1:19">
+      <c r="T127" s="4"/>
+    </row>
+    <row r="128" spans="1:20">
       <c r="A128" s="4"/>
       <c r="B128" s="4"/>
       <c r="C128" s="4"/>
@@ -4907,8 +5174,9 @@
       <c r="Q128" s="4"/>
       <c r="R128" s="4"/>
       <c r="S128" s="4"/>
-    </row>
-    <row r="129" spans="1:19">
+      <c r="T128" s="4"/>
+    </row>
+    <row r="129" spans="1:20">
       <c r="A129" s="4"/>
       <c r="B129" s="4"/>
       <c r="C129" s="4"/>
@@ -4928,8 +5196,9 @@
       <c r="Q129" s="4"/>
       <c r="R129" s="4"/>
       <c r="S129" s="4"/>
-    </row>
-    <row r="130" spans="1:19">
+      <c r="T129" s="4"/>
+    </row>
+    <row r="130" spans="1:20">
       <c r="A130" s="4"/>
       <c r="B130" s="4"/>
       <c r="C130" s="4"/>
@@ -4949,8 +5218,9 @@
       <c r="Q130" s="4"/>
       <c r="R130" s="4"/>
       <c r="S130" s="4"/>
-    </row>
-    <row r="131" spans="1:19">
+      <c r="T130" s="4"/>
+    </row>
+    <row r="131" spans="1:20">
       <c r="A131" s="4"/>
       <c r="B131" s="4"/>
       <c r="C131" s="4"/>
@@ -4970,8 +5240,9 @@
       <c r="Q131" s="4"/>
       <c r="R131" s="4"/>
       <c r="S131" s="4"/>
-    </row>
-    <row r="132" spans="1:19">
+      <c r="T131" s="4"/>
+    </row>
+    <row r="132" spans="1:20">
       <c r="A132" s="4"/>
       <c r="B132" s="4"/>
       <c r="C132" s="4"/>
@@ -4991,8 +5262,9 @@
       <c r="Q132" s="4"/>
       <c r="R132" s="4"/>
       <c r="S132" s="4"/>
-    </row>
-    <row r="133" spans="1:19">
+      <c r="T132" s="4"/>
+    </row>
+    <row r="133" spans="1:20">
       <c r="A133" s="4"/>
       <c r="B133" s="4"/>
       <c r="C133" s="4"/>
@@ -5012,8 +5284,9 @@
       <c r="Q133" s="4"/>
       <c r="R133" s="4"/>
       <c r="S133" s="4"/>
-    </row>
-    <row r="134" spans="1:19">
+      <c r="T133" s="4"/>
+    </row>
+    <row r="134" spans="1:20">
       <c r="A134" s="4"/>
       <c r="B134" s="4"/>
       <c r="C134" s="4"/>
@@ -5033,8 +5306,9 @@
       <c r="Q134" s="4"/>
       <c r="R134" s="4"/>
       <c r="S134" s="4"/>
-    </row>
-    <row r="135" spans="1:19">
+      <c r="T134" s="4"/>
+    </row>
+    <row r="135" spans="1:20">
       <c r="A135" s="4"/>
       <c r="B135" s="4"/>
       <c r="C135" s="4"/>
@@ -5054,8 +5328,9 @@
       <c r="Q135" s="4"/>
       <c r="R135" s="4"/>
       <c r="S135" s="4"/>
-    </row>
-    <row r="136" spans="1:19">
+      <c r="T135" s="4"/>
+    </row>
+    <row r="136" spans="1:20">
       <c r="A136" s="4"/>
       <c r="B136" s="4"/>
       <c r="C136" s="4"/>
@@ -5075,8 +5350,9 @@
       <c r="Q136" s="4"/>
       <c r="R136" s="4"/>
       <c r="S136" s="4"/>
-    </row>
-    <row r="137" spans="1:19">
+      <c r="T136" s="4"/>
+    </row>
+    <row r="137" spans="1:20">
       <c r="A137" s="4"/>
       <c r="B137" s="4"/>
       <c r="C137" s="4"/>
@@ -5096,8 +5372,9 @@
       <c r="Q137" s="4"/>
       <c r="R137" s="4"/>
       <c r="S137" s="4"/>
-    </row>
-    <row r="138" spans="1:19">
+      <c r="T137" s="4"/>
+    </row>
+    <row r="138" spans="1:20">
       <c r="A138" s="4"/>
       <c r="B138" s="4"/>
       <c r="C138" s="4"/>
@@ -5117,8 +5394,9 @@
       <c r="Q138" s="4"/>
       <c r="R138" s="4"/>
       <c r="S138" s="4"/>
-    </row>
-    <row r="139" spans="1:19">
+      <c r="T138" s="4"/>
+    </row>
+    <row r="139" spans="1:20">
       <c r="A139" s="4"/>
       <c r="B139" s="4"/>
       <c r="C139" s="4"/>
@@ -5138,8 +5416,9 @@
       <c r="Q139" s="4"/>
       <c r="R139" s="4"/>
       <c r="S139" s="4"/>
-    </row>
-    <row r="140" spans="1:19">
+      <c r="T139" s="4"/>
+    </row>
+    <row r="140" spans="1:20">
       <c r="A140" s="4"/>
       <c r="B140" s="4"/>
       <c r="C140" s="4"/>
@@ -5159,8 +5438,9 @@
       <c r="Q140" s="4"/>
       <c r="R140" s="4"/>
       <c r="S140" s="4"/>
-    </row>
-    <row r="141" spans="1:19">
+      <c r="T140" s="4"/>
+    </row>
+    <row r="141" spans="1:20">
       <c r="A141" s="4"/>
       <c r="B141" s="4"/>
       <c r="C141" s="4"/>
@@ -5180,8 +5460,9 @@
       <c r="Q141" s="4"/>
       <c r="R141" s="4"/>
       <c r="S141" s="4"/>
-    </row>
-    <row r="142" spans="1:19">
+      <c r="T141" s="4"/>
+    </row>
+    <row r="142" spans="1:20">
       <c r="A142" s="4"/>
       <c r="B142" s="4"/>
       <c r="C142" s="4"/>
@@ -5201,8 +5482,9 @@
       <c r="Q142" s="4"/>
       <c r="R142" s="4"/>
       <c r="S142" s="4"/>
-    </row>
-    <row r="143" spans="1:19">
+      <c r="T142" s="4"/>
+    </row>
+    <row r="143" spans="1:20">
       <c r="A143" s="4"/>
       <c r="B143" s="4"/>
       <c r="C143" s="4"/>
@@ -5222,8 +5504,9 @@
       <c r="Q143" s="4"/>
       <c r="R143" s="4"/>
       <c r="S143" s="4"/>
-    </row>
-    <row r="144" spans="1:19">
+      <c r="T143" s="4"/>
+    </row>
+    <row r="144" spans="1:20">
       <c r="A144" s="4"/>
       <c r="B144" s="4"/>
       <c r="C144" s="4"/>
@@ -5243,8 +5526,9 @@
       <c r="Q144" s="4"/>
       <c r="R144" s="4"/>
       <c r="S144" s="4"/>
-    </row>
-    <row r="145" spans="1:19">
+      <c r="T144" s="4"/>
+    </row>
+    <row r="145" spans="1:20">
       <c r="A145" s="4"/>
       <c r="B145" s="4"/>
       <c r="C145" s="4"/>
@@ -5264,8 +5548,9 @@
       <c r="Q145" s="4"/>
       <c r="R145" s="4"/>
       <c r="S145" s="4"/>
-    </row>
-    <row r="146" spans="1:19">
+      <c r="T145" s="4"/>
+    </row>
+    <row r="146" spans="1:20">
       <c r="A146" s="4"/>
       <c r="B146" s="4"/>
       <c r="C146" s="4"/>
@@ -5285,8 +5570,9 @@
       <c r="Q146" s="4"/>
       <c r="R146" s="4"/>
       <c r="S146" s="4"/>
-    </row>
-    <row r="147" spans="1:19">
+      <c r="T146" s="4"/>
+    </row>
+    <row r="147" spans="1:20">
       <c r="A147" s="4"/>
       <c r="B147" s="4"/>
       <c r="C147" s="4"/>
@@ -5306,8 +5592,9 @@
       <c r="Q147" s="4"/>
       <c r="R147" s="4"/>
       <c r="S147" s="4"/>
-    </row>
-    <row r="148" spans="1:19">
+      <c r="T147" s="4"/>
+    </row>
+    <row r="148" spans="1:20">
       <c r="A148" s="4"/>
       <c r="B148" s="4"/>
       <c r="C148" s="4"/>
@@ -5327,8 +5614,9 @@
       <c r="Q148" s="4"/>
       <c r="R148" s="4"/>
       <c r="S148" s="4"/>
-    </row>
-    <row r="149" spans="1:19">
+      <c r="T148" s="4"/>
+    </row>
+    <row r="149" spans="1:20">
       <c r="A149" s="4"/>
       <c r="B149" s="4"/>
       <c r="C149" s="4"/>
@@ -5348,8 +5636,9 @@
       <c r="Q149" s="4"/>
       <c r="R149" s="4"/>
       <c r="S149" s="4"/>
-    </row>
-    <row r="150" spans="1:19">
+      <c r="T149" s="4"/>
+    </row>
+    <row r="150" spans="1:20">
       <c r="A150" s="4"/>
       <c r="B150" s="4"/>
       <c r="C150" s="4"/>
@@ -5369,8 +5658,9 @@
       <c r="Q150" s="4"/>
       <c r="R150" s="4"/>
       <c r="S150" s="4"/>
-    </row>
-    <row r="151" spans="1:19">
+      <c r="T150" s="4"/>
+    </row>
+    <row r="151" spans="1:20">
       <c r="A151" s="4"/>
       <c r="B151" s="4"/>
       <c r="C151" s="4"/>
@@ -5390,8 +5680,9 @@
       <c r="Q151" s="4"/>
       <c r="R151" s="4"/>
       <c r="S151" s="4"/>
-    </row>
-    <row r="152" spans="1:19">
+      <c r="T151" s="4"/>
+    </row>
+    <row r="152" spans="1:20">
       <c r="A152" s="4"/>
       <c r="B152" s="4"/>
       <c r="C152" s="4"/>
@@ -5411,8 +5702,9 @@
       <c r="Q152" s="4"/>
       <c r="R152" s="4"/>
       <c r="S152" s="4"/>
-    </row>
-    <row r="153" spans="1:19">
+      <c r="T152" s="4"/>
+    </row>
+    <row r="153" spans="1:20">
       <c r="A153" s="4"/>
       <c r="B153" s="4"/>
       <c r="C153" s="4"/>
@@ -5432,8 +5724,9 @@
       <c r="Q153" s="4"/>
       <c r="R153" s="4"/>
       <c r="S153" s="4"/>
-    </row>
-    <row r="154" spans="1:19">
+      <c r="T153" s="4"/>
+    </row>
+    <row r="154" spans="1:20">
       <c r="A154" s="4"/>
       <c r="B154" s="4"/>
       <c r="C154" s="4"/>
@@ -5453,8 +5746,9 @@
       <c r="Q154" s="4"/>
       <c r="R154" s="4"/>
       <c r="S154" s="4"/>
-    </row>
-    <row r="155" spans="1:19">
+      <c r="T154" s="4"/>
+    </row>
+    <row r="155" spans="1:20">
       <c r="A155" s="4"/>
       <c r="B155" s="4"/>
       <c r="C155" s="4"/>
@@ -5474,8 +5768,9 @@
       <c r="Q155" s="4"/>
       <c r="R155" s="4"/>
       <c r="S155" s="4"/>
-    </row>
-    <row r="156" spans="1:19">
+      <c r="T155" s="4"/>
+    </row>
+    <row r="156" spans="1:20">
       <c r="A156" s="4"/>
       <c r="B156" s="4"/>
       <c r="C156" s="4"/>
@@ -5495,8 +5790,9 @@
       <c r="Q156" s="4"/>
       <c r="R156" s="4"/>
       <c r="S156" s="4"/>
-    </row>
-    <row r="157" spans="1:19">
+      <c r="T156" s="4"/>
+    </row>
+    <row r="157" spans="1:20">
       <c r="A157" s="4"/>
       <c r="B157" s="4"/>
       <c r="C157" s="4"/>
@@ -5516,8 +5812,9 @@
       <c r="Q157" s="4"/>
       <c r="R157" s="4"/>
       <c r="S157" s="4"/>
-    </row>
-    <row r="158" spans="1:19">
+      <c r="T157" s="4"/>
+    </row>
+    <row r="158" spans="1:20">
       <c r="A158" s="4"/>
       <c r="B158" s="4"/>
       <c r="C158" s="4"/>
@@ -5537,8 +5834,9 @@
       <c r="Q158" s="4"/>
       <c r="R158" s="4"/>
       <c r="S158" s="4"/>
-    </row>
-    <row r="159" spans="1:19">
+      <c r="T158" s="4"/>
+    </row>
+    <row r="159" spans="1:20">
       <c r="A159" s="4"/>
       <c r="B159" s="4"/>
       <c r="C159" s="4"/>
@@ -5558,8 +5856,9 @@
       <c r="Q159" s="4"/>
       <c r="R159" s="4"/>
       <c r="S159" s="4"/>
-    </row>
-    <row r="160" spans="1:19">
+      <c r="T159" s="4"/>
+    </row>
+    <row r="160" spans="1:20">
       <c r="A160" s="4"/>
       <c r="B160" s="4"/>
       <c r="C160" s="4"/>
@@ -5579,8 +5878,9 @@
       <c r="Q160" s="4"/>
       <c r="R160" s="4"/>
       <c r="S160" s="4"/>
-    </row>
-    <row r="161" spans="1:19">
+      <c r="T160" s="4"/>
+    </row>
+    <row r="161" spans="1:20">
       <c r="A161" s="4"/>
       <c r="B161" s="4"/>
       <c r="C161" s="4"/>
@@ -5600,8 +5900,9 @@
       <c r="Q161" s="4"/>
       <c r="R161" s="4"/>
       <c r="S161" s="4"/>
-    </row>
-    <row r="162" spans="1:19">
+      <c r="T161" s="4"/>
+    </row>
+    <row r="162" spans="1:20">
       <c r="A162" s="4"/>
       <c r="B162" s="4"/>
       <c r="C162" s="4"/>
@@ -5621,8 +5922,9 @@
       <c r="Q162" s="4"/>
       <c r="R162" s="4"/>
       <c r="S162" s="4"/>
-    </row>
-    <row r="163" spans="1:19">
+      <c r="T162" s="4"/>
+    </row>
+    <row r="163" spans="1:20">
       <c r="A163" s="4"/>
       <c r="B163" s="4"/>
       <c r="C163" s="4"/>
@@ -5642,8 +5944,9 @@
       <c r="Q163" s="4"/>
       <c r="R163" s="4"/>
       <c r="S163" s="4"/>
-    </row>
-    <row r="164" spans="1:19">
+      <c r="T163" s="4"/>
+    </row>
+    <row r="164" spans="1:20">
       <c r="A164" s="4"/>
       <c r="B164" s="4"/>
       <c r="C164" s="4"/>
@@ -5663,8 +5966,9 @@
       <c r="Q164" s="4"/>
       <c r="R164" s="4"/>
       <c r="S164" s="4"/>
-    </row>
-    <row r="165" spans="1:19">
+      <c r="T164" s="4"/>
+    </row>
+    <row r="165" spans="1:20">
       <c r="A165" s="4"/>
       <c r="B165" s="4"/>
       <c r="C165" s="4"/>
@@ -5684,8 +5988,9 @@
       <c r="Q165" s="4"/>
       <c r="R165" s="4"/>
       <c r="S165" s="4"/>
-    </row>
-    <row r="166" spans="1:19">
+      <c r="T165" s="4"/>
+    </row>
+    <row r="166" spans="1:20">
       <c r="A166" s="4"/>
       <c r="B166" s="4"/>
       <c r="C166" s="4"/>
@@ -5705,8 +6010,9 @@
       <c r="Q166" s="4"/>
       <c r="R166" s="4"/>
       <c r="S166" s="4"/>
-    </row>
-    <row r="167" spans="1:19">
+      <c r="T166" s="4"/>
+    </row>
+    <row r="167" spans="1:20">
       <c r="A167" s="4"/>
       <c r="B167" s="4"/>
       <c r="C167" s="4"/>
@@ -5726,8 +6032,9 @@
       <c r="Q167" s="4"/>
       <c r="R167" s="4"/>
       <c r="S167" s="4"/>
-    </row>
-    <row r="168" spans="1:19">
+      <c r="T167" s="4"/>
+    </row>
+    <row r="168" spans="1:20">
       <c r="A168" s="4"/>
       <c r="B168" s="4"/>
       <c r="C168" s="4"/>
@@ -5747,8 +6054,9 @@
       <c r="Q168" s="4"/>
       <c r="R168" s="4"/>
       <c r="S168" s="4"/>
-    </row>
-    <row r="169" spans="1:19">
+      <c r="T168" s="4"/>
+    </row>
+    <row r="169" spans="1:20">
       <c r="A169" s="4"/>
       <c r="B169" s="4"/>
       <c r="C169" s="4"/>
@@ -5768,8 +6076,9 @@
       <c r="Q169" s="4"/>
       <c r="R169" s="4"/>
       <c r="S169" s="4"/>
-    </row>
-    <row r="170" spans="1:19">
+      <c r="T169" s="4"/>
+    </row>
+    <row r="170" spans="1:20">
       <c r="A170" s="4"/>
       <c r="B170" s="4"/>
       <c r="C170" s="4"/>
@@ -5789,8 +6098,9 @@
       <c r="Q170" s="4"/>
       <c r="R170" s="4"/>
       <c r="S170" s="4"/>
-    </row>
-    <row r="171" spans="1:19">
+      <c r="T170" s="4"/>
+    </row>
+    <row r="171" spans="1:20">
       <c r="A171" s="4"/>
       <c r="B171" s="4"/>
       <c r="C171" s="4"/>
@@ -5810,8 +6120,9 @@
       <c r="Q171" s="4"/>
       <c r="R171" s="4"/>
       <c r="S171" s="4"/>
-    </row>
-    <row r="172" spans="1:19">
+      <c r="T171" s="4"/>
+    </row>
+    <row r="172" spans="1:20">
       <c r="A172" s="4"/>
       <c r="B172" s="4"/>
       <c r="C172" s="4"/>
@@ -5831,8 +6142,9 @@
       <c r="Q172" s="4"/>
       <c r="R172" s="4"/>
       <c r="S172" s="4"/>
-    </row>
-    <row r="173" spans="1:19">
+      <c r="T172" s="4"/>
+    </row>
+    <row r="173" spans="1:20">
       <c r="A173" s="4"/>
       <c r="B173" s="4"/>
       <c r="C173" s="4"/>
@@ -5852,8 +6164,9 @@
       <c r="Q173" s="4"/>
       <c r="R173" s="4"/>
       <c r="S173" s="4"/>
-    </row>
-    <row r="174" spans="1:19">
+      <c r="T173" s="4"/>
+    </row>
+    <row r="174" spans="1:20">
       <c r="A174" s="4"/>
       <c r="B174" s="4"/>
       <c r="C174" s="4"/>
@@ -5873,8 +6186,9 @@
       <c r="Q174" s="4"/>
       <c r="R174" s="4"/>
       <c r="S174" s="4"/>
-    </row>
-    <row r="175" spans="1:19">
+      <c r="T174" s="4"/>
+    </row>
+    <row r="175" spans="1:20">
       <c r="A175" s="4"/>
       <c r="B175" s="4"/>
       <c r="C175" s="4"/>
@@ -5894,8 +6208,9 @@
       <c r="Q175" s="4"/>
       <c r="R175" s="4"/>
       <c r="S175" s="4"/>
-    </row>
-    <row r="176" spans="1:19">
+      <c r="T175" s="4"/>
+    </row>
+    <row r="176" spans="1:20">
       <c r="A176" s="4"/>
       <c r="B176" s="4"/>
       <c r="C176" s="4"/>
@@ -5915,8 +6230,9 @@
       <c r="Q176" s="4"/>
       <c r="R176" s="4"/>
       <c r="S176" s="4"/>
-    </row>
-    <row r="177" spans="1:19">
+      <c r="T176" s="4"/>
+    </row>
+    <row r="177" spans="1:20">
       <c r="A177" s="4"/>
       <c r="B177" s="4"/>
       <c r="C177" s="4"/>
@@ -5936,8 +6252,9 @@
       <c r="Q177" s="4"/>
       <c r="R177" s="4"/>
       <c r="S177" s="4"/>
-    </row>
-    <row r="178" spans="1:19">
+      <c r="T177" s="4"/>
+    </row>
+    <row r="178" spans="1:20">
       <c r="A178" s="4"/>
       <c r="B178" s="4"/>
       <c r="C178" s="4"/>
@@ -5957,8 +6274,9 @@
       <c r="Q178" s="4"/>
       <c r="R178" s="4"/>
       <c r="S178" s="4"/>
-    </row>
-    <row r="179" spans="1:19">
+      <c r="T178" s="4"/>
+    </row>
+    <row r="179" spans="1:20">
       <c r="A179" s="4"/>
       <c r="B179" s="4"/>
       <c r="C179" s="4"/>
@@ -5978,8 +6296,9 @@
       <c r="Q179" s="4"/>
       <c r="R179" s="4"/>
       <c r="S179" s="4"/>
-    </row>
-    <row r="180" spans="1:19">
+      <c r="T179" s="4"/>
+    </row>
+    <row r="180" spans="1:20">
       <c r="A180" s="4"/>
       <c r="B180" s="4"/>
       <c r="C180" s="4"/>
@@ -5999,8 +6318,9 @@
       <c r="Q180" s="4"/>
       <c r="R180" s="4"/>
       <c r="S180" s="4"/>
-    </row>
-    <row r="181" spans="1:19">
+      <c r="T180" s="4"/>
+    </row>
+    <row r="181" spans="1:20">
       <c r="A181" s="4"/>
       <c r="B181" s="4"/>
       <c r="C181" s="4"/>
@@ -6020,8 +6340,9 @@
       <c r="Q181" s="4"/>
       <c r="R181" s="4"/>
       <c r="S181" s="4"/>
-    </row>
-    <row r="182" spans="1:19">
+      <c r="T181" s="4"/>
+    </row>
+    <row r="182" spans="1:20">
       <c r="A182" s="4"/>
       <c r="B182" s="4"/>
       <c r="C182" s="4"/>
@@ -6041,8 +6362,9 @@
       <c r="Q182" s="4"/>
       <c r="R182" s="4"/>
       <c r="S182" s="4"/>
-    </row>
-    <row r="183" spans="1:19">
+      <c r="T182" s="4"/>
+    </row>
+    <row r="183" spans="1:20">
       <c r="A183" s="4"/>
       <c r="B183" s="4"/>
       <c r="C183" s="4"/>
@@ -6062,8 +6384,9 @@
       <c r="Q183" s="4"/>
       <c r="R183" s="4"/>
       <c r="S183" s="4"/>
-    </row>
-    <row r="184" spans="1:19">
+      <c r="T183" s="4"/>
+    </row>
+    <row r="184" spans="1:20">
       <c r="A184" s="4"/>
       <c r="B184" s="4"/>
       <c r="C184" s="4"/>
@@ -6083,8 +6406,9 @@
       <c r="Q184" s="4"/>
       <c r="R184" s="4"/>
       <c r="S184" s="4"/>
-    </row>
-    <row r="185" spans="1:19">
+      <c r="T184" s="4"/>
+    </row>
+    <row r="185" spans="1:20">
       <c r="A185" s="4"/>
       <c r="B185" s="4"/>
       <c r="C185" s="4"/>
@@ -6104,8 +6428,9 @@
       <c r="Q185" s="4"/>
       <c r="R185" s="4"/>
       <c r="S185" s="4"/>
-    </row>
-    <row r="186" spans="1:19">
+      <c r="T185" s="4"/>
+    </row>
+    <row r="186" spans="1:20">
       <c r="A186" s="4"/>
       <c r="B186" s="4"/>
       <c r="C186" s="4"/>
@@ -6125,8 +6450,9 @@
       <c r="Q186" s="4"/>
       <c r="R186" s="4"/>
       <c r="S186" s="4"/>
-    </row>
-    <row r="187" spans="1:19">
+      <c r="T186" s="4"/>
+    </row>
+    <row r="187" spans="1:20">
       <c r="A187" s="4"/>
       <c r="B187" s="4"/>
       <c r="C187" s="4"/>
@@ -6146,8 +6472,9 @@
       <c r="Q187" s="4"/>
       <c r="R187" s="4"/>
       <c r="S187" s="4"/>
-    </row>
-    <row r="188" spans="1:19">
+      <c r="T187" s="4"/>
+    </row>
+    <row r="188" spans="1:20">
       <c r="A188" s="4"/>
       <c r="B188" s="4"/>
       <c r="C188" s="4"/>
@@ -6167,8 +6494,9 @@
       <c r="Q188" s="4"/>
       <c r="R188" s="4"/>
       <c r="S188" s="4"/>
-    </row>
-    <row r="189" spans="1:19">
+      <c r="T188" s="4"/>
+    </row>
+    <row r="189" spans="1:20">
       <c r="A189" s="4"/>
       <c r="B189" s="4"/>
       <c r="C189" s="4"/>
@@ -6188,8 +6516,9 @@
       <c r="Q189" s="4"/>
       <c r="R189" s="4"/>
       <c r="S189" s="4"/>
-    </row>
-    <row r="190" spans="1:19">
+      <c r="T189" s="4"/>
+    </row>
+    <row r="190" spans="1:20">
       <c r="A190" s="4"/>
       <c r="B190" s="4"/>
       <c r="C190" s="4"/>
@@ -6209,8 +6538,9 @@
       <c r="Q190" s="4"/>
       <c r="R190" s="4"/>
       <c r="S190" s="4"/>
-    </row>
-    <row r="191" spans="1:19">
+      <c r="T190" s="4"/>
+    </row>
+    <row r="191" spans="1:20">
       <c r="A191" s="4"/>
       <c r="B191" s="4"/>
       <c r="C191" s="4"/>
@@ -6230,8 +6560,9 @@
       <c r="Q191" s="4"/>
       <c r="R191" s="4"/>
       <c r="S191" s="4"/>
-    </row>
-    <row r="192" spans="1:19">
+      <c r="T191" s="4"/>
+    </row>
+    <row r="192" spans="1:20">
       <c r="A192" s="4"/>
       <c r="B192" s="4"/>
       <c r="C192" s="4"/>
@@ -6251,8 +6582,9 @@
       <c r="Q192" s="4"/>
       <c r="R192" s="4"/>
       <c r="S192" s="4"/>
-    </row>
-    <row r="193" spans="1:19">
+      <c r="T192" s="4"/>
+    </row>
+    <row r="193" spans="1:20">
       <c r="A193" s="4"/>
       <c r="B193" s="4"/>
       <c r="C193" s="4"/>
@@ -6272,8 +6604,9 @@
       <c r="Q193" s="4"/>
       <c r="R193" s="4"/>
       <c r="S193" s="4"/>
-    </row>
-    <row r="194" spans="1:19">
+      <c r="T193" s="4"/>
+    </row>
+    <row r="194" spans="1:20">
       <c r="A194" s="4"/>
       <c r="B194" s="4"/>
       <c r="C194" s="4"/>
@@ -6293,8 +6626,9 @@
       <c r="Q194" s="4"/>
       <c r="R194" s="4"/>
       <c r="S194" s="4"/>
-    </row>
-    <row r="195" spans="1:19">
+      <c r="T194" s="4"/>
+    </row>
+    <row r="195" spans="1:20">
       <c r="A195" s="4"/>
       <c r="B195" s="4"/>
       <c r="C195" s="4"/>
@@ -6314,8 +6648,9 @@
       <c r="Q195" s="4"/>
       <c r="R195" s="4"/>
       <c r="S195" s="4"/>
-    </row>
-    <row r="196" spans="1:19">
+      <c r="T195" s="4"/>
+    </row>
+    <row r="196" spans="1:20">
       <c r="A196" s="4"/>
       <c r="B196" s="4"/>
       <c r="C196" s="4"/>
@@ -6335,8 +6670,9 @@
       <c r="Q196" s="4"/>
       <c r="R196" s="4"/>
       <c r="S196" s="4"/>
-    </row>
-    <row r="197" spans="1:19">
+      <c r="T196" s="4"/>
+    </row>
+    <row r="197" spans="1:20">
       <c r="A197" s="4"/>
       <c r="B197" s="4"/>
       <c r="C197" s="4"/>
@@ -6356,8 +6692,9 @@
       <c r="Q197" s="4"/>
       <c r="R197" s="4"/>
       <c r="S197" s="4"/>
-    </row>
-    <row r="198" spans="1:19">
+      <c r="T197" s="4"/>
+    </row>
+    <row r="198" spans="1:20">
       <c r="A198" s="4"/>
       <c r="B198" s="4"/>
       <c r="C198" s="4"/>
@@ -6377,8 +6714,9 @@
       <c r="Q198" s="4"/>
       <c r="R198" s="4"/>
       <c r="S198" s="4"/>
-    </row>
-    <row r="199" spans="1:19">
+      <c r="T198" s="4"/>
+    </row>
+    <row r="199" spans="1:20">
       <c r="A199" s="4"/>
       <c r="B199" s="4"/>
       <c r="C199" s="4"/>
@@ -6398,8 +6736,9 @@
       <c r="Q199" s="4"/>
       <c r="R199" s="4"/>
       <c r="S199" s="4"/>
-    </row>
-    <row r="200" spans="1:19">
+      <c r="T199" s="4"/>
+    </row>
+    <row r="200" spans="1:20">
       <c r="A200" s="4"/>
       <c r="B200" s="4"/>
       <c r="C200" s="4"/>
@@ -6419,6 +6758,7 @@
       <c r="Q200" s="4"/>
       <c r="R200" s="4"/>
       <c r="S200" s="4"/>
+      <c r="T200" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -6430,63 +6770,65 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:S200"/>
+  <dimension ref="A1:T200"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I4" sqref="I4:I7"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="27.75"/>
     <col min="2" max="2" width="12.75"/>
-    <col min="3" max="3" width="8.75"/>
-    <col min="4" max="4" width="14.75"/>
-    <col min="5" max="5" width="9.75"/>
-    <col min="6" max="6" width="12.75"/>
-    <col min="7" max="7" width="14.75"/>
-    <col min="8" max="8" width="9.75"/>
-    <col min="9" max="9" width="14.75"/>
-    <col min="10" max="10" width="8.75"/>
-    <col min="11" max="11" width="36.875"/>
-    <col min="12" max="19" width="8.75"/>
+    <col min="4" max="4" width="8.75"/>
+    <col min="5" max="5" width="14.75"/>
+    <col min="6" max="6" width="9.75"/>
+    <col min="7" max="7" width="12.75"/>
+    <col min="8" max="8" width="14.75"/>
+    <col min="9" max="9" width="9.75"/>
+    <col min="10" max="10" width="14.75"/>
+    <col min="11" max="11" width="8.75"/>
+    <col min="12" max="12" width="36.875"/>
+    <col min="13" max="20" width="8.75"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="14.1" customHeight="1">
+    <row r="1" spans="1:20" ht="14.1" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="L1" s="4"/>
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
@@ -6494,40 +6836,43 @@
       <c r="Q1" s="4"/>
       <c r="R1" s="4"/>
       <c r="S1" s="4"/>
-    </row>
-    <row r="2" spans="1:19" ht="135.94999999999999" customHeight="1">
+      <c r="T1" s="4"/>
+    </row>
+    <row r="2" spans="1:20" ht="135.94999999999999" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="4"/>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>29</v>
+      <c r="E2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="K2" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="L2" s="4"/>
+        <v>28</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" s="15" t="s">
+        <v>53</v>
+      </c>
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
@@ -6535,40 +6880,43 @@
       <c r="Q2" s="4"/>
       <c r="R2" s="4"/>
       <c r="S2" s="4"/>
-    </row>
-    <row r="3" spans="1:19" ht="135.94999999999999" customHeight="1">
+      <c r="T2" s="4"/>
+    </row>
+    <row r="3" spans="1:20" ht="135.94999999999999" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="4"/>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="I3" s="18" t="s">
+      <c r="D3" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="J3" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="K3" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="L3" s="4"/>
+      <c r="E3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" s="15" t="s">
+        <v>54</v>
+      </c>
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
@@ -6576,40 +6924,43 @@
       <c r="Q3" s="4"/>
       <c r="R3" s="4"/>
       <c r="S3" s="4"/>
-    </row>
-    <row r="4" spans="1:19" ht="135.94999999999999" customHeight="1">
+      <c r="T3" s="4"/>
+    </row>
+    <row r="4" spans="1:20" ht="135.94999999999999" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="4"/>
-      <c r="C4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="K4" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="L4" s="4"/>
+      <c r="C4" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4" s="15" t="s">
+        <v>55</v>
+      </c>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
@@ -6617,40 +6968,43 @@
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
       <c r="S4" s="4"/>
-    </row>
-    <row r="5" spans="1:19" ht="135.94999999999999" customHeight="1">
+      <c r="T4" s="4"/>
+    </row>
+    <row r="5" spans="1:20" ht="135.94999999999999" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="4"/>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="I5" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="K5" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="L5" s="4"/>
+      <c r="D5" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="L5" s="15" t="s">
+        <v>56</v>
+      </c>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
@@ -6658,40 +7012,43 @@
       <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
       <c r="S5" s="4"/>
-    </row>
-    <row r="6" spans="1:19" ht="135.94999999999999" customHeight="1">
+      <c r="T5" s="4"/>
+    </row>
+    <row r="6" spans="1:20" ht="135.94999999999999" customHeight="1">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="4"/>
-      <c r="C6" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="I6" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="K6" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="L6" s="4"/>
+      <c r="C6" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="L6" s="15" t="s">
+        <v>57</v>
+      </c>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
@@ -6699,40 +7056,43 @@
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
       <c r="S6" s="4"/>
-    </row>
-    <row r="7" spans="1:19" ht="156" customHeight="1">
+      <c r="T6" s="4"/>
+    </row>
+    <row r="7" spans="1:20" ht="156" customHeight="1">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="4"/>
-      <c r="C7" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="I7" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="K7" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="L7" s="4"/>
+      <c r="C7" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="J7" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="L7" s="15" t="s">
+        <v>58</v>
+      </c>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
@@ -6740,8 +7100,9 @@
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
       <c r="S7" s="4"/>
-    </row>
-    <row r="8" spans="1:19">
+      <c r="T7" s="4"/>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -6761,42 +7122,45 @@
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
       <c r="S8" s="4"/>
-    </row>
-    <row r="9" spans="1:19" ht="14.1" customHeight="1">
+      <c r="T8" s="4"/>
+    </row>
+    <row r="9" spans="1:20" ht="14.1" customHeight="1">
       <c r="A9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="H9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="K9" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I9" s="1" t="s">
+      <c r="L9" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J9" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="L9" s="4"/>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
@@ -6804,40 +7168,43 @@
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
       <c r="S9" s="4"/>
-    </row>
-    <row r="10" spans="1:19" ht="78" customHeight="1">
+      <c r="T9" s="4"/>
+    </row>
+    <row r="10" spans="1:20" ht="78" customHeight="1">
       <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="4"/>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="I10" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="J10" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="K10" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="L10" s="4"/>
+      <c r="E10" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="L10" s="15" t="s">
+        <v>59</v>
+      </c>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
@@ -6845,40 +7212,43 @@
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
       <c r="S10" s="4"/>
-    </row>
-    <row r="11" spans="1:19" ht="96.95" customHeight="1">
+      <c r="T10" s="4"/>
+    </row>
+    <row r="11" spans="1:20" ht="96.95" customHeight="1">
       <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="4"/>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H11" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="I11" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="J11" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="K11" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="L11" s="4"/>
+      <c r="E11" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="L11" s="15" t="s">
+        <v>60</v>
+      </c>
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
@@ -6886,8 +7256,9 @@
       <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
       <c r="S11" s="4"/>
-    </row>
-    <row r="12" spans="1:19">
+      <c r="T11" s="4"/>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -6907,8 +7278,9 @@
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
       <c r="S12" s="4"/>
-    </row>
-    <row r="13" spans="1:19">
+      <c r="T12" s="4"/>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -6928,8 +7300,9 @@
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
       <c r="S13" s="4"/>
-    </row>
-    <row r="14" spans="1:19">
+      <c r="T13" s="4"/>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -6949,8 +7322,9 @@
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
       <c r="S14" s="4"/>
-    </row>
-    <row r="15" spans="1:19">
+      <c r="T14" s="4"/>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -6970,8 +7344,9 @@
       <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
       <c r="S15" s="4"/>
-    </row>
-    <row r="16" spans="1:19">
+      <c r="T15" s="4"/>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -6991,8 +7366,9 @@
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
       <c r="S16" s="4"/>
-    </row>
-    <row r="17" spans="1:19">
+      <c r="T16" s="4"/>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -7012,8 +7388,9 @@
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
       <c r="S17" s="4"/>
-    </row>
-    <row r="18" spans="1:19">
+      <c r="T17" s="4"/>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -7033,8 +7410,9 @@
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
       <c r="S18" s="4"/>
-    </row>
-    <row r="19" spans="1:19">
+      <c r="T18" s="4"/>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -7054,8 +7432,9 @@
       <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
       <c r="S19" s="4"/>
-    </row>
-    <row r="20" spans="1:19">
+      <c r="T19" s="4"/>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -7075,8 +7454,9 @@
       <c r="Q20" s="4"/>
       <c r="R20" s="4"/>
       <c r="S20" s="4"/>
-    </row>
-    <row r="21" spans="1:19">
+      <c r="T20" s="4"/>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -7096,8 +7476,9 @@
       <c r="Q21" s="4"/>
       <c r="R21" s="4"/>
       <c r="S21" s="4"/>
-    </row>
-    <row r="22" spans="1:19">
+      <c r="T21" s="4"/>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -7117,8 +7498,9 @@
       <c r="Q22" s="4"/>
       <c r="R22" s="4"/>
       <c r="S22" s="4"/>
-    </row>
-    <row r="23" spans="1:19">
+      <c r="T22" s="4"/>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -7138,8 +7520,9 @@
       <c r="Q23" s="4"/>
       <c r="R23" s="4"/>
       <c r="S23" s="4"/>
-    </row>
-    <row r="24" spans="1:19">
+      <c r="T23" s="4"/>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -7159,8 +7542,9 @@
       <c r="Q24" s="4"/>
       <c r="R24" s="4"/>
       <c r="S24" s="4"/>
-    </row>
-    <row r="25" spans="1:19">
+      <c r="T24" s="4"/>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -7180,8 +7564,9 @@
       <c r="Q25" s="4"/>
       <c r="R25" s="4"/>
       <c r="S25" s="4"/>
-    </row>
-    <row r="26" spans="1:19">
+      <c r="T25" s="4"/>
+    </row>
+    <row r="26" spans="1:20">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -7201,8 +7586,9 @@
       <c r="Q26" s="4"/>
       <c r="R26" s="4"/>
       <c r="S26" s="4"/>
-    </row>
-    <row r="27" spans="1:19">
+      <c r="T26" s="4"/>
+    </row>
+    <row r="27" spans="1:20">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -7222,8 +7608,9 @@
       <c r="Q27" s="4"/>
       <c r="R27" s="4"/>
       <c r="S27" s="4"/>
-    </row>
-    <row r="28" spans="1:19">
+      <c r="T27" s="4"/>
+    </row>
+    <row r="28" spans="1:20">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -7243,8 +7630,9 @@
       <c r="Q28" s="4"/>
       <c r="R28" s="4"/>
       <c r="S28" s="4"/>
-    </row>
-    <row r="29" spans="1:19">
+      <c r="T28" s="4"/>
+    </row>
+    <row r="29" spans="1:20">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -7264,8 +7652,9 @@
       <c r="Q29" s="4"/>
       <c r="R29" s="4"/>
       <c r="S29" s="4"/>
-    </row>
-    <row r="30" spans="1:19">
+      <c r="T29" s="4"/>
+    </row>
+    <row r="30" spans="1:20">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -7285,8 +7674,9 @@
       <c r="Q30" s="4"/>
       <c r="R30" s="4"/>
       <c r="S30" s="4"/>
-    </row>
-    <row r="31" spans="1:19">
+      <c r="T30" s="4"/>
+    </row>
+    <row r="31" spans="1:20">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -7306,8 +7696,9 @@
       <c r="Q31" s="4"/>
       <c r="R31" s="4"/>
       <c r="S31" s="4"/>
-    </row>
-    <row r="32" spans="1:19">
+      <c r="T31" s="4"/>
+    </row>
+    <row r="32" spans="1:20">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -7327,8 +7718,9 @@
       <c r="Q32" s="4"/>
       <c r="R32" s="4"/>
       <c r="S32" s="4"/>
-    </row>
-    <row r="33" spans="1:19">
+      <c r="T32" s="4"/>
+    </row>
+    <row r="33" spans="1:20">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -7348,8 +7740,9 @@
       <c r="Q33" s="4"/>
       <c r="R33" s="4"/>
       <c r="S33" s="4"/>
-    </row>
-    <row r="34" spans="1:19">
+      <c r="T33" s="4"/>
+    </row>
+    <row r="34" spans="1:20">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -7369,8 +7762,9 @@
       <c r="Q34" s="4"/>
       <c r="R34" s="4"/>
       <c r="S34" s="4"/>
-    </row>
-    <row r="35" spans="1:19">
+      <c r="T34" s="4"/>
+    </row>
+    <row r="35" spans="1:20">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -7390,8 +7784,9 @@
       <c r="Q35" s="4"/>
       <c r="R35" s="4"/>
       <c r="S35" s="4"/>
-    </row>
-    <row r="36" spans="1:19">
+      <c r="T35" s="4"/>
+    </row>
+    <row r="36" spans="1:20">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -7411,8 +7806,9 @@
       <c r="Q36" s="4"/>
       <c r="R36" s="4"/>
       <c r="S36" s="4"/>
-    </row>
-    <row r="37" spans="1:19">
+      <c r="T36" s="4"/>
+    </row>
+    <row r="37" spans="1:20">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -7432,8 +7828,9 @@
       <c r="Q37" s="4"/>
       <c r="R37" s="4"/>
       <c r="S37" s="4"/>
-    </row>
-    <row r="38" spans="1:19">
+      <c r="T37" s="4"/>
+    </row>
+    <row r="38" spans="1:20">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -7453,8 +7850,9 @@
       <c r="Q38" s="4"/>
       <c r="R38" s="4"/>
       <c r="S38" s="4"/>
-    </row>
-    <row r="39" spans="1:19">
+      <c r="T38" s="4"/>
+    </row>
+    <row r="39" spans="1:20">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -7474,8 +7872,9 @@
       <c r="Q39" s="4"/>
       <c r="R39" s="4"/>
       <c r="S39" s="4"/>
-    </row>
-    <row r="40" spans="1:19">
+      <c r="T39" s="4"/>
+    </row>
+    <row r="40" spans="1:20">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -7495,8 +7894,9 @@
       <c r="Q40" s="4"/>
       <c r="R40" s="4"/>
       <c r="S40" s="4"/>
-    </row>
-    <row r="41" spans="1:19">
+      <c r="T40" s="4"/>
+    </row>
+    <row r="41" spans="1:20">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -7516,8 +7916,9 @@
       <c r="Q41" s="4"/>
       <c r="R41" s="4"/>
       <c r="S41" s="4"/>
-    </row>
-    <row r="42" spans="1:19">
+      <c r="T41" s="4"/>
+    </row>
+    <row r="42" spans="1:20">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -7537,8 +7938,9 @@
       <c r="Q42" s="4"/>
       <c r="R42" s="4"/>
       <c r="S42" s="4"/>
-    </row>
-    <row r="43" spans="1:19">
+      <c r="T42" s="4"/>
+    </row>
+    <row r="43" spans="1:20">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -7558,8 +7960,9 @@
       <c r="Q43" s="4"/>
       <c r="R43" s="4"/>
       <c r="S43" s="4"/>
-    </row>
-    <row r="44" spans="1:19">
+      <c r="T43" s="4"/>
+    </row>
+    <row r="44" spans="1:20">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -7579,8 +7982,9 @@
       <c r="Q44" s="4"/>
       <c r="R44" s="4"/>
       <c r="S44" s="4"/>
-    </row>
-    <row r="45" spans="1:19">
+      <c r="T44" s="4"/>
+    </row>
+    <row r="45" spans="1:20">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -7600,8 +8004,9 @@
       <c r="Q45" s="4"/>
       <c r="R45" s="4"/>
       <c r="S45" s="4"/>
-    </row>
-    <row r="46" spans="1:19">
+      <c r="T45" s="4"/>
+    </row>
+    <row r="46" spans="1:20">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -7621,8 +8026,9 @@
       <c r="Q46" s="4"/>
       <c r="R46" s="4"/>
       <c r="S46" s="4"/>
-    </row>
-    <row r="47" spans="1:19">
+      <c r="T46" s="4"/>
+    </row>
+    <row r="47" spans="1:20">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -7642,8 +8048,9 @@
       <c r="Q47" s="4"/>
       <c r="R47" s="4"/>
       <c r="S47" s="4"/>
-    </row>
-    <row r="48" spans="1:19">
+      <c r="T47" s="4"/>
+    </row>
+    <row r="48" spans="1:20">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
@@ -7663,8 +8070,9 @@
       <c r="Q48" s="4"/>
       <c r="R48" s="4"/>
       <c r="S48" s="4"/>
-    </row>
-    <row r="49" spans="1:19">
+      <c r="T48" s="4"/>
+    </row>
+    <row r="49" spans="1:20">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
@@ -7684,8 +8092,9 @@
       <c r="Q49" s="4"/>
       <c r="R49" s="4"/>
       <c r="S49" s="4"/>
-    </row>
-    <row r="50" spans="1:19">
+      <c r="T49" s="4"/>
+    </row>
+    <row r="50" spans="1:20">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
@@ -7705,8 +8114,9 @@
       <c r="Q50" s="4"/>
       <c r="R50" s="4"/>
       <c r="S50" s="4"/>
-    </row>
-    <row r="51" spans="1:19">
+      <c r="T50" s="4"/>
+    </row>
+    <row r="51" spans="1:20">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
@@ -7726,8 +8136,9 @@
       <c r="Q51" s="4"/>
       <c r="R51" s="4"/>
       <c r="S51" s="4"/>
-    </row>
-    <row r="52" spans="1:19">
+      <c r="T51" s="4"/>
+    </row>
+    <row r="52" spans="1:20">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
@@ -7747,8 +8158,9 @@
       <c r="Q52" s="4"/>
       <c r="R52" s="4"/>
       <c r="S52" s="4"/>
-    </row>
-    <row r="53" spans="1:19">
+      <c r="T52" s="4"/>
+    </row>
+    <row r="53" spans="1:20">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
@@ -7768,8 +8180,9 @@
       <c r="Q53" s="4"/>
       <c r="R53" s="4"/>
       <c r="S53" s="4"/>
-    </row>
-    <row r="54" spans="1:19">
+      <c r="T53" s="4"/>
+    </row>
+    <row r="54" spans="1:20">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
@@ -7789,8 +8202,9 @@
       <c r="Q54" s="4"/>
       <c r="R54" s="4"/>
       <c r="S54" s="4"/>
-    </row>
-    <row r="55" spans="1:19">
+      <c r="T54" s="4"/>
+    </row>
+    <row r="55" spans="1:20">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
@@ -7810,8 +8224,9 @@
       <c r="Q55" s="4"/>
       <c r="R55" s="4"/>
       <c r="S55" s="4"/>
-    </row>
-    <row r="56" spans="1:19">
+      <c r="T55" s="4"/>
+    </row>
+    <row r="56" spans="1:20">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
@@ -7831,8 +8246,9 @@
       <c r="Q56" s="4"/>
       <c r="R56" s="4"/>
       <c r="S56" s="4"/>
-    </row>
-    <row r="57" spans="1:19">
+      <c r="T56" s="4"/>
+    </row>
+    <row r="57" spans="1:20">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -7852,8 +8268,9 @@
       <c r="Q57" s="4"/>
       <c r="R57" s="4"/>
       <c r="S57" s="4"/>
-    </row>
-    <row r="58" spans="1:19">
+      <c r="T57" s="4"/>
+    </row>
+    <row r="58" spans="1:20">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
@@ -7873,8 +8290,9 @@
       <c r="Q58" s="4"/>
       <c r="R58" s="4"/>
       <c r="S58" s="4"/>
-    </row>
-    <row r="59" spans="1:19">
+      <c r="T58" s="4"/>
+    </row>
+    <row r="59" spans="1:20">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
@@ -7894,8 +8312,9 @@
       <c r="Q59" s="4"/>
       <c r="R59" s="4"/>
       <c r="S59" s="4"/>
-    </row>
-    <row r="60" spans="1:19">
+      <c r="T59" s="4"/>
+    </row>
+    <row r="60" spans="1:20">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
@@ -7915,8 +8334,9 @@
       <c r="Q60" s="4"/>
       <c r="R60" s="4"/>
       <c r="S60" s="4"/>
-    </row>
-    <row r="61" spans="1:19">
+      <c r="T60" s="4"/>
+    </row>
+    <row r="61" spans="1:20">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
@@ -7936,8 +8356,9 @@
       <c r="Q61" s="4"/>
       <c r="R61" s="4"/>
       <c r="S61" s="4"/>
-    </row>
-    <row r="62" spans="1:19">
+      <c r="T61" s="4"/>
+    </row>
+    <row r="62" spans="1:20">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
@@ -7957,8 +8378,9 @@
       <c r="Q62" s="4"/>
       <c r="R62" s="4"/>
       <c r="S62" s="4"/>
-    </row>
-    <row r="63" spans="1:19">
+      <c r="T62" s="4"/>
+    </row>
+    <row r="63" spans="1:20">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
@@ -7978,8 +8400,9 @@
       <c r="Q63" s="4"/>
       <c r="R63" s="4"/>
       <c r="S63" s="4"/>
-    </row>
-    <row r="64" spans="1:19">
+      <c r="T63" s="4"/>
+    </row>
+    <row r="64" spans="1:20">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
@@ -7999,8 +8422,9 @@
       <c r="Q64" s="4"/>
       <c r="R64" s="4"/>
       <c r="S64" s="4"/>
-    </row>
-    <row r="65" spans="1:19">
+      <c r="T64" s="4"/>
+    </row>
+    <row r="65" spans="1:20">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
@@ -8020,8 +8444,9 @@
       <c r="Q65" s="4"/>
       <c r="R65" s="4"/>
       <c r="S65" s="4"/>
-    </row>
-    <row r="66" spans="1:19">
+      <c r="T65" s="4"/>
+    </row>
+    <row r="66" spans="1:20">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
@@ -8041,8 +8466,9 @@
       <c r="Q66" s="4"/>
       <c r="R66" s="4"/>
       <c r="S66" s="4"/>
-    </row>
-    <row r="67" spans="1:19">
+      <c r="T66" s="4"/>
+    </row>
+    <row r="67" spans="1:20">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
@@ -8062,8 +8488,9 @@
       <c r="Q67" s="4"/>
       <c r="R67" s="4"/>
       <c r="S67" s="4"/>
-    </row>
-    <row r="68" spans="1:19">
+      <c r="T67" s="4"/>
+    </row>
+    <row r="68" spans="1:20">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
@@ -8083,8 +8510,9 @@
       <c r="Q68" s="4"/>
       <c r="R68" s="4"/>
       <c r="S68" s="4"/>
-    </row>
-    <row r="69" spans="1:19">
+      <c r="T68" s="4"/>
+    </row>
+    <row r="69" spans="1:20">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
@@ -8104,8 +8532,9 @@
       <c r="Q69" s="4"/>
       <c r="R69" s="4"/>
       <c r="S69" s="4"/>
-    </row>
-    <row r="70" spans="1:19">
+      <c r="T69" s="4"/>
+    </row>
+    <row r="70" spans="1:20">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
@@ -8125,8 +8554,9 @@
       <c r="Q70" s="4"/>
       <c r="R70" s="4"/>
       <c r="S70" s="4"/>
-    </row>
-    <row r="71" spans="1:19">
+      <c r="T70" s="4"/>
+    </row>
+    <row r="71" spans="1:20">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
@@ -8146,8 +8576,9 @@
       <c r="Q71" s="4"/>
       <c r="R71" s="4"/>
       <c r="S71" s="4"/>
-    </row>
-    <row r="72" spans="1:19">
+      <c r="T71" s="4"/>
+    </row>
+    <row r="72" spans="1:20">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
@@ -8167,8 +8598,9 @@
       <c r="Q72" s="4"/>
       <c r="R72" s="4"/>
       <c r="S72" s="4"/>
-    </row>
-    <row r="73" spans="1:19">
+      <c r="T72" s="4"/>
+    </row>
+    <row r="73" spans="1:20">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
@@ -8188,8 +8620,9 @@
       <c r="Q73" s="4"/>
       <c r="R73" s="4"/>
       <c r="S73" s="4"/>
-    </row>
-    <row r="74" spans="1:19">
+      <c r="T73" s="4"/>
+    </row>
+    <row r="74" spans="1:20">
       <c r="A74" s="4"/>
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
@@ -8209,8 +8642,9 @@
       <c r="Q74" s="4"/>
       <c r="R74" s="4"/>
       <c r="S74" s="4"/>
-    </row>
-    <row r="75" spans="1:19">
+      <c r="T74" s="4"/>
+    </row>
+    <row r="75" spans="1:20">
       <c r="A75" s="4"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
@@ -8230,8 +8664,9 @@
       <c r="Q75" s="4"/>
       <c r="R75" s="4"/>
       <c r="S75" s="4"/>
-    </row>
-    <row r="76" spans="1:19">
+      <c r="T75" s="4"/>
+    </row>
+    <row r="76" spans="1:20">
       <c r="A76" s="4"/>
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
@@ -8251,8 +8686,9 @@
       <c r="Q76" s="4"/>
       <c r="R76" s="4"/>
       <c r="S76" s="4"/>
-    </row>
-    <row r="77" spans="1:19">
+      <c r="T76" s="4"/>
+    </row>
+    <row r="77" spans="1:20">
       <c r="A77" s="4"/>
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
@@ -8272,8 +8708,9 @@
       <c r="Q77" s="4"/>
       <c r="R77" s="4"/>
       <c r="S77" s="4"/>
-    </row>
-    <row r="78" spans="1:19">
+      <c r="T77" s="4"/>
+    </row>
+    <row r="78" spans="1:20">
       <c r="A78" s="4"/>
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
@@ -8293,8 +8730,9 @@
       <c r="Q78" s="4"/>
       <c r="R78" s="4"/>
       <c r="S78" s="4"/>
-    </row>
-    <row r="79" spans="1:19">
+      <c r="T78" s="4"/>
+    </row>
+    <row r="79" spans="1:20">
       <c r="A79" s="4"/>
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
@@ -8314,8 +8752,9 @@
       <c r="Q79" s="4"/>
       <c r="R79" s="4"/>
       <c r="S79" s="4"/>
-    </row>
-    <row r="80" spans="1:19">
+      <c r="T79" s="4"/>
+    </row>
+    <row r="80" spans="1:20">
       <c r="A80" s="4"/>
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
@@ -8335,8 +8774,9 @@
       <c r="Q80" s="4"/>
       <c r="R80" s="4"/>
       <c r="S80" s="4"/>
-    </row>
-    <row r="81" spans="1:19">
+      <c r="T80" s="4"/>
+    </row>
+    <row r="81" spans="1:20">
       <c r="A81" s="4"/>
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
@@ -8356,8 +8796,9 @@
       <c r="Q81" s="4"/>
       <c r="R81" s="4"/>
       <c r="S81" s="4"/>
-    </row>
-    <row r="82" spans="1:19">
+      <c r="T81" s="4"/>
+    </row>
+    <row r="82" spans="1:20">
       <c r="A82" s="4"/>
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
@@ -8377,8 +8818,9 @@
       <c r="Q82" s="4"/>
       <c r="R82" s="4"/>
       <c r="S82" s="4"/>
-    </row>
-    <row r="83" spans="1:19">
+      <c r="T82" s="4"/>
+    </row>
+    <row r="83" spans="1:20">
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
@@ -8398,8 +8840,9 @@
       <c r="Q83" s="4"/>
       <c r="R83" s="4"/>
       <c r="S83" s="4"/>
-    </row>
-    <row r="84" spans="1:19">
+      <c r="T83" s="4"/>
+    </row>
+    <row r="84" spans="1:20">
       <c r="A84" s="4"/>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
@@ -8419,8 +8862,9 @@
       <c r="Q84" s="4"/>
       <c r="R84" s="4"/>
       <c r="S84" s="4"/>
-    </row>
-    <row r="85" spans="1:19">
+      <c r="T84" s="4"/>
+    </row>
+    <row r="85" spans="1:20">
       <c r="A85" s="4"/>
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
@@ -8440,8 +8884,9 @@
       <c r="Q85" s="4"/>
       <c r="R85" s="4"/>
       <c r="S85" s="4"/>
-    </row>
-    <row r="86" spans="1:19">
+      <c r="T85" s="4"/>
+    </row>
+    <row r="86" spans="1:20">
       <c r="A86" s="4"/>
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
@@ -8461,8 +8906,9 @@
       <c r="Q86" s="4"/>
       <c r="R86" s="4"/>
       <c r="S86" s="4"/>
-    </row>
-    <row r="87" spans="1:19">
+      <c r="T86" s="4"/>
+    </row>
+    <row r="87" spans="1:20">
       <c r="A87" s="4"/>
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
@@ -8482,8 +8928,9 @@
       <c r="Q87" s="4"/>
       <c r="R87" s="4"/>
       <c r="S87" s="4"/>
-    </row>
-    <row r="88" spans="1:19">
+      <c r="T87" s="4"/>
+    </row>
+    <row r="88" spans="1:20">
       <c r="A88" s="4"/>
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
@@ -8503,8 +8950,9 @@
       <c r="Q88" s="4"/>
       <c r="R88" s="4"/>
       <c r="S88" s="4"/>
-    </row>
-    <row r="89" spans="1:19">
+      <c r="T88" s="4"/>
+    </row>
+    <row r="89" spans="1:20">
       <c r="A89" s="4"/>
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
@@ -8524,8 +8972,9 @@
       <c r="Q89" s="4"/>
       <c r="R89" s="4"/>
       <c r="S89" s="4"/>
-    </row>
-    <row r="90" spans="1:19">
+      <c r="T89" s="4"/>
+    </row>
+    <row r="90" spans="1:20">
       <c r="A90" s="4"/>
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
@@ -8545,8 +8994,9 @@
       <c r="Q90" s="4"/>
       <c r="R90" s="4"/>
       <c r="S90" s="4"/>
-    </row>
-    <row r="91" spans="1:19">
+      <c r="T90" s="4"/>
+    </row>
+    <row r="91" spans="1:20">
       <c r="A91" s="4"/>
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
@@ -8566,8 +9016,9 @@
       <c r="Q91" s="4"/>
       <c r="R91" s="4"/>
       <c r="S91" s="4"/>
-    </row>
-    <row r="92" spans="1:19">
+      <c r="T91" s="4"/>
+    </row>
+    <row r="92" spans="1:20">
       <c r="A92" s="4"/>
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
@@ -8587,8 +9038,9 @@
       <c r="Q92" s="4"/>
       <c r="R92" s="4"/>
       <c r="S92" s="4"/>
-    </row>
-    <row r="93" spans="1:19">
+      <c r="T92" s="4"/>
+    </row>
+    <row r="93" spans="1:20">
       <c r="A93" s="4"/>
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
@@ -8608,8 +9060,9 @@
       <c r="Q93" s="4"/>
       <c r="R93" s="4"/>
       <c r="S93" s="4"/>
-    </row>
-    <row r="94" spans="1:19">
+      <c r="T93" s="4"/>
+    </row>
+    <row r="94" spans="1:20">
       <c r="A94" s="4"/>
       <c r="B94" s="4"/>
       <c r="C94" s="4"/>
@@ -8629,8 +9082,9 @@
       <c r="Q94" s="4"/>
       <c r="R94" s="4"/>
       <c r="S94" s="4"/>
-    </row>
-    <row r="95" spans="1:19">
+      <c r="T94" s="4"/>
+    </row>
+    <row r="95" spans="1:20">
       <c r="A95" s="4"/>
       <c r="B95" s="4"/>
       <c r="C95" s="4"/>
@@ -8650,8 +9104,9 @@
       <c r="Q95" s="4"/>
       <c r="R95" s="4"/>
       <c r="S95" s="4"/>
-    </row>
-    <row r="96" spans="1:19">
+      <c r="T95" s="4"/>
+    </row>
+    <row r="96" spans="1:20">
       <c r="A96" s="4"/>
       <c r="B96" s="4"/>
       <c r="C96" s="4"/>
@@ -8671,8 +9126,9 @@
       <c r="Q96" s="4"/>
       <c r="R96" s="4"/>
       <c r="S96" s="4"/>
-    </row>
-    <row r="97" spans="1:19">
+      <c r="T96" s="4"/>
+    </row>
+    <row r="97" spans="1:20">
       <c r="A97" s="4"/>
       <c r="B97" s="4"/>
       <c r="C97" s="4"/>
@@ -8692,8 +9148,9 @@
       <c r="Q97" s="4"/>
       <c r="R97" s="4"/>
       <c r="S97" s="4"/>
-    </row>
-    <row r="98" spans="1:19">
+      <c r="T97" s="4"/>
+    </row>
+    <row r="98" spans="1:20">
       <c r="A98" s="4"/>
       <c r="B98" s="4"/>
       <c r="C98" s="4"/>
@@ -8713,8 +9170,9 @@
       <c r="Q98" s="4"/>
       <c r="R98" s="4"/>
       <c r="S98" s="4"/>
-    </row>
-    <row r="99" spans="1:19">
+      <c r="T98" s="4"/>
+    </row>
+    <row r="99" spans="1:20">
       <c r="A99" s="4"/>
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
@@ -8734,8 +9192,9 @@
       <c r="Q99" s="4"/>
       <c r="R99" s="4"/>
       <c r="S99" s="4"/>
-    </row>
-    <row r="100" spans="1:19">
+      <c r="T99" s="4"/>
+    </row>
+    <row r="100" spans="1:20">
       <c r="A100" s="4"/>
       <c r="B100" s="4"/>
       <c r="C100" s="4"/>
@@ -8755,8 +9214,9 @@
       <c r="Q100" s="4"/>
       <c r="R100" s="4"/>
       <c r="S100" s="4"/>
-    </row>
-    <row r="101" spans="1:19">
+      <c r="T100" s="4"/>
+    </row>
+    <row r="101" spans="1:20">
       <c r="A101" s="4"/>
       <c r="B101" s="4"/>
       <c r="C101" s="4"/>
@@ -8776,8 +9236,9 @@
       <c r="Q101" s="4"/>
       <c r="R101" s="4"/>
       <c r="S101" s="4"/>
-    </row>
-    <row r="102" spans="1:19">
+      <c r="T101" s="4"/>
+    </row>
+    <row r="102" spans="1:20">
       <c r="A102" s="4"/>
       <c r="B102" s="4"/>
       <c r="C102" s="4"/>
@@ -8797,8 +9258,9 @@
       <c r="Q102" s="4"/>
       <c r="R102" s="4"/>
       <c r="S102" s="4"/>
-    </row>
-    <row r="103" spans="1:19">
+      <c r="T102" s="4"/>
+    </row>
+    <row r="103" spans="1:20">
       <c r="A103" s="4"/>
       <c r="B103" s="4"/>
       <c r="C103" s="4"/>
@@ -8818,8 +9280,9 @@
       <c r="Q103" s="4"/>
       <c r="R103" s="4"/>
       <c r="S103" s="4"/>
-    </row>
-    <row r="104" spans="1:19">
+      <c r="T103" s="4"/>
+    </row>
+    <row r="104" spans="1:20">
       <c r="A104" s="4"/>
       <c r="B104" s="4"/>
       <c r="C104" s="4"/>
@@ -8839,8 +9302,9 @@
       <c r="Q104" s="4"/>
       <c r="R104" s="4"/>
       <c r="S104" s="4"/>
-    </row>
-    <row r="105" spans="1:19">
+      <c r="T104" s="4"/>
+    </row>
+    <row r="105" spans="1:20">
       <c r="A105" s="4"/>
       <c r="B105" s="4"/>
       <c r="C105" s="4"/>
@@ -8860,8 +9324,9 @@
       <c r="Q105" s="4"/>
       <c r="R105" s="4"/>
       <c r="S105" s="4"/>
-    </row>
-    <row r="106" spans="1:19">
+      <c r="T105" s="4"/>
+    </row>
+    <row r="106" spans="1:20">
       <c r="A106" s="4"/>
       <c r="B106" s="4"/>
       <c r="C106" s="4"/>
@@ -8881,8 +9346,9 @@
       <c r="Q106" s="4"/>
       <c r="R106" s="4"/>
       <c r="S106" s="4"/>
-    </row>
-    <row r="107" spans="1:19">
+      <c r="T106" s="4"/>
+    </row>
+    <row r="107" spans="1:20">
       <c r="A107" s="4"/>
       <c r="B107" s="4"/>
       <c r="C107" s="4"/>
@@ -8902,8 +9368,9 @@
       <c r="Q107" s="4"/>
       <c r="R107" s="4"/>
       <c r="S107" s="4"/>
-    </row>
-    <row r="108" spans="1:19">
+      <c r="T107" s="4"/>
+    </row>
+    <row r="108" spans="1:20">
       <c r="A108" s="4"/>
       <c r="B108" s="4"/>
       <c r="C108" s="4"/>
@@ -8923,8 +9390,9 @@
       <c r="Q108" s="4"/>
       <c r="R108" s="4"/>
       <c r="S108" s="4"/>
-    </row>
-    <row r="109" spans="1:19">
+      <c r="T108" s="4"/>
+    </row>
+    <row r="109" spans="1:20">
       <c r="A109" s="4"/>
       <c r="B109" s="4"/>
       <c r="C109" s="4"/>
@@ -8944,8 +9412,9 @@
       <c r="Q109" s="4"/>
       <c r="R109" s="4"/>
       <c r="S109" s="4"/>
-    </row>
-    <row r="110" spans="1:19">
+      <c r="T109" s="4"/>
+    </row>
+    <row r="110" spans="1:20">
       <c r="A110" s="4"/>
       <c r="B110" s="4"/>
       <c r="C110" s="4"/>
@@ -8965,8 +9434,9 @@
       <c r="Q110" s="4"/>
       <c r="R110" s="4"/>
       <c r="S110" s="4"/>
-    </row>
-    <row r="111" spans="1:19">
+      <c r="T110" s="4"/>
+    </row>
+    <row r="111" spans="1:20">
       <c r="A111" s="4"/>
       <c r="B111" s="4"/>
       <c r="C111" s="4"/>
@@ -8986,8 +9456,9 @@
       <c r="Q111" s="4"/>
       <c r="R111" s="4"/>
       <c r="S111" s="4"/>
-    </row>
-    <row r="112" spans="1:19">
+      <c r="T111" s="4"/>
+    </row>
+    <row r="112" spans="1:20">
       <c r="A112" s="4"/>
       <c r="B112" s="4"/>
       <c r="C112" s="4"/>
@@ -9007,8 +9478,9 @@
       <c r="Q112" s="4"/>
       <c r="R112" s="4"/>
       <c r="S112" s="4"/>
-    </row>
-    <row r="113" spans="1:19">
+      <c r="T112" s="4"/>
+    </row>
+    <row r="113" spans="1:20">
       <c r="A113" s="4"/>
       <c r="B113" s="4"/>
       <c r="C113" s="4"/>
@@ -9028,8 +9500,9 @@
       <c r="Q113" s="4"/>
       <c r="R113" s="4"/>
       <c r="S113" s="4"/>
-    </row>
-    <row r="114" spans="1:19">
+      <c r="T113" s="4"/>
+    </row>
+    <row r="114" spans="1:20">
       <c r="A114" s="4"/>
       <c r="B114" s="4"/>
       <c r="C114" s="4"/>
@@ -9049,8 +9522,9 @@
       <c r="Q114" s="4"/>
       <c r="R114" s="4"/>
       <c r="S114" s="4"/>
-    </row>
-    <row r="115" spans="1:19">
+      <c r="T114" s="4"/>
+    </row>
+    <row r="115" spans="1:20">
       <c r="A115" s="4"/>
       <c r="B115" s="4"/>
       <c r="C115" s="4"/>
@@ -9070,8 +9544,9 @@
       <c r="Q115" s="4"/>
       <c r="R115" s="4"/>
       <c r="S115" s="4"/>
-    </row>
-    <row r="116" spans="1:19">
+      <c r="T115" s="4"/>
+    </row>
+    <row r="116" spans="1:20">
       <c r="A116" s="4"/>
       <c r="B116" s="4"/>
       <c r="C116" s="4"/>
@@ -9091,8 +9566,9 @@
       <c r="Q116" s="4"/>
       <c r="R116" s="4"/>
       <c r="S116" s="4"/>
-    </row>
-    <row r="117" spans="1:19">
+      <c r="T116" s="4"/>
+    </row>
+    <row r="117" spans="1:20">
       <c r="A117" s="4"/>
       <c r="B117" s="4"/>
       <c r="C117" s="4"/>
@@ -9112,8 +9588,9 @@
       <c r="Q117" s="4"/>
       <c r="R117" s="4"/>
       <c r="S117" s="4"/>
-    </row>
-    <row r="118" spans="1:19">
+      <c r="T117" s="4"/>
+    </row>
+    <row r="118" spans="1:20">
       <c r="A118" s="4"/>
       <c r="B118" s="4"/>
       <c r="C118" s="4"/>
@@ -9133,8 +9610,9 @@
       <c r="Q118" s="4"/>
       <c r="R118" s="4"/>
       <c r="S118" s="4"/>
-    </row>
-    <row r="119" spans="1:19">
+      <c r="T118" s="4"/>
+    </row>
+    <row r="119" spans="1:20">
       <c r="A119" s="4"/>
       <c r="B119" s="4"/>
       <c r="C119" s="4"/>
@@ -9154,8 +9632,9 @@
       <c r="Q119" s="4"/>
       <c r="R119" s="4"/>
       <c r="S119" s="4"/>
-    </row>
-    <row r="120" spans="1:19">
+      <c r="T119" s="4"/>
+    </row>
+    <row r="120" spans="1:20">
       <c r="A120" s="4"/>
       <c r="B120" s="4"/>
       <c r="C120" s="4"/>
@@ -9175,8 +9654,9 @@
       <c r="Q120" s="4"/>
       <c r="R120" s="4"/>
       <c r="S120" s="4"/>
-    </row>
-    <row r="121" spans="1:19">
+      <c r="T120" s="4"/>
+    </row>
+    <row r="121" spans="1:20">
       <c r="A121" s="4"/>
       <c r="B121" s="4"/>
       <c r="C121" s="4"/>
@@ -9196,8 +9676,9 @@
       <c r="Q121" s="4"/>
       <c r="R121" s="4"/>
       <c r="S121" s="4"/>
-    </row>
-    <row r="122" spans="1:19">
+      <c r="T121" s="4"/>
+    </row>
+    <row r="122" spans="1:20">
       <c r="A122" s="4"/>
       <c r="B122" s="4"/>
       <c r="C122" s="4"/>
@@ -9217,8 +9698,9 @@
       <c r="Q122" s="4"/>
       <c r="R122" s="4"/>
       <c r="S122" s="4"/>
-    </row>
-    <row r="123" spans="1:19">
+      <c r="T122" s="4"/>
+    </row>
+    <row r="123" spans="1:20">
       <c r="A123" s="4"/>
       <c r="B123" s="4"/>
       <c r="C123" s="4"/>
@@ -9238,8 +9720,9 @@
       <c r="Q123" s="4"/>
       <c r="R123" s="4"/>
       <c r="S123" s="4"/>
-    </row>
-    <row r="124" spans="1:19">
+      <c r="T123" s="4"/>
+    </row>
+    <row r="124" spans="1:20">
       <c r="A124" s="4"/>
       <c r="B124" s="4"/>
       <c r="C124" s="4"/>
@@ -9259,8 +9742,9 @@
       <c r="Q124" s="4"/>
       <c r="R124" s="4"/>
       <c r="S124" s="4"/>
-    </row>
-    <row r="125" spans="1:19">
+      <c r="T124" s="4"/>
+    </row>
+    <row r="125" spans="1:20">
       <c r="A125" s="4"/>
       <c r="B125" s="4"/>
       <c r="C125" s="4"/>
@@ -9280,8 +9764,9 @@
       <c r="Q125" s="4"/>
       <c r="R125" s="4"/>
       <c r="S125" s="4"/>
-    </row>
-    <row r="126" spans="1:19">
+      <c r="T125" s="4"/>
+    </row>
+    <row r="126" spans="1:20">
       <c r="A126" s="4"/>
       <c r="B126" s="4"/>
       <c r="C126" s="4"/>
@@ -9301,8 +9786,9 @@
       <c r="Q126" s="4"/>
       <c r="R126" s="4"/>
       <c r="S126" s="4"/>
-    </row>
-    <row r="127" spans="1:19">
+      <c r="T126" s="4"/>
+    </row>
+    <row r="127" spans="1:20">
       <c r="A127" s="4"/>
       <c r="B127" s="4"/>
       <c r="C127" s="4"/>
@@ -9322,8 +9808,9 @@
       <c r="Q127" s="4"/>
       <c r="R127" s="4"/>
       <c r="S127" s="4"/>
-    </row>
-    <row r="128" spans="1:19">
+      <c r="T127" s="4"/>
+    </row>
+    <row r="128" spans="1:20">
       <c r="A128" s="4"/>
       <c r="B128" s="4"/>
       <c r="C128" s="4"/>
@@ -9343,8 +9830,9 @@
       <c r="Q128" s="4"/>
       <c r="R128" s="4"/>
       <c r="S128" s="4"/>
-    </row>
-    <row r="129" spans="1:19">
+      <c r="T128" s="4"/>
+    </row>
+    <row r="129" spans="1:20">
       <c r="A129" s="4"/>
       <c r="B129" s="4"/>
       <c r="C129" s="4"/>
@@ -9364,8 +9852,9 @@
       <c r="Q129" s="4"/>
       <c r="R129" s="4"/>
       <c r="S129" s="4"/>
-    </row>
-    <row r="130" spans="1:19">
+      <c r="T129" s="4"/>
+    </row>
+    <row r="130" spans="1:20">
       <c r="A130" s="4"/>
       <c r="B130" s="4"/>
       <c r="C130" s="4"/>
@@ -9385,8 +9874,9 @@
       <c r="Q130" s="4"/>
       <c r="R130" s="4"/>
       <c r="S130" s="4"/>
-    </row>
-    <row r="131" spans="1:19">
+      <c r="T130" s="4"/>
+    </row>
+    <row r="131" spans="1:20">
       <c r="A131" s="4"/>
       <c r="B131" s="4"/>
       <c r="C131" s="4"/>
@@ -9406,8 +9896,9 @@
       <c r="Q131" s="4"/>
       <c r="R131" s="4"/>
       <c r="S131" s="4"/>
-    </row>
-    <row r="132" spans="1:19">
+      <c r="T131" s="4"/>
+    </row>
+    <row r="132" spans="1:20">
       <c r="A132" s="4"/>
       <c r="B132" s="4"/>
       <c r="C132" s="4"/>
@@ -9427,8 +9918,9 @@
       <c r="Q132" s="4"/>
       <c r="R132" s="4"/>
       <c r="S132" s="4"/>
-    </row>
-    <row r="133" spans="1:19">
+      <c r="T132" s="4"/>
+    </row>
+    <row r="133" spans="1:20">
       <c r="A133" s="4"/>
       <c r="B133" s="4"/>
       <c r="C133" s="4"/>
@@ -9448,8 +9940,9 @@
       <c r="Q133" s="4"/>
       <c r="R133" s="4"/>
       <c r="S133" s="4"/>
-    </row>
-    <row r="134" spans="1:19">
+      <c r="T133" s="4"/>
+    </row>
+    <row r="134" spans="1:20">
       <c r="A134" s="4"/>
       <c r="B134" s="4"/>
       <c r="C134" s="4"/>
@@ -9469,8 +9962,9 @@
       <c r="Q134" s="4"/>
       <c r="R134" s="4"/>
       <c r="S134" s="4"/>
-    </row>
-    <row r="135" spans="1:19">
+      <c r="T134" s="4"/>
+    </row>
+    <row r="135" spans="1:20">
       <c r="A135" s="4"/>
       <c r="B135" s="4"/>
       <c r="C135" s="4"/>
@@ -9490,8 +9984,9 @@
       <c r="Q135" s="4"/>
       <c r="R135" s="4"/>
       <c r="S135" s="4"/>
-    </row>
-    <row r="136" spans="1:19">
+      <c r="T135" s="4"/>
+    </row>
+    <row r="136" spans="1:20">
       <c r="A136" s="4"/>
       <c r="B136" s="4"/>
       <c r="C136" s="4"/>
@@ -9511,8 +10006,9 @@
       <c r="Q136" s="4"/>
       <c r="R136" s="4"/>
       <c r="S136" s="4"/>
-    </row>
-    <row r="137" spans="1:19">
+      <c r="T136" s="4"/>
+    </row>
+    <row r="137" spans="1:20">
       <c r="A137" s="4"/>
       <c r="B137" s="4"/>
       <c r="C137" s="4"/>
@@ -9532,8 +10028,9 @@
       <c r="Q137" s="4"/>
       <c r="R137" s="4"/>
       <c r="S137" s="4"/>
-    </row>
-    <row r="138" spans="1:19">
+      <c r="T137" s="4"/>
+    </row>
+    <row r="138" spans="1:20">
       <c r="A138" s="4"/>
       <c r="B138" s="4"/>
       <c r="C138" s="4"/>
@@ -9553,8 +10050,9 @@
       <c r="Q138" s="4"/>
       <c r="R138" s="4"/>
       <c r="S138" s="4"/>
-    </row>
-    <row r="139" spans="1:19">
+      <c r="T138" s="4"/>
+    </row>
+    <row r="139" spans="1:20">
       <c r="A139" s="4"/>
       <c r="B139" s="4"/>
       <c r="C139" s="4"/>
@@ -9574,8 +10072,9 @@
       <c r="Q139" s="4"/>
       <c r="R139" s="4"/>
       <c r="S139" s="4"/>
-    </row>
-    <row r="140" spans="1:19">
+      <c r="T139" s="4"/>
+    </row>
+    <row r="140" spans="1:20">
       <c r="A140" s="4"/>
       <c r="B140" s="4"/>
       <c r="C140" s="4"/>
@@ -9595,8 +10094,9 @@
       <c r="Q140" s="4"/>
       <c r="R140" s="4"/>
       <c r="S140" s="4"/>
-    </row>
-    <row r="141" spans="1:19">
+      <c r="T140" s="4"/>
+    </row>
+    <row r="141" spans="1:20">
       <c r="A141" s="4"/>
       <c r="B141" s="4"/>
       <c r="C141" s="4"/>
@@ -9616,8 +10116,9 @@
       <c r="Q141" s="4"/>
       <c r="R141" s="4"/>
       <c r="S141" s="4"/>
-    </row>
-    <row r="142" spans="1:19">
+      <c r="T141" s="4"/>
+    </row>
+    <row r="142" spans="1:20">
       <c r="A142" s="4"/>
       <c r="B142" s="4"/>
       <c r="C142" s="4"/>
@@ -9637,8 +10138,9 @@
       <c r="Q142" s="4"/>
       <c r="R142" s="4"/>
       <c r="S142" s="4"/>
-    </row>
-    <row r="143" spans="1:19">
+      <c r="T142" s="4"/>
+    </row>
+    <row r="143" spans="1:20">
       <c r="A143" s="4"/>
       <c r="B143" s="4"/>
       <c r="C143" s="4"/>
@@ -9658,8 +10160,9 @@
       <c r="Q143" s="4"/>
       <c r="R143" s="4"/>
       <c r="S143" s="4"/>
-    </row>
-    <row r="144" spans="1:19">
+      <c r="T143" s="4"/>
+    </row>
+    <row r="144" spans="1:20">
       <c r="A144" s="4"/>
       <c r="B144" s="4"/>
       <c r="C144" s="4"/>
@@ -9679,8 +10182,9 @@
       <c r="Q144" s="4"/>
       <c r="R144" s="4"/>
       <c r="S144" s="4"/>
-    </row>
-    <row r="145" spans="1:19">
+      <c r="T144" s="4"/>
+    </row>
+    <row r="145" spans="1:20">
       <c r="A145" s="4"/>
       <c r="B145" s="4"/>
       <c r="C145" s="4"/>
@@ -9700,8 +10204,9 @@
       <c r="Q145" s="4"/>
       <c r="R145" s="4"/>
       <c r="S145" s="4"/>
-    </row>
-    <row r="146" spans="1:19">
+      <c r="T145" s="4"/>
+    </row>
+    <row r="146" spans="1:20">
       <c r="A146" s="4"/>
       <c r="B146" s="4"/>
       <c r="C146" s="4"/>
@@ -9721,8 +10226,9 @@
       <c r="Q146" s="4"/>
       <c r="R146" s="4"/>
       <c r="S146" s="4"/>
-    </row>
-    <row r="147" spans="1:19">
+      <c r="T146" s="4"/>
+    </row>
+    <row r="147" spans="1:20">
       <c r="A147" s="4"/>
       <c r="B147" s="4"/>
       <c r="C147" s="4"/>
@@ -9742,8 +10248,9 @@
       <c r="Q147" s="4"/>
       <c r="R147" s="4"/>
       <c r="S147" s="4"/>
-    </row>
-    <row r="148" spans="1:19">
+      <c r="T147" s="4"/>
+    </row>
+    <row r="148" spans="1:20">
       <c r="A148" s="4"/>
       <c r="B148" s="4"/>
       <c r="C148" s="4"/>
@@ -9763,8 +10270,9 @@
       <c r="Q148" s="4"/>
       <c r="R148" s="4"/>
       <c r="S148" s="4"/>
-    </row>
-    <row r="149" spans="1:19">
+      <c r="T148" s="4"/>
+    </row>
+    <row r="149" spans="1:20">
       <c r="A149" s="4"/>
       <c r="B149" s="4"/>
       <c r="C149" s="4"/>
@@ -9784,8 +10292,9 @@
       <c r="Q149" s="4"/>
       <c r="R149" s="4"/>
       <c r="S149" s="4"/>
-    </row>
-    <row r="150" spans="1:19">
+      <c r="T149" s="4"/>
+    </row>
+    <row r="150" spans="1:20">
       <c r="A150" s="4"/>
       <c r="B150" s="4"/>
       <c r="C150" s="4"/>
@@ -9805,8 +10314,9 @@
       <c r="Q150" s="4"/>
       <c r="R150" s="4"/>
       <c r="S150" s="4"/>
-    </row>
-    <row r="151" spans="1:19">
+      <c r="T150" s="4"/>
+    </row>
+    <row r="151" spans="1:20">
       <c r="A151" s="4"/>
       <c r="B151" s="4"/>
       <c r="C151" s="4"/>
@@ -9826,8 +10336,9 @@
       <c r="Q151" s="4"/>
       <c r="R151" s="4"/>
       <c r="S151" s="4"/>
-    </row>
-    <row r="152" spans="1:19">
+      <c r="T151" s="4"/>
+    </row>
+    <row r="152" spans="1:20">
       <c r="A152" s="4"/>
       <c r="B152" s="4"/>
       <c r="C152" s="4"/>
@@ -9847,8 +10358,9 @@
       <c r="Q152" s="4"/>
       <c r="R152" s="4"/>
       <c r="S152" s="4"/>
-    </row>
-    <row r="153" spans="1:19">
+      <c r="T152" s="4"/>
+    </row>
+    <row r="153" spans="1:20">
       <c r="A153" s="4"/>
       <c r="B153" s="4"/>
       <c r="C153" s="4"/>
@@ -9868,8 +10380,9 @@
       <c r="Q153" s="4"/>
       <c r="R153" s="4"/>
       <c r="S153" s="4"/>
-    </row>
-    <row r="154" spans="1:19">
+      <c r="T153" s="4"/>
+    </row>
+    <row r="154" spans="1:20">
       <c r="A154" s="4"/>
       <c r="B154" s="4"/>
       <c r="C154" s="4"/>
@@ -9889,8 +10402,9 @@
       <c r="Q154" s="4"/>
       <c r="R154" s="4"/>
       <c r="S154" s="4"/>
-    </row>
-    <row r="155" spans="1:19">
+      <c r="T154" s="4"/>
+    </row>
+    <row r="155" spans="1:20">
       <c r="A155" s="4"/>
       <c r="B155" s="4"/>
       <c r="C155" s="4"/>
@@ -9910,8 +10424,9 @@
       <c r="Q155" s="4"/>
       <c r="R155" s="4"/>
       <c r="S155" s="4"/>
-    </row>
-    <row r="156" spans="1:19">
+      <c r="T155" s="4"/>
+    </row>
+    <row r="156" spans="1:20">
       <c r="A156" s="4"/>
       <c r="B156" s="4"/>
       <c r="C156" s="4"/>
@@ -9931,8 +10446,9 @@
       <c r="Q156" s="4"/>
       <c r="R156" s="4"/>
       <c r="S156" s="4"/>
-    </row>
-    <row r="157" spans="1:19">
+      <c r="T156" s="4"/>
+    </row>
+    <row r="157" spans="1:20">
       <c r="A157" s="4"/>
       <c r="B157" s="4"/>
       <c r="C157" s="4"/>
@@ -9952,8 +10468,9 @@
       <c r="Q157" s="4"/>
       <c r="R157" s="4"/>
       <c r="S157" s="4"/>
-    </row>
-    <row r="158" spans="1:19">
+      <c r="T157" s="4"/>
+    </row>
+    <row r="158" spans="1:20">
       <c r="A158" s="4"/>
       <c r="B158" s="4"/>
       <c r="C158" s="4"/>
@@ -9973,8 +10490,9 @@
       <c r="Q158" s="4"/>
       <c r="R158" s="4"/>
       <c r="S158" s="4"/>
-    </row>
-    <row r="159" spans="1:19">
+      <c r="T158" s="4"/>
+    </row>
+    <row r="159" spans="1:20">
       <c r="A159" s="4"/>
       <c r="B159" s="4"/>
       <c r="C159" s="4"/>
@@ -9994,8 +10512,9 @@
       <c r="Q159" s="4"/>
       <c r="R159" s="4"/>
       <c r="S159" s="4"/>
-    </row>
-    <row r="160" spans="1:19">
+      <c r="T159" s="4"/>
+    </row>
+    <row r="160" spans="1:20">
       <c r="A160" s="4"/>
       <c r="B160" s="4"/>
       <c r="C160" s="4"/>
@@ -10015,8 +10534,9 @@
       <c r="Q160" s="4"/>
       <c r="R160" s="4"/>
       <c r="S160" s="4"/>
-    </row>
-    <row r="161" spans="1:19">
+      <c r="T160" s="4"/>
+    </row>
+    <row r="161" spans="1:20">
       <c r="A161" s="4"/>
       <c r="B161" s="4"/>
       <c r="C161" s="4"/>
@@ -10036,8 +10556,9 @@
       <c r="Q161" s="4"/>
       <c r="R161" s="4"/>
       <c r="S161" s="4"/>
-    </row>
-    <row r="162" spans="1:19">
+      <c r="T161" s="4"/>
+    </row>
+    <row r="162" spans="1:20">
       <c r="A162" s="4"/>
       <c r="B162" s="4"/>
       <c r="C162" s="4"/>
@@ -10057,8 +10578,9 @@
       <c r="Q162" s="4"/>
       <c r="R162" s="4"/>
       <c r="S162" s="4"/>
-    </row>
-    <row r="163" spans="1:19">
+      <c r="T162" s="4"/>
+    </row>
+    <row r="163" spans="1:20">
       <c r="A163" s="4"/>
       <c r="B163" s="4"/>
       <c r="C163" s="4"/>
@@ -10078,8 +10600,9 @@
       <c r="Q163" s="4"/>
       <c r="R163" s="4"/>
       <c r="S163" s="4"/>
-    </row>
-    <row r="164" spans="1:19">
+      <c r="T163" s="4"/>
+    </row>
+    <row r="164" spans="1:20">
       <c r="A164" s="4"/>
       <c r="B164" s="4"/>
       <c r="C164" s="4"/>
@@ -10099,8 +10622,9 @@
       <c r="Q164" s="4"/>
       <c r="R164" s="4"/>
       <c r="S164" s="4"/>
-    </row>
-    <row r="165" spans="1:19">
+      <c r="T164" s="4"/>
+    </row>
+    <row r="165" spans="1:20">
       <c r="A165" s="4"/>
       <c r="B165" s="4"/>
       <c r="C165" s="4"/>
@@ -10120,8 +10644,9 @@
       <c r="Q165" s="4"/>
       <c r="R165" s="4"/>
       <c r="S165" s="4"/>
-    </row>
-    <row r="166" spans="1:19">
+      <c r="T165" s="4"/>
+    </row>
+    <row r="166" spans="1:20">
       <c r="A166" s="4"/>
       <c r="B166" s="4"/>
       <c r="C166" s="4"/>
@@ -10141,8 +10666,9 @@
       <c r="Q166" s="4"/>
       <c r="R166" s="4"/>
       <c r="S166" s="4"/>
-    </row>
-    <row r="167" spans="1:19">
+      <c r="T166" s="4"/>
+    </row>
+    <row r="167" spans="1:20">
       <c r="A167" s="4"/>
       <c r="B167" s="4"/>
       <c r="C167" s="4"/>
@@ -10162,8 +10688,9 @@
       <c r="Q167" s="4"/>
       <c r="R167" s="4"/>
       <c r="S167" s="4"/>
-    </row>
-    <row r="168" spans="1:19">
+      <c r="T167" s="4"/>
+    </row>
+    <row r="168" spans="1:20">
       <c r="A168" s="4"/>
       <c r="B168" s="4"/>
       <c r="C168" s="4"/>
@@ -10183,8 +10710,9 @@
       <c r="Q168" s="4"/>
       <c r="R168" s="4"/>
       <c r="S168" s="4"/>
-    </row>
-    <row r="169" spans="1:19">
+      <c r="T168" s="4"/>
+    </row>
+    <row r="169" spans="1:20">
       <c r="A169" s="4"/>
       <c r="B169" s="4"/>
       <c r="C169" s="4"/>
@@ -10204,8 +10732,9 @@
       <c r="Q169" s="4"/>
       <c r="R169" s="4"/>
       <c r="S169" s="4"/>
-    </row>
-    <row r="170" spans="1:19">
+      <c r="T169" s="4"/>
+    </row>
+    <row r="170" spans="1:20">
       <c r="A170" s="4"/>
       <c r="B170" s="4"/>
       <c r="C170" s="4"/>
@@ -10225,8 +10754,9 @@
       <c r="Q170" s="4"/>
       <c r="R170" s="4"/>
       <c r="S170" s="4"/>
-    </row>
-    <row r="171" spans="1:19">
+      <c r="T170" s="4"/>
+    </row>
+    <row r="171" spans="1:20">
       <c r="A171" s="4"/>
       <c r="B171" s="4"/>
       <c r="C171" s="4"/>
@@ -10246,8 +10776,9 @@
       <c r="Q171" s="4"/>
       <c r="R171" s="4"/>
       <c r="S171" s="4"/>
-    </row>
-    <row r="172" spans="1:19">
+      <c r="T171" s="4"/>
+    </row>
+    <row r="172" spans="1:20">
       <c r="A172" s="4"/>
       <c r="B172" s="4"/>
       <c r="C172" s="4"/>
@@ -10267,8 +10798,9 @@
       <c r="Q172" s="4"/>
       <c r="R172" s="4"/>
       <c r="S172" s="4"/>
-    </row>
-    <row r="173" spans="1:19">
+      <c r="T172" s="4"/>
+    </row>
+    <row r="173" spans="1:20">
       <c r="A173" s="4"/>
       <c r="B173" s="4"/>
       <c r="C173" s="4"/>
@@ -10288,8 +10820,9 @@
       <c r="Q173" s="4"/>
       <c r="R173" s="4"/>
       <c r="S173" s="4"/>
-    </row>
-    <row r="174" spans="1:19">
+      <c r="T173" s="4"/>
+    </row>
+    <row r="174" spans="1:20">
       <c r="A174" s="4"/>
       <c r="B174" s="4"/>
       <c r="C174" s="4"/>
@@ -10309,8 +10842,9 @@
       <c r="Q174" s="4"/>
       <c r="R174" s="4"/>
       <c r="S174" s="4"/>
-    </row>
-    <row r="175" spans="1:19">
+      <c r="T174" s="4"/>
+    </row>
+    <row r="175" spans="1:20">
       <c r="A175" s="4"/>
       <c r="B175" s="4"/>
       <c r="C175" s="4"/>
@@ -10330,8 +10864,9 @@
       <c r="Q175" s="4"/>
       <c r="R175" s="4"/>
       <c r="S175" s="4"/>
-    </row>
-    <row r="176" spans="1:19">
+      <c r="T175" s="4"/>
+    </row>
+    <row r="176" spans="1:20">
       <c r="A176" s="4"/>
       <c r="B176" s="4"/>
       <c r="C176" s="4"/>
@@ -10351,8 +10886,9 @@
       <c r="Q176" s="4"/>
       <c r="R176" s="4"/>
       <c r="S176" s="4"/>
-    </row>
-    <row r="177" spans="1:19">
+      <c r="T176" s="4"/>
+    </row>
+    <row r="177" spans="1:20">
       <c r="A177" s="4"/>
       <c r="B177" s="4"/>
       <c r="C177" s="4"/>
@@ -10372,8 +10908,9 @@
       <c r="Q177" s="4"/>
       <c r="R177" s="4"/>
       <c r="S177" s="4"/>
-    </row>
-    <row r="178" spans="1:19">
+      <c r="T177" s="4"/>
+    </row>
+    <row r="178" spans="1:20">
       <c r="A178" s="4"/>
       <c r="B178" s="4"/>
       <c r="C178" s="4"/>
@@ -10393,8 +10930,9 @@
       <c r="Q178" s="4"/>
       <c r="R178" s="4"/>
       <c r="S178" s="4"/>
-    </row>
-    <row r="179" spans="1:19">
+      <c r="T178" s="4"/>
+    </row>
+    <row r="179" spans="1:20">
       <c r="A179" s="4"/>
       <c r="B179" s="4"/>
       <c r="C179" s="4"/>
@@ -10414,8 +10952,9 @@
       <c r="Q179" s="4"/>
       <c r="R179" s="4"/>
       <c r="S179" s="4"/>
-    </row>
-    <row r="180" spans="1:19">
+      <c r="T179" s="4"/>
+    </row>
+    <row r="180" spans="1:20">
       <c r="A180" s="4"/>
       <c r="B180" s="4"/>
       <c r="C180" s="4"/>
@@ -10435,8 +10974,9 @@
       <c r="Q180" s="4"/>
       <c r="R180" s="4"/>
       <c r="S180" s="4"/>
-    </row>
-    <row r="181" spans="1:19">
+      <c r="T180" s="4"/>
+    </row>
+    <row r="181" spans="1:20">
       <c r="A181" s="4"/>
       <c r="B181" s="4"/>
       <c r="C181" s="4"/>
@@ -10456,8 +10996,9 @@
       <c r="Q181" s="4"/>
       <c r="R181" s="4"/>
       <c r="S181" s="4"/>
-    </row>
-    <row r="182" spans="1:19">
+      <c r="T181" s="4"/>
+    </row>
+    <row r="182" spans="1:20">
       <c r="A182" s="4"/>
       <c r="B182" s="4"/>
       <c r="C182" s="4"/>
@@ -10477,8 +11018,9 @@
       <c r="Q182" s="4"/>
       <c r="R182" s="4"/>
       <c r="S182" s="4"/>
-    </row>
-    <row r="183" spans="1:19">
+      <c r="T182" s="4"/>
+    </row>
+    <row r="183" spans="1:20">
       <c r="A183" s="4"/>
       <c r="B183" s="4"/>
       <c r="C183" s="4"/>
@@ -10498,8 +11040,9 @@
       <c r="Q183" s="4"/>
       <c r="R183" s="4"/>
       <c r="S183" s="4"/>
-    </row>
-    <row r="184" spans="1:19">
+      <c r="T183" s="4"/>
+    </row>
+    <row r="184" spans="1:20">
       <c r="A184" s="4"/>
       <c r="B184" s="4"/>
       <c r="C184" s="4"/>
@@ -10519,8 +11062,9 @@
       <c r="Q184" s="4"/>
       <c r="R184" s="4"/>
       <c r="S184" s="4"/>
-    </row>
-    <row r="185" spans="1:19">
+      <c r="T184" s="4"/>
+    </row>
+    <row r="185" spans="1:20">
       <c r="A185" s="4"/>
       <c r="B185" s="4"/>
       <c r="C185" s="4"/>
@@ -10540,8 +11084,9 @@
       <c r="Q185" s="4"/>
       <c r="R185" s="4"/>
       <c r="S185" s="4"/>
-    </row>
-    <row r="186" spans="1:19">
+      <c r="T185" s="4"/>
+    </row>
+    <row r="186" spans="1:20">
       <c r="A186" s="4"/>
       <c r="B186" s="4"/>
       <c r="C186" s="4"/>
@@ -10561,8 +11106,9 @@
       <c r="Q186" s="4"/>
       <c r="R186" s="4"/>
       <c r="S186" s="4"/>
-    </row>
-    <row r="187" spans="1:19">
+      <c r="T186" s="4"/>
+    </row>
+    <row r="187" spans="1:20">
       <c r="A187" s="4"/>
       <c r="B187" s="4"/>
       <c r="C187" s="4"/>
@@ -10582,8 +11128,9 @@
       <c r="Q187" s="4"/>
       <c r="R187" s="4"/>
       <c r="S187" s="4"/>
-    </row>
-    <row r="188" spans="1:19">
+      <c r="T187" s="4"/>
+    </row>
+    <row r="188" spans="1:20">
       <c r="A188" s="4"/>
       <c r="B188" s="4"/>
       <c r="C188" s="4"/>
@@ -10603,8 +11150,9 @@
       <c r="Q188" s="4"/>
       <c r="R188" s="4"/>
       <c r="S188" s="4"/>
-    </row>
-    <row r="189" spans="1:19">
+      <c r="T188" s="4"/>
+    </row>
+    <row r="189" spans="1:20">
       <c r="A189" s="4"/>
       <c r="B189" s="4"/>
       <c r="C189" s="4"/>
@@ -10624,8 +11172,9 @@
       <c r="Q189" s="4"/>
       <c r="R189" s="4"/>
       <c r="S189" s="4"/>
-    </row>
-    <row r="190" spans="1:19">
+      <c r="T189" s="4"/>
+    </row>
+    <row r="190" spans="1:20">
       <c r="A190" s="4"/>
       <c r="B190" s="4"/>
       <c r="C190" s="4"/>
@@ -10645,8 +11194,9 @@
       <c r="Q190" s="4"/>
       <c r="R190" s="4"/>
       <c r="S190" s="4"/>
-    </row>
-    <row r="191" spans="1:19">
+      <c r="T190" s="4"/>
+    </row>
+    <row r="191" spans="1:20">
       <c r="A191" s="4"/>
       <c r="B191" s="4"/>
       <c r="C191" s="4"/>
@@ -10666,8 +11216,9 @@
       <c r="Q191" s="4"/>
       <c r="R191" s="4"/>
       <c r="S191" s="4"/>
-    </row>
-    <row r="192" spans="1:19">
+      <c r="T191" s="4"/>
+    </row>
+    <row r="192" spans="1:20">
       <c r="A192" s="4"/>
       <c r="B192" s="4"/>
       <c r="C192" s="4"/>
@@ -10687,8 +11238,9 @@
       <c r="Q192" s="4"/>
       <c r="R192" s="4"/>
       <c r="S192" s="4"/>
-    </row>
-    <row r="193" spans="1:19">
+      <c r="T192" s="4"/>
+    </row>
+    <row r="193" spans="1:20">
       <c r="A193" s="4"/>
       <c r="B193" s="4"/>
       <c r="C193" s="4"/>
@@ -10708,8 +11260,9 @@
       <c r="Q193" s="4"/>
       <c r="R193" s="4"/>
       <c r="S193" s="4"/>
-    </row>
-    <row r="194" spans="1:19">
+      <c r="T193" s="4"/>
+    </row>
+    <row r="194" spans="1:20">
       <c r="A194" s="4"/>
       <c r="B194" s="4"/>
       <c r="C194" s="4"/>
@@ -10729,8 +11282,9 @@
       <c r="Q194" s="4"/>
       <c r="R194" s="4"/>
       <c r="S194" s="4"/>
-    </row>
-    <row r="195" spans="1:19">
+      <c r="T194" s="4"/>
+    </row>
+    <row r="195" spans="1:20">
       <c r="A195" s="4"/>
       <c r="B195" s="4"/>
       <c r="C195" s="4"/>
@@ -10750,8 +11304,9 @@
       <c r="Q195" s="4"/>
       <c r="R195" s="4"/>
       <c r="S195" s="4"/>
-    </row>
-    <row r="196" spans="1:19">
+      <c r="T195" s="4"/>
+    </row>
+    <row r="196" spans="1:20">
       <c r="A196" s="4"/>
       <c r="B196" s="4"/>
       <c r="C196" s="4"/>
@@ -10771,8 +11326,9 @@
       <c r="Q196" s="4"/>
       <c r="R196" s="4"/>
       <c r="S196" s="4"/>
-    </row>
-    <row r="197" spans="1:19">
+      <c r="T196" s="4"/>
+    </row>
+    <row r="197" spans="1:20">
       <c r="A197" s="4"/>
       <c r="B197" s="4"/>
       <c r="C197" s="4"/>
@@ -10792,8 +11348,9 @@
       <c r="Q197" s="4"/>
       <c r="R197" s="4"/>
       <c r="S197" s="4"/>
-    </row>
-    <row r="198" spans="1:19">
+      <c r="T197" s="4"/>
+    </row>
+    <row r="198" spans="1:20">
       <c r="A198" s="4"/>
       <c r="B198" s="4"/>
       <c r="C198" s="4"/>
@@ -10813,8 +11370,9 @@
       <c r="Q198" s="4"/>
       <c r="R198" s="4"/>
       <c r="S198" s="4"/>
-    </row>
-    <row r="199" spans="1:19">
+      <c r="T198" s="4"/>
+    </row>
+    <row r="199" spans="1:20">
       <c r="A199" s="4"/>
       <c r="B199" s="4"/>
       <c r="C199" s="4"/>
@@ -10834,8 +11392,9 @@
       <c r="Q199" s="4"/>
       <c r="R199" s="4"/>
       <c r="S199" s="4"/>
-    </row>
-    <row r="200" spans="1:19">
+      <c r="T199" s="4"/>
+    </row>
+    <row r="200" spans="1:20">
       <c r="A200" s="4"/>
       <c r="B200" s="4"/>
       <c r="C200" s="4"/>
@@ -10855,6 +11414,7 @@
       <c r="Q200" s="4"/>
       <c r="R200" s="4"/>
       <c r="S200" s="4"/>
+      <c r="T200" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -10865,63 +11425,65 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:S200"/>
+  <dimension ref="A1:T200"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="27.75"/>
     <col min="2" max="2" width="12.75"/>
-    <col min="3" max="3" width="8.75"/>
-    <col min="4" max="4" width="14.75"/>
-    <col min="5" max="5" width="11.75"/>
-    <col min="6" max="6" width="15.875"/>
-    <col min="7" max="7" width="14.75"/>
-    <col min="8" max="8" width="9.75"/>
-    <col min="9" max="9" width="14.75"/>
-    <col min="10" max="10" width="8.75"/>
-    <col min="11" max="11" width="41.875"/>
-    <col min="12" max="19" width="8.75"/>
+    <col min="4" max="4" width="8.75"/>
+    <col min="5" max="5" width="14.75"/>
+    <col min="6" max="6" width="11.75"/>
+    <col min="7" max="7" width="15.875"/>
+    <col min="8" max="8" width="14.75"/>
+    <col min="9" max="9" width="9.75"/>
+    <col min="10" max="10" width="14.75"/>
+    <col min="11" max="11" width="8.75"/>
+    <col min="12" max="12" width="41.875"/>
+    <col min="13" max="20" width="8.75"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="18.95" customHeight="1">
+    <row r="1" spans="1:20" ht="18.95" customHeight="1">
       <c r="A1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="K1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="L1" s="4"/>
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
@@ -10929,40 +11491,43 @@
       <c r="Q1" s="4"/>
       <c r="R1" s="4"/>
       <c r="S1" s="4"/>
-    </row>
-    <row r="2" spans="1:19" ht="96.95" customHeight="1">
+      <c r="T1" s="4"/>
+    </row>
+    <row r="2" spans="1:20" ht="96.95" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="4"/>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>29</v>
+      <c r="E2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="K2" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="L2" s="4"/>
+        <v>28</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" s="15" t="s">
+        <v>70</v>
+      </c>
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
@@ -10970,40 +11535,43 @@
       <c r="Q2" s="4"/>
       <c r="R2" s="4"/>
       <c r="S2" s="4"/>
-    </row>
-    <row r="3" spans="1:19" ht="96.95" customHeight="1">
+      <c r="T2" s="4"/>
+    </row>
+    <row r="3" spans="1:20" ht="96.95" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="4"/>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="I3" s="18" t="s">
+      <c r="D3" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="J3" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="K3" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="L3" s="4"/>
+      <c r="E3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" s="15" t="s">
+        <v>71</v>
+      </c>
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
@@ -11011,40 +11579,43 @@
       <c r="Q3" s="4"/>
       <c r="R3" s="4"/>
       <c r="S3" s="4"/>
-    </row>
-    <row r="4" spans="1:19" ht="96.95" customHeight="1">
+      <c r="T3" s="4"/>
+    </row>
+    <row r="4" spans="1:20" ht="96.95" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="4"/>
-      <c r="C4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="K4" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="L4" s="4"/>
+      <c r="C4" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4" s="15" t="s">
+        <v>72</v>
+      </c>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
@@ -11052,40 +11623,43 @@
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
       <c r="S4" s="4"/>
-    </row>
-    <row r="5" spans="1:19" ht="135.94999999999999" customHeight="1">
+      <c r="T4" s="4"/>
+    </row>
+    <row r="5" spans="1:20" ht="135.94999999999999" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="4"/>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="I5" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="K5" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="L5" s="4"/>
+      <c r="D5" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="L5" s="15" t="s">
+        <v>73</v>
+      </c>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
@@ -11093,40 +11667,43 @@
       <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
       <c r="S5" s="4"/>
-    </row>
-    <row r="6" spans="1:19" ht="117" customHeight="1">
+      <c r="T5" s="4"/>
+    </row>
+    <row r="6" spans="1:20" ht="117" customHeight="1">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="4"/>
-      <c r="C6" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="I6" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="K6" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="L6" s="4"/>
+      <c r="C6" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="L6" s="15" t="s">
+        <v>74</v>
+      </c>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
@@ -11134,40 +11711,43 @@
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
       <c r="S6" s="4"/>
-    </row>
-    <row r="7" spans="1:19" ht="156" customHeight="1">
+      <c r="T6" s="4"/>
+    </row>
+    <row r="7" spans="1:20" ht="156" customHeight="1">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="4"/>
-      <c r="C7" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="I7" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="K7" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="L7" s="4"/>
+      <c r="C7" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="J7" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="L7" s="15" t="s">
+        <v>75</v>
+      </c>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
@@ -11175,8 +11755,9 @@
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
       <c r="S7" s="4"/>
-    </row>
-    <row r="8" spans="1:19" ht="12.95" customHeight="1">
+      <c r="T7" s="4"/>
+    </row>
+    <row r="8" spans="1:20" ht="12.95" customHeight="1">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -11196,42 +11777,45 @@
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
       <c r="S8" s="4"/>
-    </row>
-    <row r="9" spans="1:19" ht="18.95" customHeight="1">
+      <c r="T8" s="4"/>
+    </row>
+    <row r="9" spans="1:20" ht="18.95" customHeight="1">
       <c r="A9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="G9" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="H9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="K9" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I9" s="1" t="s">
+      <c r="L9" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="J9" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="L9" s="4"/>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
@@ -11239,40 +11823,43 @@
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
       <c r="S9" s="4"/>
-    </row>
-    <row r="10" spans="1:19" ht="77.099999999999994" customHeight="1">
+      <c r="T9" s="4"/>
+    </row>
+    <row r="10" spans="1:20" ht="77.099999999999994" customHeight="1">
       <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="4"/>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="I10" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="J10" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="K10" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="L10" s="4"/>
+      <c r="E10" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="L10" s="15" t="s">
+        <v>76</v>
+      </c>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
@@ -11280,40 +11867,43 @@
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
       <c r="S10" s="4"/>
-    </row>
-    <row r="11" spans="1:19" ht="96.95" customHeight="1">
+      <c r="T10" s="4"/>
+    </row>
+    <row r="11" spans="1:20" ht="96.95" customHeight="1">
       <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="4"/>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H11" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="I11" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="J11" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="K11" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="L11" s="4"/>
+      <c r="E11" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="L11" s="15" t="s">
+        <v>77</v>
+      </c>
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
@@ -11321,8 +11911,9 @@
       <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
       <c r="S11" s="4"/>
-    </row>
-    <row r="12" spans="1:19">
+      <c r="T11" s="4"/>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -11342,8 +11933,9 @@
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
       <c r="S12" s="4"/>
-    </row>
-    <row r="13" spans="1:19">
+      <c r="T12" s="4"/>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -11363,8 +11955,9 @@
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
       <c r="S13" s="4"/>
-    </row>
-    <row r="14" spans="1:19">
+      <c r="T13" s="4"/>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -11384,8 +11977,9 @@
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
       <c r="S14" s="4"/>
-    </row>
-    <row r="15" spans="1:19">
+      <c r="T14" s="4"/>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -11405,8 +11999,9 @@
       <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
       <c r="S15" s="4"/>
-    </row>
-    <row r="16" spans="1:19">
+      <c r="T15" s="4"/>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -11426,8 +12021,9 @@
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
       <c r="S16" s="4"/>
-    </row>
-    <row r="17" spans="1:19">
+      <c r="T16" s="4"/>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -11447,8 +12043,9 @@
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
       <c r="S17" s="4"/>
-    </row>
-    <row r="18" spans="1:19">
+      <c r="T17" s="4"/>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -11468,8 +12065,9 @@
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
       <c r="S18" s="4"/>
-    </row>
-    <row r="19" spans="1:19">
+      <c r="T18" s="4"/>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -11489,8 +12087,9 @@
       <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
       <c r="S19" s="4"/>
-    </row>
-    <row r="20" spans="1:19">
+      <c r="T19" s="4"/>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -11510,8 +12109,9 @@
       <c r="Q20" s="4"/>
       <c r="R20" s="4"/>
       <c r="S20" s="4"/>
-    </row>
-    <row r="21" spans="1:19">
+      <c r="T20" s="4"/>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -11531,8 +12131,9 @@
       <c r="Q21" s="4"/>
       <c r="R21" s="4"/>
       <c r="S21" s="4"/>
-    </row>
-    <row r="22" spans="1:19">
+      <c r="T21" s="4"/>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -11552,8 +12153,9 @@
       <c r="Q22" s="4"/>
       <c r="R22" s="4"/>
       <c r="S22" s="4"/>
-    </row>
-    <row r="23" spans="1:19">
+      <c r="T22" s="4"/>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -11573,8 +12175,9 @@
       <c r="Q23" s="4"/>
       <c r="R23" s="4"/>
       <c r="S23" s="4"/>
-    </row>
-    <row r="24" spans="1:19">
+      <c r="T23" s="4"/>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -11594,8 +12197,9 @@
       <c r="Q24" s="4"/>
       <c r="R24" s="4"/>
       <c r="S24" s="4"/>
-    </row>
-    <row r="25" spans="1:19">
+      <c r="T24" s="4"/>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -11615,8 +12219,9 @@
       <c r="Q25" s="4"/>
       <c r="R25" s="4"/>
       <c r="S25" s="4"/>
-    </row>
-    <row r="26" spans="1:19">
+      <c r="T25" s="4"/>
+    </row>
+    <row r="26" spans="1:20">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -11636,8 +12241,9 @@
       <c r="Q26" s="4"/>
       <c r="R26" s="4"/>
       <c r="S26" s="4"/>
-    </row>
-    <row r="27" spans="1:19">
+      <c r="T26" s="4"/>
+    </row>
+    <row r="27" spans="1:20">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -11657,8 +12263,9 @@
       <c r="Q27" s="4"/>
       <c r="R27" s="4"/>
       <c r="S27" s="4"/>
-    </row>
-    <row r="28" spans="1:19">
+      <c r="T27" s="4"/>
+    </row>
+    <row r="28" spans="1:20">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -11678,8 +12285,9 @@
       <c r="Q28" s="4"/>
       <c r="R28" s="4"/>
       <c r="S28" s="4"/>
-    </row>
-    <row r="29" spans="1:19">
+      <c r="T28" s="4"/>
+    </row>
+    <row r="29" spans="1:20">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -11699,8 +12307,9 @@
       <c r="Q29" s="4"/>
       <c r="R29" s="4"/>
       <c r="S29" s="4"/>
-    </row>
-    <row r="30" spans="1:19">
+      <c r="T29" s="4"/>
+    </row>
+    <row r="30" spans="1:20">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -11720,8 +12329,9 @@
       <c r="Q30" s="4"/>
       <c r="R30" s="4"/>
       <c r="S30" s="4"/>
-    </row>
-    <row r="31" spans="1:19">
+      <c r="T30" s="4"/>
+    </row>
+    <row r="31" spans="1:20">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -11741,8 +12351,9 @@
       <c r="Q31" s="4"/>
       <c r="R31" s="4"/>
       <c r="S31" s="4"/>
-    </row>
-    <row r="32" spans="1:19">
+      <c r="T31" s="4"/>
+    </row>
+    <row r="32" spans="1:20">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -11762,8 +12373,9 @@
       <c r="Q32" s="4"/>
       <c r="R32" s="4"/>
       <c r="S32" s="4"/>
-    </row>
-    <row r="33" spans="1:19">
+      <c r="T32" s="4"/>
+    </row>
+    <row r="33" spans="1:20">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -11783,8 +12395,9 @@
       <c r="Q33" s="4"/>
       <c r="R33" s="4"/>
       <c r="S33" s="4"/>
-    </row>
-    <row r="34" spans="1:19">
+      <c r="T33" s="4"/>
+    </row>
+    <row r="34" spans="1:20">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -11804,8 +12417,9 @@
       <c r="Q34" s="4"/>
       <c r="R34" s="4"/>
       <c r="S34" s="4"/>
-    </row>
-    <row r="35" spans="1:19">
+      <c r="T34" s="4"/>
+    </row>
+    <row r="35" spans="1:20">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -11825,8 +12439,9 @@
       <c r="Q35" s="4"/>
       <c r="R35" s="4"/>
       <c r="S35" s="4"/>
-    </row>
-    <row r="36" spans="1:19">
+      <c r="T35" s="4"/>
+    </row>
+    <row r="36" spans="1:20">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -11846,8 +12461,9 @@
       <c r="Q36" s="4"/>
       <c r="R36" s="4"/>
       <c r="S36" s="4"/>
-    </row>
-    <row r="37" spans="1:19">
+      <c r="T36" s="4"/>
+    </row>
+    <row r="37" spans="1:20">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -11867,8 +12483,9 @@
       <c r="Q37" s="4"/>
       <c r="R37" s="4"/>
       <c r="S37" s="4"/>
-    </row>
-    <row r="38" spans="1:19">
+      <c r="T37" s="4"/>
+    </row>
+    <row r="38" spans="1:20">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -11888,8 +12505,9 @@
       <c r="Q38" s="4"/>
       <c r="R38" s="4"/>
       <c r="S38" s="4"/>
-    </row>
-    <row r="39" spans="1:19">
+      <c r="T38" s="4"/>
+    </row>
+    <row r="39" spans="1:20">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -11909,8 +12527,9 @@
       <c r="Q39" s="4"/>
       <c r="R39" s="4"/>
       <c r="S39" s="4"/>
-    </row>
-    <row r="40" spans="1:19">
+      <c r="T39" s="4"/>
+    </row>
+    <row r="40" spans="1:20">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -11930,8 +12549,9 @@
       <c r="Q40" s="4"/>
       <c r="R40" s="4"/>
       <c r="S40" s="4"/>
-    </row>
-    <row r="41" spans="1:19">
+      <c r="T40" s="4"/>
+    </row>
+    <row r="41" spans="1:20">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -11951,8 +12571,9 @@
       <c r="Q41" s="4"/>
       <c r="R41" s="4"/>
       <c r="S41" s="4"/>
-    </row>
-    <row r="42" spans="1:19">
+      <c r="T41" s="4"/>
+    </row>
+    <row r="42" spans="1:20">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -11972,8 +12593,9 @@
       <c r="Q42" s="4"/>
       <c r="R42" s="4"/>
       <c r="S42" s="4"/>
-    </row>
-    <row r="43" spans="1:19">
+      <c r="T42" s="4"/>
+    </row>
+    <row r="43" spans="1:20">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -11993,8 +12615,9 @@
       <c r="Q43" s="4"/>
       <c r="R43" s="4"/>
       <c r="S43" s="4"/>
-    </row>
-    <row r="44" spans="1:19">
+      <c r="T43" s="4"/>
+    </row>
+    <row r="44" spans="1:20">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -12014,8 +12637,9 @@
       <c r="Q44" s="4"/>
       <c r="R44" s="4"/>
       <c r="S44" s="4"/>
-    </row>
-    <row r="45" spans="1:19">
+      <c r="T44" s="4"/>
+    </row>
+    <row r="45" spans="1:20">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -12035,8 +12659,9 @@
       <c r="Q45" s="4"/>
       <c r="R45" s="4"/>
       <c r="S45" s="4"/>
-    </row>
-    <row r="46" spans="1:19">
+      <c r="T45" s="4"/>
+    </row>
+    <row r="46" spans="1:20">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -12056,8 +12681,9 @@
       <c r="Q46" s="4"/>
       <c r="R46" s="4"/>
       <c r="S46" s="4"/>
-    </row>
-    <row r="47" spans="1:19">
+      <c r="T46" s="4"/>
+    </row>
+    <row r="47" spans="1:20">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -12077,8 +12703,9 @@
       <c r="Q47" s="4"/>
       <c r="R47" s="4"/>
       <c r="S47" s="4"/>
-    </row>
-    <row r="48" spans="1:19">
+      <c r="T47" s="4"/>
+    </row>
+    <row r="48" spans="1:20">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
@@ -12098,8 +12725,9 @@
       <c r="Q48" s="4"/>
       <c r="R48" s="4"/>
       <c r="S48" s="4"/>
-    </row>
-    <row r="49" spans="1:19">
+      <c r="T48" s="4"/>
+    </row>
+    <row r="49" spans="1:20">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
@@ -12119,8 +12747,9 @@
       <c r="Q49" s="4"/>
       <c r="R49" s="4"/>
       <c r="S49" s="4"/>
-    </row>
-    <row r="50" spans="1:19">
+      <c r="T49" s="4"/>
+    </row>
+    <row r="50" spans="1:20">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
@@ -12140,8 +12769,9 @@
       <c r="Q50" s="4"/>
       <c r="R50" s="4"/>
       <c r="S50" s="4"/>
-    </row>
-    <row r="51" spans="1:19">
+      <c r="T50" s="4"/>
+    </row>
+    <row r="51" spans="1:20">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
@@ -12161,8 +12791,9 @@
       <c r="Q51" s="4"/>
       <c r="R51" s="4"/>
       <c r="S51" s="4"/>
-    </row>
-    <row r="52" spans="1:19">
+      <c r="T51" s="4"/>
+    </row>
+    <row r="52" spans="1:20">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
@@ -12182,8 +12813,9 @@
       <c r="Q52" s="4"/>
       <c r="R52" s="4"/>
       <c r="S52" s="4"/>
-    </row>
-    <row r="53" spans="1:19">
+      <c r="T52" s="4"/>
+    </row>
+    <row r="53" spans="1:20">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
@@ -12203,8 +12835,9 @@
       <c r="Q53" s="4"/>
       <c r="R53" s="4"/>
       <c r="S53" s="4"/>
-    </row>
-    <row r="54" spans="1:19">
+      <c r="T53" s="4"/>
+    </row>
+    <row r="54" spans="1:20">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
@@ -12224,8 +12857,9 @@
       <c r="Q54" s="4"/>
       <c r="R54" s="4"/>
       <c r="S54" s="4"/>
-    </row>
-    <row r="55" spans="1:19">
+      <c r="T54" s="4"/>
+    </row>
+    <row r="55" spans="1:20">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
@@ -12245,8 +12879,9 @@
       <c r="Q55" s="4"/>
       <c r="R55" s="4"/>
       <c r="S55" s="4"/>
-    </row>
-    <row r="56" spans="1:19">
+      <c r="T55" s="4"/>
+    </row>
+    <row r="56" spans="1:20">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
@@ -12266,8 +12901,9 @@
       <c r="Q56" s="4"/>
       <c r="R56" s="4"/>
       <c r="S56" s="4"/>
-    </row>
-    <row r="57" spans="1:19">
+      <c r="T56" s="4"/>
+    </row>
+    <row r="57" spans="1:20">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -12287,8 +12923,9 @@
       <c r="Q57" s="4"/>
       <c r="R57" s="4"/>
       <c r="S57" s="4"/>
-    </row>
-    <row r="58" spans="1:19">
+      <c r="T57" s="4"/>
+    </row>
+    <row r="58" spans="1:20">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
@@ -12308,8 +12945,9 @@
       <c r="Q58" s="4"/>
       <c r="R58" s="4"/>
       <c r="S58" s="4"/>
-    </row>
-    <row r="59" spans="1:19">
+      <c r="T58" s="4"/>
+    </row>
+    <row r="59" spans="1:20">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
@@ -12329,8 +12967,9 @@
       <c r="Q59" s="4"/>
       <c r="R59" s="4"/>
       <c r="S59" s="4"/>
-    </row>
-    <row r="60" spans="1:19">
+      <c r="T59" s="4"/>
+    </row>
+    <row r="60" spans="1:20">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
@@ -12350,8 +12989,9 @@
       <c r="Q60" s="4"/>
       <c r="R60" s="4"/>
       <c r="S60" s="4"/>
-    </row>
-    <row r="61" spans="1:19">
+      <c r="T60" s="4"/>
+    </row>
+    <row r="61" spans="1:20">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
@@ -12371,8 +13011,9 @@
       <c r="Q61" s="4"/>
       <c r="R61" s="4"/>
       <c r="S61" s="4"/>
-    </row>
-    <row r="62" spans="1:19">
+      <c r="T61" s="4"/>
+    </row>
+    <row r="62" spans="1:20">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
@@ -12392,8 +13033,9 @@
       <c r="Q62" s="4"/>
       <c r="R62" s="4"/>
       <c r="S62" s="4"/>
-    </row>
-    <row r="63" spans="1:19">
+      <c r="T62" s="4"/>
+    </row>
+    <row r="63" spans="1:20">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
@@ -12413,8 +13055,9 @@
       <c r="Q63" s="4"/>
       <c r="R63" s="4"/>
       <c r="S63" s="4"/>
-    </row>
-    <row r="64" spans="1:19">
+      <c r="T63" s="4"/>
+    </row>
+    <row r="64" spans="1:20">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
@@ -12434,8 +13077,9 @@
       <c r="Q64" s="4"/>
       <c r="R64" s="4"/>
       <c r="S64" s="4"/>
-    </row>
-    <row r="65" spans="1:19">
+      <c r="T64" s="4"/>
+    </row>
+    <row r="65" spans="1:20">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
@@ -12455,8 +13099,9 @@
       <c r="Q65" s="4"/>
       <c r="R65" s="4"/>
       <c r="S65" s="4"/>
-    </row>
-    <row r="66" spans="1:19">
+      <c r="T65" s="4"/>
+    </row>
+    <row r="66" spans="1:20">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
@@ -12476,8 +13121,9 @@
       <c r="Q66" s="4"/>
       <c r="R66" s="4"/>
       <c r="S66" s="4"/>
-    </row>
-    <row r="67" spans="1:19">
+      <c r="T66" s="4"/>
+    </row>
+    <row r="67" spans="1:20">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
@@ -12497,8 +13143,9 @@
       <c r="Q67" s="4"/>
       <c r="R67" s="4"/>
       <c r="S67" s="4"/>
-    </row>
-    <row r="68" spans="1:19">
+      <c r="T67" s="4"/>
+    </row>
+    <row r="68" spans="1:20">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
@@ -12518,8 +13165,9 @@
       <c r="Q68" s="4"/>
       <c r="R68" s="4"/>
       <c r="S68" s="4"/>
-    </row>
-    <row r="69" spans="1:19">
+      <c r="T68" s="4"/>
+    </row>
+    <row r="69" spans="1:20">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
@@ -12539,8 +13187,9 @@
       <c r="Q69" s="4"/>
       <c r="R69" s="4"/>
       <c r="S69" s="4"/>
-    </row>
-    <row r="70" spans="1:19">
+      <c r="T69" s="4"/>
+    </row>
+    <row r="70" spans="1:20">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
@@ -12560,8 +13209,9 @@
       <c r="Q70" s="4"/>
       <c r="R70" s="4"/>
       <c r="S70" s="4"/>
-    </row>
-    <row r="71" spans="1:19">
+      <c r="T70" s="4"/>
+    </row>
+    <row r="71" spans="1:20">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
@@ -12581,8 +13231,9 @@
       <c r="Q71" s="4"/>
       <c r="R71" s="4"/>
       <c r="S71" s="4"/>
-    </row>
-    <row r="72" spans="1:19">
+      <c r="T71" s="4"/>
+    </row>
+    <row r="72" spans="1:20">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
@@ -12602,8 +13253,9 @@
       <c r="Q72" s="4"/>
       <c r="R72" s="4"/>
       <c r="S72" s="4"/>
-    </row>
-    <row r="73" spans="1:19">
+      <c r="T72" s="4"/>
+    </row>
+    <row r="73" spans="1:20">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
@@ -12623,8 +13275,9 @@
       <c r="Q73" s="4"/>
       <c r="R73" s="4"/>
       <c r="S73" s="4"/>
-    </row>
-    <row r="74" spans="1:19">
+      <c r="T73" s="4"/>
+    </row>
+    <row r="74" spans="1:20">
       <c r="A74" s="4"/>
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
@@ -12644,8 +13297,9 @@
       <c r="Q74" s="4"/>
       <c r="R74" s="4"/>
       <c r="S74" s="4"/>
-    </row>
-    <row r="75" spans="1:19">
+      <c r="T74" s="4"/>
+    </row>
+    <row r="75" spans="1:20">
       <c r="A75" s="4"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
@@ -12665,8 +13319,9 @@
       <c r="Q75" s="4"/>
       <c r="R75" s="4"/>
       <c r="S75" s="4"/>
-    </row>
-    <row r="76" spans="1:19">
+      <c r="T75" s="4"/>
+    </row>
+    <row r="76" spans="1:20">
       <c r="A76" s="4"/>
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
@@ -12686,8 +13341,9 @@
       <c r="Q76" s="4"/>
       <c r="R76" s="4"/>
       <c r="S76" s="4"/>
-    </row>
-    <row r="77" spans="1:19">
+      <c r="T76" s="4"/>
+    </row>
+    <row r="77" spans="1:20">
       <c r="A77" s="4"/>
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
@@ -12707,8 +13363,9 @@
       <c r="Q77" s="4"/>
       <c r="R77" s="4"/>
       <c r="S77" s="4"/>
-    </row>
-    <row r="78" spans="1:19">
+      <c r="T77" s="4"/>
+    </row>
+    <row r="78" spans="1:20">
       <c r="A78" s="4"/>
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
@@ -12728,8 +13385,9 @@
       <c r="Q78" s="4"/>
       <c r="R78" s="4"/>
       <c r="S78" s="4"/>
-    </row>
-    <row r="79" spans="1:19">
+      <c r="T78" s="4"/>
+    </row>
+    <row r="79" spans="1:20">
       <c r="A79" s="4"/>
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
@@ -12749,8 +13407,9 @@
       <c r="Q79" s="4"/>
       <c r="R79" s="4"/>
       <c r="S79" s="4"/>
-    </row>
-    <row r="80" spans="1:19">
+      <c r="T79" s="4"/>
+    </row>
+    <row r="80" spans="1:20">
       <c r="A80" s="4"/>
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
@@ -12770,8 +13429,9 @@
       <c r="Q80" s="4"/>
       <c r="R80" s="4"/>
       <c r="S80" s="4"/>
-    </row>
-    <row r="81" spans="1:19">
+      <c r="T80" s="4"/>
+    </row>
+    <row r="81" spans="1:20">
       <c r="A81" s="4"/>
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
@@ -12791,8 +13451,9 @@
       <c r="Q81" s="4"/>
       <c r="R81" s="4"/>
       <c r="S81" s="4"/>
-    </row>
-    <row r="82" spans="1:19">
+      <c r="T81" s="4"/>
+    </row>
+    <row r="82" spans="1:20">
       <c r="A82" s="4"/>
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
@@ -12812,8 +13473,9 @@
       <c r="Q82" s="4"/>
       <c r="R82" s="4"/>
       <c r="S82" s="4"/>
-    </row>
-    <row r="83" spans="1:19">
+      <c r="T82" s="4"/>
+    </row>
+    <row r="83" spans="1:20">
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
@@ -12833,8 +13495,9 @@
       <c r="Q83" s="4"/>
       <c r="R83" s="4"/>
       <c r="S83" s="4"/>
-    </row>
-    <row r="84" spans="1:19">
+      <c r="T83" s="4"/>
+    </row>
+    <row r="84" spans="1:20">
       <c r="A84" s="4"/>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
@@ -12854,8 +13517,9 @@
       <c r="Q84" s="4"/>
       <c r="R84" s="4"/>
       <c r="S84" s="4"/>
-    </row>
-    <row r="85" spans="1:19">
+      <c r="T84" s="4"/>
+    </row>
+    <row r="85" spans="1:20">
       <c r="A85" s="4"/>
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
@@ -12875,8 +13539,9 @@
       <c r="Q85" s="4"/>
       <c r="R85" s="4"/>
       <c r="S85" s="4"/>
-    </row>
-    <row r="86" spans="1:19">
+      <c r="T85" s="4"/>
+    </row>
+    <row r="86" spans="1:20">
       <c r="A86" s="4"/>
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
@@ -12896,8 +13561,9 @@
       <c r="Q86" s="4"/>
       <c r="R86" s="4"/>
       <c r="S86" s="4"/>
-    </row>
-    <row r="87" spans="1:19">
+      <c r="T86" s="4"/>
+    </row>
+    <row r="87" spans="1:20">
       <c r="A87" s="4"/>
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
@@ -12917,8 +13583,9 @@
       <c r="Q87" s="4"/>
       <c r="R87" s="4"/>
       <c r="S87" s="4"/>
-    </row>
-    <row r="88" spans="1:19">
+      <c r="T87" s="4"/>
+    </row>
+    <row r="88" spans="1:20">
       <c r="A88" s="4"/>
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
@@ -12938,8 +13605,9 @@
       <c r="Q88" s="4"/>
       <c r="R88" s="4"/>
       <c r="S88" s="4"/>
-    </row>
-    <row r="89" spans="1:19">
+      <c r="T88" s="4"/>
+    </row>
+    <row r="89" spans="1:20">
       <c r="A89" s="4"/>
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
@@ -12959,8 +13627,9 @@
       <c r="Q89" s="4"/>
       <c r="R89" s="4"/>
       <c r="S89" s="4"/>
-    </row>
-    <row r="90" spans="1:19">
+      <c r="T89" s="4"/>
+    </row>
+    <row r="90" spans="1:20">
       <c r="A90" s="4"/>
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
@@ -12980,8 +13649,9 @@
       <c r="Q90" s="4"/>
       <c r="R90" s="4"/>
       <c r="S90" s="4"/>
-    </row>
-    <row r="91" spans="1:19">
+      <c r="T90" s="4"/>
+    </row>
+    <row r="91" spans="1:20">
       <c r="A91" s="4"/>
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
@@ -13001,8 +13671,9 @@
       <c r="Q91" s="4"/>
       <c r="R91" s="4"/>
       <c r="S91" s="4"/>
-    </row>
-    <row r="92" spans="1:19">
+      <c r="T91" s="4"/>
+    </row>
+    <row r="92" spans="1:20">
       <c r="A92" s="4"/>
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
@@ -13022,8 +13693,9 @@
       <c r="Q92" s="4"/>
       <c r="R92" s="4"/>
       <c r="S92" s="4"/>
-    </row>
-    <row r="93" spans="1:19">
+      <c r="T92" s="4"/>
+    </row>
+    <row r="93" spans="1:20">
       <c r="A93" s="4"/>
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
@@ -13043,8 +13715,9 @@
       <c r="Q93" s="4"/>
       <c r="R93" s="4"/>
       <c r="S93" s="4"/>
-    </row>
-    <row r="94" spans="1:19">
+      <c r="T93" s="4"/>
+    </row>
+    <row r="94" spans="1:20">
       <c r="A94" s="4"/>
       <c r="B94" s="4"/>
       <c r="C94" s="4"/>
@@ -13064,8 +13737,9 @@
       <c r="Q94" s="4"/>
       <c r="R94" s="4"/>
       <c r="S94" s="4"/>
-    </row>
-    <row r="95" spans="1:19">
+      <c r="T94" s="4"/>
+    </row>
+    <row r="95" spans="1:20">
       <c r="A95" s="4"/>
       <c r="B95" s="4"/>
       <c r="C95" s="4"/>
@@ -13085,8 +13759,9 @@
       <c r="Q95" s="4"/>
       <c r="R95" s="4"/>
       <c r="S95" s="4"/>
-    </row>
-    <row r="96" spans="1:19">
+      <c r="T95" s="4"/>
+    </row>
+    <row r="96" spans="1:20">
       <c r="A96" s="4"/>
       <c r="B96" s="4"/>
       <c r="C96" s="4"/>
@@ -13106,8 +13781,9 @@
       <c r="Q96" s="4"/>
       <c r="R96" s="4"/>
       <c r="S96" s="4"/>
-    </row>
-    <row r="97" spans="1:19">
+      <c r="T96" s="4"/>
+    </row>
+    <row r="97" spans="1:20">
       <c r="A97" s="4"/>
       <c r="B97" s="4"/>
       <c r="C97" s="4"/>
@@ -13127,8 +13803,9 @@
       <c r="Q97" s="4"/>
       <c r="R97" s="4"/>
       <c r="S97" s="4"/>
-    </row>
-    <row r="98" spans="1:19">
+      <c r="T97" s="4"/>
+    </row>
+    <row r="98" spans="1:20">
       <c r="A98" s="4"/>
       <c r="B98" s="4"/>
       <c r="C98" s="4"/>
@@ -13148,8 +13825,9 @@
       <c r="Q98" s="4"/>
       <c r="R98" s="4"/>
       <c r="S98" s="4"/>
-    </row>
-    <row r="99" spans="1:19">
+      <c r="T98" s="4"/>
+    </row>
+    <row r="99" spans="1:20">
       <c r="A99" s="4"/>
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
@@ -13169,8 +13847,9 @@
       <c r="Q99" s="4"/>
       <c r="R99" s="4"/>
       <c r="S99" s="4"/>
-    </row>
-    <row r="100" spans="1:19">
+      <c r="T99" s="4"/>
+    </row>
+    <row r="100" spans="1:20">
       <c r="A100" s="4"/>
       <c r="B100" s="4"/>
       <c r="C100" s="4"/>
@@ -13190,8 +13869,9 @@
       <c r="Q100" s="4"/>
       <c r="R100" s="4"/>
       <c r="S100" s="4"/>
-    </row>
-    <row r="101" spans="1:19">
+      <c r="T100" s="4"/>
+    </row>
+    <row r="101" spans="1:20">
       <c r="A101" s="4"/>
       <c r="B101" s="4"/>
       <c r="C101" s="4"/>
@@ -13211,8 +13891,9 @@
       <c r="Q101" s="4"/>
       <c r="R101" s="4"/>
       <c r="S101" s="4"/>
-    </row>
-    <row r="102" spans="1:19">
+      <c r="T101" s="4"/>
+    </row>
+    <row r="102" spans="1:20">
       <c r="A102" s="4"/>
       <c r="B102" s="4"/>
       <c r="C102" s="4"/>
@@ -13232,8 +13913,9 @@
       <c r="Q102" s="4"/>
       <c r="R102" s="4"/>
       <c r="S102" s="4"/>
-    </row>
-    <row r="103" spans="1:19">
+      <c r="T102" s="4"/>
+    </row>
+    <row r="103" spans="1:20">
       <c r="A103" s="4"/>
       <c r="B103" s="4"/>
       <c r="C103" s="4"/>
@@ -13253,8 +13935,9 @@
       <c r="Q103" s="4"/>
       <c r="R103" s="4"/>
       <c r="S103" s="4"/>
-    </row>
-    <row r="104" spans="1:19">
+      <c r="T103" s="4"/>
+    </row>
+    <row r="104" spans="1:20">
       <c r="A104" s="4"/>
       <c r="B104" s="4"/>
       <c r="C104" s="4"/>
@@ -13274,8 +13957,9 @@
       <c r="Q104" s="4"/>
       <c r="R104" s="4"/>
       <c r="S104" s="4"/>
-    </row>
-    <row r="105" spans="1:19">
+      <c r="T104" s="4"/>
+    </row>
+    <row r="105" spans="1:20">
       <c r="A105" s="4"/>
       <c r="B105" s="4"/>
       <c r="C105" s="4"/>
@@ -13295,8 +13979,9 @@
       <c r="Q105" s="4"/>
       <c r="R105" s="4"/>
       <c r="S105" s="4"/>
-    </row>
-    <row r="106" spans="1:19">
+      <c r="T105" s="4"/>
+    </row>
+    <row r="106" spans="1:20">
       <c r="A106" s="4"/>
       <c r="B106" s="4"/>
       <c r="C106" s="4"/>
@@ -13316,8 +14001,9 @@
       <c r="Q106" s="4"/>
       <c r="R106" s="4"/>
       <c r="S106" s="4"/>
-    </row>
-    <row r="107" spans="1:19">
+      <c r="T106" s="4"/>
+    </row>
+    <row r="107" spans="1:20">
       <c r="A107" s="4"/>
       <c r="B107" s="4"/>
       <c r="C107" s="4"/>
@@ -13337,8 +14023,9 @@
       <c r="Q107" s="4"/>
       <c r="R107" s="4"/>
       <c r="S107" s="4"/>
-    </row>
-    <row r="108" spans="1:19">
+      <c r="T107" s="4"/>
+    </row>
+    <row r="108" spans="1:20">
       <c r="A108" s="4"/>
       <c r="B108" s="4"/>
       <c r="C108" s="4"/>
@@ -13358,8 +14045,9 @@
       <c r="Q108" s="4"/>
       <c r="R108" s="4"/>
       <c r="S108" s="4"/>
-    </row>
-    <row r="109" spans="1:19">
+      <c r="T108" s="4"/>
+    </row>
+    <row r="109" spans="1:20">
       <c r="A109" s="4"/>
       <c r="B109" s="4"/>
       <c r="C109" s="4"/>
@@ -13379,8 +14067,9 @@
       <c r="Q109" s="4"/>
       <c r="R109" s="4"/>
       <c r="S109" s="4"/>
-    </row>
-    <row r="110" spans="1:19">
+      <c r="T109" s="4"/>
+    </row>
+    <row r="110" spans="1:20">
       <c r="A110" s="4"/>
       <c r="B110" s="4"/>
       <c r="C110" s="4"/>
@@ -13400,8 +14089,9 @@
       <c r="Q110" s="4"/>
       <c r="R110" s="4"/>
       <c r="S110" s="4"/>
-    </row>
-    <row r="111" spans="1:19">
+      <c r="T110" s="4"/>
+    </row>
+    <row r="111" spans="1:20">
       <c r="A111" s="4"/>
       <c r="B111" s="4"/>
       <c r="C111" s="4"/>
@@ -13421,8 +14111,9 @@
       <c r="Q111" s="4"/>
       <c r="R111" s="4"/>
       <c r="S111" s="4"/>
-    </row>
-    <row r="112" spans="1:19">
+      <c r="T111" s="4"/>
+    </row>
+    <row r="112" spans="1:20">
       <c r="A112" s="4"/>
       <c r="B112" s="4"/>
       <c r="C112" s="4"/>
@@ -13442,8 +14133,9 @@
       <c r="Q112" s="4"/>
       <c r="R112" s="4"/>
       <c r="S112" s="4"/>
-    </row>
-    <row r="113" spans="1:19">
+      <c r="T112" s="4"/>
+    </row>
+    <row r="113" spans="1:20">
       <c r="A113" s="4"/>
       <c r="B113" s="4"/>
       <c r="C113" s="4"/>
@@ -13463,8 +14155,9 @@
       <c r="Q113" s="4"/>
       <c r="R113" s="4"/>
       <c r="S113" s="4"/>
-    </row>
-    <row r="114" spans="1:19">
+      <c r="T113" s="4"/>
+    </row>
+    <row r="114" spans="1:20">
       <c r="A114" s="4"/>
       <c r="B114" s="4"/>
       <c r="C114" s="4"/>
@@ -13484,8 +14177,9 @@
       <c r="Q114" s="4"/>
       <c r="R114" s="4"/>
       <c r="S114" s="4"/>
-    </row>
-    <row r="115" spans="1:19">
+      <c r="T114" s="4"/>
+    </row>
+    <row r="115" spans="1:20">
       <c r="A115" s="4"/>
       <c r="B115" s="4"/>
       <c r="C115" s="4"/>
@@ -13505,8 +14199,9 @@
       <c r="Q115" s="4"/>
       <c r="R115" s="4"/>
       <c r="S115" s="4"/>
-    </row>
-    <row r="116" spans="1:19">
+      <c r="T115" s="4"/>
+    </row>
+    <row r="116" spans="1:20">
       <c r="A116" s="4"/>
       <c r="B116" s="4"/>
       <c r="C116" s="4"/>
@@ -13526,8 +14221,9 @@
       <c r="Q116" s="4"/>
       <c r="R116" s="4"/>
       <c r="S116" s="4"/>
-    </row>
-    <row r="117" spans="1:19">
+      <c r="T116" s="4"/>
+    </row>
+    <row r="117" spans="1:20">
       <c r="A117" s="4"/>
       <c r="B117" s="4"/>
       <c r="C117" s="4"/>
@@ -13547,8 +14243,9 @@
       <c r="Q117" s="4"/>
       <c r="R117" s="4"/>
       <c r="S117" s="4"/>
-    </row>
-    <row r="118" spans="1:19">
+      <c r="T117" s="4"/>
+    </row>
+    <row r="118" spans="1:20">
       <c r="A118" s="4"/>
       <c r="B118" s="4"/>
       <c r="C118" s="4"/>
@@ -13568,8 +14265,9 @@
       <c r="Q118" s="4"/>
       <c r="R118" s="4"/>
       <c r="S118" s="4"/>
-    </row>
-    <row r="119" spans="1:19">
+      <c r="T118" s="4"/>
+    </row>
+    <row r="119" spans="1:20">
       <c r="A119" s="4"/>
       <c r="B119" s="4"/>
       <c r="C119" s="4"/>
@@ -13589,8 +14287,9 @@
       <c r="Q119" s="4"/>
       <c r="R119" s="4"/>
       <c r="S119" s="4"/>
-    </row>
-    <row r="120" spans="1:19">
+      <c r="T119" s="4"/>
+    </row>
+    <row r="120" spans="1:20">
       <c r="A120" s="4"/>
       <c r="B120" s="4"/>
       <c r="C120" s="4"/>
@@ -13610,8 +14309,9 @@
       <c r="Q120" s="4"/>
       <c r="R120" s="4"/>
       <c r="S120" s="4"/>
-    </row>
-    <row r="121" spans="1:19">
+      <c r="T120" s="4"/>
+    </row>
+    <row r="121" spans="1:20">
       <c r="A121" s="4"/>
       <c r="B121" s="4"/>
       <c r="C121" s="4"/>
@@ -13631,8 +14331,9 @@
       <c r="Q121" s="4"/>
       <c r="R121" s="4"/>
       <c r="S121" s="4"/>
-    </row>
-    <row r="122" spans="1:19">
+      <c r="T121" s="4"/>
+    </row>
+    <row r="122" spans="1:20">
       <c r="A122" s="4"/>
       <c r="B122" s="4"/>
       <c r="C122" s="4"/>
@@ -13652,8 +14353,9 @@
       <c r="Q122" s="4"/>
       <c r="R122" s="4"/>
       <c r="S122" s="4"/>
-    </row>
-    <row r="123" spans="1:19">
+      <c r="T122" s="4"/>
+    </row>
+    <row r="123" spans="1:20">
       <c r="A123" s="4"/>
       <c r="B123" s="4"/>
       <c r="C123" s="4"/>
@@ -13673,8 +14375,9 @@
       <c r="Q123" s="4"/>
       <c r="R123" s="4"/>
       <c r="S123" s="4"/>
-    </row>
-    <row r="124" spans="1:19">
+      <c r="T123" s="4"/>
+    </row>
+    <row r="124" spans="1:20">
       <c r="A124" s="4"/>
       <c r="B124" s="4"/>
       <c r="C124" s="4"/>
@@ -13694,8 +14397,9 @@
       <c r="Q124" s="4"/>
       <c r="R124" s="4"/>
       <c r="S124" s="4"/>
-    </row>
-    <row r="125" spans="1:19">
+      <c r="T124" s="4"/>
+    </row>
+    <row r="125" spans="1:20">
       <c r="A125" s="4"/>
       <c r="B125" s="4"/>
       <c r="C125" s="4"/>
@@ -13715,8 +14419,9 @@
       <c r="Q125" s="4"/>
       <c r="R125" s="4"/>
       <c r="S125" s="4"/>
-    </row>
-    <row r="126" spans="1:19">
+      <c r="T125" s="4"/>
+    </row>
+    <row r="126" spans="1:20">
       <c r="A126" s="4"/>
       <c r="B126" s="4"/>
       <c r="C126" s="4"/>
@@ -13736,8 +14441,9 @@
       <c r="Q126" s="4"/>
       <c r="R126" s="4"/>
       <c r="S126" s="4"/>
-    </row>
-    <row r="127" spans="1:19">
+      <c r="T126" s="4"/>
+    </row>
+    <row r="127" spans="1:20">
       <c r="A127" s="4"/>
       <c r="B127" s="4"/>
       <c r="C127" s="4"/>
@@ -13757,8 +14463,9 @@
       <c r="Q127" s="4"/>
       <c r="R127" s="4"/>
       <c r="S127" s="4"/>
-    </row>
-    <row r="128" spans="1:19">
+      <c r="T127" s="4"/>
+    </row>
+    <row r="128" spans="1:20">
       <c r="A128" s="4"/>
       <c r="B128" s="4"/>
       <c r="C128" s="4"/>
@@ -13778,8 +14485,9 @@
       <c r="Q128" s="4"/>
       <c r="R128" s="4"/>
       <c r="S128" s="4"/>
-    </row>
-    <row r="129" spans="1:19">
+      <c r="T128" s="4"/>
+    </row>
+    <row r="129" spans="1:20">
       <c r="A129" s="4"/>
       <c r="B129" s="4"/>
       <c r="C129" s="4"/>
@@ -13799,8 +14507,9 @@
       <c r="Q129" s="4"/>
       <c r="R129" s="4"/>
       <c r="S129" s="4"/>
-    </row>
-    <row r="130" spans="1:19">
+      <c r="T129" s="4"/>
+    </row>
+    <row r="130" spans="1:20">
       <c r="A130" s="4"/>
       <c r="B130" s="4"/>
       <c r="C130" s="4"/>
@@ -13820,8 +14529,9 @@
       <c r="Q130" s="4"/>
       <c r="R130" s="4"/>
       <c r="S130" s="4"/>
-    </row>
-    <row r="131" spans="1:19">
+      <c r="T130" s="4"/>
+    </row>
+    <row r="131" spans="1:20">
       <c r="A131" s="4"/>
       <c r="B131" s="4"/>
       <c r="C131" s="4"/>
@@ -13841,8 +14551,9 @@
       <c r="Q131" s="4"/>
       <c r="R131" s="4"/>
       <c r="S131" s="4"/>
-    </row>
-    <row r="132" spans="1:19">
+      <c r="T131" s="4"/>
+    </row>
+    <row r="132" spans="1:20">
       <c r="A132" s="4"/>
       <c r="B132" s="4"/>
       <c r="C132" s="4"/>
@@ -13862,8 +14573,9 @@
       <c r="Q132" s="4"/>
       <c r="R132" s="4"/>
       <c r="S132" s="4"/>
-    </row>
-    <row r="133" spans="1:19">
+      <c r="T132" s="4"/>
+    </row>
+    <row r="133" spans="1:20">
       <c r="A133" s="4"/>
       <c r="B133" s="4"/>
       <c r="C133" s="4"/>
@@ -13883,8 +14595,9 @@
       <c r="Q133" s="4"/>
       <c r="R133" s="4"/>
       <c r="S133" s="4"/>
-    </row>
-    <row r="134" spans="1:19">
+      <c r="T133" s="4"/>
+    </row>
+    <row r="134" spans="1:20">
       <c r="A134" s="4"/>
       <c r="B134" s="4"/>
       <c r="C134" s="4"/>
@@ -13904,8 +14617,9 @@
       <c r="Q134" s="4"/>
       <c r="R134" s="4"/>
       <c r="S134" s="4"/>
-    </row>
-    <row r="135" spans="1:19">
+      <c r="T134" s="4"/>
+    </row>
+    <row r="135" spans="1:20">
       <c r="A135" s="4"/>
       <c r="B135" s="4"/>
       <c r="C135" s="4"/>
@@ -13925,8 +14639,9 @@
       <c r="Q135" s="4"/>
       <c r="R135" s="4"/>
       <c r="S135" s="4"/>
-    </row>
-    <row r="136" spans="1:19">
+      <c r="T135" s="4"/>
+    </row>
+    <row r="136" spans="1:20">
       <c r="A136" s="4"/>
       <c r="B136" s="4"/>
       <c r="C136" s="4"/>
@@ -13946,8 +14661,9 @@
       <c r="Q136" s="4"/>
       <c r="R136" s="4"/>
       <c r="S136" s="4"/>
-    </row>
-    <row r="137" spans="1:19">
+      <c r="T136" s="4"/>
+    </row>
+    <row r="137" spans="1:20">
       <c r="A137" s="4"/>
       <c r="B137" s="4"/>
       <c r="C137" s="4"/>
@@ -13967,8 +14683,9 @@
       <c r="Q137" s="4"/>
       <c r="R137" s="4"/>
       <c r="S137" s="4"/>
-    </row>
-    <row r="138" spans="1:19">
+      <c r="T137" s="4"/>
+    </row>
+    <row r="138" spans="1:20">
       <c r="A138" s="4"/>
       <c r="B138" s="4"/>
       <c r="C138" s="4"/>
@@ -13988,8 +14705,9 @@
       <c r="Q138" s="4"/>
       <c r="R138" s="4"/>
       <c r="S138" s="4"/>
-    </row>
-    <row r="139" spans="1:19">
+      <c r="T138" s="4"/>
+    </row>
+    <row r="139" spans="1:20">
       <c r="A139" s="4"/>
       <c r="B139" s="4"/>
       <c r="C139" s="4"/>
@@ -14009,8 +14727,9 @@
       <c r="Q139" s="4"/>
       <c r="R139" s="4"/>
       <c r="S139" s="4"/>
-    </row>
-    <row r="140" spans="1:19">
+      <c r="T139" s="4"/>
+    </row>
+    <row r="140" spans="1:20">
       <c r="A140" s="4"/>
       <c r="B140" s="4"/>
       <c r="C140" s="4"/>
@@ -14030,8 +14749,9 @@
       <c r="Q140" s="4"/>
       <c r="R140" s="4"/>
       <c r="S140" s="4"/>
-    </row>
-    <row r="141" spans="1:19">
+      <c r="T140" s="4"/>
+    </row>
+    <row r="141" spans="1:20">
       <c r="A141" s="4"/>
       <c r="B141" s="4"/>
       <c r="C141" s="4"/>
@@ -14051,8 +14771,9 @@
       <c r="Q141" s="4"/>
       <c r="R141" s="4"/>
       <c r="S141" s="4"/>
-    </row>
-    <row r="142" spans="1:19">
+      <c r="T141" s="4"/>
+    </row>
+    <row r="142" spans="1:20">
       <c r="A142" s="4"/>
       <c r="B142" s="4"/>
       <c r="C142" s="4"/>
@@ -14072,8 +14793,9 @@
       <c r="Q142" s="4"/>
       <c r="R142" s="4"/>
       <c r="S142" s="4"/>
-    </row>
-    <row r="143" spans="1:19">
+      <c r="T142" s="4"/>
+    </row>
+    <row r="143" spans="1:20">
       <c r="A143" s="4"/>
       <c r="B143" s="4"/>
       <c r="C143" s="4"/>
@@ -14093,8 +14815,9 @@
       <c r="Q143" s="4"/>
       <c r="R143" s="4"/>
       <c r="S143" s="4"/>
-    </row>
-    <row r="144" spans="1:19">
+      <c r="T143" s="4"/>
+    </row>
+    <row r="144" spans="1:20">
       <c r="A144" s="4"/>
       <c r="B144" s="4"/>
       <c r="C144" s="4"/>
@@ -14114,8 +14837,9 @@
       <c r="Q144" s="4"/>
       <c r="R144" s="4"/>
       <c r="S144" s="4"/>
-    </row>
-    <row r="145" spans="1:19">
+      <c r="T144" s="4"/>
+    </row>
+    <row r="145" spans="1:20">
       <c r="A145" s="4"/>
       <c r="B145" s="4"/>
       <c r="C145" s="4"/>
@@ -14135,8 +14859,9 @@
       <c r="Q145" s="4"/>
       <c r="R145" s="4"/>
       <c r="S145" s="4"/>
-    </row>
-    <row r="146" spans="1:19">
+      <c r="T145" s="4"/>
+    </row>
+    <row r="146" spans="1:20">
       <c r="A146" s="4"/>
       <c r="B146" s="4"/>
       <c r="C146" s="4"/>
@@ -14156,8 +14881,9 @@
       <c r="Q146" s="4"/>
       <c r="R146" s="4"/>
       <c r="S146" s="4"/>
-    </row>
-    <row r="147" spans="1:19">
+      <c r="T146" s="4"/>
+    </row>
+    <row r="147" spans="1:20">
       <c r="A147" s="4"/>
       <c r="B147" s="4"/>
       <c r="C147" s="4"/>
@@ -14177,8 +14903,9 @@
       <c r="Q147" s="4"/>
       <c r="R147" s="4"/>
       <c r="S147" s="4"/>
-    </row>
-    <row r="148" spans="1:19">
+      <c r="T147" s="4"/>
+    </row>
+    <row r="148" spans="1:20">
       <c r="A148" s="4"/>
       <c r="B148" s="4"/>
       <c r="C148" s="4"/>
@@ -14198,8 +14925,9 @@
       <c r="Q148" s="4"/>
       <c r="R148" s="4"/>
       <c r="S148" s="4"/>
-    </row>
-    <row r="149" spans="1:19">
+      <c r="T148" s="4"/>
+    </row>
+    <row r="149" spans="1:20">
       <c r="A149" s="4"/>
       <c r="B149" s="4"/>
       <c r="C149" s="4"/>
@@ -14219,8 +14947,9 @@
       <c r="Q149" s="4"/>
       <c r="R149" s="4"/>
       <c r="S149" s="4"/>
-    </row>
-    <row r="150" spans="1:19">
+      <c r="T149" s="4"/>
+    </row>
+    <row r="150" spans="1:20">
       <c r="A150" s="4"/>
       <c r="B150" s="4"/>
       <c r="C150" s="4"/>
@@ -14240,8 +14969,9 @@
       <c r="Q150" s="4"/>
       <c r="R150" s="4"/>
       <c r="S150" s="4"/>
-    </row>
-    <row r="151" spans="1:19">
+      <c r="T150" s="4"/>
+    </row>
+    <row r="151" spans="1:20">
       <c r="A151" s="4"/>
       <c r="B151" s="4"/>
       <c r="C151" s="4"/>
@@ -14261,8 +14991,9 @@
       <c r="Q151" s="4"/>
       <c r="R151" s="4"/>
       <c r="S151" s="4"/>
-    </row>
-    <row r="152" spans="1:19">
+      <c r="T151" s="4"/>
+    </row>
+    <row r="152" spans="1:20">
       <c r="A152" s="4"/>
       <c r="B152" s="4"/>
       <c r="C152" s="4"/>
@@ -14282,8 +15013,9 @@
       <c r="Q152" s="4"/>
       <c r="R152" s="4"/>
       <c r="S152" s="4"/>
-    </row>
-    <row r="153" spans="1:19">
+      <c r="T152" s="4"/>
+    </row>
+    <row r="153" spans="1:20">
       <c r="A153" s="4"/>
       <c r="B153" s="4"/>
       <c r="C153" s="4"/>
@@ -14303,8 +15035,9 @@
       <c r="Q153" s="4"/>
       <c r="R153" s="4"/>
       <c r="S153" s="4"/>
-    </row>
-    <row r="154" spans="1:19">
+      <c r="T153" s="4"/>
+    </row>
+    <row r="154" spans="1:20">
       <c r="A154" s="4"/>
       <c r="B154" s="4"/>
       <c r="C154" s="4"/>
@@ -14324,8 +15057,9 @@
       <c r="Q154" s="4"/>
       <c r="R154" s="4"/>
       <c r="S154" s="4"/>
-    </row>
-    <row r="155" spans="1:19">
+      <c r="T154" s="4"/>
+    </row>
+    <row r="155" spans="1:20">
       <c r="A155" s="4"/>
       <c r="B155" s="4"/>
       <c r="C155" s="4"/>
@@ -14345,8 +15079,9 @@
       <c r="Q155" s="4"/>
       <c r="R155" s="4"/>
       <c r="S155" s="4"/>
-    </row>
-    <row r="156" spans="1:19">
+      <c r="T155" s="4"/>
+    </row>
+    <row r="156" spans="1:20">
       <c r="A156" s="4"/>
       <c r="B156" s="4"/>
       <c r="C156" s="4"/>
@@ -14366,8 +15101,9 @@
       <c r="Q156" s="4"/>
       <c r="R156" s="4"/>
       <c r="S156" s="4"/>
-    </row>
-    <row r="157" spans="1:19">
+      <c r="T156" s="4"/>
+    </row>
+    <row r="157" spans="1:20">
       <c r="A157" s="4"/>
       <c r="B157" s="4"/>
       <c r="C157" s="4"/>
@@ -14387,8 +15123,9 @@
       <c r="Q157" s="4"/>
       <c r="R157" s="4"/>
       <c r="S157" s="4"/>
-    </row>
-    <row r="158" spans="1:19">
+      <c r="T157" s="4"/>
+    </row>
+    <row r="158" spans="1:20">
       <c r="A158" s="4"/>
       <c r="B158" s="4"/>
       <c r="C158" s="4"/>
@@ -14408,8 +15145,9 @@
       <c r="Q158" s="4"/>
       <c r="R158" s="4"/>
       <c r="S158" s="4"/>
-    </row>
-    <row r="159" spans="1:19">
+      <c r="T158" s="4"/>
+    </row>
+    <row r="159" spans="1:20">
       <c r="A159" s="4"/>
       <c r="B159" s="4"/>
       <c r="C159" s="4"/>
@@ -14429,8 +15167,9 @@
       <c r="Q159" s="4"/>
       <c r="R159" s="4"/>
       <c r="S159" s="4"/>
-    </row>
-    <row r="160" spans="1:19">
+      <c r="T159" s="4"/>
+    </row>
+    <row r="160" spans="1:20">
       <c r="A160" s="4"/>
       <c r="B160" s="4"/>
       <c r="C160" s="4"/>
@@ -14450,8 +15189,9 @@
       <c r="Q160" s="4"/>
       <c r="R160" s="4"/>
       <c r="S160" s="4"/>
-    </row>
-    <row r="161" spans="1:19">
+      <c r="T160" s="4"/>
+    </row>
+    <row r="161" spans="1:20">
       <c r="A161" s="4"/>
       <c r="B161" s="4"/>
       <c r="C161" s="4"/>
@@ -14471,8 +15211,9 @@
       <c r="Q161" s="4"/>
       <c r="R161" s="4"/>
       <c r="S161" s="4"/>
-    </row>
-    <row r="162" spans="1:19">
+      <c r="T161" s="4"/>
+    </row>
+    <row r="162" spans="1:20">
       <c r="A162" s="4"/>
       <c r="B162" s="4"/>
       <c r="C162" s="4"/>
@@ -14492,8 +15233,9 @@
       <c r="Q162" s="4"/>
       <c r="R162" s="4"/>
       <c r="S162" s="4"/>
-    </row>
-    <row r="163" spans="1:19">
+      <c r="T162" s="4"/>
+    </row>
+    <row r="163" spans="1:20">
       <c r="A163" s="4"/>
       <c r="B163" s="4"/>
       <c r="C163" s="4"/>
@@ -14513,8 +15255,9 @@
       <c r="Q163" s="4"/>
       <c r="R163" s="4"/>
       <c r="S163" s="4"/>
-    </row>
-    <row r="164" spans="1:19">
+      <c r="T163" s="4"/>
+    </row>
+    <row r="164" spans="1:20">
       <c r="A164" s="4"/>
       <c r="B164" s="4"/>
       <c r="C164" s="4"/>
@@ -14534,8 +15277,9 @@
       <c r="Q164" s="4"/>
       <c r="R164" s="4"/>
       <c r="S164" s="4"/>
-    </row>
-    <row r="165" spans="1:19">
+      <c r="T164" s="4"/>
+    </row>
+    <row r="165" spans="1:20">
       <c r="A165" s="4"/>
       <c r="B165" s="4"/>
       <c r="C165" s="4"/>
@@ -14555,8 +15299,9 @@
       <c r="Q165" s="4"/>
       <c r="R165" s="4"/>
       <c r="S165" s="4"/>
-    </row>
-    <row r="166" spans="1:19">
+      <c r="T165" s="4"/>
+    </row>
+    <row r="166" spans="1:20">
       <c r="A166" s="4"/>
       <c r="B166" s="4"/>
       <c r="C166" s="4"/>
@@ -14576,8 +15321,9 @@
       <c r="Q166" s="4"/>
       <c r="R166" s="4"/>
       <c r="S166" s="4"/>
-    </row>
-    <row r="167" spans="1:19">
+      <c r="T166" s="4"/>
+    </row>
+    <row r="167" spans="1:20">
       <c r="A167" s="4"/>
       <c r="B167" s="4"/>
       <c r="C167" s="4"/>
@@ -14597,8 +15343,9 @@
       <c r="Q167" s="4"/>
       <c r="R167" s="4"/>
       <c r="S167" s="4"/>
-    </row>
-    <row r="168" spans="1:19">
+      <c r="T167" s="4"/>
+    </row>
+    <row r="168" spans="1:20">
       <c r="A168" s="4"/>
       <c r="B168" s="4"/>
       <c r="C168" s="4"/>
@@ -14618,8 +15365,9 @@
       <c r="Q168" s="4"/>
       <c r="R168" s="4"/>
       <c r="S168" s="4"/>
-    </row>
-    <row r="169" spans="1:19">
+      <c r="T168" s="4"/>
+    </row>
+    <row r="169" spans="1:20">
       <c r="A169" s="4"/>
       <c r="B169" s="4"/>
       <c r="C169" s="4"/>
@@ -14639,8 +15387,9 @@
       <c r="Q169" s="4"/>
       <c r="R169" s="4"/>
       <c r="S169" s="4"/>
-    </row>
-    <row r="170" spans="1:19">
+      <c r="T169" s="4"/>
+    </row>
+    <row r="170" spans="1:20">
       <c r="A170" s="4"/>
       <c r="B170" s="4"/>
       <c r="C170" s="4"/>
@@ -14660,8 +15409,9 @@
       <c r="Q170" s="4"/>
       <c r="R170" s="4"/>
       <c r="S170" s="4"/>
-    </row>
-    <row r="171" spans="1:19">
+      <c r="T170" s="4"/>
+    </row>
+    <row r="171" spans="1:20">
       <c r="A171" s="4"/>
       <c r="B171" s="4"/>
       <c r="C171" s="4"/>
@@ -14681,8 +15431,9 @@
       <c r="Q171" s="4"/>
       <c r="R171" s="4"/>
       <c r="S171" s="4"/>
-    </row>
-    <row r="172" spans="1:19">
+      <c r="T171" s="4"/>
+    </row>
+    <row r="172" spans="1:20">
       <c r="A172" s="4"/>
       <c r="B172" s="4"/>
       <c r="C172" s="4"/>
@@ -14702,8 +15453,9 @@
       <c r="Q172" s="4"/>
       <c r="R172" s="4"/>
       <c r="S172" s="4"/>
-    </row>
-    <row r="173" spans="1:19">
+      <c r="T172" s="4"/>
+    </row>
+    <row r="173" spans="1:20">
       <c r="A173" s="4"/>
       <c r="B173" s="4"/>
       <c r="C173" s="4"/>
@@ -14723,8 +15475,9 @@
       <c r="Q173" s="4"/>
       <c r="R173" s="4"/>
       <c r="S173" s="4"/>
-    </row>
-    <row r="174" spans="1:19">
+      <c r="T173" s="4"/>
+    </row>
+    <row r="174" spans="1:20">
       <c r="A174" s="4"/>
       <c r="B174" s="4"/>
       <c r="C174" s="4"/>
@@ -14744,8 +15497,9 @@
       <c r="Q174" s="4"/>
       <c r="R174" s="4"/>
       <c r="S174" s="4"/>
-    </row>
-    <row r="175" spans="1:19">
+      <c r="T174" s="4"/>
+    </row>
+    <row r="175" spans="1:20">
       <c r="A175" s="4"/>
       <c r="B175" s="4"/>
       <c r="C175" s="4"/>
@@ -14765,8 +15519,9 @@
       <c r="Q175" s="4"/>
       <c r="R175" s="4"/>
       <c r="S175" s="4"/>
-    </row>
-    <row r="176" spans="1:19">
+      <c r="T175" s="4"/>
+    </row>
+    <row r="176" spans="1:20">
       <c r="A176" s="4"/>
       <c r="B176" s="4"/>
       <c r="C176" s="4"/>
@@ -14786,8 +15541,9 @@
       <c r="Q176" s="4"/>
       <c r="R176" s="4"/>
       <c r="S176" s="4"/>
-    </row>
-    <row r="177" spans="1:19">
+      <c r="T176" s="4"/>
+    </row>
+    <row r="177" spans="1:20">
       <c r="A177" s="4"/>
       <c r="B177" s="4"/>
       <c r="C177" s="4"/>
@@ -14807,8 +15563,9 @@
       <c r="Q177" s="4"/>
       <c r="R177" s="4"/>
       <c r="S177" s="4"/>
-    </row>
-    <row r="178" spans="1:19">
+      <c r="T177" s="4"/>
+    </row>
+    <row r="178" spans="1:20">
       <c r="A178" s="4"/>
       <c r="B178" s="4"/>
       <c r="C178" s="4"/>
@@ -14828,8 +15585,9 @@
       <c r="Q178" s="4"/>
       <c r="R178" s="4"/>
       <c r="S178" s="4"/>
-    </row>
-    <row r="179" spans="1:19">
+      <c r="T178" s="4"/>
+    </row>
+    <row r="179" spans="1:20">
       <c r="A179" s="4"/>
       <c r="B179" s="4"/>
       <c r="C179" s="4"/>
@@ -14849,8 +15607,9 @@
       <c r="Q179" s="4"/>
       <c r="R179" s="4"/>
       <c r="S179" s="4"/>
-    </row>
-    <row r="180" spans="1:19">
+      <c r="T179" s="4"/>
+    </row>
+    <row r="180" spans="1:20">
       <c r="A180" s="4"/>
       <c r="B180" s="4"/>
       <c r="C180" s="4"/>
@@ -14870,8 +15629,9 @@
       <c r="Q180" s="4"/>
       <c r="R180" s="4"/>
       <c r="S180" s="4"/>
-    </row>
-    <row r="181" spans="1:19">
+      <c r="T180" s="4"/>
+    </row>
+    <row r="181" spans="1:20">
       <c r="A181" s="4"/>
       <c r="B181" s="4"/>
       <c r="C181" s="4"/>
@@ -14891,8 +15651,9 @@
       <c r="Q181" s="4"/>
       <c r="R181" s="4"/>
       <c r="S181" s="4"/>
-    </row>
-    <row r="182" spans="1:19">
+      <c r="T181" s="4"/>
+    </row>
+    <row r="182" spans="1:20">
       <c r="A182" s="4"/>
       <c r="B182" s="4"/>
       <c r="C182" s="4"/>
@@ -14912,8 +15673,9 @@
       <c r="Q182" s="4"/>
       <c r="R182" s="4"/>
       <c r="S182" s="4"/>
-    </row>
-    <row r="183" spans="1:19">
+      <c r="T182" s="4"/>
+    </row>
+    <row r="183" spans="1:20">
       <c r="A183" s="4"/>
       <c r="B183" s="4"/>
       <c r="C183" s="4"/>
@@ -14933,8 +15695,9 @@
       <c r="Q183" s="4"/>
       <c r="R183" s="4"/>
       <c r="S183" s="4"/>
-    </row>
-    <row r="184" spans="1:19">
+      <c r="T183" s="4"/>
+    </row>
+    <row r="184" spans="1:20">
       <c r="A184" s="4"/>
       <c r="B184" s="4"/>
       <c r="C184" s="4"/>
@@ -14954,8 +15717,9 @@
       <c r="Q184" s="4"/>
       <c r="R184" s="4"/>
       <c r="S184" s="4"/>
-    </row>
-    <row r="185" spans="1:19">
+      <c r="T184" s="4"/>
+    </row>
+    <row r="185" spans="1:20">
       <c r="A185" s="4"/>
       <c r="B185" s="4"/>
       <c r="C185" s="4"/>
@@ -14975,8 +15739,9 @@
       <c r="Q185" s="4"/>
       <c r="R185" s="4"/>
       <c r="S185" s="4"/>
-    </row>
-    <row r="186" spans="1:19">
+      <c r="T185" s="4"/>
+    </row>
+    <row r="186" spans="1:20">
       <c r="A186" s="4"/>
       <c r="B186" s="4"/>
       <c r="C186" s="4"/>
@@ -14996,8 +15761,9 @@
       <c r="Q186" s="4"/>
       <c r="R186" s="4"/>
       <c r="S186" s="4"/>
-    </row>
-    <row r="187" spans="1:19">
+      <c r="T186" s="4"/>
+    </row>
+    <row r="187" spans="1:20">
       <c r="A187" s="4"/>
       <c r="B187" s="4"/>
       <c r="C187" s="4"/>
@@ -15017,8 +15783,9 @@
       <c r="Q187" s="4"/>
       <c r="R187" s="4"/>
       <c r="S187" s="4"/>
-    </row>
-    <row r="188" spans="1:19">
+      <c r="T187" s="4"/>
+    </row>
+    <row r="188" spans="1:20">
       <c r="A188" s="4"/>
       <c r="B188" s="4"/>
       <c r="C188" s="4"/>
@@ -15038,8 +15805,9 @@
       <c r="Q188" s="4"/>
       <c r="R188" s="4"/>
       <c r="S188" s="4"/>
-    </row>
-    <row r="189" spans="1:19">
+      <c r="T188" s="4"/>
+    </row>
+    <row r="189" spans="1:20">
       <c r="A189" s="4"/>
       <c r="B189" s="4"/>
       <c r="C189" s="4"/>
@@ -15059,8 +15827,9 @@
       <c r="Q189" s="4"/>
       <c r="R189" s="4"/>
       <c r="S189" s="4"/>
-    </row>
-    <row r="190" spans="1:19">
+      <c r="T189" s="4"/>
+    </row>
+    <row r="190" spans="1:20">
       <c r="A190" s="4"/>
       <c r="B190" s="4"/>
       <c r="C190" s="4"/>
@@ -15080,8 +15849,9 @@
       <c r="Q190" s="4"/>
       <c r="R190" s="4"/>
       <c r="S190" s="4"/>
-    </row>
-    <row r="191" spans="1:19">
+      <c r="T190" s="4"/>
+    </row>
+    <row r="191" spans="1:20">
       <c r="A191" s="4"/>
       <c r="B191" s="4"/>
       <c r="C191" s="4"/>
@@ -15101,8 +15871,9 @@
       <c r="Q191" s="4"/>
       <c r="R191" s="4"/>
       <c r="S191" s="4"/>
-    </row>
-    <row r="192" spans="1:19">
+      <c r="T191" s="4"/>
+    </row>
+    <row r="192" spans="1:20">
       <c r="A192" s="4"/>
       <c r="B192" s="4"/>
       <c r="C192" s="4"/>
@@ -15122,8 +15893,9 @@
       <c r="Q192" s="4"/>
       <c r="R192" s="4"/>
       <c r="S192" s="4"/>
-    </row>
-    <row r="193" spans="1:19">
+      <c r="T192" s="4"/>
+    </row>
+    <row r="193" spans="1:20">
       <c r="A193" s="4"/>
       <c r="B193" s="4"/>
       <c r="C193" s="4"/>
@@ -15143,8 +15915,9 @@
       <c r="Q193" s="4"/>
       <c r="R193" s="4"/>
       <c r="S193" s="4"/>
-    </row>
-    <row r="194" spans="1:19">
+      <c r="T193" s="4"/>
+    </row>
+    <row r="194" spans="1:20">
       <c r="A194" s="4"/>
       <c r="B194" s="4"/>
       <c r="C194" s="4"/>
@@ -15164,8 +15937,9 @@
       <c r="Q194" s="4"/>
       <c r="R194" s="4"/>
       <c r="S194" s="4"/>
-    </row>
-    <row r="195" spans="1:19">
+      <c r="T194" s="4"/>
+    </row>
+    <row r="195" spans="1:20">
       <c r="A195" s="4"/>
       <c r="B195" s="4"/>
       <c r="C195" s="4"/>
@@ -15185,8 +15959,9 @@
       <c r="Q195" s="4"/>
       <c r="R195" s="4"/>
       <c r="S195" s="4"/>
-    </row>
-    <row r="196" spans="1:19">
+      <c r="T195" s="4"/>
+    </row>
+    <row r="196" spans="1:20">
       <c r="A196" s="4"/>
       <c r="B196" s="4"/>
       <c r="C196" s="4"/>
@@ -15206,8 +15981,9 @@
       <c r="Q196" s="4"/>
       <c r="R196" s="4"/>
       <c r="S196" s="4"/>
-    </row>
-    <row r="197" spans="1:19">
+      <c r="T196" s="4"/>
+    </row>
+    <row r="197" spans="1:20">
       <c r="A197" s="4"/>
       <c r="B197" s="4"/>
       <c r="C197" s="4"/>
@@ -15227,8 +16003,9 @@
       <c r="Q197" s="4"/>
       <c r="R197" s="4"/>
       <c r="S197" s="4"/>
-    </row>
-    <row r="198" spans="1:19">
+      <c r="T197" s="4"/>
+    </row>
+    <row r="198" spans="1:20">
       <c r="A198" s="4"/>
       <c r="B198" s="4"/>
       <c r="C198" s="4"/>
@@ -15248,8 +16025,9 @@
       <c r="Q198" s="4"/>
       <c r="R198" s="4"/>
       <c r="S198" s="4"/>
-    </row>
-    <row r="199" spans="1:19">
+      <c r="T198" s="4"/>
+    </row>
+    <row r="199" spans="1:20">
       <c r="A199" s="4"/>
       <c r="B199" s="4"/>
       <c r="C199" s="4"/>
@@ -15269,8 +16047,9 @@
       <c r="Q199" s="4"/>
       <c r="R199" s="4"/>
       <c r="S199" s="4"/>
-    </row>
-    <row r="200" spans="1:19">
+      <c r="T199" s="4"/>
+    </row>
+    <row r="200" spans="1:20">
       <c r="A200" s="4"/>
       <c r="B200" s="4"/>
       <c r="C200" s="4"/>
@@ -15290,6 +16069,7 @@
       <c r="Q200" s="4"/>
       <c r="R200" s="4"/>
       <c r="S200" s="4"/>
+      <c r="T200" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>

--- a/Core/M5 Core Main Comparison .xlsx
+++ b/Core/M5 Core Main Comparison .xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\github_code\M5-Schematic\Core\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21760D06-1530-4CD9-B745-6AE711A40A34}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C96D2A8-56DE-4A7F-98EA-A8ED6AB8EF81}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="345" yWindow="2895" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="English" sheetId="1" r:id="rId1"/>
@@ -719,13 +719,13 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>8255</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>184727</xdr:rowOff>
+      <xdr:rowOff>190499</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>8255</xdr:colOff>
+      <xdr:colOff>2526</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>1163781</xdr:rowOff>
+      <xdr:rowOff>1163780</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -748,8 +748,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8255" y="184727"/>
-          <a:ext cx="847725" cy="979054"/>
+          <a:off x="2122805" y="5991224"/>
+          <a:ext cx="965821" cy="973281"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -761,15 +761,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>18405</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>933450</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>960581</xdr:rowOff>
+      <xdr:rowOff>922481</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -792,8 +792,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="847725" cy="960581"/>
+          <a:off x="2133600" y="7847955"/>
+          <a:ext cx="914400" cy="904076"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -804,16 +804,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>2096770</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1270</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>18472</xdr:rowOff>
+      <xdr:rowOff>47047</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>941070</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>960581</xdr:rowOff>
+      <xdr:colOff>960120</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>36656</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -836,8 +836,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2096770" y="18472"/>
-          <a:ext cx="692150" cy="942109"/>
+          <a:off x="2115820" y="542347"/>
+          <a:ext cx="958850" cy="942109"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -851,13 +851,13 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>8255</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>18472</xdr:rowOff>
+      <xdr:rowOff>94672</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>965835</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>979054</xdr:rowOff>
+      <xdr:rowOff>1055254</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -880,7 +880,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8255" y="18472"/>
+          <a:off x="2122805" y="8914822"/>
           <a:ext cx="957580" cy="960582"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -895,11 +895,11 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>24765</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>120072</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>8255</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>947664</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>1080654</xdr:rowOff>
     </xdr:to>
@@ -924,8 +924,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="24765" y="120072"/>
-          <a:ext cx="831215" cy="960582"/>
+          <a:off x="2139315" y="4781550"/>
+          <a:ext cx="922899" cy="928254"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -937,15 +937,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952432</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>969818</xdr:rowOff>
+      <xdr:rowOff>1007918</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -968,8 +968,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="847725" cy="969818"/>
+          <a:off x="2133600" y="1524000"/>
+          <a:ext cx="933382" cy="931718"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -981,15 +981,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>8255</xdr:colOff>
+      <xdr:colOff>17780</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>957580</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>979054</xdr:rowOff>
+      <xdr:colOff>967105</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>45604</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1012,7 +1012,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8255" y="0"/>
+          <a:off x="2132330" y="2933700"/>
           <a:ext cx="949325" cy="979054"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1022,84 +1022,6 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>8255</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>184727</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="971550" cy="979054"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Picture 1" descr="Picture">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{478B525E-82F9-41A6-A727-24DBC1813DE1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2122805" y="9300152"/>
-          <a:ext cx="971550" cy="979054"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>8255</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>184727</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="971550" cy="979054"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Picture 1" descr="Picture">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{778E40B2-E8C1-410B-867E-0F15078B7E17}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2122805" y="11957627"/>
-          <a:ext cx="971550" cy="979054"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1108,15 +1030,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>28575</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>132920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>962025</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>960581</xdr:rowOff>
+      <xdr:rowOff>1055831</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1139,8 +1061,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="847725" cy="960581"/>
+          <a:off x="2143125" y="304370"/>
+          <a:ext cx="933450" cy="922911"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1152,15 +1074,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>8255</xdr:colOff>
+      <xdr:colOff>27305</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>18472</xdr:rowOff>
+      <xdr:rowOff>46938</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>979054</xdr:rowOff>
+      <xdr:rowOff>969528</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1183,8 +1105,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8255" y="18472"/>
-          <a:ext cx="839470" cy="960582"/>
+          <a:off x="2141855" y="8638488"/>
+          <a:ext cx="925195" cy="922590"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1196,15 +1118,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>8255</xdr:colOff>
+      <xdr:colOff>46355</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>140974</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>8255</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>962025</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>960581</xdr:rowOff>
+      <xdr:rowOff>1046306</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1227,8 +1149,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8255" y="0"/>
-          <a:ext cx="847725" cy="960581"/>
+          <a:off x="2160905" y="2569849"/>
+          <a:ext cx="915670" cy="905332"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1284,15 +1206,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>942907</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>969818</xdr:rowOff>
+      <xdr:rowOff>998393</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1315,8 +1237,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="847725" cy="969818"/>
+          <a:off x="2124075" y="1419225"/>
+          <a:ext cx="933382" cy="931718"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1328,15 +1250,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>47625</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>971006</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>960581</xdr:rowOff>
+      <xdr:rowOff>922481</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1359,8 +1281,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="847725" cy="960581"/>
+          <a:off x="2162175" y="7610475"/>
+          <a:ext cx="923381" cy="912956"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1416,15 +1338,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>8255</xdr:colOff>
+      <xdr:colOff>46355</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>138545</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>928108</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>1089890</xdr:rowOff>
+      <xdr:rowOff>975590</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1447,8 +1369,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8255" y="138545"/>
-          <a:ext cx="839470" cy="951345"/>
+          <a:off x="2160905" y="4762500"/>
+          <a:ext cx="881753" cy="870815"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1509,15 +1431,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>47625</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>961372</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>960581</xdr:rowOff>
+      <xdr:rowOff>922481</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1540,8 +1462,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="847725" cy="960581"/>
+          <a:off x="2162175" y="7477125"/>
+          <a:ext cx="913747" cy="903431"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1597,15 +1519,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>8255</xdr:colOff>
+      <xdr:colOff>55880</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>45186</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>8255</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>923925</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>960581</xdr:rowOff>
+      <xdr:rowOff>903431</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1628,8 +1550,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8255" y="0"/>
-          <a:ext cx="847725" cy="960581"/>
+          <a:off x="2170430" y="2293086"/>
+          <a:ext cx="868045" cy="858245"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1641,15 +1563,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>8255</xdr:colOff>
+      <xdr:colOff>27306</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>18472</xdr:rowOff>
+      <xdr:rowOff>19049</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>961366</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>979054</xdr:rowOff>
+      <xdr:rowOff>950478</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1672,8 +1594,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8255" y="18472"/>
-          <a:ext cx="839470" cy="960582"/>
+          <a:off x="2141856" y="8448674"/>
+          <a:ext cx="934060" cy="931429"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1685,15 +1607,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>38100</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>57149</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>961940</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>969818</xdr:rowOff>
+      <xdr:rowOff>979342</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1716,8 +1638,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="847725" cy="969818"/>
+          <a:off x="2152650" y="1314449"/>
+          <a:ext cx="923840" cy="922193"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1773,15 +1695,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>28575</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>951956</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>960581</xdr:rowOff>
+      <xdr:rowOff>951056</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1804,8 +1726,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="847725" cy="960581"/>
+          <a:off x="2143125" y="276225"/>
+          <a:ext cx="923381" cy="912956"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2116,21 +2038,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T200"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="27.75"/>
     <col min="2" max="2" width="12.75"/>
-    <col min="4" max="4" width="8.75"/>
-    <col min="5" max="5" width="14.75"/>
+    <col min="3" max="3" width="10.875" customWidth="1"/>
+    <col min="4" max="4" width="9.25" customWidth="1"/>
+    <col min="5" max="5" width="11.375" customWidth="1"/>
     <col min="6" max="6" width="9.75"/>
-    <col min="7" max="7" width="12.75"/>
-    <col min="8" max="8" width="14.75"/>
+    <col min="7" max="7" width="9.875" customWidth="1"/>
+    <col min="8" max="8" width="10.125" customWidth="1"/>
     <col min="9" max="9" width="9.75"/>
-    <col min="10" max="10" width="14.75"/>
+    <col min="10" max="10" width="14" customWidth="1"/>
     <col min="11" max="11" width="8.75"/>
     <col min="12" max="12" width="37.75"/>
     <col min="13" max="20" width="8.75"/>
@@ -2182,7 +2105,7 @@
       <c r="S1" s="4"/>
       <c r="T1" s="4"/>
     </row>
-    <row r="2" spans="1:20" ht="135.94999999999999" customHeight="1">
+    <row r="2" spans="1:20" ht="75" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -2226,7 +2149,7 @@
       <c r="S2" s="4"/>
       <c r="T2" s="4"/>
     </row>
-    <row r="3" spans="1:20" ht="135.94999999999999" customHeight="1">
+    <row r="3" spans="1:20" ht="80.25" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -2270,7 +2193,7 @@
       <c r="S3" s="4"/>
       <c r="T3" s="4"/>
     </row>
-    <row r="4" spans="1:20" ht="135.94999999999999" customHeight="1">
+    <row r="4" spans="1:20" ht="75" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -2314,7 +2237,7 @@
       <c r="S4" s="4"/>
       <c r="T4" s="4"/>
     </row>
-    <row r="5" spans="1:20" ht="135.94999999999999" customHeight="1">
+    <row r="5" spans="1:20" ht="95.25" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -2358,7 +2281,7 @@
       <c r="S5" s="4"/>
       <c r="T5" s="4"/>
     </row>
-    <row r="6" spans="1:20" ht="135.94999999999999" customHeight="1">
+    <row r="6" spans="1:20" ht="92.25" customHeight="1">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -2402,7 +2325,7 @@
       <c r="S6" s="4"/>
       <c r="T6" s="4"/>
     </row>
-    <row r="7" spans="1:20" ht="156" customHeight="1">
+    <row r="7" spans="1:20" ht="106.5" customHeight="1">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
@@ -2558,7 +2481,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="4"/>
     </row>
-    <row r="11" spans="1:20" ht="117" customHeight="1">
+    <row r="11" spans="1:20" ht="93" customHeight="1">
       <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
@@ -6773,7 +6696,7 @@
   <dimension ref="A1:T200"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -6838,7 +6761,7 @@
       <c r="S1" s="4"/>
       <c r="T1" s="4"/>
     </row>
-    <row r="2" spans="1:20" ht="135.94999999999999" customHeight="1">
+    <row r="2" spans="1:20" ht="93" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -6882,7 +6805,7 @@
       <c r="S2" s="4"/>
       <c r="T2" s="4"/>
     </row>
-    <row r="3" spans="1:20" ht="135.94999999999999" customHeight="1">
+    <row r="3" spans="1:20" ht="84.75" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -6926,7 +6849,7 @@
       <c r="S3" s="4"/>
       <c r="T3" s="4"/>
     </row>
-    <row r="4" spans="1:20" ht="135.94999999999999" customHeight="1">
+    <row r="4" spans="1:20" ht="89.25" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -6970,7 +6893,7 @@
       <c r="S4" s="4"/>
       <c r="T4" s="4"/>
     </row>
-    <row r="5" spans="1:20" ht="135.94999999999999" customHeight="1">
+    <row r="5" spans="1:20" ht="91.5" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -7014,7 +6937,7 @@
       <c r="S5" s="4"/>
       <c r="T5" s="4"/>
     </row>
-    <row r="6" spans="1:20" ht="135.94999999999999" customHeight="1">
+    <row r="6" spans="1:20" ht="93" customHeight="1">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -7058,7 +6981,7 @@
       <c r="S6" s="4"/>
       <c r="T6" s="4"/>
     </row>
-    <row r="7" spans="1:20" ht="156" customHeight="1">
+    <row r="7" spans="1:20" ht="105.75" customHeight="1">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
@@ -7214,7 +7137,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="4"/>
     </row>
-    <row r="11" spans="1:20" ht="96.95" customHeight="1">
+    <row r="11" spans="1:20" ht="84" customHeight="1">
       <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
@@ -11427,8 +11350,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:T200"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -11493,7 +11416,7 @@
       <c r="S1" s="4"/>
       <c r="T1" s="4"/>
     </row>
-    <row r="2" spans="1:20" ht="96.95" customHeight="1">
+    <row r="2" spans="1:20" ht="80.25" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -11537,7 +11460,7 @@
       <c r="S2" s="4"/>
       <c r="T2" s="4"/>
     </row>
-    <row r="3" spans="1:20" ht="96.95" customHeight="1">
+    <row r="3" spans="1:20" ht="78" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -11581,7 +11504,7 @@
       <c r="S3" s="4"/>
       <c r="T3" s="4"/>
     </row>
-    <row r="4" spans="1:20" ht="96.95" customHeight="1">
+    <row r="4" spans="1:20" ht="78.75" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -11625,7 +11548,7 @@
       <c r="S4" s="4"/>
       <c r="T4" s="4"/>
     </row>
-    <row r="5" spans="1:20" ht="135.94999999999999" customHeight="1">
+    <row r="5" spans="1:20" ht="95.25" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -11669,7 +11592,7 @@
       <c r="S5" s="4"/>
       <c r="T5" s="4"/>
     </row>
-    <row r="6" spans="1:20" ht="117" customHeight="1">
+    <row r="6" spans="1:20" ht="95.25" customHeight="1">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -11713,7 +11636,7 @@
       <c r="S6" s="4"/>
       <c r="T6" s="4"/>
     </row>
-    <row r="7" spans="1:20" ht="156" customHeight="1">
+    <row r="7" spans="1:20" ht="109.5" customHeight="1">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
@@ -11869,7 +11792,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="4"/>
     </row>
-    <row r="11" spans="1:20" ht="96.95" customHeight="1">
+    <row r="11" spans="1:20" ht="78.75" customHeight="1">
       <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
